--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,27 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['22', '75', '86']</t>
+  </si>
+  <si>
+    <t>['57', '90+1']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['16', '30']</t>
+  </si>
+  <si>
+    <t>['40', '62']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -778,9 +799,6 @@
     <t>['35', '45+2', '45+4', '87', '90']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
@@ -812,9 +830,6 @@
   </si>
   <si>
     <t>['1', '45+1']</t>
-  </si>
-  <si>
-    <t>['77']</t>
   </si>
   <si>
     <t>['60', '90+4']</t>
@@ -887,6 +902,15 @@
   </si>
   <si>
     <t>['18', '65', '69']</t>
+  </si>
+  <si>
+    <t>['6', '13']</t>
+  </si>
+  <si>
+    <t>['2', '76', '77']</t>
+  </si>
+  <si>
+    <t>['11', '69']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1612,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1713,7 +1737,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1997,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1.57</v>
@@ -2125,7 +2149,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2331,7 +2355,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2409,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.86</v>
@@ -2618,7 +2642,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2743,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2824,7 +2848,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2949,7 +2973,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3027,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>1.29</v>
@@ -3155,7 +3179,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3233,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3361,7 +3385,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3442,7 +3466,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3648,7 +3672,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4263,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4391,7 +4415,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4469,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
         <v>0.86</v>
@@ -4675,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4803,7 +4827,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4881,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5009,7 +5033,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5090,7 +5114,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5215,7 +5239,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5293,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ20">
         <v>1.14</v>
@@ -5499,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>1.86</v>
@@ -5833,7 +5857,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6120,7 +6144,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6245,7 +6269,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6451,7 +6475,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6532,7 +6556,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ26">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6941,10 +6965,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -7147,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7275,7 +7299,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7353,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0.86</v>
@@ -7559,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ31">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7974,7 +7998,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8180,7 +8204,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8589,10 +8613,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR36">
         <v>1.13</v>
@@ -8717,7 +8741,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8795,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37">
         <v>0.86</v>
@@ -8923,7 +8947,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9210,7 +9234,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -9335,7 +9359,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9416,7 +9440,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9541,7 +9565,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9619,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9747,7 +9771,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9825,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -10034,7 +10058,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR43">
         <v>0.97</v>
@@ -10159,7 +10183,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10365,7 +10389,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10443,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ45">
         <v>1.57</v>
@@ -10649,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>0.71</v>
@@ -10983,7 +11007,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11395,7 +11419,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11473,10 +11497,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR50">
         <v>0.78</v>
@@ -11601,7 +11625,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11679,10 +11703,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -12013,7 +12037,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12094,7 +12118,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ53">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12297,7 +12321,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>1.29</v>
@@ -12503,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -12709,7 +12733,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1.14</v>
@@ -12918,7 +12942,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13121,7 +13145,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58">
         <v>1.57</v>
@@ -13533,7 +13557,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.86</v>
@@ -14073,7 +14097,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14154,7 +14178,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14279,7 +14303,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14566,7 +14590,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR65">
         <v>1.4</v>
@@ -14691,7 +14715,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14769,7 +14793,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ66">
         <v>0.71</v>
@@ -15181,7 +15205,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>1.57</v>
@@ -15309,7 +15333,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15387,10 +15411,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15515,7 +15539,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15721,7 +15745,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15927,7 +15951,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16005,10 +16029,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16133,7 +16157,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16214,7 +16238,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16339,7 +16363,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16420,7 +16444,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR74">
         <v>1.69</v>
@@ -16545,7 +16569,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16751,7 +16775,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17163,7 +17187,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17241,7 +17265,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ78">
         <v>1.86</v>
@@ -17447,7 +17471,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
         <v>1.14</v>
@@ -17656,7 +17680,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17859,7 +17883,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>0.75</v>
@@ -18065,7 +18089,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ82">
         <v>0.86</v>
@@ -18193,7 +18217,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18480,7 +18504,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18889,7 +18913,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19095,10 +19119,10 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19223,7 +19247,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19304,7 +19328,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19429,7 +19453,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19507,7 +19531,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>1.57</v>
@@ -19713,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ90">
         <v>1.43</v>
@@ -19841,7 +19865,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -19919,10 +19943,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20047,7 +20071,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20253,7 +20277,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20334,7 +20358,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ93">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR93">
         <v>1.37</v>
@@ -20665,7 +20689,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20871,7 +20895,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -20949,7 +20973,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -21077,7 +21101,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21158,7 +21182,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR97">
         <v>1.07</v>
@@ -21361,10 +21385,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>0.92</v>
@@ -21489,7 +21513,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21567,7 +21591,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21695,7 +21719,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21982,7 +22006,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR101">
         <v>1.31</v>
@@ -22107,7 +22131,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22313,7 +22337,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22394,7 +22418,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ103">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR103">
         <v>1.32</v>
@@ -22519,7 +22543,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22597,10 +22621,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ104">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR104">
         <v>1.27</v>
@@ -22803,7 +22827,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22931,7 +22955,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23630,7 +23654,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR109">
         <v>1.69</v>
@@ -23833,7 +23857,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ110">
         <v>1.14</v>
@@ -24039,7 +24063,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ111">
         <v>1.14</v>
@@ -24248,7 +24272,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.25</v>
@@ -24373,7 +24397,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24579,7 +24603,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24657,10 +24681,10 @@
         <v>0.25</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -24863,7 +24887,7 @@
         <v>0.25</v>
       </c>
       <c r="AP115">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
         <v>0.88</v>
@@ -25069,10 +25093,10 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ116">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25197,7 +25221,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25403,7 +25427,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25484,7 +25508,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ118">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25609,7 +25633,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25815,7 +25839,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -25896,7 +25920,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR120">
         <v>1.19</v>
@@ -26021,7 +26045,7 @@
         <v>101</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="Q121">
         <v>2.75</v>
@@ -26099,10 +26123,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR121">
         <v>1.34</v>
@@ -26305,7 +26329,7 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>0.75</v>
@@ -26433,7 +26457,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26639,7 +26663,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26717,7 +26741,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ124">
         <v>1.57</v>
@@ -26845,7 +26869,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -26923,7 +26947,7 @@
         <v>0.2</v>
       </c>
       <c r="AP125">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27132,7 +27156,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ126">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27257,7 +27281,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27338,7 +27362,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27463,7 +27487,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27541,10 +27565,10 @@
         <v>1.4</v>
       </c>
       <c r="AP128">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ128">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR128">
         <v>1.07</v>
@@ -27747,7 +27771,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27875,7 +27899,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28081,7 +28105,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28287,7 +28311,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28365,10 +28389,10 @@
         <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ132">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR132">
         <v>1.2</v>
@@ -28493,7 +28517,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28571,7 +28595,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ133">
         <v>1.43</v>
@@ -28699,7 +28723,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28905,7 +28929,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -28983,10 +29007,10 @@
         <v>0.2</v>
       </c>
       <c r="AP135">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.78</v>
@@ -29192,7 +29216,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ136">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.71</v>
@@ -29317,7 +29341,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29395,7 +29419,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ137">
         <v>1.14</v>
@@ -29729,7 +29753,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29935,7 +29959,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30016,7 +30040,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ140">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR140">
         <v>1.55</v>
@@ -30141,7 +30165,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30222,7 +30246,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ141">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30425,7 +30449,7 @@
         <v>0.6</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ142">
         <v>0.86</v>
@@ -30553,7 +30577,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30631,10 +30655,10 @@
         <v>2.17</v>
       </c>
       <c r="AP143">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR143">
         <v>1.14</v>
@@ -30759,7 +30783,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31249,7 +31273,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ146">
         <v>1.29</v>
@@ -31377,7 +31401,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31458,7 +31482,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31867,10 +31891,10 @@
         <v>2</v>
       </c>
       <c r="AP149">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ149">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR149">
         <v>1.45</v>
@@ -32201,7 +32225,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32407,7 +32431,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32485,10 +32509,10 @@
         <v>1.67</v>
       </c>
       <c r="AP152">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ152">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32613,7 +32637,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32691,10 +32715,10 @@
         <v>0.8</v>
       </c>
       <c r="AP153">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ153">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -33025,7 +33049,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33106,7 +33130,7 @@
         <v>2</v>
       </c>
       <c r="AQ155">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.41</v>
@@ -33309,7 +33333,7 @@
         <v>1.67</v>
       </c>
       <c r="AP156">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ156">
         <v>1.57</v>
@@ -33437,7 +33461,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -33721,7 +33745,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ158">
         <v>1.14</v>
@@ -33930,7 +33954,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34055,7 +34079,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34339,7 +34363,7 @@
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ161">
         <v>1.57</v>
@@ -34751,7 +34775,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ163">
         <v>1</v>
@@ -34879,7 +34903,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -34960,7 +34984,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ164">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35085,7 +35109,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35166,7 +35190,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35291,7 +35315,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35369,7 +35393,7 @@
         <v>0.57</v>
       </c>
       <c r="AP166">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
         <v>0.88</v>
@@ -35497,7 +35521,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -35909,7 +35933,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -35987,10 +36011,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ169">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR169">
         <v>1.18</v>
@@ -36402,7 +36426,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ171">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR171">
         <v>1.33</v>
@@ -36527,7 +36551,7 @@
         <v>101</v>
       </c>
       <c r="P172" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -36733,7 +36757,7 @@
         <v>148</v>
       </c>
       <c r="P173" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -37017,7 +37041,7 @@
         <v>0.67</v>
       </c>
       <c r="AP174">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ174">
         <v>0.71</v>
@@ -37226,7 +37250,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ175">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR175">
         <v>1.56</v>
@@ -37429,10 +37453,10 @@
         <v>1.86</v>
       </c>
       <c r="AP176">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ176">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR176">
         <v>1.32</v>
@@ -37508,6 +37532,2066 @@
       </c>
       <c r="BP176">
         <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7476733</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F177">
+        <v>16</v>
+      </c>
+      <c r="G177" t="s">
+        <v>89</v>
+      </c>
+      <c r="H177" t="s">
+        <v>87</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>101</v>
+      </c>
+      <c r="P177" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q177">
+        <v>3.5</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>3</v>
+      </c>
+      <c r="T177">
+        <v>1.36</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>7</v>
+      </c>
+      <c r="Y177">
+        <v>1.1</v>
+      </c>
+      <c r="Z177">
+        <v>2.76</v>
+      </c>
+      <c r="AA177">
+        <v>3.4</v>
+      </c>
+      <c r="AB177">
+        <v>2.3</v>
+      </c>
+      <c r="AC177">
+        <v>1.05</v>
+      </c>
+      <c r="AD177">
+        <v>9.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.28</v>
+      </c>
+      <c r="AF177">
+        <v>3.65</v>
+      </c>
+      <c r="AG177">
+        <v>1.75</v>
+      </c>
+      <c r="AH177">
+        <v>1.95</v>
+      </c>
+      <c r="AI177">
+        <v>1.67</v>
+      </c>
+      <c r="AJ177">
+        <v>2.1</v>
+      </c>
+      <c r="AK177">
+        <v>1.57</v>
+      </c>
+      <c r="AL177">
+        <v>1.25</v>
+      </c>
+      <c r="AM177">
+        <v>1.4</v>
+      </c>
+      <c r="AN177">
+        <v>1.86</v>
+      </c>
+      <c r="AO177">
+        <v>1.88</v>
+      </c>
+      <c r="AP177">
+        <v>1.75</v>
+      </c>
+      <c r="AQ177">
+        <v>1.78</v>
+      </c>
+      <c r="AR177">
+        <v>1.11</v>
+      </c>
+      <c r="AS177">
+        <v>1.08</v>
+      </c>
+      <c r="AT177">
+        <v>2.19</v>
+      </c>
+      <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>1</v>
+      </c>
+      <c r="AX177">
+        <v>6</v>
+      </c>
+      <c r="AY177">
+        <v>13</v>
+      </c>
+      <c r="AZ177">
+        <v>9</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>7</v>
+      </c>
+      <c r="BD177">
+        <v>2.43</v>
+      </c>
+      <c r="BE177">
+        <v>8.5</v>
+      </c>
+      <c r="BF177">
+        <v>1.75</v>
+      </c>
+      <c r="BG177">
+        <v>1.2</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>1.36</v>
+      </c>
+      <c r="BJ177">
+        <v>2.88</v>
+      </c>
+      <c r="BK177">
+        <v>1.62</v>
+      </c>
+      <c r="BL177">
+        <v>2.16</v>
+      </c>
+      <c r="BM177">
+        <v>1.99</v>
+      </c>
+      <c r="BN177">
+        <v>1.73</v>
+      </c>
+      <c r="BO177">
+        <v>2.55</v>
+      </c>
+      <c r="BP177">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7476732</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>88</v>
+      </c>
+      <c r="H178" t="s">
+        <v>90</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>101</v>
+      </c>
+      <c r="P178" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q178">
+        <v>4.75</v>
+      </c>
+      <c r="R178">
+        <v>2.2</v>
+      </c>
+      <c r="S178">
+        <v>2.5</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>4</v>
+      </c>
+      <c r="AA178">
+        <v>3.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.06</v>
+      </c>
+      <c r="AD178">
+        <v>8.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.3</v>
+      </c>
+      <c r="AF178">
+        <v>3.4</v>
+      </c>
+      <c r="AG178">
+        <v>1.85</v>
+      </c>
+      <c r="AH178">
+        <v>1.85</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.91</v>
+      </c>
+      <c r="AK178">
+        <v>1.95</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.2</v>
+      </c>
+      <c r="AN178">
+        <v>0.43</v>
+      </c>
+      <c r="AO178">
+        <v>2</v>
+      </c>
+      <c r="AP178">
+        <v>0.38</v>
+      </c>
+      <c r="AQ178">
+        <v>2.11</v>
+      </c>
+      <c r="AR178">
+        <v>1.39</v>
+      </c>
+      <c r="AS178">
+        <v>1.25</v>
+      </c>
+      <c r="AT178">
+        <v>2.64</v>
+      </c>
+      <c r="AU178">
+        <v>0</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>8</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>12</v>
+      </c>
+      <c r="AZ178">
+        <v>15</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>5</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
+        <v>2.76</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>1.64</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>1.33</v>
+      </c>
+      <c r="BJ178">
+        <v>3.05</v>
+      </c>
+      <c r="BK178">
+        <v>1.56</v>
+      </c>
+      <c r="BL178">
+        <v>2.26</v>
+      </c>
+      <c r="BM178">
+        <v>1.92</v>
+      </c>
+      <c r="BN178">
+        <v>1.79</v>
+      </c>
+      <c r="BO178">
+        <v>2.44</v>
+      </c>
+      <c r="BP178">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7476731</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F179">
+        <v>16</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>73</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>210</v>
+      </c>
+      <c r="P179" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q179">
+        <v>2.3</v>
+      </c>
+      <c r="R179">
+        <v>2.25</v>
+      </c>
+      <c r="S179">
+        <v>5</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>7</v>
+      </c>
+      <c r="Y179">
+        <v>1.1</v>
+      </c>
+      <c r="Z179">
+        <v>1.65</v>
+      </c>
+      <c r="AA179">
+        <v>3.72</v>
+      </c>
+      <c r="AB179">
+        <v>4.62</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>9.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.28</v>
+      </c>
+      <c r="AF179">
+        <v>3.65</v>
+      </c>
+      <c r="AG179">
+        <v>1.8</v>
+      </c>
+      <c r="AH179">
+        <v>1.9</v>
+      </c>
+      <c r="AI179">
+        <v>1.8</v>
+      </c>
+      <c r="AJ179">
+        <v>1.91</v>
+      </c>
+      <c r="AK179">
+        <v>1.18</v>
+      </c>
+      <c r="AL179">
+        <v>1.22</v>
+      </c>
+      <c r="AM179">
+        <v>2.1</v>
+      </c>
+      <c r="AN179">
+        <v>1.75</v>
+      </c>
+      <c r="AO179">
+        <v>1</v>
+      </c>
+      <c r="AP179">
+        <v>1.89</v>
+      </c>
+      <c r="AQ179">
+        <v>0.88</v>
+      </c>
+      <c r="AR179">
+        <v>1.29</v>
+      </c>
+      <c r="AS179">
+        <v>1.13</v>
+      </c>
+      <c r="AT179">
+        <v>2.42</v>
+      </c>
+      <c r="AU179">
+        <v>6</v>
+      </c>
+      <c r="AV179">
+        <v>5</v>
+      </c>
+      <c r="AW179">
+        <v>1</v>
+      </c>
+      <c r="AX179">
+        <v>4</v>
+      </c>
+      <c r="AY179">
+        <v>8</v>
+      </c>
+      <c r="AZ179">
+        <v>13</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>8</v>
+      </c>
+      <c r="BC179">
+        <v>12</v>
+      </c>
+      <c r="BD179">
+        <v>1.45</v>
+      </c>
+      <c r="BE179">
+        <v>8.5</v>
+      </c>
+      <c r="BF179">
+        <v>3.29</v>
+      </c>
+      <c r="BG179">
+        <v>1.23</v>
+      </c>
+      <c r="BH179">
+        <v>3.28</v>
+      </c>
+      <c r="BI179">
+        <v>1.46</v>
+      </c>
+      <c r="BJ179">
+        <v>2.38</v>
+      </c>
+      <c r="BK179">
+        <v>1.85</v>
+      </c>
+      <c r="BL179">
+        <v>1.95</v>
+      </c>
+      <c r="BM179">
+        <v>2.33</v>
+      </c>
+      <c r="BN179">
+        <v>1.48</v>
+      </c>
+      <c r="BO179">
+        <v>3.08</v>
+      </c>
+      <c r="BP179">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7476730</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F180">
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>211</v>
+      </c>
+      <c r="P180" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q180">
+        <v>4.75</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>2.38</v>
+      </c>
+      <c r="T180">
+        <v>1.36</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>7</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>4.42</v>
+      </c>
+      <c r="AA180">
+        <v>3.62</v>
+      </c>
+      <c r="AB180">
+        <v>1.7</v>
+      </c>
+      <c r="AC180">
+        <v>1.05</v>
+      </c>
+      <c r="AD180">
+        <v>9.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.25</v>
+      </c>
+      <c r="AF180">
+        <v>3.7</v>
+      </c>
+      <c r="AG180">
+        <v>1.9</v>
+      </c>
+      <c r="AH180">
+        <v>1.8</v>
+      </c>
+      <c r="AI180">
+        <v>1.73</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>2</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>1.2</v>
+      </c>
+      <c r="AN180">
+        <v>1.13</v>
+      </c>
+      <c r="AO180">
+        <v>1.86</v>
+      </c>
+      <c r="AP180">
+        <v>1.33</v>
+      </c>
+      <c r="AQ180">
+        <v>1.63</v>
+      </c>
+      <c r="AR180">
+        <v>1.26</v>
+      </c>
+      <c r="AS180">
+        <v>1.3</v>
+      </c>
+      <c r="AT180">
+        <v>2.56</v>
+      </c>
+      <c r="AU180">
+        <v>5</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>2</v>
+      </c>
+      <c r="AX180">
+        <v>1</v>
+      </c>
+      <c r="AY180">
+        <v>8</v>
+      </c>
+      <c r="AZ180">
+        <v>13</v>
+      </c>
+      <c r="BA180">
+        <v>7</v>
+      </c>
+      <c r="BB180">
+        <v>6</v>
+      </c>
+      <c r="BC180">
+        <v>13</v>
+      </c>
+      <c r="BD180">
+        <v>3.32</v>
+      </c>
+      <c r="BE180">
+        <v>9</v>
+      </c>
+      <c r="BF180">
+        <v>1.45</v>
+      </c>
+      <c r="BG180">
+        <v>1.17</v>
+      </c>
+      <c r="BH180">
+        <v>4.35</v>
+      </c>
+      <c r="BI180">
+        <v>1.32</v>
+      </c>
+      <c r="BJ180">
+        <v>2.78</v>
+      </c>
+      <c r="BK180">
+        <v>1.7</v>
+      </c>
+      <c r="BL180">
+        <v>2.05</v>
+      </c>
+      <c r="BM180">
+        <v>2.04</v>
+      </c>
+      <c r="BN180">
+        <v>1.69</v>
+      </c>
+      <c r="BO180">
+        <v>2.59</v>
+      </c>
+      <c r="BP180">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7476729</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181" t="s">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>212</v>
+      </c>
+      <c r="P181" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q181">
+        <v>2.3</v>
+      </c>
+      <c r="R181">
+        <v>2.2</v>
+      </c>
+      <c r="S181">
+        <v>5</v>
+      </c>
+      <c r="T181">
+        <v>1.4</v>
+      </c>
+      <c r="U181">
+        <v>2.75</v>
+      </c>
+      <c r="V181">
+        <v>2.75</v>
+      </c>
+      <c r="W181">
+        <v>1.4</v>
+      </c>
+      <c r="X181">
+        <v>8</v>
+      </c>
+      <c r="Y181">
+        <v>1.08</v>
+      </c>
+      <c r="Z181">
+        <v>1.67</v>
+      </c>
+      <c r="AA181">
+        <v>3.62</v>
+      </c>
+      <c r="AB181">
+        <v>4.63</v>
+      </c>
+      <c r="AC181">
+        <v>1.05</v>
+      </c>
+      <c r="AD181">
+        <v>9.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.28</v>
+      </c>
+      <c r="AF181">
+        <v>3.6</v>
+      </c>
+      <c r="AG181">
+        <v>1.95</v>
+      </c>
+      <c r="AH181">
+        <v>1.75</v>
+      </c>
+      <c r="AI181">
+        <v>1.83</v>
+      </c>
+      <c r="AJ181">
+        <v>1.83</v>
+      </c>
+      <c r="AK181">
+        <v>1.18</v>
+      </c>
+      <c r="AL181">
+        <v>1.2</v>
+      </c>
+      <c r="AM181">
+        <v>2.1</v>
+      </c>
+      <c r="AN181">
+        <v>1.75</v>
+      </c>
+      <c r="AO181">
+        <v>1.14</v>
+      </c>
+      <c r="AP181">
+        <v>1.67</v>
+      </c>
+      <c r="AQ181">
+        <v>1.13</v>
+      </c>
+      <c r="AR181">
+        <v>1.38</v>
+      </c>
+      <c r="AS181">
+        <v>1.13</v>
+      </c>
+      <c r="AT181">
+        <v>2.51</v>
+      </c>
+      <c r="AU181">
+        <v>2</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>13</v>
+      </c>
+      <c r="AZ181">
+        <v>11</v>
+      </c>
+      <c r="BA181">
+        <v>6</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>9</v>
+      </c>
+      <c r="BD181">
+        <v>1.51</v>
+      </c>
+      <c r="BE181">
+        <v>8.5</v>
+      </c>
+      <c r="BF181">
+        <v>3.07</v>
+      </c>
+      <c r="BG181">
+        <v>1.25</v>
+      </c>
+      <c r="BH181">
+        <v>3.58</v>
+      </c>
+      <c r="BI181">
+        <v>1.45</v>
+      </c>
+      <c r="BJ181">
+        <v>2.55</v>
+      </c>
+      <c r="BK181">
+        <v>1.75</v>
+      </c>
+      <c r="BL181">
+        <v>1.96</v>
+      </c>
+      <c r="BM181">
+        <v>2.21</v>
+      </c>
+      <c r="BN181">
+        <v>1.59</v>
+      </c>
+      <c r="BO181">
+        <v>2.9</v>
+      </c>
+      <c r="BP181">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7476727</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F182">
+        <v>16</v>
+      </c>
+      <c r="G182" t="s">
+        <v>85</v>
+      </c>
+      <c r="H182" t="s">
+        <v>92</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>213</v>
+      </c>
+      <c r="P182" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q182">
+        <v>3.4</v>
+      </c>
+      <c r="R182">
+        <v>2.1</v>
+      </c>
+      <c r="S182">
+        <v>3.2</v>
+      </c>
+      <c r="T182">
+        <v>1.4</v>
+      </c>
+      <c r="U182">
+        <v>2.75</v>
+      </c>
+      <c r="V182">
+        <v>3</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>8</v>
+      </c>
+      <c r="Y182">
+        <v>1.08</v>
+      </c>
+      <c r="Z182">
+        <v>2.71</v>
+      </c>
+      <c r="AA182">
+        <v>3.32</v>
+      </c>
+      <c r="AB182">
+        <v>2.38</v>
+      </c>
+      <c r="AC182">
+        <v>1.06</v>
+      </c>
+      <c r="AD182">
+        <v>8.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.33</v>
+      </c>
+      <c r="AF182">
+        <v>3.25</v>
+      </c>
+      <c r="AG182">
+        <v>1.88</v>
+      </c>
+      <c r="AH182">
+        <v>1.82</v>
+      </c>
+      <c r="AI182">
+        <v>1.73</v>
+      </c>
+      <c r="AJ182">
+        <v>2</v>
+      </c>
+      <c r="AK182">
+        <v>1.5</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.42</v>
+      </c>
+      <c r="AN182">
+        <v>1.14</v>
+      </c>
+      <c r="AO182">
+        <v>1</v>
+      </c>
+      <c r="AP182">
+        <v>1.13</v>
+      </c>
+      <c r="AQ182">
+        <v>1</v>
+      </c>
+      <c r="AR182">
+        <v>1.66</v>
+      </c>
+      <c r="AS182">
+        <v>1.31</v>
+      </c>
+      <c r="AT182">
+        <v>2.97</v>
+      </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
+      <c r="AV182">
+        <v>2</v>
+      </c>
+      <c r="AW182">
+        <v>8</v>
+      </c>
+      <c r="AX182">
+        <v>3</v>
+      </c>
+      <c r="AY182">
+        <v>16</v>
+      </c>
+      <c r="AZ182">
+        <v>8</v>
+      </c>
+      <c r="BA182">
+        <v>6</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
+        <v>9</v>
+      </c>
+      <c r="BD182">
+        <v>1.91</v>
+      </c>
+      <c r="BE182">
+        <v>8</v>
+      </c>
+      <c r="BF182">
+        <v>2.2</v>
+      </c>
+      <c r="BG182">
+        <v>1.25</v>
+      </c>
+      <c r="BH182">
+        <v>3.58</v>
+      </c>
+      <c r="BI182">
+        <v>1.45</v>
+      </c>
+      <c r="BJ182">
+        <v>2.55</v>
+      </c>
+      <c r="BK182">
+        <v>1.75</v>
+      </c>
+      <c r="BL182">
+        <v>1.96</v>
+      </c>
+      <c r="BM182">
+        <v>2.21</v>
+      </c>
+      <c r="BN182">
+        <v>1.59</v>
+      </c>
+      <c r="BO182">
+        <v>2.9</v>
+      </c>
+      <c r="BP182">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7476726</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>83</v>
+      </c>
+      <c r="H183" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>214</v>
+      </c>
+      <c r="P183" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q183">
+        <v>2.63</v>
+      </c>
+      <c r="R183">
+        <v>2.2</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2.75</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>8</v>
+      </c>
+      <c r="Y183">
+        <v>1.08</v>
+      </c>
+      <c r="Z183">
+        <v>2.2</v>
+      </c>
+      <c r="AA183">
+        <v>3.3</v>
+      </c>
+      <c r="AB183">
+        <v>3</v>
+      </c>
+      <c r="AC183">
+        <v>1.05</v>
+      </c>
+      <c r="AD183">
+        <v>9.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.28</v>
+      </c>
+      <c r="AF183">
+        <v>3.55</v>
+      </c>
+      <c r="AG183">
+        <v>1.9</v>
+      </c>
+      <c r="AH183">
+        <v>1.8</v>
+      </c>
+      <c r="AI183">
+        <v>1.73</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>1.28</v>
+      </c>
+      <c r="AL183">
+        <v>1.25</v>
+      </c>
+      <c r="AM183">
+        <v>1.77</v>
+      </c>
+      <c r="AN183">
+        <v>0.86</v>
+      </c>
+      <c r="AO183">
+        <v>0.88</v>
+      </c>
+      <c r="AP183">
+        <v>0.88</v>
+      </c>
+      <c r="AQ183">
+        <v>0.89</v>
+      </c>
+      <c r="AR183">
+        <v>1.45</v>
+      </c>
+      <c r="AS183">
+        <v>1</v>
+      </c>
+      <c r="AT183">
+        <v>2.45</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>6</v>
+      </c>
+      <c r="AW183">
+        <v>4</v>
+      </c>
+      <c r="AX183">
+        <v>8</v>
+      </c>
+      <c r="AY183">
+        <v>10</v>
+      </c>
+      <c r="AZ183">
+        <v>24</v>
+      </c>
+      <c r="BA183">
+        <v>5</v>
+      </c>
+      <c r="BB183">
+        <v>8</v>
+      </c>
+      <c r="BC183">
+        <v>13</v>
+      </c>
+      <c r="BD183">
+        <v>1.91</v>
+      </c>
+      <c r="BE183">
+        <v>8</v>
+      </c>
+      <c r="BF183">
+        <v>2.2</v>
+      </c>
+      <c r="BG183">
+        <v>1.27</v>
+      </c>
+      <c r="BH183">
+        <v>3.38</v>
+      </c>
+      <c r="BI183">
+        <v>1.49</v>
+      </c>
+      <c r="BJ183">
+        <v>2.44</v>
+      </c>
+      <c r="BK183">
+        <v>1.82</v>
+      </c>
+      <c r="BL183">
+        <v>1.88</v>
+      </c>
+      <c r="BM183">
+        <v>2.32</v>
+      </c>
+      <c r="BN183">
+        <v>1.54</v>
+      </c>
+      <c r="BO183">
+        <v>3.05</v>
+      </c>
+      <c r="BP183">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7476725</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F184">
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" t="s">
+        <v>71</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>184</v>
+      </c>
+      <c r="P184" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q184">
+        <v>3.4</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>3.5</v>
+      </c>
+      <c r="T184">
+        <v>1.5</v>
+      </c>
+      <c r="U184">
+        <v>2.5</v>
+      </c>
+      <c r="V184">
+        <v>3.5</v>
+      </c>
+      <c r="W184">
+        <v>1.29</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>2.51</v>
+      </c>
+      <c r="AA184">
+        <v>3.22</v>
+      </c>
+      <c r="AB184">
+        <v>2.63</v>
+      </c>
+      <c r="AC184">
+        <v>1.08</v>
+      </c>
+      <c r="AD184">
+        <v>7.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.42</v>
+      </c>
+      <c r="AF184">
+        <v>2.85</v>
+      </c>
+      <c r="AG184">
+        <v>2</v>
+      </c>
+      <c r="AH184">
+        <v>1.72</v>
+      </c>
+      <c r="AI184">
+        <v>1.91</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.44</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.48</v>
+      </c>
+      <c r="AN184">
+        <v>1.88</v>
+      </c>
+      <c r="AO184">
+        <v>0.67</v>
+      </c>
+      <c r="AP184">
+        <v>1.67</v>
+      </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
+      <c r="AR184">
+        <v>1.39</v>
+      </c>
+      <c r="AS184">
+        <v>1.14</v>
+      </c>
+      <c r="AT184">
+        <v>2.53</v>
+      </c>
+      <c r="AU184">
+        <v>6</v>
+      </c>
+      <c r="AV184">
+        <v>8</v>
+      </c>
+      <c r="AW184">
+        <v>3</v>
+      </c>
+      <c r="AX184">
+        <v>5</v>
+      </c>
+      <c r="AY184">
+        <v>11</v>
+      </c>
+      <c r="AZ184">
+        <v>15</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>5</v>
+      </c>
+      <c r="BC184">
+        <v>11</v>
+      </c>
+      <c r="BD184">
+        <v>2.1</v>
+      </c>
+      <c r="BE184">
+        <v>8</v>
+      </c>
+      <c r="BF184">
+        <v>1.91</v>
+      </c>
+      <c r="BG184">
+        <v>1.29</v>
+      </c>
+      <c r="BH184">
+        <v>3.25</v>
+      </c>
+      <c r="BI184">
+        <v>1.52</v>
+      </c>
+      <c r="BJ184">
+        <v>2.36</v>
+      </c>
+      <c r="BK184">
+        <v>1.87</v>
+      </c>
+      <c r="BL184">
+        <v>1.83</v>
+      </c>
+      <c r="BM184">
+        <v>2.39</v>
+      </c>
+      <c r="BN184">
+        <v>1.51</v>
+      </c>
+      <c r="BO184">
+        <v>3.2</v>
+      </c>
+      <c r="BP184">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7476724</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F185">
+        <v>16</v>
+      </c>
+      <c r="G185" t="s">
+        <v>84</v>
+      </c>
+      <c r="H185" t="s">
+        <v>91</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>215</v>
+      </c>
+      <c r="P185" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q185">
+        <v>3.2</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>3.25</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>2.63</v>
+      </c>
+      <c r="AA185">
+        <v>3.4</v>
+      </c>
+      <c r="AB185">
+        <v>2.4</v>
+      </c>
+      <c r="AC185">
+        <v>1.05</v>
+      </c>
+      <c r="AD185">
+        <v>9.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.28</v>
+      </c>
+      <c r="AF185">
+        <v>3.55</v>
+      </c>
+      <c r="AG185">
+        <v>1.85</v>
+      </c>
+      <c r="AH185">
+        <v>1.85</v>
+      </c>
+      <c r="AI185">
+        <v>1.67</v>
+      </c>
+      <c r="AJ185">
+        <v>2.1</v>
+      </c>
+      <c r="AK185">
+        <v>1.45</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.5</v>
+      </c>
+      <c r="AN185">
+        <v>1.43</v>
+      </c>
+      <c r="AO185">
+        <v>0.88</v>
+      </c>
+      <c r="AP185">
+        <v>1.38</v>
+      </c>
+      <c r="AQ185">
+        <v>0.89</v>
+      </c>
+      <c r="AR185">
+        <v>1.27</v>
+      </c>
+      <c r="AS185">
+        <v>1.05</v>
+      </c>
+      <c r="AT185">
+        <v>2.32</v>
+      </c>
+      <c r="AU185">
+        <v>8</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>8</v>
+      </c>
+      <c r="AX185">
+        <v>6</v>
+      </c>
+      <c r="AY185">
+        <v>18</v>
+      </c>
+      <c r="AZ185">
+        <v>12</v>
+      </c>
+      <c r="BA185">
+        <v>7</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
+        <v>10</v>
+      </c>
+      <c r="BD185">
+        <v>1.95</v>
+      </c>
+      <c r="BE185">
+        <v>8</v>
+      </c>
+      <c r="BF185">
+        <v>2.1</v>
+      </c>
+      <c r="BG185">
+        <v>1.17</v>
+      </c>
+      <c r="BH185">
+        <v>4.3</v>
+      </c>
+      <c r="BI185">
+        <v>1.36</v>
+      </c>
+      <c r="BJ185">
+        <v>2.88</v>
+      </c>
+      <c r="BK185">
+        <v>1.62</v>
+      </c>
+      <c r="BL185">
+        <v>2.16</v>
+      </c>
+      <c r="BM185">
+        <v>1.99</v>
+      </c>
+      <c r="BN185">
+        <v>1.72</v>
+      </c>
+      <c r="BO185">
+        <v>2.55</v>
+      </c>
+      <c r="BP185">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7476728</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45612.5</v>
+      </c>
+      <c r="F186">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>86</v>
+      </c>
+      <c r="H186" t="s">
+        <v>93</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>216</v>
+      </c>
+      <c r="P186" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q186">
+        <v>3.4</v>
+      </c>
+      <c r="R186">
+        <v>2.2</v>
+      </c>
+      <c r="S186">
+        <v>3.1</v>
+      </c>
+      <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>2.75</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>2.88</v>
+      </c>
+      <c r="AA186">
+        <v>3.25</v>
+      </c>
+      <c r="AB186">
+        <v>2.3</v>
+      </c>
+      <c r="AC186">
+        <v>1.06</v>
+      </c>
+      <c r="AD186">
+        <v>8.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.3</v>
+      </c>
+      <c r="AF186">
+        <v>3.45</v>
+      </c>
+      <c r="AG186">
+        <v>1.95</v>
+      </c>
+      <c r="AH186">
+        <v>1.75</v>
+      </c>
+      <c r="AI186">
+        <v>1.73</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.53</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.42</v>
+      </c>
+      <c r="AN186">
+        <v>2</v>
+      </c>
+      <c r="AO186">
+        <v>1.75</v>
+      </c>
+      <c r="AP186">
+        <v>2.13</v>
+      </c>
+      <c r="AQ186">
+        <v>1.56</v>
+      </c>
+      <c r="AR186">
+        <v>1.19</v>
+      </c>
+      <c r="AS186">
+        <v>1.2</v>
+      </c>
+      <c r="AT186">
+        <v>2.39</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
+        <v>5</v>
+      </c>
+      <c r="AX186">
+        <v>4</v>
+      </c>
+      <c r="AY186">
+        <v>11</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
+        <v>2</v>
+      </c>
+      <c r="BB186">
+        <v>6</v>
+      </c>
+      <c r="BC186">
+        <v>8</v>
+      </c>
+      <c r="BD186">
+        <v>2.05</v>
+      </c>
+      <c r="BE186">
+        <v>8</v>
+      </c>
+      <c r="BF186">
+        <v>1.95</v>
+      </c>
+      <c r="BG186">
+        <v>0</v>
+      </c>
+      <c r="BH186">
+        <v>0</v>
+      </c>
+      <c r="BI186">
+        <v>1.36</v>
+      </c>
+      <c r="BJ186">
+        <v>2.88</v>
+      </c>
+      <c r="BK186">
+        <v>1.62</v>
+      </c>
+      <c r="BL186">
+        <v>2.16</v>
+      </c>
+      <c r="BM186">
+        <v>1.99</v>
+      </c>
+      <c r="BN186">
+        <v>1.72</v>
+      </c>
+      <c r="BO186">
+        <v>2.55</v>
+      </c>
+      <c r="BP186">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -37757,7 +37757,7 @@
         <v>45612.5</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G178" t="s">
         <v>88</v>
@@ -38375,7 +38375,7 @@
         <v>45612.5</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G181" t="s">
         <v>74</v>
@@ -38581,7 +38581,7 @@
         <v>45612.5</v>
       </c>
       <c r="F182">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G182" t="s">
         <v>85</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -37680,13 +37680,13 @@
         <v>3</v>
       </c>
       <c r="AW177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX177">
         <v>6</v>
       </c>
       <c r="AY177">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ177">
         <v>9</v>
@@ -38095,13 +38095,13 @@
         <v>1</v>
       </c>
       <c r="AX179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY179">
         <v>8</v>
       </c>
       <c r="AZ179">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA179">
         <v>4</v>
@@ -39328,16 +39328,16 @@
         <v>4</v>
       </c>
       <c r="AW185">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX185">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY185">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ185">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA185">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['40', '62']</t>
   </si>
   <si>
+    <t>['89', '90+7']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -911,6 +914,9 @@
   </si>
   <si>
     <t>['11', '69']</t>
+  </si>
+  <si>
+    <t>['58', '75']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1737,7 +1743,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1815,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ3">
         <v>0.71</v>
@@ -2149,7 +2155,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2355,7 +2361,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2436,7 +2442,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2767,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2973,7 +2979,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3179,7 +3185,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3385,7 +3391,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4415,7 +4421,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4827,7 +4833,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5033,7 +5039,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5239,7 +5245,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5857,7 +5863,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6269,7 +6275,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6475,7 +6481,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7299,7 +7305,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7380,7 +7386,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -8741,7 +8747,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8947,7 +8953,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9359,7 +9365,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9565,7 +9571,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9771,7 +9777,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10183,7 +10189,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10389,7 +10395,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10879,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ47">
         <v>1.57</v>
@@ -11007,7 +11013,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11419,7 +11425,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11625,7 +11631,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -12037,7 +12043,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -13354,7 +13360,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ59">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>1.79</v>
@@ -13763,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -14097,7 +14103,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14303,7 +14309,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14715,7 +14721,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15333,7 +15339,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15539,7 +15545,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15745,7 +15751,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15951,7 +15957,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16157,7 +16163,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16363,7 +16369,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16569,7 +16575,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16775,7 +16781,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17187,7 +17193,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18217,7 +18223,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -19247,7 +19253,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19453,7 +19459,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19865,7 +19871,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20071,7 +20077,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20277,7 +20283,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20689,7 +20695,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20895,7 +20901,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21513,7 +21519,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21719,7 +21725,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22131,7 +22137,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22212,7 +22218,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.14</v>
@@ -22337,7 +22343,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22543,7 +22549,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22955,7 +22961,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -24397,7 +24403,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24603,7 +24609,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25221,7 +25227,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25427,7 +25433,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25633,7 +25639,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25839,7 +25845,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26457,7 +26463,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26538,7 +26544,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ123">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.25</v>
@@ -26663,7 +26669,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26869,7 +26875,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27153,7 +27159,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ126">
         <v>0.89</v>
@@ -27281,7 +27287,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27487,7 +27493,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27899,7 +27905,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28105,7 +28111,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28311,7 +28317,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28517,7 +28523,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28723,7 +28729,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28929,7 +28935,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29341,7 +29347,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29753,7 +29759,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29959,7 +29965,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30165,7 +30171,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30452,7 +30458,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ142">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
         <v>1.27</v>
@@ -30783,7 +30789,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31401,7 +31407,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -32097,7 +32103,7 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ150">
         <v>0.88</v>
@@ -32225,7 +32231,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32431,7 +32437,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32637,7 +32643,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33049,7 +33055,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33461,7 +33467,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -34079,7 +34085,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34903,7 +34909,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35109,7 +35115,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35315,7 +35321,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35521,7 +35527,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -35933,7 +35939,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36551,7 +36557,7 @@
         <v>101</v>
       </c>
       <c r="P172" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -36632,7 +36638,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ172">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR172">
         <v>1.48</v>
@@ -36757,7 +36763,7 @@
         <v>148</v>
       </c>
       <c r="P173" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -37247,7 +37253,7 @@
         <v>1.71</v>
       </c>
       <c r="AP175">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ175">
         <v>1.78</v>
@@ -37993,7 +37999,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38405,7 +38411,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -39023,7 +39029,7 @@
         <v>184</v>
       </c>
       <c r="P184" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39229,7 +39235,7 @@
         <v>215</v>
       </c>
       <c r="P185" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39592,6 +39598,212 @@
       </c>
       <c r="BP186">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7476623</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45615.69791666666</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>71</v>
+      </c>
+      <c r="H187" t="s">
+        <v>84</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187" t="s">
+        <v>217</v>
+      </c>
+      <c r="P187" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q187">
+        <v>2.2</v>
+      </c>
+      <c r="R187">
+        <v>2.3</v>
+      </c>
+      <c r="S187">
+        <v>5</v>
+      </c>
+      <c r="T187">
+        <v>1.33</v>
+      </c>
+      <c r="U187">
+        <v>3.25</v>
+      </c>
+      <c r="V187">
+        <v>2.63</v>
+      </c>
+      <c r="W187">
+        <v>1.44</v>
+      </c>
+      <c r="X187">
+        <v>7</v>
+      </c>
+      <c r="Y187">
+        <v>1.1</v>
+      </c>
+      <c r="Z187">
+        <v>1.65</v>
+      </c>
+      <c r="AA187">
+        <v>3.72</v>
+      </c>
+      <c r="AB187">
+        <v>4.62</v>
+      </c>
+      <c r="AC187">
+        <v>1.03</v>
+      </c>
+      <c r="AD187">
+        <v>13</v>
+      </c>
+      <c r="AE187">
+        <v>1.19</v>
+      </c>
+      <c r="AF187">
+        <v>3.58</v>
+      </c>
+      <c r="AG187">
+        <v>1.8</v>
+      </c>
+      <c r="AH187">
+        <v>1.9</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.91</v>
+      </c>
+      <c r="AK187">
+        <v>1.16</v>
+      </c>
+      <c r="AL187">
+        <v>1.18</v>
+      </c>
+      <c r="AM187">
+        <v>2.35</v>
+      </c>
+      <c r="AN187">
+        <v>2.5</v>
+      </c>
+      <c r="AO187">
+        <v>0.86</v>
+      </c>
+      <c r="AP187">
+        <v>2.29</v>
+      </c>
+      <c r="AQ187">
+        <v>0.88</v>
+      </c>
+      <c r="AR187">
+        <v>1.62</v>
+      </c>
+      <c r="AS187">
+        <v>1.31</v>
+      </c>
+      <c r="AT187">
+        <v>2.93</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>4</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>15</v>
+      </c>
+      <c r="AZ187">
+        <v>8</v>
+      </c>
+      <c r="BA187">
+        <v>2</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>7</v>
+      </c>
+      <c r="BD187">
+        <v>1.45</v>
+      </c>
+      <c r="BE187">
+        <v>8.5</v>
+      </c>
+      <c r="BF187">
+        <v>3.33</v>
+      </c>
+      <c r="BG187">
+        <v>1.28</v>
+      </c>
+      <c r="BH187">
+        <v>2.94</v>
+      </c>
+      <c r="BI187">
+        <v>1.56</v>
+      </c>
+      <c r="BJ187">
+        <v>2.16</v>
+      </c>
+      <c r="BK187">
+        <v>1.95</v>
+      </c>
+      <c r="BL187">
+        <v>1.77</v>
+      </c>
+      <c r="BM187">
+        <v>2.59</v>
+      </c>
+      <c r="BN187">
+        <v>1.39</v>
+      </c>
+      <c r="BO187">
+        <v>3.54</v>
+      </c>
+      <c r="BP187">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -39614,7 +39614,7 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45615.69791666666</v>
+        <v>45614.875</v>
       </c>
       <c r="F187">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,9 @@
     <t>['89', '90+7']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -779,9 +782,6 @@
   </si>
   <si>
     <t>['74', '86']</t>
-  </si>
-  <si>
-    <t>['89']</t>
   </si>
   <si>
     <t>['71']</t>
@@ -1278,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,7 +1743,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1824,7 +1824,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ3">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2233,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2773,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2979,7 +2979,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3185,7 +3185,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3391,7 +3391,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4421,7 +4421,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4833,7 +4833,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5039,7 +5039,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>0.88</v>
@@ -5245,7 +5245,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5738,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6275,7 +6275,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>1.57</v>
@@ -6481,7 +6481,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.78</v>
@@ -7305,7 +7305,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8747,7 +8747,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8953,7 +8953,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9365,7 +9365,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9571,7 +9571,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9652,7 +9652,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9777,7 +9777,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10189,7 +10189,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10270,7 +10270,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -10395,7 +10395,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10682,7 +10682,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -11013,7 +11013,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11091,7 +11091,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11425,7 +11425,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11631,7 +11631,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11915,7 +11915,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12043,7 +12043,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13978,7 +13978,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14103,7 +14103,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14309,7 +14309,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14721,7 +14721,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14802,7 +14802,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.41</v>
@@ -15008,7 +15008,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ67">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15339,7 +15339,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15545,7 +15545,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15623,7 +15623,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15751,7 +15751,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15957,7 +15957,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16163,7 +16163,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16369,7 +16369,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16575,7 +16575,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16781,7 +16781,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -16859,7 +16859,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
         <v>1.14</v>
@@ -17065,7 +17065,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17193,7 +17193,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17480,7 +17480,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17892,7 +17892,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR81">
         <v>1.2</v>
@@ -18223,7 +18223,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18716,7 +18716,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.6</v>
@@ -19253,7 +19253,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -20155,7 +20155,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92">
         <v>1.57</v>
@@ -20776,7 +20776,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102">
         <v>0.88</v>
@@ -23039,7 +23039,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
         <v>1.86</v>
@@ -23657,7 +23657,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
         <v>2.11</v>
@@ -23866,7 +23866,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.38</v>
@@ -25227,7 +25227,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25308,7 +25308,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -26338,7 +26338,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR122">
         <v>1.16</v>
@@ -26875,7 +26875,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27365,7 +27365,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127">
         <v>0.89</v>
@@ -28807,7 +28807,7 @@
         <v>1.4</v>
       </c>
       <c r="AP134">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ134">
         <v>1.57</v>
@@ -29219,7 +29219,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29428,7 +29428,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ137">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29965,7 +29965,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30870,7 +30870,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ144">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR144">
         <v>1.19</v>
@@ -31407,7 +31407,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31691,7 +31691,7 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -32312,7 +32312,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ151">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.31</v>
@@ -33545,7 +33545,7 @@
         <v>1.17</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ157">
         <v>1.43</v>
@@ -33754,7 +33754,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ158">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.15</v>
@@ -34575,7 +34575,7 @@
         <v>1</v>
       </c>
       <c r="AP162">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ162">
         <v>0.86</v>
@@ -35814,7 +35814,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ168">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR168">
         <v>1.25</v>
@@ -36763,7 +36763,7 @@
         <v>148</v>
       </c>
       <c r="P173" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36841,7 +36841,7 @@
         <v>1.33</v>
       </c>
       <c r="AP173">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ173">
         <v>1.29</v>
@@ -37050,7 +37050,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ174">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.45</v>
@@ -38411,7 +38411,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -39614,10 +39614,10 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45614.875</v>
+        <v>45615.69791666666</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G187" t="s">
         <v>71</v>
@@ -39804,6 +39804,624 @@
       </c>
       <c r="BP187">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7476739</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45618.69791666666</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>73</v>
+      </c>
+      <c r="H188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>218</v>
+      </c>
+      <c r="P188" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q188">
+        <v>3.25</v>
+      </c>
+      <c r="R188">
+        <v>2.05</v>
+      </c>
+      <c r="S188">
+        <v>3.6</v>
+      </c>
+      <c r="T188">
+        <v>1.44</v>
+      </c>
+      <c r="U188">
+        <v>2.63</v>
+      </c>
+      <c r="V188">
+        <v>3.4</v>
+      </c>
+      <c r="W188">
+        <v>1.3</v>
+      </c>
+      <c r="X188">
+        <v>10</v>
+      </c>
+      <c r="Y188">
+        <v>1.06</v>
+      </c>
+      <c r="Z188">
+        <v>2.45</v>
+      </c>
+      <c r="AA188">
+        <v>3.3</v>
+      </c>
+      <c r="AB188">
+        <v>2.8</v>
+      </c>
+      <c r="AC188">
+        <v>1.07</v>
+      </c>
+      <c r="AD188">
+        <v>8</v>
+      </c>
+      <c r="AE188">
+        <v>1.38</v>
+      </c>
+      <c r="AF188">
+        <v>3</v>
+      </c>
+      <c r="AG188">
+        <v>2.12</v>
+      </c>
+      <c r="AH188">
+        <v>1.65</v>
+      </c>
+      <c r="AI188">
+        <v>1.83</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.42</v>
+      </c>
+      <c r="AL188">
+        <v>1.28</v>
+      </c>
+      <c r="AM188">
+        <v>1.5</v>
+      </c>
+      <c r="AN188">
+        <v>1.38</v>
+      </c>
+      <c r="AO188">
+        <v>1.14</v>
+      </c>
+      <c r="AP188">
+        <v>1.56</v>
+      </c>
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>1.31</v>
+      </c>
+      <c r="AS188">
+        <v>1.25</v>
+      </c>
+      <c r="AT188">
+        <v>2.56</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>5</v>
+      </c>
+      <c r="AW188">
+        <v>5</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>15</v>
+      </c>
+      <c r="AZ188">
+        <v>14</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>9</v>
+      </c>
+      <c r="BC188">
+        <v>14</v>
+      </c>
+      <c r="BD188">
+        <v>1.95</v>
+      </c>
+      <c r="BE188">
+        <v>8.5</v>
+      </c>
+      <c r="BF188">
+        <v>2</v>
+      </c>
+      <c r="BG188">
+        <v>1.17</v>
+      </c>
+      <c r="BH188">
+        <v>4.35</v>
+      </c>
+      <c r="BI188">
+        <v>1.41</v>
+      </c>
+      <c r="BJ188">
+        <v>2.68</v>
+      </c>
+      <c r="BK188">
+        <v>1.69</v>
+      </c>
+      <c r="BL188">
+        <v>2.04</v>
+      </c>
+      <c r="BM188">
+        <v>2.12</v>
+      </c>
+      <c r="BN188">
+        <v>1.64</v>
+      </c>
+      <c r="BO188">
+        <v>2.75</v>
+      </c>
+      <c r="BP188">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7476744</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F189">
+        <v>17</v>
+      </c>
+      <c r="G189" t="s">
+        <v>93</v>
+      </c>
+      <c r="H189" t="s">
+        <v>89</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>101</v>
+      </c>
+      <c r="P189" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q189">
+        <v>1.91</v>
+      </c>
+      <c r="R189">
+        <v>2.6</v>
+      </c>
+      <c r="S189">
+        <v>6</v>
+      </c>
+      <c r="T189">
+        <v>1.25</v>
+      </c>
+      <c r="U189">
+        <v>3.75</v>
+      </c>
+      <c r="V189">
+        <v>2.25</v>
+      </c>
+      <c r="W189">
+        <v>1.57</v>
+      </c>
+      <c r="X189">
+        <v>5.5</v>
+      </c>
+      <c r="Y189">
+        <v>1.14</v>
+      </c>
+      <c r="Z189">
+        <v>1.39</v>
+      </c>
+      <c r="AA189">
+        <v>4.11</v>
+      </c>
+      <c r="AB189">
+        <v>5.5</v>
+      </c>
+      <c r="AC189">
+        <v>1.03</v>
+      </c>
+      <c r="AD189">
+        <v>11</v>
+      </c>
+      <c r="AE189">
+        <v>1.18</v>
+      </c>
+      <c r="AF189">
+        <v>4.75</v>
+      </c>
+      <c r="AG189">
+        <v>1.7</v>
+      </c>
+      <c r="AH189">
+        <v>2</v>
+      </c>
+      <c r="AI189">
+        <v>1.67</v>
+      </c>
+      <c r="AJ189">
+        <v>2.1</v>
+      </c>
+      <c r="AK189">
+        <v>1.1</v>
+      </c>
+      <c r="AL189">
+        <v>1.15</v>
+      </c>
+      <c r="AM189">
+        <v>2.75</v>
+      </c>
+      <c r="AN189">
+        <v>1.86</v>
+      </c>
+      <c r="AO189">
+        <v>0.75</v>
+      </c>
+      <c r="AP189">
+        <v>1.75</v>
+      </c>
+      <c r="AQ189">
+        <v>0.78</v>
+      </c>
+      <c r="AR189">
+        <v>1.71</v>
+      </c>
+      <c r="AS189">
+        <v>0.82</v>
+      </c>
+      <c r="AT189">
+        <v>2.53</v>
+      </c>
+      <c r="AU189">
+        <v>8</v>
+      </c>
+      <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
+        <v>11</v>
+      </c>
+      <c r="AX189">
+        <v>2</v>
+      </c>
+      <c r="AY189">
+        <v>28</v>
+      </c>
+      <c r="AZ189">
+        <v>8</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>1</v>
+      </c>
+      <c r="BC189">
+        <v>11</v>
+      </c>
+      <c r="BD189">
+        <v>1.23</v>
+      </c>
+      <c r="BE189">
+        <v>9.5</v>
+      </c>
+      <c r="BF189">
+        <v>5.18</v>
+      </c>
+      <c r="BG189">
+        <v>0</v>
+      </c>
+      <c r="BH189">
+        <v>0</v>
+      </c>
+      <c r="BI189">
+        <v>0</v>
+      </c>
+      <c r="BJ189">
+        <v>0</v>
+      </c>
+      <c r="BK189">
+        <v>1.77</v>
+      </c>
+      <c r="BL189">
+        <v>1.95</v>
+      </c>
+      <c r="BM189">
+        <v>0</v>
+      </c>
+      <c r="BN189">
+        <v>0</v>
+      </c>
+      <c r="BO189">
+        <v>0</v>
+      </c>
+      <c r="BP189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7476743</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>87</v>
+      </c>
+      <c r="H190" t="s">
+        <v>85</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>101</v>
+      </c>
+      <c r="P190" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q190">
+        <v>3.25</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>3.25</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.75</v>
+      </c>
+      <c r="V190">
+        <v>3</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>8</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>2.31</v>
+      </c>
+      <c r="AA190">
+        <v>2.94</v>
+      </c>
+      <c r="AB190">
+        <v>2.52</v>
+      </c>
+      <c r="AC190">
+        <v>1.06</v>
+      </c>
+      <c r="AD190">
+        <v>8.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.3</v>
+      </c>
+      <c r="AF190">
+        <v>3.4</v>
+      </c>
+      <c r="AG190">
+        <v>1.96</v>
+      </c>
+      <c r="AH190">
+        <v>1.8</v>
+      </c>
+      <c r="AI190">
+        <v>1.73</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>1.42</v>
+      </c>
+      <c r="AL190">
+        <v>1.28</v>
+      </c>
+      <c r="AM190">
+        <v>1.53</v>
+      </c>
+      <c r="AN190">
+        <v>1.29</v>
+      </c>
+      <c r="AO190">
+        <v>0.71</v>
+      </c>
+      <c r="AP190">
+        <v>1.13</v>
+      </c>
+      <c r="AQ190">
+        <v>1</v>
+      </c>
+      <c r="AR190">
+        <v>1.22</v>
+      </c>
+      <c r="AS190">
+        <v>1.08</v>
+      </c>
+      <c r="AT190">
+        <v>2.3</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+      <c r="AY190">
+        <v>11</v>
+      </c>
+      <c r="AZ190">
+        <v>12</v>
+      </c>
+      <c r="BA190">
+        <v>6</v>
+      </c>
+      <c r="BB190">
+        <v>6</v>
+      </c>
+      <c r="BC190">
+        <v>12</v>
+      </c>
+      <c r="BD190">
+        <v>1.75</v>
+      </c>
+      <c r="BE190">
+        <v>7.5</v>
+      </c>
+      <c r="BF190">
+        <v>2.45</v>
+      </c>
+      <c r="BG190">
+        <v>1.25</v>
+      </c>
+      <c r="BH190">
+        <v>3.58</v>
+      </c>
+      <c r="BI190">
+        <v>1.45</v>
+      </c>
+      <c r="BJ190">
+        <v>2.55</v>
+      </c>
+      <c r="BK190">
+        <v>1.75</v>
+      </c>
+      <c r="BL190">
+        <v>1.96</v>
+      </c>
+      <c r="BM190">
+        <v>2.21</v>
+      </c>
+      <c r="BN190">
+        <v>1.59</v>
+      </c>
+      <c r="BO190">
+        <v>2.9</v>
+      </c>
+      <c r="BP190">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,9 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['32', '49']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -917,6 +920,15 @@
   </si>
   <si>
     <t>['58', '75']</t>
+  </si>
+  <si>
+    <t>['6', '14', '78']</t>
+  </si>
+  <si>
+    <t>['59', '71']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>0.89</v>
@@ -1743,7 +1755,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1821,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2155,7 +2167,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2361,7 +2373,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2773,7 +2785,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2851,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>0.89</v>
@@ -2979,7 +2991,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3185,7 +3197,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3391,7 +3403,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3884,7 +3896,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4087,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4421,7 +4433,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4502,7 +4514,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4833,7 +4845,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5039,7 +5051,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5245,7 +5257,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5532,7 +5544,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5863,7 +5875,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5941,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6275,7 +6287,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6481,7 +6493,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6768,7 +6780,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -7180,7 +7192,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7305,7 +7317,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8001,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -8747,7 +8759,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8828,7 +8840,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.61</v>
@@ -8953,7 +8965,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9034,7 +9046,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9237,7 +9249,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>1.63</v>
@@ -9365,7 +9377,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9443,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ40">
         <v>1.56</v>
@@ -9571,7 +9583,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9777,7 +9789,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9858,7 +9870,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -10189,7 +10201,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10267,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10395,7 +10407,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10885,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.57</v>
@@ -11013,7 +11025,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11425,7 +11437,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11631,7 +11643,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11918,7 +11930,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -12043,7 +12055,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12121,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
         <v>1.78</v>
@@ -12536,7 +12548,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR55">
         <v>1</v>
@@ -13154,7 +13166,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ58">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13566,7 +13578,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13769,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -13975,7 +13987,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ62">
         <v>0.78</v>
@@ -14103,7 +14115,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14309,7 +14321,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14721,7 +14733,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15005,7 +15017,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15339,7 +15351,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15545,7 +15557,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15626,7 +15638,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15751,7 +15763,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15829,7 +15841,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ71">
         <v>1.57</v>
@@ -15957,7 +15969,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16163,7 +16175,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16241,7 +16253,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16369,7 +16381,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16447,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ74">
         <v>0.89</v>
@@ -16575,7 +16587,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16656,7 +16668,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR75">
         <v>1.26</v>
@@ -16781,7 +16793,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17193,7 +17205,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17274,7 +17286,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR78">
         <v>1.48</v>
@@ -18098,7 +18110,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ82">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>0.97</v>
@@ -18223,7 +18235,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18304,7 +18316,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -19459,7 +19471,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19871,7 +19883,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20077,7 +20089,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20283,7 +20295,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20361,7 +20373,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ93">
         <v>1.78</v>
@@ -20567,10 +20579,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.4</v>
@@ -20695,7 +20707,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20901,7 +20913,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21519,7 +21531,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21725,7 +21737,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22009,7 +22021,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
         <v>1.78</v>
@@ -22137,7 +22149,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22343,7 +22355,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22421,7 +22433,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ103">
         <v>1.56</v>
@@ -22549,7 +22561,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22836,7 +22848,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1</v>
@@ -22961,7 +22973,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23042,7 +23054,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23451,10 +23463,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ108">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -24403,7 +24415,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24481,10 +24493,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24609,7 +24621,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24896,7 +24908,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25227,7 +25239,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25433,7 +25445,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25511,7 +25523,7 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -25639,7 +25651,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25845,7 +25857,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26463,7 +26475,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26541,7 +26553,7 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26669,7 +26681,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26875,7 +26887,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -26956,7 +26968,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -27159,7 +27171,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>0.89</v>
@@ -27287,7 +27299,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27493,7 +27505,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27780,7 +27792,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -27905,7 +27917,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28111,7 +28123,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28189,10 +28201,10 @@
         <v>1.4</v>
       </c>
       <c r="AP131">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ131">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.44</v>
@@ -28317,7 +28329,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28523,7 +28535,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28729,7 +28741,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28810,7 +28822,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ134">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -28935,7 +28947,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29347,7 +29359,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29759,7 +29771,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29837,10 +29849,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ139">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
         <v>1.5</v>
@@ -29965,7 +29977,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30171,7 +30183,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30789,7 +30801,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30867,7 +30879,7 @@
         <v>0.5</v>
       </c>
       <c r="AP144">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
         <v>0.78</v>
@@ -31407,7 +31419,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -32103,10 +32115,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32231,7 +32243,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32309,7 +32321,7 @@
         <v>0.6</v>
       </c>
       <c r="AP151">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32437,7 +32449,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32643,7 +32655,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32927,7 +32939,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ154">
         <v>1.14</v>
@@ -33055,7 +33067,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33467,7 +33479,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -33957,7 +33969,7 @@
         <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ159">
         <v>0.88</v>
@@ -34085,7 +34097,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34166,7 +34178,7 @@
         <v>2</v>
       </c>
       <c r="AQ160">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34372,7 +34384,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ161">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -34578,7 +34590,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ162">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR162">
         <v>1.61</v>
@@ -34784,7 +34796,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR163">
         <v>1.49</v>
@@ -34909,7 +34921,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35115,7 +35127,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35321,7 +35333,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35402,7 +35414,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR166">
         <v>1.16</v>
@@ -35527,7 +35539,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -35939,7 +35951,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36429,7 +36441,7 @@
         <v>2.29</v>
       </c>
       <c r="AP171">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ171">
         <v>2.11</v>
@@ -36557,7 +36569,7 @@
         <v>101</v>
       </c>
       <c r="P172" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -36635,7 +36647,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ172">
         <v>0.88</v>
@@ -36763,7 +36775,7 @@
         <v>148</v>
       </c>
       <c r="P173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -37253,7 +37265,7 @@
         <v>1.71</v>
       </c>
       <c r="AP175">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
         <v>1.78</v>
@@ -37999,7 +38011,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38411,7 +38423,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -39029,7 +39041,7 @@
         <v>184</v>
       </c>
       <c r="P184" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39235,7 +39247,7 @@
         <v>215</v>
       </c>
       <c r="P185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39647,7 +39659,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -39725,7 +39737,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ187">
         <v>0.88</v>
@@ -39820,7 +39832,7 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45618.69791666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -40265,7 +40277,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40421,6 +40433,1036 @@
         <v>2.9</v>
       </c>
       <c r="BP190">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7476747</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F191">
+        <v>17</v>
+      </c>
+      <c r="G191" t="s">
+        <v>91</v>
+      </c>
+      <c r="H191" t="s">
+        <v>88</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+      <c r="N191">
+        <v>5</v>
+      </c>
+      <c r="O191" t="s">
+        <v>219</v>
+      </c>
+      <c r="P191" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q191">
+        <v>2.4</v>
+      </c>
+      <c r="R191">
+        <v>2.25</v>
+      </c>
+      <c r="S191">
+        <v>4.5</v>
+      </c>
+      <c r="T191">
+        <v>1.36</v>
+      </c>
+      <c r="U191">
+        <v>3</v>
+      </c>
+      <c r="V191">
+        <v>2.63</v>
+      </c>
+      <c r="W191">
+        <v>1.44</v>
+      </c>
+      <c r="X191">
+        <v>7</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>1.82</v>
+      </c>
+      <c r="AA191">
+        <v>3.21</v>
+      </c>
+      <c r="AB191">
+        <v>3.58</v>
+      </c>
+      <c r="AC191">
+        <v>1.05</v>
+      </c>
+      <c r="AD191">
+        <v>9</v>
+      </c>
+      <c r="AE191">
+        <v>1.28</v>
+      </c>
+      <c r="AF191">
+        <v>3.55</v>
+      </c>
+      <c r="AG191">
+        <v>1.81</v>
+      </c>
+      <c r="AH191">
+        <v>1.95</v>
+      </c>
+      <c r="AI191">
+        <v>1.73</v>
+      </c>
+      <c r="AJ191">
+        <v>2</v>
+      </c>
+      <c r="AK191">
+        <v>1.2</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.93</v>
+      </c>
+      <c r="AN191">
+        <v>0.71</v>
+      </c>
+      <c r="AO191">
+        <v>0.88</v>
+      </c>
+      <c r="AP191">
+        <v>0.63</v>
+      </c>
+      <c r="AQ191">
+        <v>1.11</v>
+      </c>
+      <c r="AR191">
+        <v>1.24</v>
+      </c>
+      <c r="AS191">
+        <v>0.89</v>
+      </c>
+      <c r="AT191">
+        <v>2.13</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>7</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>3</v>
+      </c>
+      <c r="AY191">
+        <v>10</v>
+      </c>
+      <c r="AZ191">
+        <v>12</v>
+      </c>
+      <c r="BA191">
+        <v>5</v>
+      </c>
+      <c r="BB191">
+        <v>8</v>
+      </c>
+      <c r="BC191">
+        <v>13</v>
+      </c>
+      <c r="BD191">
+        <v>1.45</v>
+      </c>
+      <c r="BE191">
+        <v>8</v>
+      </c>
+      <c r="BF191">
+        <v>3.56</v>
+      </c>
+      <c r="BG191">
+        <v>1.25</v>
+      </c>
+      <c r="BH191">
+        <v>3.58</v>
+      </c>
+      <c r="BI191">
+        <v>1.45</v>
+      </c>
+      <c r="BJ191">
+        <v>2.55</v>
+      </c>
+      <c r="BK191">
+        <v>1.75</v>
+      </c>
+      <c r="BL191">
+        <v>1.96</v>
+      </c>
+      <c r="BM191">
+        <v>2.21</v>
+      </c>
+      <c r="BN191">
+        <v>1.59</v>
+      </c>
+      <c r="BO191">
+        <v>2.9</v>
+      </c>
+      <c r="BP191">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7476742</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F192">
+        <v>17</v>
+      </c>
+      <c r="G192" t="s">
+        <v>76</v>
+      </c>
+      <c r="H192" t="s">
+        <v>77</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>148</v>
+      </c>
+      <c r="P192" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q192">
+        <v>2.3</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>5.5</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.63</v>
+      </c>
+      <c r="V192">
+        <v>3.25</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>1.58</v>
+      </c>
+      <c r="AA192">
+        <v>3.25</v>
+      </c>
+      <c r="AB192">
+        <v>4.46</v>
+      </c>
+      <c r="AC192">
+        <v>1.06</v>
+      </c>
+      <c r="AD192">
+        <v>8.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.35</v>
+      </c>
+      <c r="AF192">
+        <v>3.1</v>
+      </c>
+      <c r="AG192">
+        <v>2</v>
+      </c>
+      <c r="AH192">
+        <v>1.7</v>
+      </c>
+      <c r="AI192">
+        <v>2.1</v>
+      </c>
+      <c r="AJ192">
+        <v>1.67</v>
+      </c>
+      <c r="AK192">
+        <v>1.15</v>
+      </c>
+      <c r="AL192">
+        <v>1.22</v>
+      </c>
+      <c r="AM192">
+        <v>2.15</v>
+      </c>
+      <c r="AN192">
+        <v>1.88</v>
+      </c>
+      <c r="AO192">
+        <v>0.86</v>
+      </c>
+      <c r="AP192">
+        <v>1.67</v>
+      </c>
+      <c r="AQ192">
+        <v>1.13</v>
+      </c>
+      <c r="AR192">
+        <v>1.27</v>
+      </c>
+      <c r="AS192">
+        <v>1.04</v>
+      </c>
+      <c r="AT192">
+        <v>2.31</v>
+      </c>
+      <c r="AU192">
+        <v>2</v>
+      </c>
+      <c r="AV192">
+        <v>4</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>3</v>
+      </c>
+      <c r="AY192">
+        <v>9</v>
+      </c>
+      <c r="AZ192">
+        <v>11</v>
+      </c>
+      <c r="BA192">
+        <v>5</v>
+      </c>
+      <c r="BB192">
+        <v>3</v>
+      </c>
+      <c r="BC192">
+        <v>8</v>
+      </c>
+      <c r="BD192">
+        <v>1.31</v>
+      </c>
+      <c r="BE192">
+        <v>8.5</v>
+      </c>
+      <c r="BF192">
+        <v>4.34</v>
+      </c>
+      <c r="BG192">
+        <v>0</v>
+      </c>
+      <c r="BH192">
+        <v>0</v>
+      </c>
+      <c r="BI192">
+        <v>0</v>
+      </c>
+      <c r="BJ192">
+        <v>0</v>
+      </c>
+      <c r="BK192">
+        <v>1.7</v>
+      </c>
+      <c r="BL192">
+        <v>2.05</v>
+      </c>
+      <c r="BM192">
+        <v>0</v>
+      </c>
+      <c r="BN192">
+        <v>0</v>
+      </c>
+      <c r="BO192">
+        <v>0</v>
+      </c>
+      <c r="BP192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7476738</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>82</v>
+      </c>
+      <c r="H193" t="s">
+        <v>74</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>101</v>
+      </c>
+      <c r="P193" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>2.2</v>
+      </c>
+      <c r="S193">
+        <v>2.63</v>
+      </c>
+      <c r="T193">
+        <v>1.36</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.75</v>
+      </c>
+      <c r="W193">
+        <v>1.4</v>
+      </c>
+      <c r="X193">
+        <v>8</v>
+      </c>
+      <c r="Y193">
+        <v>1.08</v>
+      </c>
+      <c r="Z193">
+        <v>3.14</v>
+      </c>
+      <c r="AA193">
+        <v>3.1</v>
+      </c>
+      <c r="AB193">
+        <v>2</v>
+      </c>
+      <c r="AC193">
+        <v>1.05</v>
+      </c>
+      <c r="AD193">
+        <v>9</v>
+      </c>
+      <c r="AE193">
+        <v>1.28</v>
+      </c>
+      <c r="AF193">
+        <v>3.55</v>
+      </c>
+      <c r="AG193">
+        <v>1.83</v>
+      </c>
+      <c r="AH193">
+        <v>1.93</v>
+      </c>
+      <c r="AI193">
+        <v>1.67</v>
+      </c>
+      <c r="AJ193">
+        <v>2.1</v>
+      </c>
+      <c r="AK193">
+        <v>1.7</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.3</v>
+      </c>
+      <c r="AN193">
+        <v>0.57</v>
+      </c>
+      <c r="AO193">
+        <v>1.86</v>
+      </c>
+      <c r="AP193">
+        <v>0.63</v>
+      </c>
+      <c r="AQ193">
+        <v>1.75</v>
+      </c>
+      <c r="AR193">
+        <v>1.51</v>
+      </c>
+      <c r="AS193">
+        <v>1.51</v>
+      </c>
+      <c r="AT193">
+        <v>3.02</v>
+      </c>
+      <c r="AU193">
+        <v>4</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+      <c r="AW193">
+        <v>2</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
+      <c r="AZ193">
+        <v>17</v>
+      </c>
+      <c r="BA193">
+        <v>3</v>
+      </c>
+      <c r="BB193">
+        <v>6</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>2.42</v>
+      </c>
+      <c r="BE193">
+        <v>7</v>
+      </c>
+      <c r="BF193">
+        <v>1.82</v>
+      </c>
+      <c r="BG193">
+        <v>0</v>
+      </c>
+      <c r="BH193">
+        <v>0</v>
+      </c>
+      <c r="BI193">
+        <v>1.33</v>
+      </c>
+      <c r="BJ193">
+        <v>3.05</v>
+      </c>
+      <c r="BK193">
+        <v>1.56</v>
+      </c>
+      <c r="BL193">
+        <v>2.26</v>
+      </c>
+      <c r="BM193">
+        <v>2</v>
+      </c>
+      <c r="BN193">
+        <v>1.8</v>
+      </c>
+      <c r="BO193">
+        <v>2.44</v>
+      </c>
+      <c r="BP193">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7476736</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F194">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" t="s">
+        <v>81</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>101</v>
+      </c>
+      <c r="P194" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q194">
+        <v>2.88</v>
+      </c>
+      <c r="R194">
+        <v>2.1</v>
+      </c>
+      <c r="S194">
+        <v>4</v>
+      </c>
+      <c r="T194">
+        <v>1.44</v>
+      </c>
+      <c r="U194">
+        <v>2.63</v>
+      </c>
+      <c r="V194">
+        <v>3.25</v>
+      </c>
+      <c r="W194">
+        <v>1.33</v>
+      </c>
+      <c r="X194">
+        <v>9</v>
+      </c>
+      <c r="Y194">
+        <v>1.07</v>
+      </c>
+      <c r="Z194">
+        <v>2.01</v>
+      </c>
+      <c r="AA194">
+        <v>3.06</v>
+      </c>
+      <c r="AB194">
+        <v>3.16</v>
+      </c>
+      <c r="AC194">
+        <v>1.06</v>
+      </c>
+      <c r="AD194">
+        <v>8.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.3</v>
+      </c>
+      <c r="AF194">
+        <v>3.4</v>
+      </c>
+      <c r="AG194">
+        <v>1.95</v>
+      </c>
+      <c r="AH194">
+        <v>1.85</v>
+      </c>
+      <c r="AI194">
+        <v>1.83</v>
+      </c>
+      <c r="AJ194">
+        <v>1.83</v>
+      </c>
+      <c r="AK194">
+        <v>1.38</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.57</v>
+      </c>
+      <c r="AN194">
+        <v>2.29</v>
+      </c>
+      <c r="AO194">
+        <v>1.57</v>
+      </c>
+      <c r="AP194">
+        <v>2</v>
+      </c>
+      <c r="AQ194">
+        <v>1.75</v>
+      </c>
+      <c r="AR194">
+        <v>1.56</v>
+      </c>
+      <c r="AS194">
+        <v>1.35</v>
+      </c>
+      <c r="AT194">
+        <v>2.91</v>
+      </c>
+      <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>3</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>12</v>
+      </c>
+      <c r="AZ194">
+        <v>8</v>
+      </c>
+      <c r="BA194">
+        <v>8</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>13</v>
+      </c>
+      <c r="BD194">
+        <v>1.75</v>
+      </c>
+      <c r="BE194">
+        <v>7.5</v>
+      </c>
+      <c r="BF194">
+        <v>2.53</v>
+      </c>
+      <c r="BG194">
+        <v>1.25</v>
+      </c>
+      <c r="BH194">
+        <v>3.58</v>
+      </c>
+      <c r="BI194">
+        <v>1.45</v>
+      </c>
+      <c r="BJ194">
+        <v>2.55</v>
+      </c>
+      <c r="BK194">
+        <v>1.75</v>
+      </c>
+      <c r="BL194">
+        <v>1.96</v>
+      </c>
+      <c r="BM194">
+        <v>2.21</v>
+      </c>
+      <c r="BN194">
+        <v>1.59</v>
+      </c>
+      <c r="BO194">
+        <v>2.9</v>
+      </c>
+      <c r="BP194">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7476740</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>70</v>
+      </c>
+      <c r="H195" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>218</v>
+      </c>
+      <c r="P195" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q195">
+        <v>2.6</v>
+      </c>
+      <c r="R195">
+        <v>2.2</v>
+      </c>
+      <c r="S195">
+        <v>4.33</v>
+      </c>
+      <c r="T195">
+        <v>1.36</v>
+      </c>
+      <c r="U195">
+        <v>3</v>
+      </c>
+      <c r="V195">
+        <v>2.75</v>
+      </c>
+      <c r="W195">
+        <v>1.4</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>1.97</v>
+      </c>
+      <c r="AA195">
+        <v>3.11</v>
+      </c>
+      <c r="AB195">
+        <v>3.21</v>
+      </c>
+      <c r="AC195">
+        <v>1.05</v>
+      </c>
+      <c r="AD195">
+        <v>9</v>
+      </c>
+      <c r="AE195">
+        <v>1.28</v>
+      </c>
+      <c r="AF195">
+        <v>3.55</v>
+      </c>
+      <c r="AG195">
+        <v>1.83</v>
+      </c>
+      <c r="AH195">
+        <v>1.93</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.25</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.8</v>
+      </c>
+      <c r="AN195">
+        <v>1.13</v>
+      </c>
+      <c r="AO195">
+        <v>1</v>
+      </c>
+      <c r="AP195">
+        <v>1.33</v>
+      </c>
+      <c r="AQ195">
+        <v>0.88</v>
+      </c>
+      <c r="AR195">
+        <v>1.49</v>
+      </c>
+      <c r="AS195">
+        <v>1.11</v>
+      </c>
+      <c r="AT195">
+        <v>2.6</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>2</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>4</v>
+      </c>
+      <c r="AY195">
+        <v>9</v>
+      </c>
+      <c r="AZ195">
+        <v>8</v>
+      </c>
+      <c r="BA195">
+        <v>8</v>
+      </c>
+      <c r="BB195">
+        <v>4</v>
+      </c>
+      <c r="BC195">
+        <v>12</v>
+      </c>
+      <c r="BD195">
+        <v>1.55</v>
+      </c>
+      <c r="BE195">
+        <v>8</v>
+      </c>
+      <c r="BF195">
+        <v>3.1</v>
+      </c>
+      <c r="BG195">
+        <v>1.25</v>
+      </c>
+      <c r="BH195">
+        <v>3.58</v>
+      </c>
+      <c r="BI195">
+        <v>1.45</v>
+      </c>
+      <c r="BJ195">
+        <v>2.55</v>
+      </c>
+      <c r="BK195">
+        <v>1.75</v>
+      </c>
+      <c r="BL195">
+        <v>1.96</v>
+      </c>
+      <c r="BM195">
+        <v>2.21</v>
+      </c>
+      <c r="BN195">
+        <v>1.59</v>
+      </c>
+      <c r="BO195">
+        <v>2.9</v>
+      </c>
+      <c r="BP195">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,9 @@
     <t>['32', '49']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -922,13 +925,13 @@
     <t>['58', '75']</t>
   </si>
   <si>
-    <t>['6', '14', '78']</t>
+    <t>['52']</t>
   </si>
   <si>
     <t>['59', '71']</t>
   </si>
   <si>
-    <t>['52']</t>
+    <t>['6', '14', '78']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,7 +1758,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2042,7 +2045,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2167,7 +2170,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2373,7 +2376,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2785,7 +2788,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2991,7 +2994,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3197,7 +3200,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3403,7 +3406,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4433,7 +4436,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4845,7 +4848,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5051,7 +5054,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5257,7 +5260,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5747,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5875,7 +5878,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6287,7 +6290,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6493,7 +6496,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7317,7 +7320,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8759,7 +8762,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8965,7 +8968,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9043,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -9377,7 +9380,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9583,7 +9586,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9789,7 +9792,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10201,7 +10204,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10407,7 +10410,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10488,7 +10491,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -11025,7 +11028,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11437,7 +11440,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11643,7 +11646,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -12055,7 +12058,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -14115,7 +14118,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14321,7 +14324,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14605,7 +14608,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>1.63</v>
@@ -14733,7 +14736,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15226,7 +15229,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15351,7 +15354,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15557,7 +15560,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15763,7 +15766,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15969,7 +15972,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16175,7 +16178,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16381,7 +16384,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16587,7 +16590,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16793,7 +16796,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17205,7 +17208,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18235,7 +18238,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -19343,7 +19346,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>0.89</v>
@@ -19471,7 +19474,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19552,7 +19555,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>0.82</v>
@@ -19883,7 +19886,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20089,7 +20092,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20295,7 +20298,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20707,7 +20710,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20785,7 +20788,7 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20913,7 +20916,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21531,7 +21534,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21737,7 +21740,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22149,7 +22152,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22355,7 +22358,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22561,7 +22564,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22973,7 +22976,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -24415,7 +24418,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24621,7 +24624,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25239,7 +25242,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25445,7 +25448,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25651,7 +25654,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25857,7 +25860,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26475,7 +26478,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26681,7 +26684,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26762,7 +26765,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ124">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.08</v>
@@ -26887,7 +26890,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27299,7 +27302,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27505,7 +27508,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27917,7 +27920,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -27995,7 +27998,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ130">
         <v>1.57</v>
@@ -28123,7 +28126,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28329,7 +28332,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28535,7 +28538,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28741,7 +28744,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28947,7 +28950,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29359,7 +29362,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29771,7 +29774,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29977,7 +29980,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30183,7 +30186,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30801,7 +30804,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31088,7 +31091,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ145">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.61</v>
@@ -31419,7 +31422,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -32243,7 +32246,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32449,7 +32452,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32655,7 +32658,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33067,7 +33070,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33145,7 +33148,7 @@
         <v>0.8</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155">
         <v>1</v>
@@ -33479,7 +33482,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -34097,7 +34100,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34921,7 +34924,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35127,7 +35130,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35333,7 +35336,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35539,7 +35542,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -35620,7 +35623,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ167">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
         <v>1.52</v>
@@ -35951,7 +35954,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36569,7 +36572,7 @@
         <v>101</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -36775,7 +36778,7 @@
         <v>148</v>
       </c>
       <c r="P173" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -38011,7 +38014,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38423,7 +38426,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -39041,7 +39044,7 @@
         <v>184</v>
       </c>
       <c r="P184" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39247,7 +39250,7 @@
         <v>215</v>
       </c>
       <c r="P185" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39659,7 +39662,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -40029,7 +40032,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7476744</v>
+        <v>7476736</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40038,16 +40041,16 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F189">
         <v>17</v>
       </c>
       <c r="G189" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H189" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -40062,172 +40065,172 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O189" t="s">
         <v>101</v>
       </c>
       <c r="P189" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="Q189">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="R189">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S189">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T189">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="U189">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="V189">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="W189">
+        <v>1.33</v>
+      </c>
+      <c r="X189">
+        <v>9</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2.01</v>
+      </c>
+      <c r="AA189">
+        <v>3.06</v>
+      </c>
+      <c r="AB189">
+        <v>3.16</v>
+      </c>
+      <c r="AC189">
+        <v>1.06</v>
+      </c>
+      <c r="AD189">
+        <v>8.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.3</v>
+      </c>
+      <c r="AF189">
+        <v>3.4</v>
+      </c>
+      <c r="AG189">
+        <v>1.95</v>
+      </c>
+      <c r="AH189">
+        <v>1.85</v>
+      </c>
+      <c r="AI189">
+        <v>1.83</v>
+      </c>
+      <c r="AJ189">
+        <v>1.83</v>
+      </c>
+      <c r="AK189">
+        <v>1.38</v>
+      </c>
+      <c r="AL189">
+        <v>1.28</v>
+      </c>
+      <c r="AM189">
         <v>1.57</v>
       </c>
-      <c r="X189">
-        <v>5.5</v>
-      </c>
-      <c r="Y189">
-        <v>1.14</v>
-      </c>
-      <c r="Z189">
-        <v>1.39</v>
-      </c>
-      <c r="AA189">
-        <v>4.11</v>
-      </c>
-      <c r="AB189">
-        <v>5.5</v>
-      </c>
-      <c r="AC189">
-        <v>1.03</v>
-      </c>
-      <c r="AD189">
-        <v>11</v>
-      </c>
-      <c r="AE189">
-        <v>1.18</v>
-      </c>
-      <c r="AF189">
-        <v>4.75</v>
-      </c>
-      <c r="AG189">
-        <v>1.7</v>
-      </c>
-      <c r="AH189">
-        <v>2</v>
-      </c>
-      <c r="AI189">
-        <v>1.67</v>
-      </c>
-      <c r="AJ189">
-        <v>2.1</v>
-      </c>
-      <c r="AK189">
-        <v>1.1</v>
-      </c>
-      <c r="AL189">
-        <v>1.15</v>
-      </c>
-      <c r="AM189">
-        <v>2.75</v>
-      </c>
       <c r="AN189">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AO189">
-        <v>0.75</v>
+        <v>1.57</v>
       </c>
       <c r="AP189">
+        <v>2</v>
+      </c>
+      <c r="AQ189">
         <v>1.75</v>
       </c>
-      <c r="AQ189">
-        <v>0.78</v>
-      </c>
       <c r="AR189">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="AS189">
-        <v>0.82</v>
+        <v>1.35</v>
       </c>
       <c r="AT189">
-        <v>2.53</v>
+        <v>2.91</v>
       </c>
       <c r="AU189">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW189">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AX189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY189">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AZ189">
         <v>8</v>
       </c>
       <c r="BA189">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC189">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD189">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="BE189">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF189">
-        <v>5.18</v>
+        <v>2.53</v>
       </c>
       <c r="BG189">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BH189">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="BI189">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="BJ189">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BK189">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="BL189">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BM189">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="BN189">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="BO189">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BP189">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40244,7 +40247,7 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -40277,7 +40280,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40441,7 +40444,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7476747</v>
+        <v>7476740</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40450,49 +40453,49 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F191">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H191" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O191" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P191" t="s">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="Q191">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R191">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S191">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T191">
         <v>1.36</v>
@@ -40501,25 +40504,25 @@
         <v>3</v>
       </c>
       <c r="V191">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W191">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X191">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y191">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z191">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AA191">
+        <v>3.11</v>
+      </c>
+      <c r="AB191">
         <v>3.21</v>
-      </c>
-      <c r="AB191">
-        <v>3.58</v>
       </c>
       <c r="AC191">
         <v>1.05</v>
@@ -40534,10 +40537,10 @@
         <v>3.55</v>
       </c>
       <c r="AG191">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AH191">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AI191">
         <v>1.73</v>
@@ -40546,70 +40549,70 @@
         <v>2</v>
       </c>
       <c r="AK191">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AL191">
         <v>1.25</v>
       </c>
       <c r="AM191">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AN191">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="AO191">
+        <v>1</v>
+      </c>
+      <c r="AP191">
+        <v>1.33</v>
+      </c>
+      <c r="AQ191">
         <v>0.88</v>
       </c>
-      <c r="AP191">
-        <v>0.63</v>
-      </c>
-      <c r="AQ191">
+      <c r="AR191">
+        <v>1.49</v>
+      </c>
+      <c r="AS191">
         <v>1.11</v>
       </c>
-      <c r="AR191">
-        <v>1.24</v>
-      </c>
-      <c r="AS191">
-        <v>0.89</v>
-      </c>
       <c r="AT191">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>3</v>
+      </c>
+      <c r="AX191">
         <v>4</v>
-      </c>
-      <c r="AV191">
-        <v>7</v>
-      </c>
-      <c r="AW191">
-        <v>4</v>
-      </c>
-      <c r="AX191">
-        <v>3</v>
       </c>
       <c r="AY191">
         <v>10</v>
       </c>
       <c r="AZ191">
+        <v>8</v>
+      </c>
+      <c r="BA191">
+        <v>8</v>
+      </c>
+      <c r="BB191">
+        <v>4</v>
+      </c>
+      <c r="BC191">
         <v>12</v>
       </c>
-      <c r="BA191">
-        <v>5</v>
-      </c>
-      <c r="BB191">
-        <v>8</v>
-      </c>
-      <c r="BC191">
-        <v>13</v>
-      </c>
       <c r="BD191">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="BE191">
         <v>8</v>
       </c>
       <c r="BF191">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="BG191">
         <v>1.25</v>
@@ -40656,7 +40659,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F192">
         <v>17</v>
@@ -40689,7 +40692,7 @@
         <v>148</v>
       </c>
       <c r="P192" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -40853,7 +40856,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7476738</v>
+        <v>7476744</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40862,16 +40865,16 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45619.5</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G193" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H193" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -40898,58 +40901,58 @@
         <v>101</v>
       </c>
       <c r="Q193">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="R193">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S193">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="T193">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="U193">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V193">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W193">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X193">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y193">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z193">
-        <v>3.14</v>
+        <v>1.39</v>
       </c>
       <c r="AA193">
-        <v>3.1</v>
+        <v>4.11</v>
       </c>
       <c r="AB193">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="AC193">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD193">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE193">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AF193">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="AG193">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AH193">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AI193">
         <v>1.67</v>
@@ -40958,70 +40961,70 @@
         <v>2.1</v>
       </c>
       <c r="AK193">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AL193">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AM193">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="AN193">
-        <v>0.57</v>
+        <v>1.86</v>
       </c>
       <c r="AO193">
-        <v>1.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP193">
-        <v>0.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ193">
-        <v>1.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR193">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="AS193">
-        <v>1.51</v>
+        <v>0.82</v>
       </c>
       <c r="AT193">
-        <v>3.02</v>
+        <v>2.53</v>
       </c>
       <c r="AU193">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW193">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AX193">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY193">
+        <v>28</v>
+      </c>
+      <c r="AZ193">
         <v>8</v>
       </c>
-      <c r="AZ193">
-        <v>17</v>
-      </c>
       <c r="BA193">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB193">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC193">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD193">
-        <v>2.42</v>
+        <v>1.23</v>
       </c>
       <c r="BE193">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="BF193">
-        <v>1.82</v>
+        <v>5.18</v>
       </c>
       <c r="BG193">
         <v>0</v>
@@ -41030,28 +41033,28 @@
         <v>0</v>
       </c>
       <c r="BI193">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BJ193">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="BK193">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="BL193">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="BM193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN193">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BO193">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="BP193">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41059,7 +41062,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7476736</v>
+        <v>7476747</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41074,160 +41077,160 @@
         <v>17</v>
       </c>
       <c r="G194" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H194" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O194" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q194">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S194">
+        <v>4.5</v>
+      </c>
+      <c r="T194">
+        <v>1.36</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>2.63</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>7</v>
+      </c>
+      <c r="Y194">
+        <v>1.1</v>
+      </c>
+      <c r="Z194">
+        <v>1.82</v>
+      </c>
+      <c r="AA194">
+        <v>3.21</v>
+      </c>
+      <c r="AB194">
+        <v>3.58</v>
+      </c>
+      <c r="AC194">
+        <v>1.05</v>
+      </c>
+      <c r="AD194">
+        <v>9</v>
+      </c>
+      <c r="AE194">
+        <v>1.28</v>
+      </c>
+      <c r="AF194">
+        <v>3.55</v>
+      </c>
+      <c r="AG194">
+        <v>1.81</v>
+      </c>
+      <c r="AH194">
+        <v>1.95</v>
+      </c>
+      <c r="AI194">
+        <v>1.73</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.2</v>
+      </c>
+      <c r="AL194">
+        <v>1.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.93</v>
+      </c>
+      <c r="AN194">
+        <v>0.71</v>
+      </c>
+      <c r="AO194">
+        <v>0.88</v>
+      </c>
+      <c r="AP194">
+        <v>0.63</v>
+      </c>
+      <c r="AQ194">
+        <v>1.11</v>
+      </c>
+      <c r="AR194">
+        <v>1.24</v>
+      </c>
+      <c r="AS194">
+        <v>0.89</v>
+      </c>
+      <c r="AT194">
+        <v>2.13</v>
+      </c>
+      <c r="AU194">
         <v>4</v>
       </c>
-      <c r="T194">
-        <v>1.44</v>
-      </c>
-      <c r="U194">
-        <v>2.63</v>
-      </c>
-      <c r="V194">
-        <v>3.25</v>
-      </c>
-      <c r="W194">
-        <v>1.33</v>
-      </c>
-      <c r="X194">
-        <v>9</v>
-      </c>
-      <c r="Y194">
-        <v>1.07</v>
-      </c>
-      <c r="Z194">
-        <v>2.01</v>
-      </c>
-      <c r="AA194">
-        <v>3.06</v>
-      </c>
-      <c r="AB194">
-        <v>3.16</v>
-      </c>
-      <c r="AC194">
-        <v>1.06</v>
-      </c>
-      <c r="AD194">
-        <v>8.5</v>
-      </c>
-      <c r="AE194">
-        <v>1.3</v>
-      </c>
-      <c r="AF194">
-        <v>3.4</v>
-      </c>
-      <c r="AG194">
-        <v>1.95</v>
-      </c>
-      <c r="AH194">
-        <v>1.85</v>
-      </c>
-      <c r="AI194">
-        <v>1.83</v>
-      </c>
-      <c r="AJ194">
-        <v>1.83</v>
-      </c>
-      <c r="AK194">
-        <v>1.38</v>
-      </c>
-      <c r="AL194">
-        <v>1.28</v>
-      </c>
-      <c r="AM194">
-        <v>1.57</v>
-      </c>
-      <c r="AN194">
-        <v>2.29</v>
-      </c>
-      <c r="AO194">
-        <v>1.57</v>
-      </c>
-      <c r="AP194">
-        <v>2</v>
-      </c>
-      <c r="AQ194">
-        <v>1.75</v>
-      </c>
-      <c r="AR194">
-        <v>1.56</v>
-      </c>
-      <c r="AS194">
-        <v>1.35</v>
-      </c>
-      <c r="AT194">
-        <v>2.91</v>
-      </c>
-      <c r="AU194">
+      <c r="AV194">
+        <v>7</v>
+      </c>
+      <c r="AW194">
+        <v>4</v>
+      </c>
+      <c r="AX194">
+        <v>3</v>
+      </c>
+      <c r="AY194">
+        <v>10</v>
+      </c>
+      <c r="AZ194">
+        <v>12</v>
+      </c>
+      <c r="BA194">
         <v>5</v>
       </c>
-      <c r="AV194">
-        <v>4</v>
-      </c>
-      <c r="AW194">
-        <v>3</v>
-      </c>
-      <c r="AX194">
-        <v>1</v>
-      </c>
-      <c r="AY194">
-        <v>12</v>
-      </c>
-      <c r="AZ194">
+      <c r="BB194">
         <v>8</v>
-      </c>
-      <c r="BA194">
-        <v>8</v>
-      </c>
-      <c r="BB194">
-        <v>5</v>
       </c>
       <c r="BC194">
         <v>13</v>
       </c>
       <c r="BD194">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="BE194">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF194">
-        <v>2.53</v>
+        <v>3.56</v>
       </c>
       <c r="BG194">
         <v>1.25</v>
@@ -41265,7 +41268,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7476740</v>
+        <v>7476738</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41280,10 +41283,10 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H195" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -41295,28 +41298,28 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195">
         <v>0</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O195" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="P195" t="s">
         <v>101</v>
       </c>
       <c r="Q195">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="R195">
         <v>2.2</v>
       </c>
       <c r="S195">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="T195">
         <v>1.36</v>
@@ -41337,13 +41340,13 @@
         <v>1.08</v>
       </c>
       <c r="Z195">
-        <v>1.97</v>
+        <v>3.14</v>
       </c>
       <c r="AA195">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="AB195">
-        <v>3.21</v>
+        <v>2</v>
       </c>
       <c r="AC195">
         <v>1.05</v>
@@ -41364,106 +41367,312 @@
         <v>1.93</v>
       </c>
       <c r="AI195">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ195">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK195">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AL195">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM195">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AN195">
-        <v>1.13</v>
+        <v>0.57</v>
       </c>
       <c r="AO195">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP195">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ195">
-        <v>0.88</v>
+        <v>1.75</v>
       </c>
       <c r="AR195">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS195">
-        <v>1.11</v>
+        <v>1.51</v>
       </c>
       <c r="AT195">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="AU195">
         <v>4</v>
       </c>
       <c r="AV195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX195">
+        <v>5</v>
+      </c>
+      <c r="AY195">
+        <v>8</v>
+      </c>
+      <c r="AZ195">
+        <v>17</v>
+      </c>
+      <c r="BA195">
+        <v>3</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>9</v>
+      </c>
+      <c r="BD195">
+        <v>2.42</v>
+      </c>
+      <c r="BE195">
+        <v>7</v>
+      </c>
+      <c r="BF195">
+        <v>1.82</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>0</v>
+      </c>
+      <c r="BI195">
+        <v>1.33</v>
+      </c>
+      <c r="BJ195">
+        <v>3.05</v>
+      </c>
+      <c r="BK195">
+        <v>1.56</v>
+      </c>
+      <c r="BL195">
+        <v>2.26</v>
+      </c>
+      <c r="BM195">
+        <v>2</v>
+      </c>
+      <c r="BN195">
+        <v>1.8</v>
+      </c>
+      <c r="BO195">
+        <v>2.44</v>
+      </c>
+      <c r="BP195">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7476745</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45621.70833333334</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>90</v>
+      </c>
+      <c r="H196" t="s">
+        <v>86</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>220</v>
+      </c>
+      <c r="P196" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q196">
+        <v>2.5</v>
+      </c>
+      <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
+        <v>5</v>
+      </c>
+      <c r="T196">
+        <v>1.5</v>
+      </c>
+      <c r="U196">
+        <v>2.5</v>
+      </c>
+      <c r="V196">
+        <v>3.4</v>
+      </c>
+      <c r="W196">
+        <v>1.3</v>
+      </c>
+      <c r="X196">
+        <v>10</v>
+      </c>
+      <c r="Y196">
+        <v>1.06</v>
+      </c>
+      <c r="Z196">
+        <v>1.8</v>
+      </c>
+      <c r="AA196">
+        <v>3.35</v>
+      </c>
+      <c r="AB196">
+        <v>4.2</v>
+      </c>
+      <c r="AC196">
+        <v>1.07</v>
+      </c>
+      <c r="AD196">
+        <v>8.5</v>
+      </c>
+      <c r="AE196">
+        <v>1.42</v>
+      </c>
+      <c r="AF196">
+        <v>2.9</v>
+      </c>
+      <c r="AG196">
+        <v>2</v>
+      </c>
+      <c r="AH196">
+        <v>1.7</v>
+      </c>
+      <c r="AI196">
+        <v>2</v>
+      </c>
+      <c r="AJ196">
+        <v>1.73</v>
+      </c>
+      <c r="AK196">
+        <v>1.22</v>
+      </c>
+      <c r="AL196">
+        <v>1.25</v>
+      </c>
+      <c r="AM196">
+        <v>1.95</v>
+      </c>
+      <c r="AN196">
+        <v>2</v>
+      </c>
+      <c r="AO196">
+        <v>1.57</v>
+      </c>
+      <c r="AP196">
+        <v>1.88</v>
+      </c>
+      <c r="AQ196">
+        <v>1.5</v>
+      </c>
+      <c r="AR196">
+        <v>1.37</v>
+      </c>
+      <c r="AS196">
+        <v>0.95</v>
+      </c>
+      <c r="AT196">
+        <v>2.32</v>
+      </c>
+      <c r="AU196">
+        <v>2</v>
+      </c>
+      <c r="AV196">
+        <v>7</v>
+      </c>
+      <c r="AW196">
+        <v>3</v>
+      </c>
+      <c r="AX196">
+        <v>8</v>
+      </c>
+      <c r="AY196">
+        <v>10</v>
+      </c>
+      <c r="AZ196">
+        <v>25</v>
+      </c>
+      <c r="BA196">
         <v>4</v>
       </c>
-      <c r="AY195">
-        <v>9</v>
-      </c>
-      <c r="AZ195">
+      <c r="BB196">
         <v>8</v>
       </c>
-      <c r="BA195">
-        <v>8</v>
-      </c>
-      <c r="BB195">
-        <v>4</v>
-      </c>
-      <c r="BC195">
+      <c r="BC196">
         <v>12</v>
       </c>
-      <c r="BD195">
-        <v>1.55</v>
-      </c>
-      <c r="BE195">
-        <v>8</v>
-      </c>
-      <c r="BF195">
-        <v>3.1</v>
-      </c>
-      <c r="BG195">
-        <v>1.25</v>
-      </c>
-      <c r="BH195">
-        <v>3.58</v>
-      </c>
-      <c r="BI195">
-        <v>1.45</v>
-      </c>
-      <c r="BJ195">
-        <v>2.55</v>
-      </c>
-      <c r="BK195">
-        <v>1.75</v>
-      </c>
-      <c r="BL195">
-        <v>1.96</v>
-      </c>
-      <c r="BM195">
-        <v>2.21</v>
-      </c>
-      <c r="BN195">
-        <v>1.59</v>
-      </c>
-      <c r="BO195">
-        <v>2.9</v>
-      </c>
-      <c r="BP195">
-        <v>1.36</v>
+      <c r="BD196">
+        <v>1.51</v>
+      </c>
+      <c r="BE196">
+        <v>8.5</v>
+      </c>
+      <c r="BF196">
+        <v>3.07</v>
+      </c>
+      <c r="BG196">
+        <v>1.18</v>
+      </c>
+      <c r="BH196">
+        <v>3.68</v>
+      </c>
+      <c r="BI196">
+        <v>1.38</v>
+      </c>
+      <c r="BJ196">
+        <v>2.62</v>
+      </c>
+      <c r="BK196">
+        <v>1.7</v>
+      </c>
+      <c r="BL196">
+        <v>2.05</v>
+      </c>
+      <c r="BM196">
+        <v>2.12</v>
+      </c>
+      <c r="BN196">
+        <v>1.58</v>
+      </c>
+      <c r="BO196">
+        <v>2.73</v>
+      </c>
+      <c r="BP196">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -925,13 +925,16 @@
     <t>['58', '75']</t>
   </si>
   <si>
-    <t>['52']</t>
+    <t>['6', '14', '78']</t>
   </si>
   <si>
     <t>['59', '71']</t>
   </si>
   <si>
-    <t>['6', '14', '78']</t>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['37', '53']</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
         <v>0.89</v>
@@ -3690,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ12">
         <v>1.56</v>
@@ -4105,7 +4108,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4311,7 +4314,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6780,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>1.75</v>
@@ -8016,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -8225,7 +8228,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -9873,7 +9876,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -12136,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>1.78</v>
@@ -15641,7 +15644,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -16256,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -17701,7 +17704,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18522,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
         <v>1.13</v>
@@ -20585,7 +20588,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.4</v>
@@ -21200,7 +21203,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ97">
         <v>0.89</v>
@@ -22851,7 +22854,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1</v>
@@ -24293,7 +24296,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.25</v>
@@ -24496,7 +24499,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ113">
         <v>1.75</v>
@@ -25526,7 +25529,7 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -25732,7 +25735,7 @@
         <v>0.8</v>
       </c>
       <c r="AP119">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -27795,7 +27798,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -29237,7 +29240,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
         <v>1.71</v>
@@ -30264,7 +30267,7 @@
         <v>1.5</v>
       </c>
       <c r="AP141">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ141">
         <v>1.78</v>
@@ -32324,7 +32327,7 @@
         <v>0.6</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -33151,7 +33154,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
         <v>1.41</v>
@@ -34799,7 +34802,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ163">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR163">
         <v>1.49</v>
@@ -35826,7 +35829,7 @@
         <v>0.86</v>
       </c>
       <c r="AP168">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ168">
         <v>0.78</v>
@@ -36650,7 +36653,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ172">
         <v>0.88</v>
@@ -39125,7 +39128,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ184">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39835,10 +39838,10 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45617.875</v>
+        <v>45618.69791666666</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G188" t="s">
         <v>73</v>
@@ -39961,22 +39964,22 @@
         <v>2.56</v>
       </c>
       <c r="AU188">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV188">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW188">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY188">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ188">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA188">
         <v>5</v>
@@ -40032,7 +40035,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7476736</v>
+        <v>7476747</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40047,160 +40050,160 @@
         <v>17</v>
       </c>
       <c r="G189" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H189" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O189" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="P189" t="s">
         <v>303</v>
       </c>
       <c r="Q189">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R189">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S189">
+        <v>4.5</v>
+      </c>
+      <c r="T189">
+        <v>1.36</v>
+      </c>
+      <c r="U189">
+        <v>3</v>
+      </c>
+      <c r="V189">
+        <v>2.63</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>7</v>
+      </c>
+      <c r="Y189">
+        <v>1.1</v>
+      </c>
+      <c r="Z189">
+        <v>1.82</v>
+      </c>
+      <c r="AA189">
+        <v>3.21</v>
+      </c>
+      <c r="AB189">
+        <v>3.58</v>
+      </c>
+      <c r="AC189">
+        <v>1.05</v>
+      </c>
+      <c r="AD189">
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1.28</v>
+      </c>
+      <c r="AF189">
+        <v>3.55</v>
+      </c>
+      <c r="AG189">
+        <v>1.81</v>
+      </c>
+      <c r="AH189">
+        <v>1.95</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.2</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.93</v>
+      </c>
+      <c r="AN189">
+        <v>0.71</v>
+      </c>
+      <c r="AO189">
+        <v>0.88</v>
+      </c>
+      <c r="AP189">
+        <v>0.63</v>
+      </c>
+      <c r="AQ189">
+        <v>1.11</v>
+      </c>
+      <c r="AR189">
+        <v>1.24</v>
+      </c>
+      <c r="AS189">
+        <v>0.89</v>
+      </c>
+      <c r="AT189">
+        <v>2.13</v>
+      </c>
+      <c r="AU189">
         <v>4</v>
       </c>
-      <c r="T189">
-        <v>1.44</v>
-      </c>
-      <c r="U189">
-        <v>2.63</v>
-      </c>
-      <c r="V189">
-        <v>3.25</v>
-      </c>
-      <c r="W189">
-        <v>1.33</v>
-      </c>
-      <c r="X189">
-        <v>9</v>
-      </c>
-      <c r="Y189">
-        <v>1.07</v>
-      </c>
-      <c r="Z189">
-        <v>2.01</v>
-      </c>
-      <c r="AA189">
-        <v>3.06</v>
-      </c>
-      <c r="AB189">
-        <v>3.16</v>
-      </c>
-      <c r="AC189">
-        <v>1.06</v>
-      </c>
-      <c r="AD189">
-        <v>8.5</v>
-      </c>
-      <c r="AE189">
-        <v>1.3</v>
-      </c>
-      <c r="AF189">
-        <v>3.4</v>
-      </c>
-      <c r="AG189">
-        <v>1.95</v>
-      </c>
-      <c r="AH189">
-        <v>1.85</v>
-      </c>
-      <c r="AI189">
-        <v>1.83</v>
-      </c>
-      <c r="AJ189">
-        <v>1.83</v>
-      </c>
-      <c r="AK189">
-        <v>1.38</v>
-      </c>
-      <c r="AL189">
-        <v>1.28</v>
-      </c>
-      <c r="AM189">
-        <v>1.57</v>
-      </c>
-      <c r="AN189">
-        <v>2.29</v>
-      </c>
-      <c r="AO189">
-        <v>1.57</v>
-      </c>
-      <c r="AP189">
-        <v>2</v>
-      </c>
-      <c r="AQ189">
-        <v>1.75</v>
-      </c>
-      <c r="AR189">
-        <v>1.56</v>
-      </c>
-      <c r="AS189">
-        <v>1.35</v>
-      </c>
-      <c r="AT189">
-        <v>2.91</v>
-      </c>
-      <c r="AU189">
+      <c r="AV189">
+        <v>7</v>
+      </c>
+      <c r="AW189">
+        <v>4</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>10</v>
+      </c>
+      <c r="AZ189">
+        <v>12</v>
+      </c>
+      <c r="BA189">
         <v>5</v>
       </c>
-      <c r="AV189">
-        <v>4</v>
-      </c>
-      <c r="AW189">
-        <v>3</v>
-      </c>
-      <c r="AX189">
-        <v>1</v>
-      </c>
-      <c r="AY189">
-        <v>12</v>
-      </c>
-      <c r="AZ189">
+      <c r="BB189">
         <v>8</v>
-      </c>
-      <c r="BA189">
-        <v>8</v>
-      </c>
-      <c r="BB189">
-        <v>5</v>
       </c>
       <c r="BC189">
         <v>13</v>
       </c>
       <c r="BD189">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="BE189">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF189">
-        <v>2.53</v>
+        <v>3.56</v>
       </c>
       <c r="BG189">
         <v>1.25</v>
@@ -40238,7 +40241,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7476743</v>
+        <v>7476744</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40250,13 +40253,13 @@
         <v>45618.875</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G190" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H190" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -40271,172 +40274,172 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O190" t="s">
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="Q190">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="R190">
+        <v>2.6</v>
+      </c>
+      <c r="S190">
+        <v>6</v>
+      </c>
+      <c r="T190">
+        <v>1.25</v>
+      </c>
+      <c r="U190">
+        <v>3.75</v>
+      </c>
+      <c r="V190">
+        <v>2.25</v>
+      </c>
+      <c r="W190">
+        <v>1.57</v>
+      </c>
+      <c r="X190">
+        <v>5.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.14</v>
+      </c>
+      <c r="Z190">
+        <v>1.39</v>
+      </c>
+      <c r="AA190">
+        <v>4.11</v>
+      </c>
+      <c r="AB190">
+        <v>5.5</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
+        <v>1.18</v>
+      </c>
+      <c r="AF190">
+        <v>4.75</v>
+      </c>
+      <c r="AG190">
+        <v>1.7</v>
+      </c>
+      <c r="AH190">
+        <v>2</v>
+      </c>
+      <c r="AI190">
+        <v>1.67</v>
+      </c>
+      <c r="AJ190">
         <v>2.1</v>
       </c>
-      <c r="S190">
-        <v>3.25</v>
-      </c>
-      <c r="T190">
-        <v>1.4</v>
-      </c>
-      <c r="U190">
+      <c r="AK190">
+        <v>1.1</v>
+      </c>
+      <c r="AL190">
+        <v>1.15</v>
+      </c>
+      <c r="AM190">
         <v>2.75</v>
       </c>
-      <c r="V190">
-        <v>3</v>
-      </c>
-      <c r="W190">
-        <v>1.36</v>
-      </c>
-      <c r="X190">
+      <c r="AN190">
+        <v>1.86</v>
+      </c>
+      <c r="AO190">
+        <v>0.75</v>
+      </c>
+      <c r="AP190">
+        <v>1.75</v>
+      </c>
+      <c r="AQ190">
+        <v>0.78</v>
+      </c>
+      <c r="AR190">
+        <v>1.71</v>
+      </c>
+      <c r="AS190">
+        <v>0.82</v>
+      </c>
+      <c r="AT190">
+        <v>2.53</v>
+      </c>
+      <c r="AU190">
         <v>8</v>
       </c>
-      <c r="Y190">
-        <v>1.08</v>
-      </c>
-      <c r="Z190">
-        <v>2.31</v>
-      </c>
-      <c r="AA190">
-        <v>2.94</v>
-      </c>
-      <c r="AB190">
-        <v>2.52</v>
-      </c>
-      <c r="AC190">
-        <v>1.06</v>
-      </c>
-      <c r="AD190">
-        <v>8.5</v>
-      </c>
-      <c r="AE190">
-        <v>1.3</v>
-      </c>
-      <c r="AF190">
-        <v>3.4</v>
-      </c>
-      <c r="AG190">
-        <v>1.96</v>
-      </c>
-      <c r="AH190">
-        <v>1.8</v>
-      </c>
-      <c r="AI190">
-        <v>1.73</v>
-      </c>
-      <c r="AJ190">
-        <v>2</v>
-      </c>
-      <c r="AK190">
-        <v>1.42</v>
-      </c>
-      <c r="AL190">
-        <v>1.28</v>
-      </c>
-      <c r="AM190">
-        <v>1.53</v>
-      </c>
-      <c r="AN190">
-        <v>1.29</v>
-      </c>
-      <c r="AO190">
-        <v>0.71</v>
-      </c>
-      <c r="AP190">
-        <v>1.13</v>
-      </c>
-      <c r="AQ190">
-        <v>1</v>
-      </c>
-      <c r="AR190">
-        <v>1.22</v>
-      </c>
-      <c r="AS190">
-        <v>1.08</v>
-      </c>
-      <c r="AT190">
-        <v>2.3</v>
-      </c>
-      <c r="AU190">
-        <v>4</v>
-      </c>
       <c r="AV190">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW190">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX190">
         <v>2</v>
       </c>
       <c r="AY190">
+        <v>28</v>
+      </c>
+      <c r="AZ190">
+        <v>8</v>
+      </c>
+      <c r="BA190">
+        <v>10</v>
+      </c>
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
         <v>11</v>
       </c>
-      <c r="AZ190">
-        <v>12</v>
-      </c>
-      <c r="BA190">
-        <v>6</v>
-      </c>
-      <c r="BB190">
-        <v>6</v>
-      </c>
-      <c r="BC190">
-        <v>12</v>
-      </c>
       <c r="BD190">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="BE190">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF190">
-        <v>2.45</v>
+        <v>5.18</v>
       </c>
       <c r="BG190">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BH190">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="BI190">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BJ190">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BK190">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BL190">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BM190">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="BN190">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="BO190">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BP190">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40444,7 +40447,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7476740</v>
+        <v>7476743</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40453,16 +40456,16 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45618.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G191" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H191" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -40474,40 +40477,40 @@
         <v>0</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N191">
         <v>1</v>
       </c>
       <c r="O191" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="Q191">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R191">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S191">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="T191">
+        <v>1.4</v>
+      </c>
+      <c r="U191">
+        <v>2.75</v>
+      </c>
+      <c r="V191">
+        <v>3</v>
+      </c>
+      <c r="W191">
         <v>1.36</v>
-      </c>
-      <c r="U191">
-        <v>3</v>
-      </c>
-      <c r="V191">
-        <v>2.75</v>
-      </c>
-      <c r="W191">
-        <v>1.4</v>
       </c>
       <c r="X191">
         <v>8</v>
@@ -40516,31 +40519,31 @@
         <v>1.08</v>
       </c>
       <c r="Z191">
-        <v>1.97</v>
+        <v>2.31</v>
       </c>
       <c r="AA191">
-        <v>3.11</v>
+        <v>2.94</v>
       </c>
       <c r="AB191">
-        <v>3.21</v>
+        <v>2.52</v>
       </c>
       <c r="AC191">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD191">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE191">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF191">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AG191">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="AH191">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AI191">
         <v>1.73</v>
@@ -40549,70 +40552,70 @@
         <v>2</v>
       </c>
       <c r="AK191">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AL191">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM191">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AN191">
+        <v>1.29</v>
+      </c>
+      <c r="AO191">
+        <v>0.71</v>
+      </c>
+      <c r="AP191">
         <v>1.13</v>
       </c>
-      <c r="AO191">
-        <v>1</v>
-      </c>
-      <c r="AP191">
-        <v>1.33</v>
-      </c>
       <c r="AQ191">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR191">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="AS191">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AT191">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AU191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW191">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX191">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY191">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ191">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA191">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB191">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC191">
         <v>12</v>
       </c>
       <c r="BD191">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="BE191">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF191">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="BG191">
         <v>1.25</v>
@@ -40659,7 +40662,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45618.875</v>
+        <v>45619.5</v>
       </c>
       <c r="F192">
         <v>17</v>
@@ -40791,16 +40794,16 @@
         <v>4</v>
       </c>
       <c r="AW192">
+        <v>7</v>
+      </c>
+      <c r="AX192">
         <v>5</v>
-      </c>
-      <c r="AX192">
-        <v>3</v>
       </c>
       <c r="AY192">
         <v>9</v>
       </c>
       <c r="AZ192">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA192">
         <v>5</v>
@@ -40856,7 +40859,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7476744</v>
+        <v>7476738</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40865,16 +40868,16 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45619.39583333334</v>
+        <v>45619.5</v>
       </c>
       <c r="F193">
         <v>17</v>
       </c>
       <c r="G193" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H193" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -40901,58 +40904,58 @@
         <v>101</v>
       </c>
       <c r="Q193">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="R193">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="S193">
-        <v>6</v>
+        <v>2.63</v>
       </c>
       <c r="T193">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="U193">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V193">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W193">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X193">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y193">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z193">
-        <v>1.39</v>
+        <v>3.14</v>
       </c>
       <c r="AA193">
-        <v>4.11</v>
+        <v>3.1</v>
       </c>
       <c r="AB193">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="AC193">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD193">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE193">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AF193">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="AG193">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AH193">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AI193">
         <v>1.67</v>
@@ -40961,70 +40964,70 @@
         <v>2.1</v>
       </c>
       <c r="AK193">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AL193">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AM193">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="AN193">
+        <v>0.57</v>
+      </c>
+      <c r="AO193">
         <v>1.86</v>
       </c>
-      <c r="AO193">
-        <v>0.75</v>
-      </c>
       <c r="AP193">
+        <v>0.63</v>
+      </c>
+      <c r="AQ193">
         <v>1.75</v>
       </c>
-      <c r="AQ193">
-        <v>0.78</v>
-      </c>
       <c r="AR193">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="AS193">
-        <v>0.82</v>
+        <v>1.51</v>
       </c>
       <c r="AT193">
-        <v>2.53</v>
+        <v>3.02</v>
       </c>
       <c r="AU193">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV193">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW193">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AX193">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY193">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="AZ193">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA193">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BB193">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC193">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD193">
-        <v>1.23</v>
+        <v>2.42</v>
       </c>
       <c r="BE193">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="BF193">
-        <v>5.18</v>
+        <v>1.82</v>
       </c>
       <c r="BG193">
         <v>0</v>
@@ -41033,28 +41036,28 @@
         <v>0</v>
       </c>
       <c r="BI193">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BJ193">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="BK193">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="BL193">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="BM193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN193">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BO193">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BP193">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41062,7 +41065,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7476747</v>
+        <v>7476736</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41077,160 +41080,160 @@
         <v>17</v>
       </c>
       <c r="G194" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H194" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O194" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="P194" t="s">
         <v>305</v>
       </c>
       <c r="Q194">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R194">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S194">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T194">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U194">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V194">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="W194">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y194">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z194">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="AA194">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="AB194">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="AC194">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD194">
+        <v>8.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.3</v>
+      </c>
+      <c r="AF194">
+        <v>3.4</v>
+      </c>
+      <c r="AG194">
+        <v>1.95</v>
+      </c>
+      <c r="AH194">
+        <v>1.85</v>
+      </c>
+      <c r="AI194">
+        <v>1.83</v>
+      </c>
+      <c r="AJ194">
+        <v>1.83</v>
+      </c>
+      <c r="AK194">
+        <v>1.38</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.57</v>
+      </c>
+      <c r="AN194">
+        <v>2.29</v>
+      </c>
+      <c r="AO194">
+        <v>1.57</v>
+      </c>
+      <c r="AP194">
+        <v>2</v>
+      </c>
+      <c r="AQ194">
+        <v>1.75</v>
+      </c>
+      <c r="AR194">
+        <v>1.56</v>
+      </c>
+      <c r="AS194">
+        <v>1.35</v>
+      </c>
+      <c r="AT194">
+        <v>2.91</v>
+      </c>
+      <c r="AU194">
+        <v>3</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
         <v>9</v>
       </c>
-      <c r="AE194">
-        <v>1.28</v>
-      </c>
-      <c r="AF194">
-        <v>3.55</v>
-      </c>
-      <c r="AG194">
-        <v>1.81</v>
-      </c>
-      <c r="AH194">
-        <v>1.95</v>
-      </c>
-      <c r="AI194">
-        <v>1.73</v>
-      </c>
-      <c r="AJ194">
-        <v>2</v>
-      </c>
-      <c r="AK194">
-        <v>1.2</v>
-      </c>
-      <c r="AL194">
-        <v>1.25</v>
-      </c>
-      <c r="AM194">
-        <v>1.93</v>
-      </c>
-      <c r="AN194">
-        <v>0.71</v>
-      </c>
-      <c r="AO194">
-        <v>0.88</v>
-      </c>
-      <c r="AP194">
-        <v>0.63</v>
-      </c>
-      <c r="AQ194">
-        <v>1.11</v>
-      </c>
-      <c r="AR194">
-        <v>1.24</v>
-      </c>
-      <c r="AS194">
-        <v>0.89</v>
-      </c>
-      <c r="AT194">
-        <v>2.13</v>
-      </c>
-      <c r="AU194">
+      <c r="AX194">
         <v>4</v>
       </c>
-      <c r="AV194">
-        <v>7</v>
-      </c>
-      <c r="AW194">
-        <v>4</v>
-      </c>
-      <c r="AX194">
-        <v>3</v>
-      </c>
       <c r="AY194">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA194">
+        <v>8</v>
+      </c>
+      <c r="BB194">
         <v>5</v>
-      </c>
-      <c r="BB194">
-        <v>8</v>
       </c>
       <c r="BC194">
         <v>13</v>
       </c>
       <c r="BD194">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="BE194">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF194">
-        <v>3.56</v>
+        <v>2.53</v>
       </c>
       <c r="BG194">
         <v>1.25</v>
@@ -41268,7 +41271,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7476738</v>
+        <v>7476745</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41277,196 +41280,196 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45619.5</v>
+        <v>45620.875</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H195" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O195" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="P195" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Q195">
+        <v>2.5</v>
+      </c>
+      <c r="R195">
+        <v>2.05</v>
+      </c>
+      <c r="S195">
+        <v>5</v>
+      </c>
+      <c r="T195">
+        <v>1.5</v>
+      </c>
+      <c r="U195">
+        <v>2.5</v>
+      </c>
+      <c r="V195">
+        <v>3.4</v>
+      </c>
+      <c r="W195">
+        <v>1.3</v>
+      </c>
+      <c r="X195">
+        <v>10</v>
+      </c>
+      <c r="Y195">
+        <v>1.06</v>
+      </c>
+      <c r="Z195">
+        <v>1.8</v>
+      </c>
+      <c r="AA195">
+        <v>3.35</v>
+      </c>
+      <c r="AB195">
+        <v>4.2</v>
+      </c>
+      <c r="AC195">
+        <v>1.07</v>
+      </c>
+      <c r="AD195">
+        <v>8.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.42</v>
+      </c>
+      <c r="AF195">
+        <v>2.9</v>
+      </c>
+      <c r="AG195">
+        <v>2</v>
+      </c>
+      <c r="AH195">
+        <v>1.7</v>
+      </c>
+      <c r="AI195">
+        <v>2</v>
+      </c>
+      <c r="AJ195">
+        <v>1.73</v>
+      </c>
+      <c r="AK195">
+        <v>1.22</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.95</v>
+      </c>
+      <c r="AN195">
+        <v>2</v>
+      </c>
+      <c r="AO195">
+        <v>1.57</v>
+      </c>
+      <c r="AP195">
+        <v>1.88</v>
+      </c>
+      <c r="AQ195">
+        <v>1.5</v>
+      </c>
+      <c r="AR195">
+        <v>1.37</v>
+      </c>
+      <c r="AS195">
+        <v>0.95</v>
+      </c>
+      <c r="AT195">
+        <v>2.32</v>
+      </c>
+      <c r="AU195">
+        <v>2</v>
+      </c>
+      <c r="AV195">
+        <v>7</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>8</v>
+      </c>
+      <c r="AY195">
+        <v>10</v>
+      </c>
+      <c r="AZ195">
+        <v>25</v>
+      </c>
+      <c r="BA195">
         <v>4</v>
       </c>
-      <c r="R195">
-        <v>2.2</v>
-      </c>
-      <c r="S195">
-        <v>2.63</v>
-      </c>
-      <c r="T195">
-        <v>1.36</v>
-      </c>
-      <c r="U195">
-        <v>3</v>
-      </c>
-      <c r="V195">
-        <v>2.75</v>
-      </c>
-      <c r="W195">
-        <v>1.4</v>
-      </c>
-      <c r="X195">
+      <c r="BB195">
         <v>8</v>
       </c>
-      <c r="Y195">
-        <v>1.08</v>
-      </c>
-      <c r="Z195">
-        <v>3.14</v>
-      </c>
-      <c r="AA195">
-        <v>3.1</v>
-      </c>
-      <c r="AB195">
-        <v>2</v>
-      </c>
-      <c r="AC195">
-        <v>1.05</v>
-      </c>
-      <c r="AD195">
-        <v>9</v>
-      </c>
-      <c r="AE195">
-        <v>1.28</v>
-      </c>
-      <c r="AF195">
-        <v>3.55</v>
-      </c>
-      <c r="AG195">
-        <v>1.83</v>
-      </c>
-      <c r="AH195">
-        <v>1.93</v>
-      </c>
-      <c r="AI195">
-        <v>1.67</v>
-      </c>
-      <c r="AJ195">
-        <v>2.1</v>
-      </c>
-      <c r="AK195">
+      <c r="BC195">
+        <v>12</v>
+      </c>
+      <c r="BD195">
+        <v>1.51</v>
+      </c>
+      <c r="BE195">
+        <v>8.5</v>
+      </c>
+      <c r="BF195">
+        <v>3.07</v>
+      </c>
+      <c r="BG195">
+        <v>1.18</v>
+      </c>
+      <c r="BH195">
+        <v>3.68</v>
+      </c>
+      <c r="BI195">
+        <v>1.38</v>
+      </c>
+      <c r="BJ195">
+        <v>2.62</v>
+      </c>
+      <c r="BK195">
         <v>1.7</v>
       </c>
-      <c r="AL195">
-        <v>1.28</v>
-      </c>
-      <c r="AM195">
-        <v>1.3</v>
-      </c>
-      <c r="AN195">
-        <v>0.57</v>
-      </c>
-      <c r="AO195">
-        <v>1.86</v>
-      </c>
-      <c r="AP195">
-        <v>0.63</v>
-      </c>
-      <c r="AQ195">
-        <v>1.75</v>
-      </c>
-      <c r="AR195">
-        <v>1.51</v>
-      </c>
-      <c r="AS195">
-        <v>1.51</v>
-      </c>
-      <c r="AT195">
-        <v>3.02</v>
-      </c>
-      <c r="AU195">
-        <v>4</v>
-      </c>
-      <c r="AV195">
-        <v>4</v>
-      </c>
-      <c r="AW195">
-        <v>2</v>
-      </c>
-      <c r="AX195">
-        <v>5</v>
-      </c>
-      <c r="AY195">
-        <v>8</v>
-      </c>
-      <c r="AZ195">
-        <v>17</v>
-      </c>
-      <c r="BA195">
-        <v>3</v>
-      </c>
-      <c r="BB195">
-        <v>6</v>
-      </c>
-      <c r="BC195">
-        <v>9</v>
-      </c>
-      <c r="BD195">
-        <v>2.42</v>
-      </c>
-      <c r="BE195">
-        <v>7</v>
-      </c>
-      <c r="BF195">
-        <v>1.82</v>
-      </c>
-      <c r="BG195">
-        <v>0</v>
-      </c>
-      <c r="BH195">
-        <v>0</v>
-      </c>
-      <c r="BI195">
+      <c r="BL195">
+        <v>2.05</v>
+      </c>
+      <c r="BM195">
+        <v>2.12</v>
+      </c>
+      <c r="BN195">
+        <v>1.58</v>
+      </c>
+      <c r="BO195">
+        <v>2.73</v>
+      </c>
+      <c r="BP195">
         <v>1.33</v>
-      </c>
-      <c r="BJ195">
-        <v>3.05</v>
-      </c>
-      <c r="BK195">
-        <v>1.56</v>
-      </c>
-      <c r="BL195">
-        <v>2.26</v>
-      </c>
-      <c r="BM195">
-        <v>2</v>
-      </c>
-      <c r="BN195">
-        <v>1.8</v>
-      </c>
-      <c r="BO195">
-        <v>2.44</v>
-      </c>
-      <c r="BP195">
-        <v>1.49</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41474,7 +41477,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7476745</v>
+        <v>7476599</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41483,49 +41486,49 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45621.70833333334</v>
+        <v>45622.69791666666</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G196" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H196" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196">
         <v>1</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N196">
         <v>2</v>
       </c>
       <c r="O196" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="P196" t="s">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="Q196">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R196">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="T196">
         <v>1.5</v>
@@ -41546,133 +41549,133 @@
         <v>1.06</v>
       </c>
       <c r="Z196">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="AA196">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB196">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="AC196">
         <v>1.07</v>
       </c>
       <c r="AD196">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE196">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AF196">
         <v>2.9</v>
       </c>
       <c r="AG196">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH196">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AI196">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ196">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AK196">
+        <v>1.55</v>
+      </c>
+      <c r="AL196">
+        <v>1.28</v>
+      </c>
+      <c r="AM196">
+        <v>1.36</v>
+      </c>
+      <c r="AN196">
+        <v>1.29</v>
+      </c>
+      <c r="AO196">
+        <v>1</v>
+      </c>
+      <c r="AP196">
+        <v>1.13</v>
+      </c>
+      <c r="AQ196">
+        <v>1.25</v>
+      </c>
+      <c r="AR196">
+        <v>1.32</v>
+      </c>
+      <c r="AS196">
         <v>1.22</v>
       </c>
-      <c r="AL196">
-        <v>1.25</v>
-      </c>
-      <c r="AM196">
-        <v>1.95</v>
-      </c>
-      <c r="AN196">
-        <v>2</v>
-      </c>
-      <c r="AO196">
-        <v>1.57</v>
-      </c>
-      <c r="AP196">
-        <v>1.88</v>
-      </c>
-      <c r="AQ196">
-        <v>1.5</v>
-      </c>
-      <c r="AR196">
-        <v>1.37</v>
-      </c>
-      <c r="AS196">
-        <v>0.95</v>
-      </c>
       <c r="AT196">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="AU196">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW196">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX196">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY196">
+        <v>15</v>
+      </c>
+      <c r="AZ196">
         <v>10</v>
-      </c>
-      <c r="AZ196">
-        <v>25</v>
       </c>
       <c r="BA196">
         <v>4</v>
       </c>
       <c r="BB196">
+        <v>2</v>
+      </c>
+      <c r="BC196">
+        <v>6</v>
+      </c>
+      <c r="BD196">
+        <v>2.1</v>
+      </c>
+      <c r="BE196">
         <v>8</v>
       </c>
-      <c r="BC196">
-        <v>12</v>
-      </c>
-      <c r="BD196">
-        <v>1.51</v>
-      </c>
-      <c r="BE196">
-        <v>8.5</v>
-      </c>
       <c r="BF196">
-        <v>3.07</v>
+        <v>1.91</v>
       </c>
       <c r="BG196">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH196">
-        <v>3.68</v>
+        <v>3.82</v>
       </c>
       <c r="BI196">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="BJ196">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="BK196">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL196">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="BM196">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="BN196">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="BO196">
-        <v>2.73</v>
+        <v>2.55</v>
       </c>
       <c r="BP196">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['40', '90+4']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -935,6 +938,9 @@
   </si>
   <si>
     <t>['37', '53']</t>
+  </si>
+  <si>
+    <t>['59', '77']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>0.89</v>
@@ -1761,7 +1767,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2173,7 +2179,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2379,7 +2385,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2791,7 +2797,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2997,7 +3003,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3078,7 +3084,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3203,7 +3209,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3409,7 +3415,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3899,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ13">
         <v>1.11</v>
@@ -4108,7 +4114,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4439,7 +4445,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4851,7 +4857,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5057,7 +5063,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5263,7 +5269,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5881,7 +5887,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6293,7 +6299,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6499,7 +6505,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7323,7 +7329,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8019,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -8434,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8765,7 +8771,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8971,7 +8977,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9383,7 +9389,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9589,7 +9595,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9795,7 +9801,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9876,7 +9882,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -10079,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
         <v>0.88</v>
@@ -10207,7 +10213,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10413,7 +10419,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11031,7 +11037,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11443,7 +11449,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11649,7 +11655,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -12061,7 +12067,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12139,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
         <v>1.78</v>
@@ -12348,7 +12354,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -14121,7 +14127,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14327,7 +14333,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14405,7 +14411,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14739,7 +14745,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15357,7 +15363,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15563,7 +15569,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15644,7 +15650,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15769,7 +15775,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15975,7 +15981,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16181,7 +16187,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16259,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16387,7 +16393,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16593,7 +16599,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16799,7 +16805,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17086,7 +17092,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.15</v>
@@ -17211,7 +17217,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18241,7 +18247,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18731,7 +18737,7 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19477,7 +19483,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19889,7 +19895,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20095,7 +20101,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20301,7 +20307,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20588,7 +20594,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.4</v>
@@ -20713,7 +20719,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20919,7 +20925,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21537,7 +21543,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21743,7 +21749,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21821,7 +21827,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ100">
         <v>1.57</v>
@@ -22155,7 +22161,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22361,7 +22367,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22567,7 +22573,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22854,7 +22860,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1</v>
@@ -22979,7 +22985,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23266,7 +23272,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -24421,7 +24427,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24499,7 +24505,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
         <v>1.75</v>
@@ -24627,7 +24633,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25245,7 +25251,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25451,7 +25457,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25529,7 +25535,7 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -25657,7 +25663,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25863,7 +25869,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26481,7 +26487,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26687,7 +26693,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26893,7 +26899,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27305,7 +27311,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27511,7 +27517,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27798,7 +27804,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -27923,7 +27929,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28129,7 +28135,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28335,7 +28341,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28541,7 +28547,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28747,7 +28753,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28953,7 +28959,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29365,7 +29371,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29777,7 +29783,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29983,7 +29989,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30061,7 +30067,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ140">
         <v>0.89</v>
@@ -30189,7 +30195,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30807,7 +30813,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31300,7 +31306,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ146">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
         <v>1.18</v>
@@ -31425,7 +31431,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -32249,7 +32255,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32327,7 +32333,7 @@
         <v>0.6</v>
       </c>
       <c r="AP151">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32455,7 +32461,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32661,7 +32667,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33073,7 +33079,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33485,7 +33491,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -34103,7 +34109,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34802,7 +34808,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR163">
         <v>1.49</v>
@@ -34927,7 +34933,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35133,7 +35139,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35339,7 +35345,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35545,7 +35551,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -35623,7 +35629,7 @@
         <v>1.67</v>
       </c>
       <c r="AP167">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ167">
         <v>1.5</v>
@@ -35957,7 +35963,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36575,7 +36581,7 @@
         <v>101</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -36653,7 +36659,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ172">
         <v>0.88</v>
@@ -36781,7 +36787,7 @@
         <v>148</v>
       </c>
       <c r="P173" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36862,7 +36868,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ173">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR173">
         <v>1.27</v>
@@ -38017,7 +38023,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38429,7 +38435,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -39047,7 +39053,7 @@
         <v>184</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39253,7 +39259,7 @@
         <v>215</v>
       </c>
       <c r="P185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39665,7 +39671,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -40035,7 +40041,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7476747</v>
+        <v>7476744</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40044,196 +40050,196 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45618.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F189">
         <v>17</v>
       </c>
       <c r="G189" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H189" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>101</v>
+      </c>
+      <c r="P189" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q189">
+        <v>1.91</v>
+      </c>
+      <c r="R189">
+        <v>2.6</v>
+      </c>
+      <c r="S189">
+        <v>6</v>
+      </c>
+      <c r="T189">
+        <v>1.25</v>
+      </c>
+      <c r="U189">
+        <v>3.75</v>
+      </c>
+      <c r="V189">
+        <v>2.25</v>
+      </c>
+      <c r="W189">
+        <v>1.57</v>
+      </c>
+      <c r="X189">
+        <v>5.5</v>
+      </c>
+      <c r="Y189">
+        <v>1.14</v>
+      </c>
+      <c r="Z189">
+        <v>1.39</v>
+      </c>
+      <c r="AA189">
+        <v>4.11</v>
+      </c>
+      <c r="AB189">
+        <v>5.5</v>
+      </c>
+      <c r="AC189">
+        <v>1.03</v>
+      </c>
+      <c r="AD189">
+        <v>11</v>
+      </c>
+      <c r="AE189">
+        <v>1.18</v>
+      </c>
+      <c r="AF189">
+        <v>4.75</v>
+      </c>
+      <c r="AG189">
+        <v>1.7</v>
+      </c>
+      <c r="AH189">
+        <v>2</v>
+      </c>
+      <c r="AI189">
+        <v>1.67</v>
+      </c>
+      <c r="AJ189">
+        <v>2.1</v>
+      </c>
+      <c r="AK189">
+        <v>1.1</v>
+      </c>
+      <c r="AL189">
+        <v>1.15</v>
+      </c>
+      <c r="AM189">
+        <v>2.75</v>
+      </c>
+      <c r="AN189">
+        <v>1.86</v>
+      </c>
+      <c r="AO189">
+        <v>0.75</v>
+      </c>
+      <c r="AP189">
+        <v>1.75</v>
+      </c>
+      <c r="AQ189">
+        <v>0.78</v>
+      </c>
+      <c r="AR189">
+        <v>1.71</v>
+      </c>
+      <c r="AS189">
+        <v>0.82</v>
+      </c>
+      <c r="AT189">
+        <v>2.53</v>
+      </c>
+      <c r="AU189">
+        <v>8</v>
+      </c>
+      <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
+        <v>20</v>
+      </c>
+      <c r="AX189">
         <v>5</v>
       </c>
-      <c r="O189" t="s">
-        <v>219</v>
-      </c>
-      <c r="P189" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q189">
-        <v>2.4</v>
-      </c>
-      <c r="R189">
-        <v>2.25</v>
-      </c>
-      <c r="S189">
-        <v>4.5</v>
-      </c>
-      <c r="T189">
-        <v>1.36</v>
-      </c>
-      <c r="U189">
-        <v>3</v>
-      </c>
-      <c r="V189">
-        <v>2.63</v>
-      </c>
-      <c r="W189">
-        <v>1.44</v>
-      </c>
-      <c r="X189">
-        <v>7</v>
-      </c>
-      <c r="Y189">
-        <v>1.1</v>
-      </c>
-      <c r="Z189">
-        <v>1.82</v>
-      </c>
-      <c r="AA189">
-        <v>3.21</v>
-      </c>
-      <c r="AB189">
-        <v>3.58</v>
-      </c>
-      <c r="AC189">
-        <v>1.05</v>
-      </c>
-      <c r="AD189">
-        <v>9</v>
-      </c>
-      <c r="AE189">
-        <v>1.28</v>
-      </c>
-      <c r="AF189">
-        <v>3.55</v>
-      </c>
-      <c r="AG189">
-        <v>1.81</v>
-      </c>
-      <c r="AH189">
+      <c r="AY189">
+        <v>28</v>
+      </c>
+      <c r="AZ189">
+        <v>8</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>1</v>
+      </c>
+      <c r="BC189">
+        <v>11</v>
+      </c>
+      <c r="BD189">
+        <v>1.23</v>
+      </c>
+      <c r="BE189">
+        <v>9.5</v>
+      </c>
+      <c r="BF189">
+        <v>5.18</v>
+      </c>
+      <c r="BG189">
+        <v>0</v>
+      </c>
+      <c r="BH189">
+        <v>0</v>
+      </c>
+      <c r="BI189">
+        <v>0</v>
+      </c>
+      <c r="BJ189">
+        <v>0</v>
+      </c>
+      <c r="BK189">
+        <v>1.77</v>
+      </c>
+      <c r="BL189">
         <v>1.95</v>
       </c>
-      <c r="AI189">
-        <v>1.73</v>
-      </c>
-      <c r="AJ189">
-        <v>2</v>
-      </c>
-      <c r="AK189">
-        <v>1.2</v>
-      </c>
-      <c r="AL189">
-        <v>1.25</v>
-      </c>
-      <c r="AM189">
-        <v>1.93</v>
-      </c>
-      <c r="AN189">
-        <v>0.71</v>
-      </c>
-      <c r="AO189">
-        <v>0.88</v>
-      </c>
-      <c r="AP189">
-        <v>0.63</v>
-      </c>
-      <c r="AQ189">
-        <v>1.11</v>
-      </c>
-      <c r="AR189">
-        <v>1.24</v>
-      </c>
-      <c r="AS189">
-        <v>0.89</v>
-      </c>
-      <c r="AT189">
-        <v>2.13</v>
-      </c>
-      <c r="AU189">
-        <v>4</v>
-      </c>
-      <c r="AV189">
-        <v>7</v>
-      </c>
-      <c r="AW189">
-        <v>4</v>
-      </c>
-      <c r="AX189">
-        <v>3</v>
-      </c>
-      <c r="AY189">
-        <v>10</v>
-      </c>
-      <c r="AZ189">
-        <v>12</v>
-      </c>
-      <c r="BA189">
-        <v>5</v>
-      </c>
-      <c r="BB189">
-        <v>8</v>
-      </c>
-      <c r="BC189">
-        <v>13</v>
-      </c>
-      <c r="BD189">
-        <v>1.45</v>
-      </c>
-      <c r="BE189">
-        <v>8</v>
-      </c>
-      <c r="BF189">
-        <v>3.56</v>
-      </c>
-      <c r="BG189">
-        <v>1.25</v>
-      </c>
-      <c r="BH189">
-        <v>3.58</v>
-      </c>
-      <c r="BI189">
-        <v>1.45</v>
-      </c>
-      <c r="BJ189">
-        <v>2.55</v>
-      </c>
-      <c r="BK189">
-        <v>1.75</v>
-      </c>
-      <c r="BL189">
-        <v>1.96</v>
-      </c>
       <c r="BM189">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="BN189">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="BO189">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BP189">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40241,7 +40247,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7476744</v>
+        <v>7476743</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40250,16 +40256,16 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45618.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F190">
         <v>17</v>
       </c>
       <c r="G190" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H190" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -40274,172 +40280,172 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190" t="s">
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="Q190">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="R190">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S190">
+        <v>3.25</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.75</v>
+      </c>
+      <c r="V190">
+        <v>3</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>8</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>2.31</v>
+      </c>
+      <c r="AA190">
+        <v>2.94</v>
+      </c>
+      <c r="AB190">
+        <v>2.52</v>
+      </c>
+      <c r="AC190">
+        <v>1.06</v>
+      </c>
+      <c r="AD190">
+        <v>8.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.3</v>
+      </c>
+      <c r="AF190">
+        <v>3.4</v>
+      </c>
+      <c r="AG190">
+        <v>1.96</v>
+      </c>
+      <c r="AH190">
+        <v>1.8</v>
+      </c>
+      <c r="AI190">
+        <v>1.73</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>1.42</v>
+      </c>
+      <c r="AL190">
+        <v>1.28</v>
+      </c>
+      <c r="AM190">
+        <v>1.53</v>
+      </c>
+      <c r="AN190">
+        <v>1.29</v>
+      </c>
+      <c r="AO190">
+        <v>0.71</v>
+      </c>
+      <c r="AP190">
+        <v>1.13</v>
+      </c>
+      <c r="AQ190">
+        <v>1</v>
+      </c>
+      <c r="AR190">
+        <v>1.22</v>
+      </c>
+      <c r="AS190">
+        <v>1.08</v>
+      </c>
+      <c r="AT190">
+        <v>2.3</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>7</v>
+      </c>
+      <c r="AX190">
+        <v>7</v>
+      </c>
+      <c r="AY190">
+        <v>11</v>
+      </c>
+      <c r="AZ190">
+        <v>11</v>
+      </c>
+      <c r="BA190">
         <v>6</v>
       </c>
-      <c r="T190">
+      <c r="BB190">
+        <v>6</v>
+      </c>
+      <c r="BC190">
+        <v>12</v>
+      </c>
+      <c r="BD190">
+        <v>1.75</v>
+      </c>
+      <c r="BE190">
+        <v>7.5</v>
+      </c>
+      <c r="BF190">
+        <v>2.45</v>
+      </c>
+      <c r="BG190">
         <v>1.25</v>
       </c>
-      <c r="U190">
-        <v>3.75</v>
-      </c>
-      <c r="V190">
-        <v>2.25</v>
-      </c>
-      <c r="W190">
-        <v>1.57</v>
-      </c>
-      <c r="X190">
-        <v>5.5</v>
-      </c>
-      <c r="Y190">
-        <v>1.14</v>
-      </c>
-      <c r="Z190">
-        <v>1.39</v>
-      </c>
-      <c r="AA190">
-        <v>4.11</v>
-      </c>
-      <c r="AB190">
-        <v>5.5</v>
-      </c>
-      <c r="AC190">
-        <v>1.03</v>
-      </c>
-      <c r="AD190">
-        <v>11</v>
-      </c>
-      <c r="AE190">
-        <v>1.18</v>
-      </c>
-      <c r="AF190">
-        <v>4.75</v>
-      </c>
-      <c r="AG190">
-        <v>1.7</v>
-      </c>
-      <c r="AH190">
-        <v>2</v>
-      </c>
-      <c r="AI190">
-        <v>1.67</v>
-      </c>
-      <c r="AJ190">
-        <v>2.1</v>
-      </c>
-      <c r="AK190">
-        <v>1.1</v>
-      </c>
-      <c r="AL190">
-        <v>1.15</v>
-      </c>
-      <c r="AM190">
-        <v>2.75</v>
-      </c>
-      <c r="AN190">
-        <v>1.86</v>
-      </c>
-      <c r="AO190">
-        <v>0.75</v>
-      </c>
-      <c r="AP190">
+      <c r="BH190">
+        <v>3.58</v>
+      </c>
+      <c r="BI190">
+        <v>1.45</v>
+      </c>
+      <c r="BJ190">
+        <v>2.55</v>
+      </c>
+      <c r="BK190">
         <v>1.75</v>
       </c>
-      <c r="AQ190">
-        <v>0.78</v>
-      </c>
-      <c r="AR190">
-        <v>1.71</v>
-      </c>
-      <c r="AS190">
-        <v>0.82</v>
-      </c>
-      <c r="AT190">
-        <v>2.53</v>
-      </c>
-      <c r="AU190">
-        <v>8</v>
-      </c>
-      <c r="AV190">
-        <v>3</v>
-      </c>
-      <c r="AW190">
-        <v>11</v>
-      </c>
-      <c r="AX190">
-        <v>2</v>
-      </c>
-      <c r="AY190">
-        <v>28</v>
-      </c>
-      <c r="AZ190">
-        <v>8</v>
-      </c>
-      <c r="BA190">
-        <v>10</v>
-      </c>
-      <c r="BB190">
-        <v>1</v>
-      </c>
-      <c r="BC190">
-        <v>11</v>
-      </c>
-      <c r="BD190">
-        <v>1.23</v>
-      </c>
-      <c r="BE190">
-        <v>9.5</v>
-      </c>
-      <c r="BF190">
-        <v>5.18</v>
-      </c>
-      <c r="BG190">
-        <v>0</v>
-      </c>
-      <c r="BH190">
-        <v>0</v>
-      </c>
-      <c r="BI190">
-        <v>0</v>
-      </c>
-      <c r="BJ190">
-        <v>0</v>
-      </c>
-      <c r="BK190">
-        <v>1.77</v>
-      </c>
       <c r="BL190">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BM190">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="BN190">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="BO190">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BP190">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40447,7 +40453,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7476743</v>
+        <v>7476747</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40456,94 +40462,94 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45619.39583333334</v>
+        <v>45619.5</v>
       </c>
       <c r="F191">
         <v>17</v>
       </c>
       <c r="G191" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H191" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O191" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="Q191">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R191">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S191">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T191">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U191">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V191">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W191">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y191">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z191">
-        <v>2.31</v>
+        <v>1.82</v>
       </c>
       <c r="AA191">
-        <v>2.94</v>
+        <v>3.21</v>
       </c>
       <c r="AB191">
-        <v>2.52</v>
+        <v>3.58</v>
       </c>
       <c r="AC191">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD191">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE191">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF191">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AG191">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="AH191">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AI191">
         <v>1.73</v>
@@ -40552,70 +40558,70 @@
         <v>2</v>
       </c>
       <c r="AK191">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AL191">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM191">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="AN191">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AO191">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="AP191">
-        <v>1.13</v>
+        <v>0.63</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR191">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AS191">
-        <v>1.08</v>
+        <v>0.89</v>
       </c>
       <c r="AT191">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="AU191">
         <v>4</v>
       </c>
       <c r="AV191">
+        <v>7</v>
+      </c>
+      <c r="AW191">
+        <v>5</v>
+      </c>
+      <c r="AX191">
         <v>4</v>
       </c>
-      <c r="AW191">
-        <v>7</v>
-      </c>
-      <c r="AX191">
-        <v>7</v>
-      </c>
       <c r="AY191">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ191">
         <v>11</v>
       </c>
       <c r="BA191">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB191">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC191">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD191">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="BE191">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF191">
-        <v>2.45</v>
+        <v>3.56</v>
       </c>
       <c r="BG191">
         <v>1.25</v>
@@ -40695,7 +40701,7 @@
         <v>148</v>
       </c>
       <c r="P192" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>2.3</v>
@@ -41107,7 +41113,7 @@
         <v>101</v>
       </c>
       <c r="P194" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q194">
         <v>2.88</v>
@@ -41271,7 +41277,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7476745</v>
+        <v>7476740</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41280,196 +41286,196 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45620.875</v>
+        <v>45619.5</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G195" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H195" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="Q195">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R195">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S195">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T195">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V195">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W195">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X195">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y195">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z195">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="AA195">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="AB195">
-        <v>4.2</v>
+        <v>3.21</v>
       </c>
       <c r="AC195">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD195">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE195">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AF195">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="AG195">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AH195">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="AI195">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AJ195">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AK195">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AL195">
         <v>1.25</v>
       </c>
       <c r="AM195">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AN195">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AO195">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ195">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AR195">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS195">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AT195">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="AU195">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV195">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW195">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX195">
+        <v>-1</v>
+      </c>
+      <c r="AY195">
+        <v>-1</v>
+      </c>
+      <c r="AZ195">
+        <v>-1</v>
+      </c>
+      <c r="BA195">
         <v>8</v>
       </c>
-      <c r="AY195">
-        <v>10</v>
-      </c>
-      <c r="AZ195">
-        <v>25</v>
-      </c>
-      <c r="BA195">
+      <c r="BB195">
         <v>4</v>
-      </c>
-      <c r="BB195">
-        <v>8</v>
       </c>
       <c r="BC195">
         <v>12</v>
       </c>
       <c r="BD195">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="BE195">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF195">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="BG195">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH195">
-        <v>3.68</v>
+        <v>3.58</v>
       </c>
       <c r="BI195">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BJ195">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="BK195">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BL195">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="BM195">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="BN195">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="BO195">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="BP195">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41477,7 +41483,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7476599</v>
+        <v>7476745</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41486,49 +41492,49 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45622.69791666666</v>
+        <v>45621.70833333334</v>
       </c>
       <c r="F196">
+        <v>17</v>
+      </c>
+      <c r="G196" t="s">
+        <v>90</v>
+      </c>
+      <c r="H196" t="s">
+        <v>86</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>220</v>
+      </c>
+      <c r="P196" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q196">
+        <v>2.5</v>
+      </c>
+      <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
         <v>5</v>
-      </c>
-      <c r="G196" t="s">
-        <v>80</v>
-      </c>
-      <c r="H196" t="s">
-        <v>71</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>1</v>
-      </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-      <c r="M196">
-        <v>2</v>
-      </c>
-      <c r="N196">
-        <v>2</v>
-      </c>
-      <c r="O196" t="s">
-        <v>101</v>
-      </c>
-      <c r="P196" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q196">
-        <v>3.75</v>
-      </c>
-      <c r="R196">
-        <v>2</v>
-      </c>
-      <c r="S196">
-        <v>3.1</v>
       </c>
       <c r="T196">
         <v>1.5</v>
@@ -41549,133 +41555,545 @@
         <v>1.06</v>
       </c>
       <c r="Z196">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA196">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB196">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="AC196">
         <v>1.07</v>
       </c>
       <c r="AD196">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE196">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AF196">
         <v>2.9</v>
       </c>
       <c r="AG196">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH196">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AI196">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AJ196">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AK196">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="AL196">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM196">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="AN196">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO196">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP196">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="AQ196">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR196">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AS196">
-        <v>1.22</v>
+        <v>0.95</v>
       </c>
       <c r="AT196">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="AU196">
+        <v>2</v>
+      </c>
+      <c r="AV196">
         <v>7</v>
       </c>
-      <c r="AV196">
-        <v>5</v>
-      </c>
       <c r="AW196">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY196">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ196">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="BA196">
         <v>4</v>
       </c>
       <c r="BB196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC196">
+        <v>12</v>
+      </c>
+      <c r="BD196">
+        <v>1.51</v>
+      </c>
+      <c r="BE196">
+        <v>8.5</v>
+      </c>
+      <c r="BF196">
+        <v>3.07</v>
+      </c>
+      <c r="BG196">
+        <v>1.18</v>
+      </c>
+      <c r="BH196">
+        <v>3.68</v>
+      </c>
+      <c r="BI196">
+        <v>1.38</v>
+      </c>
+      <c r="BJ196">
+        <v>2.62</v>
+      </c>
+      <c r="BK196">
+        <v>1.7</v>
+      </c>
+      <c r="BL196">
+        <v>2.05</v>
+      </c>
+      <c r="BM196">
+        <v>2.12</v>
+      </c>
+      <c r="BN196">
+        <v>1.58</v>
+      </c>
+      <c r="BO196">
+        <v>2.73</v>
+      </c>
+      <c r="BP196">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7476599</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F197">
+        <v>5</v>
+      </c>
+      <c r="G197" t="s">
+        <v>80</v>
+      </c>
+      <c r="H197" t="s">
+        <v>71</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>101</v>
+      </c>
+      <c r="P197" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q197">
+        <v>3.75</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>3.1</v>
+      </c>
+      <c r="T197">
+        <v>1.5</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>3.4</v>
+      </c>
+      <c r="W197">
+        <v>1.3</v>
+      </c>
+      <c r="X197">
+        <v>10</v>
+      </c>
+      <c r="Y197">
+        <v>1.06</v>
+      </c>
+      <c r="Z197">
+        <v>3.25</v>
+      </c>
+      <c r="AA197">
+        <v>3.25</v>
+      </c>
+      <c r="AB197">
+        <v>2.15</v>
+      </c>
+      <c r="AC197">
+        <v>1.07</v>
+      </c>
+      <c r="AD197">
+        <v>8</v>
+      </c>
+      <c r="AE197">
+        <v>1.4</v>
+      </c>
+      <c r="AF197">
+        <v>2.9</v>
+      </c>
+      <c r="AG197">
+        <v>2.1</v>
+      </c>
+      <c r="AH197">
+        <v>1.63</v>
+      </c>
+      <c r="AI197">
+        <v>1.91</v>
+      </c>
+      <c r="AJ197">
+        <v>1.8</v>
+      </c>
+      <c r="AK197">
+        <v>1.55</v>
+      </c>
+      <c r="AL197">
+        <v>1.28</v>
+      </c>
+      <c r="AM197">
+        <v>1.36</v>
+      </c>
+      <c r="AN197">
+        <v>1.29</v>
+      </c>
+      <c r="AO197">
+        <v>1</v>
+      </c>
+      <c r="AP197">
+        <v>1.13</v>
+      </c>
+      <c r="AQ197">
+        <v>1.25</v>
+      </c>
+      <c r="AR197">
+        <v>1.32</v>
+      </c>
+      <c r="AS197">
+        <v>1.22</v>
+      </c>
+      <c r="AT197">
+        <v>2.54</v>
+      </c>
+      <c r="AU197">
+        <v>7</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>8</v>
+      </c>
+      <c r="AX197">
+        <v>5</v>
+      </c>
+      <c r="AY197">
+        <v>19</v>
+      </c>
+      <c r="AZ197">
+        <v>15</v>
+      </c>
+      <c r="BA197">
+        <v>4</v>
+      </c>
+      <c r="BB197">
+        <v>2</v>
+      </c>
+      <c r="BC197">
         <v>6</v>
       </c>
-      <c r="BD196">
+      <c r="BD197">
         <v>2.1</v>
       </c>
-      <c r="BE196">
+      <c r="BE197">
         <v>8</v>
       </c>
-      <c r="BF196">
+      <c r="BF197">
         <v>1.91</v>
       </c>
-      <c r="BG196">
+      <c r="BG197">
         <v>1.17</v>
       </c>
-      <c r="BH196">
+      <c r="BH197">
         <v>3.82</v>
       </c>
-      <c r="BI196">
+      <c r="BI197">
         <v>1.36</v>
       </c>
-      <c r="BJ196">
+      <c r="BJ197">
         <v>2.88</v>
       </c>
-      <c r="BK196">
+      <c r="BK197">
         <v>1.62</v>
       </c>
-      <c r="BL196">
+      <c r="BL197">
         <v>2.16</v>
       </c>
-      <c r="BM196">
+      <c r="BM197">
         <v>1.95</v>
       </c>
-      <c r="BN196">
+      <c r="BN197">
         <v>1.77</v>
       </c>
-      <c r="BO196">
+      <c r="BO197">
         <v>2.55</v>
       </c>
-      <c r="BP196">
+      <c r="BP197">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7476676</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F198">
+        <v>11</v>
+      </c>
+      <c r="G198" t="s">
+        <v>81</v>
+      </c>
+      <c r="H198" t="s">
+        <v>83</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>221</v>
+      </c>
+      <c r="P198" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q198">
+        <v>2.2</v>
+      </c>
+      <c r="R198">
+        <v>2.3</v>
+      </c>
+      <c r="S198">
+        <v>5</v>
+      </c>
+      <c r="T198">
+        <v>1.33</v>
+      </c>
+      <c r="U198">
+        <v>3.25</v>
+      </c>
+      <c r="V198">
+        <v>2.63</v>
+      </c>
+      <c r="W198">
+        <v>1.44</v>
+      </c>
+      <c r="X198">
+        <v>6.5</v>
+      </c>
+      <c r="Y198">
+        <v>1.11</v>
+      </c>
+      <c r="Z198">
+        <v>1.65</v>
+      </c>
+      <c r="AA198">
+        <v>4</v>
+      </c>
+      <c r="AB198">
+        <v>4.75</v>
+      </c>
+      <c r="AC198">
+        <v>1.04</v>
+      </c>
+      <c r="AD198">
+        <v>10</v>
+      </c>
+      <c r="AE198">
+        <v>1.22</v>
+      </c>
+      <c r="AF198">
+        <v>4.2</v>
+      </c>
+      <c r="AG198">
+        <v>1.66</v>
+      </c>
+      <c r="AH198">
+        <v>2.05</v>
+      </c>
+      <c r="AI198">
+        <v>1.73</v>
+      </c>
+      <c r="AJ198">
+        <v>2</v>
+      </c>
+      <c r="AK198">
+        <v>1.14</v>
+      </c>
+      <c r="AL198">
+        <v>1.18</v>
+      </c>
+      <c r="AM198">
+        <v>2.38</v>
+      </c>
+      <c r="AN198">
+        <v>2.29</v>
+      </c>
+      <c r="AO198">
+        <v>1.29</v>
+      </c>
+      <c r="AP198">
+        <v>2.13</v>
+      </c>
+      <c r="AQ198">
+        <v>1.25</v>
+      </c>
+      <c r="AR198">
+        <v>1.48</v>
+      </c>
+      <c r="AS198">
+        <v>1.33</v>
+      </c>
+      <c r="AT198">
+        <v>2.81</v>
+      </c>
+      <c r="AU198">
+        <v>6</v>
+      </c>
+      <c r="AV198">
+        <v>5</v>
+      </c>
+      <c r="AW198">
+        <v>6</v>
+      </c>
+      <c r="AX198">
+        <v>5</v>
+      </c>
+      <c r="AY198">
+        <v>19</v>
+      </c>
+      <c r="AZ198">
+        <v>14</v>
+      </c>
+      <c r="BA198">
+        <v>5</v>
+      </c>
+      <c r="BB198">
+        <v>6</v>
+      </c>
+      <c r="BC198">
+        <v>11</v>
+      </c>
+      <c r="BD198">
+        <v>1.37</v>
+      </c>
+      <c r="BE198">
+        <v>9.5</v>
+      </c>
+      <c r="BF198">
+        <v>3.69</v>
+      </c>
+      <c r="BG198">
+        <v>1.17</v>
+      </c>
+      <c r="BH198">
+        <v>4.4</v>
+      </c>
+      <c r="BI198">
+        <v>1.33</v>
+      </c>
+      <c r="BJ198">
+        <v>3</v>
+      </c>
+      <c r="BK198">
+        <v>1.56</v>
+      </c>
+      <c r="BL198">
+        <v>2.26</v>
+      </c>
+      <c r="BM198">
+        <v>1.95</v>
+      </c>
+      <c r="BN198">
+        <v>1.77</v>
+      </c>
+      <c r="BO198">
+        <v>2.4</v>
+      </c>
+      <c r="BP198">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1302,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2054,7 +2054,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
         <v>1.78</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ14">
         <v>0.88</v>
@@ -7819,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>1.14</v>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10500,7 +10500,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -15238,7 +15238,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15853,7 +15853,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
         <v>1.57</v>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
         <v>1.11</v>
@@ -19564,7 +19564,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
         <v>0.82</v>
@@ -20385,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ93">
         <v>1.78</v>
@@ -22445,7 +22445,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103">
         <v>1.56</v>
@@ -23269,7 +23269,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
         <v>1.25</v>
@@ -26774,7 +26774,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR124">
         <v>1.08</v>
@@ -29861,7 +29861,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -31097,10 +31097,10 @@
         <v>1.4</v>
       </c>
       <c r="AP145">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>1.61</v>
@@ -33981,7 +33981,7 @@
         <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ159">
         <v>0.88</v>
@@ -35011,7 +35011,7 @@
         <v>1.17</v>
       </c>
       <c r="AP164">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ164">
         <v>1.13</v>
@@ -35632,7 +35632,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR167">
         <v>1.52</v>
@@ -36247,7 +36247,7 @@
         <v>1.14</v>
       </c>
       <c r="AP170">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -40985,7 +40985,7 @@
         <v>1.86</v>
       </c>
       <c r="AP193">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ193">
         <v>1.75</v>
@@ -41606,7 +41606,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ196">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR196">
         <v>1.37</v>
@@ -42094,6 +42094,418 @@
       </c>
       <c r="BP198">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7476670</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45626.39583333334</v>
+      </c>
+      <c r="F199">
+        <v>11</v>
+      </c>
+      <c r="G199" t="s">
+        <v>75</v>
+      </c>
+      <c r="H199" t="s">
+        <v>85</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199" t="s">
+        <v>101</v>
+      </c>
+      <c r="P199" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q199">
+        <v>2.75</v>
+      </c>
+      <c r="R199">
+        <v>2.2</v>
+      </c>
+      <c r="S199">
+        <v>4</v>
+      </c>
+      <c r="T199">
+        <v>1.4</v>
+      </c>
+      <c r="U199">
+        <v>2.75</v>
+      </c>
+      <c r="V199">
+        <v>3</v>
+      </c>
+      <c r="W199">
+        <v>1.36</v>
+      </c>
+      <c r="X199">
+        <v>8</v>
+      </c>
+      <c r="Y199">
+        <v>1.08</v>
+      </c>
+      <c r="Z199">
+        <v>1.98</v>
+      </c>
+      <c r="AA199">
+        <v>3.6</v>
+      </c>
+      <c r="AB199">
+        <v>3.4</v>
+      </c>
+      <c r="AC199">
+        <v>1.05</v>
+      </c>
+      <c r="AD199">
+        <v>9</v>
+      </c>
+      <c r="AE199">
+        <v>1.3</v>
+      </c>
+      <c r="AF199">
+        <v>3.4</v>
+      </c>
+      <c r="AG199">
+        <v>1.9</v>
+      </c>
+      <c r="AH199">
+        <v>1.8</v>
+      </c>
+      <c r="AI199">
+        <v>1.8</v>
+      </c>
+      <c r="AJ199">
+        <v>1.91</v>
+      </c>
+      <c r="AK199">
+        <v>1.28</v>
+      </c>
+      <c r="AL199">
+        <v>1.25</v>
+      </c>
+      <c r="AM199">
+        <v>1.75</v>
+      </c>
+      <c r="AN199">
+        <v>1.43</v>
+      </c>
+      <c r="AO199">
+        <v>1</v>
+      </c>
+      <c r="AP199">
+        <v>1.38</v>
+      </c>
+      <c r="AQ199">
+        <v>1</v>
+      </c>
+      <c r="AR199">
+        <v>1.45</v>
+      </c>
+      <c r="AS199">
+        <v>1.09</v>
+      </c>
+      <c r="AT199">
+        <v>2.54</v>
+      </c>
+      <c r="AU199">
+        <v>4</v>
+      </c>
+      <c r="AV199">
+        <v>2</v>
+      </c>
+      <c r="AW199">
+        <v>3</v>
+      </c>
+      <c r="AX199">
+        <v>4</v>
+      </c>
+      <c r="AY199">
+        <v>9</v>
+      </c>
+      <c r="AZ199">
+        <v>9</v>
+      </c>
+      <c r="BA199">
+        <v>3</v>
+      </c>
+      <c r="BB199">
+        <v>7</v>
+      </c>
+      <c r="BC199">
+        <v>10</v>
+      </c>
+      <c r="BD199">
+        <v>1.64</v>
+      </c>
+      <c r="BE199">
+        <v>8.5</v>
+      </c>
+      <c r="BF199">
+        <v>2.66</v>
+      </c>
+      <c r="BG199">
+        <v>0</v>
+      </c>
+      <c r="BH199">
+        <v>0</v>
+      </c>
+      <c r="BI199">
+        <v>1.33</v>
+      </c>
+      <c r="BJ199">
+        <v>3.05</v>
+      </c>
+      <c r="BK199">
+        <v>1.58</v>
+      </c>
+      <c r="BL199">
+        <v>2.2</v>
+      </c>
+      <c r="BM199">
+        <v>2</v>
+      </c>
+      <c r="BN199">
+        <v>1.72</v>
+      </c>
+      <c r="BO199">
+        <v>2.65</v>
+      </c>
+      <c r="BP199">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7476751</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45626.39583333334</v>
+      </c>
+      <c r="F200">
+        <v>18</v>
+      </c>
+      <c r="G200" t="s">
+        <v>82</v>
+      </c>
+      <c r="H200" t="s">
+        <v>86</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>122</v>
+      </c>
+      <c r="P200" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q200">
+        <v>3.4</v>
+      </c>
+      <c r="R200">
+        <v>2.05</v>
+      </c>
+      <c r="S200">
+        <v>3.4</v>
+      </c>
+      <c r="T200">
+        <v>1.44</v>
+      </c>
+      <c r="U200">
+        <v>2.63</v>
+      </c>
+      <c r="V200">
+        <v>3.4</v>
+      </c>
+      <c r="W200">
+        <v>1.3</v>
+      </c>
+      <c r="X200">
+        <v>10</v>
+      </c>
+      <c r="Y200">
+        <v>1.06</v>
+      </c>
+      <c r="Z200">
+        <v>2.7</v>
+      </c>
+      <c r="AA200">
+        <v>3.25</v>
+      </c>
+      <c r="AB200">
+        <v>2.55</v>
+      </c>
+      <c r="AC200">
+        <v>1.07</v>
+      </c>
+      <c r="AD200">
+        <v>8</v>
+      </c>
+      <c r="AE200">
+        <v>1.38</v>
+      </c>
+      <c r="AF200">
+        <v>2.95</v>
+      </c>
+      <c r="AG200">
+        <v>2.1</v>
+      </c>
+      <c r="AH200">
+        <v>1.65</v>
+      </c>
+      <c r="AI200">
+        <v>1.83</v>
+      </c>
+      <c r="AJ200">
+        <v>1.83</v>
+      </c>
+      <c r="AK200">
+        <v>1.45</v>
+      </c>
+      <c r="AL200">
+        <v>1.28</v>
+      </c>
+      <c r="AM200">
+        <v>1.45</v>
+      </c>
+      <c r="AN200">
+        <v>0.63</v>
+      </c>
+      <c r="AO200">
+        <v>1.5</v>
+      </c>
+      <c r="AP200">
+        <v>0.67</v>
+      </c>
+      <c r="AQ200">
+        <v>1.44</v>
+      </c>
+      <c r="AR200">
+        <v>1.51</v>
+      </c>
+      <c r="AS200">
+        <v>1.09</v>
+      </c>
+      <c r="AT200">
+        <v>2.6</v>
+      </c>
+      <c r="AU200">
+        <v>3</v>
+      </c>
+      <c r="AV200">
+        <v>4</v>
+      </c>
+      <c r="AW200">
+        <v>2</v>
+      </c>
+      <c r="AX200">
+        <v>5</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>10</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>3</v>
+      </c>
+      <c r="BC200">
+        <v>3</v>
+      </c>
+      <c r="BD200">
+        <v>1.82</v>
+      </c>
+      <c r="BE200">
+        <v>8</v>
+      </c>
+      <c r="BF200">
+        <v>2.39</v>
+      </c>
+      <c r="BG200">
+        <v>1.21</v>
+      </c>
+      <c r="BH200">
+        <v>3.95</v>
+      </c>
+      <c r="BI200">
+        <v>1.4</v>
+      </c>
+      <c r="BJ200">
+        <v>2.7</v>
+      </c>
+      <c r="BK200">
+        <v>1.72</v>
+      </c>
+      <c r="BL200">
+        <v>2</v>
+      </c>
+      <c r="BM200">
+        <v>2.2</v>
+      </c>
+      <c r="BN200">
+        <v>1.58</v>
+      </c>
+      <c r="BO200">
+        <v>3</v>
+      </c>
+      <c r="BP200">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,13 +712,28 @@
     <t>['34', '42']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['8', '28', '58']</t>
+  </si>
+  <si>
+    <t>['55', '75']</t>
+  </si>
+  <si>
+    <t>['29', '44', '86']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
     <t>['31', '43']</t>
-  </si>
-  <si>
-    <t>['47']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -766,9 +781,6 @@
     <t>['30', '80']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['74']</t>
   </si>
   <si>
@@ -791,9 +803,6 @@
   </si>
   <si>
     <t>['43', '49', '64']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['10', '19', '67']</t>
@@ -989,6 +998,18 @@
   </si>
   <si>
     <t>['13', '39', '45+3', '68']</t>
+  </si>
+  <si>
+    <t>['25', '39', '90+1']</t>
+  </si>
+  <si>
+    <t>['12', '23', '50']</t>
+  </si>
+  <si>
+    <t>['15', '56']</t>
+  </si>
+  <si>
+    <t>['7', '63']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1815,7 +1836,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2227,7 +2248,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2433,7 +2454,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2511,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
         <v>0.78</v>
@@ -2720,7 +2741,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ7">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2845,7 +2866,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2923,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
         <v>0.89</v>
@@ -3051,7 +3072,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3129,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3257,7 +3278,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3463,7 +3484,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4368,7 +4389,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4493,7 +4514,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4571,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4905,7 +4926,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4983,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.44</v>
@@ -5111,7 +5132,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5192,7 +5213,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5317,7 +5338,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5395,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5807,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5935,7 +5956,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6013,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6222,7 +6243,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6347,7 +6368,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6428,7 +6449,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6553,7 +6574,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6634,7 +6655,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6840,7 +6861,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -7043,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -7249,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
         <v>1.1</v>
@@ -7377,7 +7398,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8073,10 +8094,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8201,7 +8222,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8488,7 +8509,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR35">
         <v>1.55</v>
@@ -8694,7 +8715,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>1.26</v>
@@ -9025,7 +9046,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9103,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.89</v>
@@ -9309,7 +9330,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.44</v>
@@ -9437,7 +9458,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9515,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9643,7 +9664,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9721,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ41">
         <v>0.8</v>
@@ -9849,7 +9870,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9927,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
         <v>0.89</v>
@@ -10136,7 +10157,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ43">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>0.97</v>
@@ -10261,7 +10282,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10342,7 +10363,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -10467,7 +10488,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10751,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10960,7 +10981,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -11085,7 +11106,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11703,7 +11724,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11990,7 +12011,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR52">
         <v>1.63</v>
@@ -12399,7 +12420,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12608,7 +12629,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>2.03</v>
@@ -12733,7 +12754,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12811,10 +12832,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR56">
         <v>1.25</v>
@@ -13145,7 +13166,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13429,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>1.1</v>
@@ -13635,7 +13656,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
         <v>1.89</v>
@@ -14047,7 +14068,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ62">
         <v>0.8</v>
@@ -14175,7 +14196,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14253,7 +14274,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14381,7 +14402,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14587,7 +14608,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14668,7 +14689,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -14871,7 +14892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -14999,7 +15020,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15080,7 +15101,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.35</v>
@@ -15283,10 +15304,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15411,7 +15432,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15695,7 +15716,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70">
         <v>1.44</v>
@@ -15823,7 +15844,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>3.25</v>
@@ -16029,7 +16050,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16107,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -16313,10 +16334,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16441,7 +16462,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16519,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74">
         <v>0.89</v>
@@ -16647,7 +16668,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16728,7 +16749,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR75">
         <v>1.26</v>
@@ -16853,7 +16874,7 @@
         <v>148</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17140,7 +17161,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>1.15</v>
@@ -17265,7 +17286,7 @@
         <v>101</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>2.6</v>
@@ -17552,7 +17573,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17758,7 +17779,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18167,7 +18188,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18295,7 +18316,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18582,7 +18603,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18785,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19325,7 +19346,7 @@
         <v>101</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19403,7 +19424,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
         <v>1.44</v>
@@ -19609,7 +19630,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -19815,7 +19836,7 @@
         <v>2.33</v>
       </c>
       <c r="AP90">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ90">
         <v>1.4</v>
@@ -19943,7 +19964,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20227,7 +20248,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>0.8</v>
@@ -20355,7 +20376,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20436,7 +20457,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ93">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR93">
         <v>1.37</v>
@@ -20561,7 +20582,7 @@
         <v>101</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20642,7 +20663,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>1.26</v>
@@ -20848,7 +20869,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ95">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>0.92</v>
@@ -20973,7 +20994,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21051,7 +21072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21385,7 +21406,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21466,7 +21487,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ98">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21591,7 +21612,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21669,7 +21690,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21797,7 +21818,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21875,7 +21896,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ100">
         <v>1.43</v>
@@ -22003,7 +22024,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22287,7 +22308,7 @@
         <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ102">
         <v>0.89</v>
@@ -22415,7 +22436,7 @@
         <v>169</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22621,7 +22642,7 @@
         <v>101</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22905,10 +22926,10 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ105">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -23033,7 +23054,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23320,7 +23341,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23523,7 +23544,7 @@
         <v>0.25</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ108">
         <v>1.1</v>
@@ -23729,7 +23750,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23938,7 +23959,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR110">
         <v>1.25</v>
@@ -24144,7 +24165,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -24347,7 +24368,7 @@
         <v>1.75</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24681,7 +24702,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24759,10 +24780,10 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24887,7 +24908,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>2.4</v>
@@ -24968,7 +24989,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ115">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25299,7 +25320,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25505,7 +25526,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25583,7 +25604,7 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.4</v>
@@ -25711,7 +25732,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25917,7 +25938,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -25998,7 +26019,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ120">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR120">
         <v>1.19</v>
@@ -26123,7 +26144,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26201,7 +26222,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ121">
         <v>0.78</v>
@@ -26535,7 +26556,7 @@
         <v>101</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>2.1</v>
@@ -26741,7 +26762,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26947,7 +26968,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>2.38</v>
@@ -27025,7 +27046,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ125">
         <v>1.44</v>
@@ -27437,7 +27458,7 @@
         <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ127">
         <v>0.8</v>
@@ -27565,7 +27586,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27849,7 +27870,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ129">
         <v>0.89</v>
@@ -27977,7 +27998,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28055,7 +28076,7 @@
         <v>1.4</v>
       </c>
       <c r="AP130">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ130">
         <v>1.89</v>
@@ -28183,7 +28204,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28261,10 +28282,10 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR131">
         <v>1.51</v>
@@ -28470,7 +28491,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR132">
         <v>1.71</v>
@@ -28595,7 +28616,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28673,7 +28694,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ133">
         <v>1.43</v>
@@ -28801,7 +28822,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28882,7 +28903,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -29007,7 +29028,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29088,7 +29109,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ135">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR135">
         <v>1.78</v>
@@ -29213,7 +29234,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29291,10 +29312,10 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ136">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.2</v>
@@ -29419,7 +29440,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29500,7 +29521,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29831,7 +29852,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -30243,7 +30264,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -30449,7 +30470,7 @@
         <v>101</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30530,7 +30551,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ142">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR142">
         <v>1.19</v>
@@ -30655,7 +30676,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -31145,7 +31166,7 @@
         <v>2.17</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ145">
         <v>2</v>
@@ -31351,10 +31372,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR146">
         <v>1.18</v>
@@ -31479,7 +31500,7 @@
         <v>101</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>2.25</v>
@@ -31557,7 +31578,7 @@
         <v>0.5</v>
       </c>
       <c r="AP147">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ147">
         <v>0.8</v>
@@ -32303,7 +32324,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32381,7 +32402,7 @@
         <v>0.6</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32509,7 +32530,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32587,7 +32608,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ152">
         <v>1.44</v>
@@ -32715,7 +32736,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32796,7 +32817,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -32999,10 +33020,10 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR154">
         <v>1.15</v>
@@ -33208,7 +33229,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ155">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR155">
         <v>1.14</v>
@@ -33333,7 +33354,7 @@
         <v>197</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33411,10 +33432,10 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ156">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR156">
         <v>1.41</v>
@@ -33617,7 +33638,7 @@
         <v>1.17</v>
       </c>
       <c r="AP157">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33745,7 +33766,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>3.4</v>
@@ -34157,7 +34178,7 @@
         <v>201</v>
       </c>
       <c r="P160" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34441,10 +34462,10 @@
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ161">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -34856,7 +34877,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ163">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR163">
         <v>1.63</v>
@@ -34981,7 +35002,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35062,7 +35083,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ164">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35187,7 +35208,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35393,7 +35414,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35471,7 +35492,7 @@
         <v>0.57</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ166">
         <v>1.1</v>
@@ -35883,7 +35904,7 @@
         <v>2.29</v>
       </c>
       <c r="AP168">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ168">
         <v>2</v>
@@ -36011,7 +36032,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36217,7 +36238,7 @@
         <v>208</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36835,7 +36856,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -36913,7 +36934,7 @@
         <v>0.5</v>
       </c>
       <c r="AP173">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
         <v>0.78</v>
@@ -37041,7 +37062,7 @@
         <v>149</v>
       </c>
       <c r="P174" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37122,7 +37143,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR174">
         <v>1.27</v>
@@ -37328,7 +37349,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ175">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR175">
         <v>1.56</v>
@@ -37531,7 +37552,7 @@
         <v>1.86</v>
       </c>
       <c r="AP176">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ176">
         <v>1.4</v>
@@ -37737,7 +37758,7 @@
         <v>2</v>
       </c>
       <c r="AP177">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ177">
         <v>2</v>
@@ -37865,7 +37886,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>3.2</v>
@@ -37943,7 +37964,7 @@
         <v>0.88</v>
       </c>
       <c r="AP178">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ178">
         <v>0.8</v>
@@ -38071,7 +38092,7 @@
         <v>184</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>3.4</v>
@@ -38152,7 +38173,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
         <v>1.39</v>
@@ -38767,7 +38788,7 @@
         <v>1.75</v>
       </c>
       <c r="AP182">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ182">
         <v>1.4</v>
@@ -38895,7 +38916,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -38973,10 +38994,10 @@
         <v>1.14</v>
       </c>
       <c r="AP183">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ183">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.38</v>
@@ -39179,7 +39200,7 @@
         <v>1.86</v>
       </c>
       <c r="AP184">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ184">
         <v>1.44</v>
@@ -39307,7 +39328,7 @@
         <v>216</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39388,7 +39409,7 @@
         <v>2</v>
       </c>
       <c r="AQ185">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR185">
         <v>1.29</v>
@@ -39594,7 +39615,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ186">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR186">
         <v>1.11</v>
@@ -39719,7 +39740,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -40006,7 +40027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR188">
         <v>1.31</v>
@@ -40337,7 +40358,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40543,7 +40564,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>2.88</v>
@@ -40624,7 +40645,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ191">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR191">
         <v>1.56</v>
@@ -40749,7 +40770,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40827,7 +40848,7 @@
         <v>0.88</v>
       </c>
       <c r="AP192">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ192">
         <v>1.1</v>
@@ -41239,7 +41260,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ194">
         <v>0.89</v>
@@ -41367,7 +41388,7 @@
         <v>149</v>
       </c>
       <c r="P195" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>2.3</v>
@@ -41445,7 +41466,7 @@
         <v>0.86</v>
       </c>
       <c r="AP195">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ195">
         <v>1</v>
@@ -41651,7 +41672,7 @@
         <v>1.57</v>
       </c>
       <c r="AP196">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ196">
         <v>1.44</v>
@@ -41779,7 +41800,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -41860,7 +41881,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ197">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR197">
         <v>1.48</v>
@@ -41985,7 +42006,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42066,7 +42087,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ198">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR198">
         <v>1.32</v>
@@ -42397,7 +42418,7 @@
         <v>122</v>
       </c>
       <c r="P200" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q200">
         <v>3.4</v>
@@ -42603,7 +42624,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42809,7 +42830,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>2.4</v>
@@ -43427,7 +43448,7 @@
         <v>226</v>
       </c>
       <c r="P205" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q205">
         <v>2.85</v>
@@ -43633,7 +43654,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -44045,7 +44066,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q208">
         <v>3.55</v>
@@ -44251,7 +44272,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q209">
         <v>1.8</v>
@@ -44457,7 +44478,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44663,7 +44684,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44820,6 +44841,1860 @@
       </c>
       <c r="BP211">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7476770</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F212">
+        <v>19</v>
+      </c>
+      <c r="G212" t="s">
+        <v>90</v>
+      </c>
+      <c r="H212" t="s">
+        <v>81</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>101</v>
+      </c>
+      <c r="P212" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q212">
+        <v>3.1</v>
+      </c>
+      <c r="R212">
+        <v>2.2</v>
+      </c>
+      <c r="S212">
+        <v>3.4</v>
+      </c>
+      <c r="T212">
+        <v>1.36</v>
+      </c>
+      <c r="U212">
+        <v>3</v>
+      </c>
+      <c r="V212">
+        <v>2.75</v>
+      </c>
+      <c r="W212">
+        <v>1.4</v>
+      </c>
+      <c r="X212">
+        <v>7</v>
+      </c>
+      <c r="Y212">
+        <v>1.1</v>
+      </c>
+      <c r="Z212">
+        <v>2.4</v>
+      </c>
+      <c r="AA212">
+        <v>3.3</v>
+      </c>
+      <c r="AB212">
+        <v>2.8</v>
+      </c>
+      <c r="AC212">
+        <v>1.05</v>
+      </c>
+      <c r="AD212">
+        <v>9</v>
+      </c>
+      <c r="AE212">
+        <v>1.28</v>
+      </c>
+      <c r="AF212">
+        <v>3.55</v>
+      </c>
+      <c r="AG212">
+        <v>1.96</v>
+      </c>
+      <c r="AH212">
+        <v>1.75</v>
+      </c>
+      <c r="AI212">
+        <v>1.67</v>
+      </c>
+      <c r="AJ212">
+        <v>2.1</v>
+      </c>
+      <c r="AK212">
+        <v>1.42</v>
+      </c>
+      <c r="AL212">
+        <v>1.25</v>
+      </c>
+      <c r="AM212">
+        <v>1.53</v>
+      </c>
+      <c r="AN212">
+        <v>1.88</v>
+      </c>
+      <c r="AO212">
+        <v>1.75</v>
+      </c>
+      <c r="AP212">
+        <v>1.67</v>
+      </c>
+      <c r="AQ212">
+        <v>1.89</v>
+      </c>
+      <c r="AR212">
+        <v>1.25</v>
+      </c>
+      <c r="AS212">
+        <v>1.31</v>
+      </c>
+      <c r="AT212">
+        <v>2.56</v>
+      </c>
+      <c r="AU212">
+        <v>2</v>
+      </c>
+      <c r="AV212">
+        <v>5</v>
+      </c>
+      <c r="AW212">
+        <v>3</v>
+      </c>
+      <c r="AX212">
+        <v>1</v>
+      </c>
+      <c r="AY212">
+        <v>10</v>
+      </c>
+      <c r="AZ212">
+        <v>11</v>
+      </c>
+      <c r="BA212">
+        <v>5</v>
+      </c>
+      <c r="BB212">
+        <v>8</v>
+      </c>
+      <c r="BC212">
+        <v>13</v>
+      </c>
+      <c r="BD212">
+        <v>1.85</v>
+      </c>
+      <c r="BE212">
+        <v>6</v>
+      </c>
+      <c r="BF212">
+        <v>2.38</v>
+      </c>
+      <c r="BG212">
+        <v>1.16</v>
+      </c>
+      <c r="BH212">
+        <v>3.86</v>
+      </c>
+      <c r="BI212">
+        <v>1.36</v>
+      </c>
+      <c r="BJ212">
+        <v>2.7</v>
+      </c>
+      <c r="BK212">
+        <v>1.67</v>
+      </c>
+      <c r="BL212">
+        <v>2.08</v>
+      </c>
+      <c r="BM212">
+        <v>2.06</v>
+      </c>
+      <c r="BN212">
+        <v>1.62</v>
+      </c>
+      <c r="BO212">
+        <v>2.65</v>
+      </c>
+      <c r="BP212">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7476763</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F213">
+        <v>19</v>
+      </c>
+      <c r="G213" t="s">
+        <v>86</v>
+      </c>
+      <c r="H213" t="s">
+        <v>92</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>232</v>
+      </c>
+      <c r="P213" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q213">
+        <v>3.25</v>
+      </c>
+      <c r="R213">
+        <v>2.1</v>
+      </c>
+      <c r="S213">
+        <v>3.25</v>
+      </c>
+      <c r="T213">
+        <v>1.4</v>
+      </c>
+      <c r="U213">
+        <v>2.75</v>
+      </c>
+      <c r="V213">
+        <v>3</v>
+      </c>
+      <c r="W213">
+        <v>1.36</v>
+      </c>
+      <c r="X213">
+        <v>8</v>
+      </c>
+      <c r="Y213">
+        <v>1.08</v>
+      </c>
+      <c r="Z213">
+        <v>2.63</v>
+      </c>
+      <c r="AA213">
+        <v>3.3</v>
+      </c>
+      <c r="AB213">
+        <v>2.63</v>
+      </c>
+      <c r="AC213">
+        <v>1.06</v>
+      </c>
+      <c r="AD213">
+        <v>8.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.3</v>
+      </c>
+      <c r="AF213">
+        <v>3.35</v>
+      </c>
+      <c r="AG213">
+        <v>1.95</v>
+      </c>
+      <c r="AH213">
+        <v>1.76</v>
+      </c>
+      <c r="AI213">
+        <v>1.73</v>
+      </c>
+      <c r="AJ213">
+        <v>2</v>
+      </c>
+      <c r="AK213">
+        <v>1.48</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.48</v>
+      </c>
+      <c r="AN213">
+        <v>2.13</v>
+      </c>
+      <c r="AO213">
+        <v>1</v>
+      </c>
+      <c r="AP213">
+        <v>2</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>1.19</v>
+      </c>
+      <c r="AS213">
+        <v>1.25</v>
+      </c>
+      <c r="AT213">
+        <v>2.44</v>
+      </c>
+      <c r="AU213">
+        <v>3</v>
+      </c>
+      <c r="AV213">
+        <v>3</v>
+      </c>
+      <c r="AW213">
+        <v>3</v>
+      </c>
+      <c r="AX213">
+        <v>5</v>
+      </c>
+      <c r="AY213">
+        <v>11</v>
+      </c>
+      <c r="AZ213">
+        <v>12</v>
+      </c>
+      <c r="BA213">
+        <v>3</v>
+      </c>
+      <c r="BB213">
+        <v>5</v>
+      </c>
+      <c r="BC213">
+        <v>8</v>
+      </c>
+      <c r="BD213">
+        <v>1.95</v>
+      </c>
+      <c r="BE213">
+        <v>7.1</v>
+      </c>
+      <c r="BF213">
+        <v>2.1</v>
+      </c>
+      <c r="BG213">
+        <v>1.2</v>
+      </c>
+      <c r="BH213">
+        <v>4</v>
+      </c>
+      <c r="BI213">
+        <v>1.28</v>
+      </c>
+      <c r="BJ213">
+        <v>2.94</v>
+      </c>
+      <c r="BK213">
+        <v>1.55</v>
+      </c>
+      <c r="BL213">
+        <v>2.17</v>
+      </c>
+      <c r="BM213">
+        <v>1.95</v>
+      </c>
+      <c r="BN213">
+        <v>1.76</v>
+      </c>
+      <c r="BO213">
+        <v>2.46</v>
+      </c>
+      <c r="BP213">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7476771</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F214">
+        <v>19</v>
+      </c>
+      <c r="G214" t="s">
+        <v>91</v>
+      </c>
+      <c r="H214" t="s">
+        <v>75</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>4</v>
+      </c>
+      <c r="O214" t="s">
+        <v>233</v>
+      </c>
+      <c r="P214" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q214">
+        <v>3.25</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>3.2</v>
+      </c>
+      <c r="T214">
+        <v>1.4</v>
+      </c>
+      <c r="U214">
+        <v>2.75</v>
+      </c>
+      <c r="V214">
+        <v>2.75</v>
+      </c>
+      <c r="W214">
+        <v>1.4</v>
+      </c>
+      <c r="X214">
+        <v>8</v>
+      </c>
+      <c r="Y214">
+        <v>1.08</v>
+      </c>
+      <c r="Z214">
+        <v>999.99</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>999.99</v>
+      </c>
+      <c r="AC214">
+        <v>1.04</v>
+      </c>
+      <c r="AD214">
+        <v>12</v>
+      </c>
+      <c r="AE214">
+        <v>1.28</v>
+      </c>
+      <c r="AF214">
+        <v>3.6</v>
+      </c>
+      <c r="AG214">
+        <v>1.88</v>
+      </c>
+      <c r="AH214">
+        <v>1.98</v>
+      </c>
+      <c r="AI214">
+        <v>1.67</v>
+      </c>
+      <c r="AJ214">
+        <v>2.1</v>
+      </c>
+      <c r="AK214">
+        <v>1.57</v>
+      </c>
+      <c r="AL214">
+        <v>1.25</v>
+      </c>
+      <c r="AM214">
+        <v>1.44</v>
+      </c>
+      <c r="AN214">
+        <v>0.63</v>
+      </c>
+      <c r="AO214">
+        <v>1.57</v>
+      </c>
+      <c r="AP214">
+        <v>0.89</v>
+      </c>
+      <c r="AQ214">
+        <v>1.38</v>
+      </c>
+      <c r="AR214">
+        <v>1.22</v>
+      </c>
+      <c r="AS214">
+        <v>1.21</v>
+      </c>
+      <c r="AT214">
+        <v>2.43</v>
+      </c>
+      <c r="AU214">
+        <v>5</v>
+      </c>
+      <c r="AV214">
+        <v>3</v>
+      </c>
+      <c r="AW214">
+        <v>5</v>
+      </c>
+      <c r="AX214">
+        <v>3</v>
+      </c>
+      <c r="AY214">
+        <v>14</v>
+      </c>
+      <c r="AZ214">
+        <v>10</v>
+      </c>
+      <c r="BA214">
+        <v>5</v>
+      </c>
+      <c r="BB214">
+        <v>7</v>
+      </c>
+      <c r="BC214">
+        <v>12</v>
+      </c>
+      <c r="BD214">
+        <v>2.2</v>
+      </c>
+      <c r="BE214">
+        <v>6</v>
+      </c>
+      <c r="BF214">
+        <v>1.98</v>
+      </c>
+      <c r="BG214">
+        <v>1.2</v>
+      </c>
+      <c r="BH214">
+        <v>4</v>
+      </c>
+      <c r="BI214">
+        <v>1.29</v>
+      </c>
+      <c r="BJ214">
+        <v>3.25</v>
+      </c>
+      <c r="BK214">
+        <v>1.52</v>
+      </c>
+      <c r="BL214">
+        <v>2.32</v>
+      </c>
+      <c r="BM214">
+        <v>1.9</v>
+      </c>
+      <c r="BN214">
+        <v>1.78</v>
+      </c>
+      <c r="BO214">
+        <v>2.52</v>
+      </c>
+      <c r="BP214">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7476767</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F215">
+        <v>19</v>
+      </c>
+      <c r="G215" t="s">
+        <v>88</v>
+      </c>
+      <c r="H215" t="s">
+        <v>87</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>2</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>101</v>
+      </c>
+      <c r="P215" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q215">
+        <v>3.2</v>
+      </c>
+      <c r="R215">
+        <v>2.2</v>
+      </c>
+      <c r="S215">
+        <v>3.25</v>
+      </c>
+      <c r="T215">
+        <v>1.4</v>
+      </c>
+      <c r="U215">
+        <v>2.75</v>
+      </c>
+      <c r="V215">
+        <v>2.75</v>
+      </c>
+      <c r="W215">
+        <v>1.4</v>
+      </c>
+      <c r="X215">
+        <v>8</v>
+      </c>
+      <c r="Y215">
+        <v>1.08</v>
+      </c>
+      <c r="Z215">
+        <v>2.5</v>
+      </c>
+      <c r="AA215">
+        <v>3.25</v>
+      </c>
+      <c r="AB215">
+        <v>2.62</v>
+      </c>
+      <c r="AC215">
+        <v>1.06</v>
+      </c>
+      <c r="AD215">
+        <v>8.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.3</v>
+      </c>
+      <c r="AF215">
+        <v>3.45</v>
+      </c>
+      <c r="AG215">
+        <v>1.9</v>
+      </c>
+      <c r="AH215">
+        <v>1.95</v>
+      </c>
+      <c r="AI215">
+        <v>1.67</v>
+      </c>
+      <c r="AJ215">
+        <v>2.1</v>
+      </c>
+      <c r="AK215">
+        <v>1.48</v>
+      </c>
+      <c r="AL215">
+        <v>1.25</v>
+      </c>
+      <c r="AM215">
+        <v>1.48</v>
+      </c>
+      <c r="AN215">
+        <v>0.38</v>
+      </c>
+      <c r="AO215">
+        <v>1.78</v>
+      </c>
+      <c r="AP215">
+        <v>0.33</v>
+      </c>
+      <c r="AQ215">
+        <v>1.9</v>
+      </c>
+      <c r="AR215">
+        <v>1.32</v>
+      </c>
+      <c r="AS215">
+        <v>1.09</v>
+      </c>
+      <c r="AT215">
+        <v>2.41</v>
+      </c>
+      <c r="AU215">
+        <v>6</v>
+      </c>
+      <c r="AV215">
+        <v>8</v>
+      </c>
+      <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>3</v>
+      </c>
+      <c r="AY215">
+        <v>13</v>
+      </c>
+      <c r="AZ215">
+        <v>17</v>
+      </c>
+      <c r="BA215">
+        <v>4</v>
+      </c>
+      <c r="BB215">
+        <v>3</v>
+      </c>
+      <c r="BC215">
+        <v>7</v>
+      </c>
+      <c r="BD215">
+        <v>1.75</v>
+      </c>
+      <c r="BE215">
+        <v>7.1</v>
+      </c>
+      <c r="BF215">
+        <v>2.4</v>
+      </c>
+      <c r="BG215">
+        <v>1.16</v>
+      </c>
+      <c r="BH215">
+        <v>4.5</v>
+      </c>
+      <c r="BI215">
+        <v>1.32</v>
+      </c>
+      <c r="BJ215">
+        <v>2.78</v>
+      </c>
+      <c r="BK215">
+        <v>1.59</v>
+      </c>
+      <c r="BL215">
+        <v>2.1</v>
+      </c>
+      <c r="BM215">
+        <v>2</v>
+      </c>
+      <c r="BN215">
+        <v>1.8</v>
+      </c>
+      <c r="BO215">
+        <v>2.59</v>
+      </c>
+      <c r="BP215">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7476766</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>77</v>
+      </c>
+      <c r="H216" t="s">
+        <v>71</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>2</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>3</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>101</v>
+      </c>
+      <c r="P216" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q216">
+        <v>4.33</v>
+      </c>
+      <c r="R216">
+        <v>2.1</v>
+      </c>
+      <c r="S216">
+        <v>2.6</v>
+      </c>
+      <c r="T216">
+        <v>1.4</v>
+      </c>
+      <c r="U216">
+        <v>2.75</v>
+      </c>
+      <c r="V216">
+        <v>3</v>
+      </c>
+      <c r="W216">
+        <v>1.36</v>
+      </c>
+      <c r="X216">
+        <v>8</v>
+      </c>
+      <c r="Y216">
+        <v>1.08</v>
+      </c>
+      <c r="Z216">
+        <v>3.9</v>
+      </c>
+      <c r="AA216">
+        <v>3.4</v>
+      </c>
+      <c r="AB216">
+        <v>1.91</v>
+      </c>
+      <c r="AC216">
+        <v>1.06</v>
+      </c>
+      <c r="AD216">
+        <v>8.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.33</v>
+      </c>
+      <c r="AF216">
+        <v>3.25</v>
+      </c>
+      <c r="AG216">
+        <v>1.95</v>
+      </c>
+      <c r="AH216">
+        <v>1.76</v>
+      </c>
+      <c r="AI216">
+        <v>1.8</v>
+      </c>
+      <c r="AJ216">
+        <v>1.91</v>
+      </c>
+      <c r="AK216">
+        <v>1.85</v>
+      </c>
+      <c r="AL216">
+        <v>1.25</v>
+      </c>
+      <c r="AM216">
+        <v>1.22</v>
+      </c>
+      <c r="AN216">
+        <v>1.33</v>
+      </c>
+      <c r="AO216">
+        <v>1.25</v>
+      </c>
+      <c r="AP216">
+        <v>1.2</v>
+      </c>
+      <c r="AQ216">
+        <v>1.44</v>
+      </c>
+      <c r="AR216">
+        <v>1.24</v>
+      </c>
+      <c r="AS216">
+        <v>1.22</v>
+      </c>
+      <c r="AT216">
+        <v>2.46</v>
+      </c>
+      <c r="AU216">
+        <v>2</v>
+      </c>
+      <c r="AV216">
+        <v>9</v>
+      </c>
+      <c r="AW216">
+        <v>0</v>
+      </c>
+      <c r="AX216">
+        <v>6</v>
+      </c>
+      <c r="AY216">
+        <v>6</v>
+      </c>
+      <c r="AZ216">
+        <v>21</v>
+      </c>
+      <c r="BA216">
+        <v>2</v>
+      </c>
+      <c r="BB216">
+        <v>9</v>
+      </c>
+      <c r="BC216">
+        <v>11</v>
+      </c>
+      <c r="BD216">
+        <v>3.3</v>
+      </c>
+      <c r="BE216">
+        <v>6.3</v>
+      </c>
+      <c r="BF216">
+        <v>1.5</v>
+      </c>
+      <c r="BG216">
+        <v>1.21</v>
+      </c>
+      <c r="BH216">
+        <v>3.44</v>
+      </c>
+      <c r="BI216">
+        <v>1.42</v>
+      </c>
+      <c r="BJ216">
+        <v>2.49</v>
+      </c>
+      <c r="BK216">
+        <v>1.85</v>
+      </c>
+      <c r="BL216">
+        <v>1.95</v>
+      </c>
+      <c r="BM216">
+        <v>2.21</v>
+      </c>
+      <c r="BN216">
+        <v>1.53</v>
+      </c>
+      <c r="BO216">
+        <v>2.92</v>
+      </c>
+      <c r="BP216">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7476764</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F217">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>74</v>
+      </c>
+      <c r="H217" t="s">
+        <v>73</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>234</v>
+      </c>
+      <c r="P217" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q217">
+        <v>2.2</v>
+      </c>
+      <c r="R217">
+        <v>2.25</v>
+      </c>
+      <c r="S217">
+        <v>5.5</v>
+      </c>
+      <c r="T217">
+        <v>1.36</v>
+      </c>
+      <c r="U217">
+        <v>3</v>
+      </c>
+      <c r="V217">
+        <v>2.75</v>
+      </c>
+      <c r="W217">
+        <v>1.4</v>
+      </c>
+      <c r="X217">
+        <v>7</v>
+      </c>
+      <c r="Y217">
+        <v>1.1</v>
+      </c>
+      <c r="Z217">
+        <v>999.99</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>999.99</v>
+      </c>
+      <c r="AC217">
+        <v>1.05</v>
+      </c>
+      <c r="AD217">
+        <v>9.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.28</v>
+      </c>
+      <c r="AF217">
+        <v>3.65</v>
+      </c>
+      <c r="AG217">
+        <v>1.88</v>
+      </c>
+      <c r="AH217">
+        <v>1.98</v>
+      </c>
+      <c r="AI217">
+        <v>1.83</v>
+      </c>
+      <c r="AJ217">
+        <v>1.83</v>
+      </c>
+      <c r="AK217">
+        <v>1.17</v>
+      </c>
+      <c r="AL217">
+        <v>1.18</v>
+      </c>
+      <c r="AM217">
+        <v>2.2</v>
+      </c>
+      <c r="AN217">
+        <v>1.67</v>
+      </c>
+      <c r="AO217">
+        <v>0.88</v>
+      </c>
+      <c r="AP217">
+        <v>1.6</v>
+      </c>
+      <c r="AQ217">
+        <v>0.89</v>
+      </c>
+      <c r="AR217">
+        <v>1.35</v>
+      </c>
+      <c r="AS217">
+        <v>1.16</v>
+      </c>
+      <c r="AT217">
+        <v>2.51</v>
+      </c>
+      <c r="AU217">
+        <v>5</v>
+      </c>
+      <c r="AV217">
+        <v>5</v>
+      </c>
+      <c r="AW217">
+        <v>6</v>
+      </c>
+      <c r="AX217">
+        <v>3</v>
+      </c>
+      <c r="AY217">
+        <v>18</v>
+      </c>
+      <c r="AZ217">
+        <v>11</v>
+      </c>
+      <c r="BA217">
+        <v>5</v>
+      </c>
+      <c r="BB217">
+        <v>6</v>
+      </c>
+      <c r="BC217">
+        <v>11</v>
+      </c>
+      <c r="BD217">
+        <v>1.41</v>
+      </c>
+      <c r="BE217">
+        <v>9</v>
+      </c>
+      <c r="BF217">
+        <v>3.49</v>
+      </c>
+      <c r="BG217">
+        <v>1.25</v>
+      </c>
+      <c r="BH217">
+        <v>3.75</v>
+      </c>
+      <c r="BI217">
+        <v>1.45</v>
+      </c>
+      <c r="BJ217">
+        <v>2.63</v>
+      </c>
+      <c r="BK217">
+        <v>1.74</v>
+      </c>
+      <c r="BL217">
+        <v>2.02</v>
+      </c>
+      <c r="BM217">
+        <v>2.19</v>
+      </c>
+      <c r="BN217">
+        <v>1.63</v>
+      </c>
+      <c r="BO217">
+        <v>2.82</v>
+      </c>
+      <c r="BP217">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7476762</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>70</v>
+      </c>
+      <c r="H218" t="s">
+        <v>80</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218" t="s">
+        <v>235</v>
+      </c>
+      <c r="P218" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q218">
+        <v>2.4</v>
+      </c>
+      <c r="R218">
+        <v>2.2</v>
+      </c>
+      <c r="S218">
+        <v>4.5</v>
+      </c>
+      <c r="T218">
+        <v>1.4</v>
+      </c>
+      <c r="U218">
+        <v>2.75</v>
+      </c>
+      <c r="V218">
+        <v>2.75</v>
+      </c>
+      <c r="W218">
+        <v>1.4</v>
+      </c>
+      <c r="X218">
+        <v>8</v>
+      </c>
+      <c r="Y218">
+        <v>1.08</v>
+      </c>
+      <c r="Z218">
+        <v>1.57</v>
+      </c>
+      <c r="AA218">
+        <v>3.75</v>
+      </c>
+      <c r="AB218">
+        <v>5.25</v>
+      </c>
+      <c r="AC218">
+        <v>1.05</v>
+      </c>
+      <c r="AD218">
+        <v>9.5</v>
+      </c>
+      <c r="AE218">
+        <v>1.28</v>
+      </c>
+      <c r="AF218">
+        <v>3.55</v>
+      </c>
+      <c r="AG218">
+        <v>1.9</v>
+      </c>
+      <c r="AH218">
+        <v>1.95</v>
+      </c>
+      <c r="AI218">
+        <v>1.73</v>
+      </c>
+      <c r="AJ218">
+        <v>2</v>
+      </c>
+      <c r="AK218">
+        <v>1.2</v>
+      </c>
+      <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>1.95</v>
+      </c>
+      <c r="AN218">
+        <v>1.33</v>
+      </c>
+      <c r="AO218">
+        <v>1</v>
+      </c>
+      <c r="AP218">
+        <v>1.5</v>
+      </c>
+      <c r="AQ218">
+        <v>0.89</v>
+      </c>
+      <c r="AR218">
+        <v>1.49</v>
+      </c>
+      <c r="AS218">
+        <v>1.25</v>
+      </c>
+      <c r="AT218">
+        <v>2.74</v>
+      </c>
+      <c r="AU218">
+        <v>9</v>
+      </c>
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
+        <v>5</v>
+      </c>
+      <c r="AX218">
+        <v>0</v>
+      </c>
+      <c r="AY218">
+        <v>23</v>
+      </c>
+      <c r="AZ218">
+        <v>7</v>
+      </c>
+      <c r="BA218">
+        <v>3</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>7</v>
+      </c>
+      <c r="BD218">
+        <v>1.52</v>
+      </c>
+      <c r="BE218">
+        <v>6.5</v>
+      </c>
+      <c r="BF218">
+        <v>3.1</v>
+      </c>
+      <c r="BG218">
+        <v>1.18</v>
+      </c>
+      <c r="BH218">
+        <v>4.33</v>
+      </c>
+      <c r="BI218">
+        <v>1.25</v>
+      </c>
+      <c r="BJ218">
+        <v>3.14</v>
+      </c>
+      <c r="BK218">
+        <v>1.48</v>
+      </c>
+      <c r="BL218">
+        <v>2.33</v>
+      </c>
+      <c r="BM218">
+        <v>1.85</v>
+      </c>
+      <c r="BN218">
+        <v>1.85</v>
+      </c>
+      <c r="BO218">
+        <v>2.3</v>
+      </c>
+      <c r="BP218">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7476760</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F219">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s">
+        <v>84</v>
+      </c>
+      <c r="H219" t="s">
+        <v>83</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>236</v>
+      </c>
+      <c r="P219" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q219">
+        <v>3</v>
+      </c>
+      <c r="R219">
+        <v>2.2</v>
+      </c>
+      <c r="S219">
+        <v>3.4</v>
+      </c>
+      <c r="T219">
+        <v>1.36</v>
+      </c>
+      <c r="U219">
+        <v>3</v>
+      </c>
+      <c r="V219">
+        <v>2.63</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>7</v>
+      </c>
+      <c r="Y219">
+        <v>1.1</v>
+      </c>
+      <c r="Z219">
+        <v>2.4</v>
+      </c>
+      <c r="AA219">
+        <v>3.3</v>
+      </c>
+      <c r="AB219">
+        <v>2.8</v>
+      </c>
+      <c r="AC219">
+        <v>1.05</v>
+      </c>
+      <c r="AD219">
+        <v>9.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.25</v>
+      </c>
+      <c r="AF219">
+        <v>3.75</v>
+      </c>
+      <c r="AG219">
+        <v>1.85</v>
+      </c>
+      <c r="AH219">
+        <v>1.85</v>
+      </c>
+      <c r="AI219">
+        <v>1.62</v>
+      </c>
+      <c r="AJ219">
+        <v>2.2</v>
+      </c>
+      <c r="AK219">
+        <v>1.42</v>
+      </c>
+      <c r="AL219">
+        <v>1.25</v>
+      </c>
+      <c r="AM219">
+        <v>1.53</v>
+      </c>
+      <c r="AN219">
+        <v>1.38</v>
+      </c>
+      <c r="AO219">
+        <v>1.25</v>
+      </c>
+      <c r="AP219">
+        <v>1.22</v>
+      </c>
+      <c r="AQ219">
+        <v>1.44</v>
+      </c>
+      <c r="AR219">
+        <v>1.37</v>
+      </c>
+      <c r="AS219">
+        <v>1.34</v>
+      </c>
+      <c r="AT219">
+        <v>2.71</v>
+      </c>
+      <c r="AU219">
+        <v>3</v>
+      </c>
+      <c r="AV219">
+        <v>4</v>
+      </c>
+      <c r="AW219">
+        <v>2</v>
+      </c>
+      <c r="AX219">
+        <v>1</v>
+      </c>
+      <c r="AY219">
+        <v>7</v>
+      </c>
+      <c r="AZ219">
+        <v>7</v>
+      </c>
+      <c r="BA219">
+        <v>3</v>
+      </c>
+      <c r="BB219">
+        <v>3</v>
+      </c>
+      <c r="BC219">
+        <v>6</v>
+      </c>
+      <c r="BD219">
+        <v>1.72</v>
+      </c>
+      <c r="BE219">
+        <v>7.2</v>
+      </c>
+      <c r="BF219">
+        <v>2.42</v>
+      </c>
+      <c r="BG219">
+        <v>1.2</v>
+      </c>
+      <c r="BH219">
+        <v>4</v>
+      </c>
+      <c r="BI219">
+        <v>1.27</v>
+      </c>
+      <c r="BJ219">
+        <v>3.04</v>
+      </c>
+      <c r="BK219">
+        <v>1.51</v>
+      </c>
+      <c r="BL219">
+        <v>2.26</v>
+      </c>
+      <c r="BM219">
+        <v>1.92</v>
+      </c>
+      <c r="BN219">
+        <v>1.88</v>
+      </c>
+      <c r="BO219">
+        <v>2.38</v>
+      </c>
+      <c r="BP219">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7476765</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
+      <c r="G220" t="s">
+        <v>76</v>
+      </c>
+      <c r="H220" t="s">
+        <v>79</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>237</v>
+      </c>
+      <c r="P220" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q220">
+        <v>2.88</v>
+      </c>
+      <c r="R220">
+        <v>1.95</v>
+      </c>
+      <c r="S220">
+        <v>4.33</v>
+      </c>
+      <c r="T220">
+        <v>1.53</v>
+      </c>
+      <c r="U220">
+        <v>2.38</v>
+      </c>
+      <c r="V220">
+        <v>3.5</v>
+      </c>
+      <c r="W220">
+        <v>1.29</v>
+      </c>
+      <c r="X220">
+        <v>11</v>
+      </c>
+      <c r="Y220">
+        <v>1.05</v>
+      </c>
+      <c r="Z220">
+        <v>999.99</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>999.99</v>
+      </c>
+      <c r="AC220">
+        <v>1.08</v>
+      </c>
+      <c r="AD220">
+        <v>7.5</v>
+      </c>
+      <c r="AE220">
+        <v>1.45</v>
+      </c>
+      <c r="AF220">
+        <v>2.7</v>
+      </c>
+      <c r="AG220">
+        <v>2.3</v>
+      </c>
+      <c r="AH220">
+        <v>1.55</v>
+      </c>
+      <c r="AI220">
+        <v>2.1</v>
+      </c>
+      <c r="AJ220">
+        <v>1.67</v>
+      </c>
+      <c r="AK220">
+        <v>1.28</v>
+      </c>
+      <c r="AL220">
+        <v>1.28</v>
+      </c>
+      <c r="AM220">
+        <v>1.7</v>
+      </c>
+      <c r="AN220">
+        <v>1.67</v>
+      </c>
+      <c r="AO220">
+        <v>1.13</v>
+      </c>
+      <c r="AP220">
+        <v>1.8</v>
+      </c>
+      <c r="AQ220">
+        <v>1</v>
+      </c>
+      <c r="AR220">
+        <v>1.25</v>
+      </c>
+      <c r="AS220">
+        <v>1.12</v>
+      </c>
+      <c r="AT220">
+        <v>2.37</v>
+      </c>
+      <c r="AU220">
+        <v>4</v>
+      </c>
+      <c r="AV220">
+        <v>6</v>
+      </c>
+      <c r="AW220">
+        <v>2</v>
+      </c>
+      <c r="AX220">
+        <v>4</v>
+      </c>
+      <c r="AY220">
+        <v>6</v>
+      </c>
+      <c r="AZ220">
+        <v>11</v>
+      </c>
+      <c r="BA220">
+        <v>1</v>
+      </c>
+      <c r="BB220">
+        <v>2</v>
+      </c>
+      <c r="BC220">
+        <v>3</v>
+      </c>
+      <c r="BD220">
+        <v>1.52</v>
+      </c>
+      <c r="BE220">
+        <v>7.4</v>
+      </c>
+      <c r="BF220">
+        <v>2.95</v>
+      </c>
+      <c r="BG220">
+        <v>1.19</v>
+      </c>
+      <c r="BH220">
+        <v>3.62</v>
+      </c>
+      <c r="BI220">
+        <v>1.4</v>
+      </c>
+      <c r="BJ220">
+        <v>2.56</v>
+      </c>
+      <c r="BK220">
+        <v>1.85</v>
+      </c>
+      <c r="BL220">
+        <v>1.95</v>
+      </c>
+      <c r="BM220">
+        <v>2.17</v>
+      </c>
+      <c r="BN220">
+        <v>1.55</v>
+      </c>
+      <c r="BO220">
+        <v>2.82</v>
+      </c>
+      <c r="BP220">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -712,10 +712,10 @@
     <t>['34', '42']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['8', '28', '58']</t>
   </si>
   <si>
-    <t>['8', '28', '58']</t>
+    <t>['47']</t>
   </si>
   <si>
     <t>['55', '75']</t>
@@ -2454,7 +2454,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -44848,7 +44848,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7476770</v>
+        <v>7476771</v>
       </c>
       <c r="C212" t="s">
         <v>68</v>
@@ -44857,55 +44857,55 @@
         <v>69</v>
       </c>
       <c r="E212" s="2">
-        <v>45633.39583333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F212">
         <v>19</v>
       </c>
       <c r="G212" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H212" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M212">
         <v>1</v>
       </c>
       <c r="N212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O212" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="P212" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q212">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R212">
         <v>2.2</v>
       </c>
       <c r="S212">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T212">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V212">
         <v>2.75</v>
@@ -44914,37 +44914,37 @@
         <v>1.4</v>
       </c>
       <c r="X212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y212">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z212">
-        <v>2.4</v>
+        <v>999.99</v>
       </c>
       <c r="AA212">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AB212">
-        <v>2.8</v>
+        <v>999.99</v>
       </c>
       <c r="AC212">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD212">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE212">
         <v>1.28</v>
       </c>
       <c r="AF212">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AG212">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AH212">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="AI212">
         <v>1.67</v>
@@ -44953,100 +44953,100 @@
         <v>2.1</v>
       </c>
       <c r="AK212">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AL212">
         <v>1.25</v>
       </c>
       <c r="AM212">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AN212">
-        <v>1.88</v>
+        <v>0.63</v>
       </c>
       <c r="AO212">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AP212">
-        <v>1.67</v>
+        <v>0.89</v>
       </c>
       <c r="AQ212">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="AR212">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AS212">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT212">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="AU212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV212">
+        <v>3</v>
+      </c>
+      <c r="AW212">
         <v>5</v>
       </c>
-      <c r="AW212">
-        <v>3</v>
-      </c>
       <c r="AX212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY212">
+        <v>14</v>
+      </c>
+      <c r="AZ212">
         <v>10</v>
-      </c>
-      <c r="AZ212">
-        <v>11</v>
       </c>
       <c r="BA212">
         <v>5</v>
       </c>
       <c r="BB212">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC212">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD212">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="BE212">
         <v>6</v>
       </c>
       <c r="BF212">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="BG212">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH212">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="BI212">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BJ212">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="BK212">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="BL212">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="BM212">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="BN212">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="BO212">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="BP212">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -45054,7 +45054,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>7476763</v>
+        <v>7476770</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -45069,10 +45069,10 @@
         <v>19</v>
       </c>
       <c r="G213" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H213" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -45084,175 +45084,175 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M213">
         <v>1</v>
       </c>
       <c r="N213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O213" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="P213" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R213">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S213">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T213">
+        <v>1.36</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+      <c r="V213">
+        <v>2.75</v>
+      </c>
+      <c r="W213">
         <v>1.4</v>
       </c>
-      <c r="U213">
-        <v>2.75</v>
-      </c>
-      <c r="V213">
-        <v>3</v>
-      </c>
-      <c r="W213">
-        <v>1.36</v>
-      </c>
       <c r="X213">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y213">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z213">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="AA213">
         <v>3.3</v>
       </c>
       <c r="AB213">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AC213">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD213">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE213">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF213">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AG213">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AH213">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AI213">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ213">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK213">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AL213">
         <v>1.25</v>
       </c>
       <c r="AM213">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AN213">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="AO213">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP213">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AR213">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AS213">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT213">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="AU213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW213">
         <v>3</v>
       </c>
       <c r="AX213">
+        <v>1</v>
+      </c>
+      <c r="AY213">
+        <v>10</v>
+      </c>
+      <c r="AZ213">
+        <v>11</v>
+      </c>
+      <c r="BA213">
         <v>5</v>
       </c>
-      <c r="AY213">
-        <v>11</v>
-      </c>
-      <c r="AZ213">
-        <v>12</v>
-      </c>
-      <c r="BA213">
-        <v>3</v>
-      </c>
       <c r="BB213">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC213">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD213">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BE213">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="BF213">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BG213">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH213">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="BI213">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BJ213">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="BK213">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="BL213">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="BM213">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="BN213">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="BO213">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="BP213">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -45260,7 +45260,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7476771</v>
+        <v>7476763</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45269,49 +45269,49 @@
         <v>69</v>
       </c>
       <c r="E214" s="2">
-        <v>45633.5</v>
+        <v>45633.39583333334</v>
       </c>
       <c r="F214">
         <v>19</v>
       </c>
       <c r="G214" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H214" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M214">
         <v>1</v>
       </c>
       <c r="N214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O214" t="s">
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="Q214">
         <v>3.25</v>
       </c>
       <c r="R214">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S214">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T214">
         <v>1.4</v>
@@ -45320,10 +45320,10 @@
         <v>2.75</v>
       </c>
       <c r="V214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W214">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X214">
         <v>8</v>
@@ -45332,103 +45332,103 @@
         <v>1.08</v>
       </c>
       <c r="Z214">
-        <v>999.99</v>
+        <v>2.63</v>
       </c>
       <c r="AA214">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB214">
-        <v>999.99</v>
+        <v>2.63</v>
       </c>
       <c r="AC214">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD214">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AE214">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF214">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AG214">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AH214">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="AI214">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ214">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK214">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AL214">
         <v>1.25</v>
       </c>
       <c r="AM214">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AN214">
-        <v>0.63</v>
+        <v>2.13</v>
       </c>
       <c r="AO214">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP214">
-        <v>0.89</v>
+        <v>2</v>
       </c>
       <c r="AQ214">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR214">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS214">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AT214">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AU214">
+        <v>3</v>
+      </c>
+      <c r="AV214">
+        <v>3</v>
+      </c>
+      <c r="AW214">
+        <v>3</v>
+      </c>
+      <c r="AX214">
         <v>5</v>
       </c>
-      <c r="AV214">
-        <v>3</v>
-      </c>
-      <c r="AW214">
+      <c r="AY214">
+        <v>11</v>
+      </c>
+      <c r="AZ214">
+        <v>12</v>
+      </c>
+      <c r="BA214">
+        <v>3</v>
+      </c>
+      <c r="BB214">
         <v>5</v>
       </c>
-      <c r="AX214">
-        <v>3</v>
-      </c>
-      <c r="AY214">
-        <v>14</v>
-      </c>
-      <c r="AZ214">
-        <v>10</v>
-      </c>
-      <c r="BA214">
-        <v>5</v>
-      </c>
-      <c r="BB214">
-        <v>7</v>
-      </c>
       <c r="BC214">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD214">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BE214">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="BF214">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="BG214">
         <v>1.2</v>
@@ -45437,28 +45437,28 @@
         <v>4</v>
       </c>
       <c r="BI214">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ214">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="BK214">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="BL214">
-        <v>2.32</v>
+        <v>2.17</v>
       </c>
       <c r="BM214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BN214">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="BO214">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="BP214">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="215" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -712,10 +712,10 @@
     <t>['34', '42']</t>
   </si>
   <si>
-    <t>['8', '28', '58']</t>
+    <t>['47']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['8', '28', '58']</t>
   </si>
   <si>
     <t>['55', '75']</t>
@@ -2454,7 +2454,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -44848,7 +44848,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7476771</v>
+        <v>7476770</v>
       </c>
       <c r="C212" t="s">
         <v>68</v>
@@ -44857,55 +44857,55 @@
         <v>69</v>
       </c>
       <c r="E212" s="2">
-        <v>45632.875</v>
+        <v>45633.39583333334</v>
       </c>
       <c r="F212">
         <v>19</v>
       </c>
       <c r="G212" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H212" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M212">
         <v>1</v>
       </c>
       <c r="N212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O212" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="P212" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="Q212">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R212">
         <v>2.2</v>
       </c>
       <c r="S212">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T212">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V212">
         <v>2.75</v>
@@ -44914,37 +44914,37 @@
         <v>1.4</v>
       </c>
       <c r="X212">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y212">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z212">
-        <v>999.99</v>
+        <v>2.4</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB212">
-        <v>999.99</v>
+        <v>2.8</v>
       </c>
       <c r="AC212">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD212">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE212">
         <v>1.28</v>
       </c>
       <c r="AF212">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AG212">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="AH212">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="AI212">
         <v>1.67</v>
@@ -44953,100 +44953,100 @@
         <v>2.1</v>
       </c>
       <c r="AK212">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AL212">
         <v>1.25</v>
       </c>
       <c r="AM212">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AN212">
-        <v>0.63</v>
+        <v>1.88</v>
       </c>
       <c r="AO212">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AP212">
-        <v>0.89</v>
+        <v>1.67</v>
       </c>
       <c r="AQ212">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="AR212">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AS212">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AT212">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="AU212">
+        <v>2</v>
+      </c>
+      <c r="AV212">
         <v>5</v>
       </c>
-      <c r="AV212">
-        <v>3</v>
-      </c>
       <c r="AW212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY212">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ212">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA212">
         <v>5</v>
       </c>
       <c r="BB212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC212">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD212">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="BE212">
         <v>6</v>
       </c>
       <c r="BF212">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="BG212">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH212">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="BI212">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BJ212">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="BK212">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="BL212">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="BM212">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="BN212">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="BO212">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="BP212">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -45054,7 +45054,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>7476770</v>
+        <v>7476763</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -45069,10 +45069,10 @@
         <v>19</v>
       </c>
       <c r="G213" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H213" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -45084,175 +45084,175 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M213">
         <v>1</v>
       </c>
       <c r="N213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O213" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="P213" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Q213">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R213">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S213">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T213">
+        <v>1.4</v>
+      </c>
+      <c r="U213">
+        <v>2.75</v>
+      </c>
+      <c r="V213">
+        <v>3</v>
+      </c>
+      <c r="W213">
         <v>1.36</v>
       </c>
-      <c r="U213">
-        <v>3</v>
-      </c>
-      <c r="V213">
-        <v>2.75</v>
-      </c>
-      <c r="W213">
-        <v>1.4</v>
-      </c>
       <c r="X213">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y213">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z213">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="AA213">
         <v>3.3</v>
       </c>
       <c r="AB213">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="AC213">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD213">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE213">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF213">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="AG213">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AH213">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AI213">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ213">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK213">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AL213">
         <v>1.25</v>
       </c>
       <c r="AM213">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AN213">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="AO213">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ213">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AR213">
+        <v>1.19</v>
+      </c>
+      <c r="AS213">
         <v>1.25</v>
       </c>
-      <c r="AS213">
-        <v>1.31</v>
-      </c>
       <c r="AT213">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="AU213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV213">
+        <v>3</v>
+      </c>
+      <c r="AW213">
+        <v>3</v>
+      </c>
+      <c r="AX213">
+        <v>6</v>
+      </c>
+      <c r="AY213">
+        <v>11</v>
+      </c>
+      <c r="AZ213">
+        <v>13</v>
+      </c>
+      <c r="BA213">
+        <v>3</v>
+      </c>
+      <c r="BB213">
         <v>5</v>
       </c>
-      <c r="AW213">
-        <v>3</v>
-      </c>
-      <c r="AX213">
-        <v>1</v>
-      </c>
-      <c r="AY213">
-        <v>10</v>
-      </c>
-      <c r="AZ213">
-        <v>11</v>
-      </c>
-      <c r="BA213">
-        <v>5</v>
-      </c>
-      <c r="BB213">
+      <c r="BC213">
         <v>8</v>
       </c>
-      <c r="BC213">
-        <v>13</v>
-      </c>
       <c r="BD213">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BE213">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="BF213">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BG213">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH213">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="BI213">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ213">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="BK213">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="BL213">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="BM213">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="BN213">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="BO213">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="BP213">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -45260,7 +45260,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7476763</v>
+        <v>7476771</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45269,49 +45269,49 @@
         <v>69</v>
       </c>
       <c r="E214" s="2">
-        <v>45633.39583333334</v>
+        <v>45633.5</v>
       </c>
       <c r="F214">
         <v>19</v>
       </c>
       <c r="G214" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H214" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M214">
         <v>1</v>
       </c>
       <c r="N214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O214" t="s">
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="Q214">
         <v>3.25</v>
       </c>
       <c r="R214">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T214">
         <v>1.4</v>
@@ -45320,10 +45320,10 @@
         <v>2.75</v>
       </c>
       <c r="V214">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W214">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X214">
         <v>8</v>
@@ -45332,103 +45332,103 @@
         <v>1.08</v>
       </c>
       <c r="Z214">
-        <v>2.63</v>
+        <v>999.99</v>
       </c>
       <c r="AA214">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AB214">
-        <v>2.63</v>
+        <v>999.99</v>
       </c>
       <c r="AC214">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD214">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AE214">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF214">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AG214">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AH214">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="AI214">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ214">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK214">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AL214">
         <v>1.25</v>
       </c>
       <c r="AM214">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AN214">
-        <v>2.13</v>
+        <v>0.63</v>
       </c>
       <c r="AO214">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP214">
-        <v>2</v>
+        <v>0.89</v>
       </c>
       <c r="AQ214">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR214">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS214">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT214">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AU214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV214">
         <v>3</v>
       </c>
       <c r="AW214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX214">
+        <v>3</v>
+      </c>
+      <c r="AY214">
+        <v>14</v>
+      </c>
+      <c r="AZ214">
+        <v>10</v>
+      </c>
+      <c r="BA214">
         <v>5</v>
       </c>
-      <c r="AY214">
-        <v>11</v>
-      </c>
-      <c r="AZ214">
+      <c r="BB214">
+        <v>7</v>
+      </c>
+      <c r="BC214">
         <v>12</v>
       </c>
-      <c r="BA214">
-        <v>3</v>
-      </c>
-      <c r="BB214">
-        <v>5</v>
-      </c>
-      <c r="BC214">
-        <v>8</v>
-      </c>
       <c r="BD214">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BE214">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="BF214">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="BG214">
         <v>1.2</v>
@@ -45437,28 +45437,28 @@
         <v>4</v>
       </c>
       <c r="BI214">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ214">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="BK214">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BL214">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="BM214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN214">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="BO214">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="BP214">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -45816,13 +45816,13 @@
         <v>0</v>
       </c>
       <c r="AX216">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY216">
         <v>6</v>
       </c>
       <c r="AZ216">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA216">
         <v>2</v>
@@ -46234,7 +46234,7 @@
         <v>23</v>
       </c>
       <c r="AZ218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA218">
         <v>3</v>
@@ -46434,13 +46434,13 @@
         <v>2</v>
       </c>
       <c r="AX219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY219">
         <v>7</v>
       </c>
       <c r="AZ219">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA219">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,12 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['25', '67']</t>
+  </si>
+  <si>
+    <t>['14', '31', '54']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -1010,6 +1016,15 @@
   </si>
   <si>
     <t>['7', '63']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['55', '63']</t>
+  </si>
+  <si>
+    <t>['25', '75']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1726,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1836,7 +1851,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1914,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2123,7 +2138,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2248,7 +2263,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2326,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2866,7 +2881,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3072,7 +3087,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3278,7 +3293,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3356,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3484,7 +3499,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3562,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3768,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3974,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4180,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4386,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4514,7 +4529,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4595,7 +4610,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4798,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4926,7 +4941,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5007,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5132,7 +5147,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5210,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
         <v>0.89</v>
@@ -5338,7 +5353,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5419,7 +5434,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5625,7 +5640,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5956,7 +5971,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6240,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6368,7 +6383,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6574,7 +6589,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6858,7 +6873,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
         <v>1.89</v>
@@ -7067,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -7273,7 +7288,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7398,7 +7413,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7685,7 +7700,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7888,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -8222,7 +8237,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8300,10 +8315,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8506,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ35">
         <v>1.44</v>
@@ -8712,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.44</v>
@@ -8921,7 +8936,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -9046,7 +9061,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9127,7 +9142,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9333,7 +9348,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -9458,7 +9473,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9539,7 +9554,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9745,7 +9760,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9870,7 +9885,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9951,7 +9966,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -10154,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -10282,7 +10297,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10360,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ44">
         <v>0.89</v>
@@ -10488,7 +10503,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10566,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10978,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.38</v>
@@ -11106,7 +11121,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11184,7 +11199,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11390,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>1.43</v>
@@ -11724,7 +11739,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11805,7 +11820,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR51">
         <v>0.78</v>
@@ -12008,7 +12023,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ52">
         <v>1.89</v>
@@ -12214,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0.89</v>
@@ -12423,7 +12438,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR54">
         <v>1.21</v>
@@ -12626,7 +12641,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
         <v>1.44</v>
@@ -12754,7 +12769,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13038,10 +13053,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR57">
         <v>1.19</v>
@@ -13166,7 +13181,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13247,7 +13262,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR58">
         <v>1.28</v>
@@ -13453,7 +13468,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1</v>
@@ -13659,7 +13674,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13862,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -14071,7 +14086,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14196,7 +14211,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14402,7 +14417,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14480,7 +14495,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14686,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
         <v>0.89</v>
@@ -14895,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR66">
         <v>1.4</v>
@@ -15020,7 +15035,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15098,7 +15113,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15432,7 +15447,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15510,10 +15525,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15719,7 +15734,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ70">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR70">
         <v>1.88</v>
@@ -15844,7 +15859,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>3.25</v>
@@ -15922,10 +15937,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
         <v>1.23</v>
@@ -16050,7 +16065,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16131,7 +16146,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16462,7 +16477,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16668,7 +16683,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16746,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75">
         <v>1.89</v>
@@ -16874,7 +16889,7 @@
         <v>148</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16952,10 +16967,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ76">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17158,7 +17173,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77">
         <v>1.44</v>
@@ -17286,7 +17301,7 @@
         <v>101</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>2.6</v>
@@ -17367,7 +17382,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17570,7 +17585,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79">
         <v>0.89</v>
@@ -17776,7 +17791,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.44</v>
@@ -17985,7 +18000,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR81">
         <v>1.2</v>
@@ -18191,7 +18206,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>0.97</v>
@@ -18316,7 +18331,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18397,7 +18412,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18600,7 +18615,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -19012,7 +19027,7 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19218,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ87">
         <v>1.43</v>
@@ -19346,7 +19361,7 @@
         <v>101</v>
       </c>
       <c r="P88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19427,7 +19442,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19633,7 +19648,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ89">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.4</v>
@@ -19839,7 +19854,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -19964,7 +19979,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20045,7 +20060,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR91">
         <v>0.82</v>
@@ -20251,7 +20266,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20376,7 +20391,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20454,7 +20469,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ93">
         <v>1.9</v>
@@ -20582,7 +20597,7 @@
         <v>101</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20660,7 +20675,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
@@ -20994,7 +21009,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21278,10 +21293,10 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR97">
         <v>1.07</v>
@@ -21406,7 +21421,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21484,7 +21499,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ98">
         <v>1.38</v>
@@ -21612,7 +21627,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21818,7 +21833,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22024,7 +22039,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22102,10 +22117,10 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ101">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR101">
         <v>1.27</v>
@@ -22311,7 +22326,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ102">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR102">
         <v>1</v>
@@ -22436,7 +22451,7 @@
         <v>169</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22514,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ103">
         <v>0.78</v>
@@ -22642,7 +22657,7 @@
         <v>101</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22720,10 +22735,10 @@
         <v>2</v>
       </c>
       <c r="AP104">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR104">
         <v>1.32</v>
@@ -23054,7 +23069,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23132,10 +23147,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ106">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23547,7 +23562,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ108">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.49</v>
@@ -23753,7 +23768,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23956,7 +23971,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ110">
         <v>1.44</v>
@@ -24162,7 +24177,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ111">
         <v>0.89</v>
@@ -24371,7 +24386,7 @@
         <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR112">
         <v>1.19</v>
@@ -24577,7 +24592,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ113">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR113">
         <v>1.69</v>
@@ -24702,7 +24717,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24908,7 +24923,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>2.4</v>
@@ -25192,7 +25207,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ116">
         <v>0.89</v>
@@ -25320,7 +25335,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25398,10 +25413,10 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25526,7 +25541,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25607,7 +25622,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25732,7 +25747,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25810,7 +25825,7 @@
         <v>0.8</v>
       </c>
       <c r="AP119">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25938,7 +25953,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26016,7 +26031,7 @@
         <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ120">
         <v>1.9</v>
@@ -26144,7 +26159,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26428,7 +26443,7 @@
         <v>0.8</v>
       </c>
       <c r="AP122">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>0.89</v>
@@ -26556,7 +26571,7 @@
         <v>101</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.1</v>
@@ -26637,7 +26652,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -26762,7 +26777,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26840,10 +26855,10 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ124">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR124">
         <v>1.2</v>
@@ -26968,7 +26983,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>2.38</v>
@@ -27049,7 +27064,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ125">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR125">
         <v>1.08</v>
@@ -27252,10 +27267,10 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR126">
         <v>1.34</v>
@@ -27461,7 +27476,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ127">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR127">
         <v>1.16</v>
@@ -27586,7 +27601,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27667,7 +27682,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ128">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR128">
         <v>1.07</v>
@@ -27873,7 +27888,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ129">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -27998,7 +28013,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28079,7 +28094,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ130">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28204,7 +28219,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28616,7 +28631,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28822,7 +28837,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28900,7 +28915,7 @@
         <v>1.4</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ134">
         <v>1.89</v>
@@ -29028,7 +29043,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29106,7 +29121,7 @@
         <v>0.2</v>
       </c>
       <c r="AP135">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ135">
         <v>0.89</v>
@@ -29234,7 +29249,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29440,7 +29455,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29518,7 +29533,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ137">
         <v>0.89</v>
@@ -29724,10 +29739,10 @@
         <v>1.4</v>
       </c>
       <c r="AP138">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -29852,7 +29867,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29930,10 +29945,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR139">
         <v>1.5</v>
@@ -30139,7 +30154,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ140">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR140">
         <v>1.61</v>
@@ -30264,7 +30279,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -30342,10 +30357,10 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ141">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30470,7 +30485,7 @@
         <v>101</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30548,7 +30563,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ142">
         <v>1.9</v>
@@ -30676,7 +30691,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30754,7 +30769,7 @@
         <v>0.67</v>
       </c>
       <c r="AP143">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ143">
         <v>0.89</v>
@@ -30960,7 +30975,7 @@
         <v>0.6</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ144">
         <v>0.78</v>
@@ -31169,7 +31184,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ145">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR145">
         <v>1.14</v>
@@ -31500,7 +31515,7 @@
         <v>101</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>2.25</v>
@@ -31581,7 +31596,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR147">
         <v>1.19</v>
@@ -31784,7 +31799,7 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31993,7 +32008,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ149">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR149">
         <v>1.45</v>
@@ -32196,10 +32211,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32324,7 +32339,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32530,7 +32545,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32611,7 +32626,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ152">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32736,7 +32751,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32814,7 +32829,7 @@
         <v>0.8</v>
       </c>
       <c r="AP153">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33354,7 +33369,7 @@
         <v>197</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33641,7 +33656,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -33766,7 +33781,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q158">
         <v>3.4</v>
@@ -33844,7 +33859,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ158">
         <v>1.43</v>
@@ -34050,10 +34065,10 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ159">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR159">
         <v>1.49</v>
@@ -34178,7 +34193,7 @@
         <v>201</v>
       </c>
       <c r="P160" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34256,10 +34271,10 @@
         <v>1.67</v>
       </c>
       <c r="AP160">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34671,7 +34686,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR162">
         <v>1.61</v>
@@ -34874,7 +34889,7 @@
         <v>0.67</v>
       </c>
       <c r="AP163">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ163">
         <v>0.89</v>
@@ -35002,7 +35017,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35208,7 +35223,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35286,7 +35301,7 @@
         <v>0.57</v>
       </c>
       <c r="AP165">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ165">
         <v>0.89</v>
@@ -35414,7 +35429,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35495,7 +35510,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ166">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.16</v>
@@ -35698,10 +35713,10 @@
         <v>0.86</v>
       </c>
       <c r="AP167">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ167">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR167">
         <v>1.25</v>
@@ -35907,7 +35922,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR168">
         <v>1.33</v>
@@ -36032,7 +36047,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36110,10 +36125,10 @@
         <v>1.67</v>
       </c>
       <c r="AP169">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ169">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR169">
         <v>1.52</v>
@@ -36238,7 +36253,7 @@
         <v>208</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36316,10 +36331,10 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ170">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR170">
         <v>1.18</v>
@@ -36856,7 +36871,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -37062,7 +37077,7 @@
         <v>149</v>
       </c>
       <c r="P174" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37140,7 +37155,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ174">
         <v>1.44</v>
@@ -37346,7 +37361,7 @@
         <v>1.71</v>
       </c>
       <c r="AP175">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
         <v>1.9</v>
@@ -37555,7 +37570,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ176">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR176">
         <v>1.32</v>
@@ -37761,7 +37776,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ177">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -37886,7 +37901,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>3.2</v>
@@ -37967,7 +37982,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ178">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR178">
         <v>1.27</v>
@@ -38092,7 +38107,7 @@
         <v>184</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>3.4</v>
@@ -38376,7 +38391,7 @@
         <v>0.88</v>
       </c>
       <c r="AP180">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ180">
         <v>0.89</v>
@@ -38582,7 +38597,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -38791,7 +38806,7 @@
         <v>2</v>
       </c>
       <c r="AQ182">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR182">
         <v>1.19</v>
@@ -38916,7 +38931,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39203,7 +39218,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ184">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39328,7 +39343,7 @@
         <v>216</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39406,7 +39421,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ185">
         <v>0.89</v>
@@ -39740,7 +39755,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -39818,7 +39833,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ187">
         <v>0.78</v>
@@ -40024,7 +40039,7 @@
         <v>1.14</v>
       </c>
       <c r="AP188">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ188">
         <v>0.89</v>
@@ -40233,7 +40248,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ189">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR189">
         <v>1.71</v>
@@ -40358,7 +40373,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40436,7 +40451,7 @@
         <v>0.71</v>
       </c>
       <c r="AP190">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40564,7 +40579,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q191">
         <v>2.88</v>
@@ -40642,7 +40657,7 @@
         <v>1.57</v>
       </c>
       <c r="AP191">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ191">
         <v>1.89</v>
@@ -40770,7 +40785,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40851,7 +40866,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ192">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.24</v>
@@ -41054,10 +41069,10 @@
         <v>1.86</v>
       </c>
       <c r="AP193">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ193">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR193">
         <v>1.51</v>
@@ -41263,7 +41278,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ194">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR194">
         <v>1.49</v>
@@ -41388,7 +41403,7 @@
         <v>149</v>
       </c>
       <c r="P195" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>2.3</v>
@@ -41469,7 +41484,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR195">
         <v>1.27</v>
@@ -41675,7 +41690,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ196">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR196">
         <v>1.37</v>
@@ -41800,7 +41815,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -41878,7 +41893,7 @@
         <v>1.29</v>
       </c>
       <c r="AP197">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ197">
         <v>1.44</v>
@@ -42006,7 +42021,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42084,7 +42099,7 @@
         <v>1</v>
       </c>
       <c r="AP198">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ198">
         <v>1.44</v>
@@ -42418,7 +42433,7 @@
         <v>122</v>
       </c>
       <c r="P200" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q200">
         <v>3.4</v>
@@ -42496,10 +42511,10 @@
         <v>1.5</v>
       </c>
       <c r="AP200">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ200">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -42624,7 +42639,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42702,10 +42717,10 @@
         <v>1.56</v>
       </c>
       <c r="AP201">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ201">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR201">
         <v>1.49</v>
@@ -42830,7 +42845,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q202">
         <v>2.4</v>
@@ -42908,10 +42923,10 @@
         <v>1.11</v>
       </c>
       <c r="AP202">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ202">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR202">
         <v>1.38</v>
@@ -43114,10 +43129,10 @@
         <v>1.13</v>
       </c>
       <c r="AP203">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ203">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR203">
         <v>1.39</v>
@@ -43320,10 +43335,10 @@
         <v>1.63</v>
       </c>
       <c r="AP204">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ204">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR204">
         <v>1.27</v>
@@ -43448,7 +43463,7 @@
         <v>226</v>
       </c>
       <c r="P205" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q205">
         <v>2.85</v>
@@ -43526,7 +43541,7 @@
         <v>0.88</v>
       </c>
       <c r="AP205">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ205">
         <v>0.78</v>
@@ -43654,7 +43669,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -43732,10 +43747,10 @@
         <v>0.88</v>
       </c>
       <c r="AP206">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ206">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR206">
         <v>1.53</v>
@@ -43938,10 +43953,10 @@
         <v>0.89</v>
       </c>
       <c r="AP207">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ207">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR207">
         <v>1.62</v>
@@ -44066,7 +44081,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q208">
         <v>3.55</v>
@@ -44144,10 +44159,10 @@
         <v>2.11</v>
       </c>
       <c r="AP208">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ208">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR208">
         <v>1.31</v>
@@ -44272,7 +44287,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q209">
         <v>1.8</v>
@@ -44350,10 +44365,10 @@
         <v>0.78</v>
       </c>
       <c r="AP209">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ209">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -44478,7 +44493,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44556,10 +44571,10 @@
         <v>1.14</v>
       </c>
       <c r="AP210">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ210">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR210">
         <v>1.4</v>
@@ -44684,7 +44699,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44765,7 +44780,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ211">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR211">
         <v>1.39</v>
@@ -45508,7 +45523,7 @@
         <v>101</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q215">
         <v>3.2</v>
@@ -45714,7 +45729,7 @@
         <v>101</v>
       </c>
       <c r="P216" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q216">
         <v>4.33</v>
@@ -45920,7 +45935,7 @@
         <v>234</v>
       </c>
       <c r="P217" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q217">
         <v>2.2</v>
@@ -46332,7 +46347,7 @@
         <v>236</v>
       </c>
       <c r="P219" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46695,6 +46710,2272 @@
       </c>
       <c r="BP220">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7476782</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F221">
+        <v>20</v>
+      </c>
+      <c r="G221" t="s">
+        <v>80</v>
+      </c>
+      <c r="H221" t="s">
+        <v>77</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>238</v>
+      </c>
+      <c r="P221" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q221">
+        <v>2.38</v>
+      </c>
+      <c r="R221">
+        <v>2.1</v>
+      </c>
+      <c r="S221">
+        <v>5</v>
+      </c>
+      <c r="T221">
+        <v>1.44</v>
+      </c>
+      <c r="U221">
+        <v>2.63</v>
+      </c>
+      <c r="V221">
+        <v>3</v>
+      </c>
+      <c r="W221">
+        <v>1.36</v>
+      </c>
+      <c r="X221">
+        <v>9</v>
+      </c>
+      <c r="Y221">
+        <v>1.07</v>
+      </c>
+      <c r="Z221">
+        <v>1.73</v>
+      </c>
+      <c r="AA221">
+        <v>3.5</v>
+      </c>
+      <c r="AB221">
+        <v>5</v>
+      </c>
+      <c r="AC221">
+        <v>1.06</v>
+      </c>
+      <c r="AD221">
+        <v>8.5</v>
+      </c>
+      <c r="AE221">
+        <v>1.35</v>
+      </c>
+      <c r="AF221">
+        <v>3.1</v>
+      </c>
+      <c r="AG221">
+        <v>1.93</v>
+      </c>
+      <c r="AH221">
+        <v>1.77</v>
+      </c>
+      <c r="AI221">
+        <v>1.91</v>
+      </c>
+      <c r="AJ221">
+        <v>1.8</v>
+      </c>
+      <c r="AK221">
+        <v>1.17</v>
+      </c>
+      <c r="AL221">
+        <v>1.22</v>
+      </c>
+      <c r="AM221">
+        <v>2.05</v>
+      </c>
+      <c r="AN221">
+        <v>1.11</v>
+      </c>
+      <c r="AO221">
+        <v>1</v>
+      </c>
+      <c r="AP221">
+        <v>1.3</v>
+      </c>
+      <c r="AQ221">
+        <v>0.9</v>
+      </c>
+      <c r="AR221">
+        <v>1.41</v>
+      </c>
+      <c r="AS221">
+        <v>1.02</v>
+      </c>
+      <c r="AT221">
+        <v>2.43</v>
+      </c>
+      <c r="AU221">
+        <v>6</v>
+      </c>
+      <c r="AV221">
+        <v>6</v>
+      </c>
+      <c r="AW221">
+        <v>7</v>
+      </c>
+      <c r="AX221">
+        <v>2</v>
+      </c>
+      <c r="AY221">
+        <v>22</v>
+      </c>
+      <c r="AZ221">
+        <v>9</v>
+      </c>
+      <c r="BA221">
+        <v>11</v>
+      </c>
+      <c r="BB221">
+        <v>2</v>
+      </c>
+      <c r="BC221">
+        <v>13</v>
+      </c>
+      <c r="BD221">
+        <v>1.34</v>
+      </c>
+      <c r="BE221">
+        <v>9.5</v>
+      </c>
+      <c r="BF221">
+        <v>3.86</v>
+      </c>
+      <c r="BG221">
+        <v>1.17</v>
+      </c>
+      <c r="BH221">
+        <v>4.7</v>
+      </c>
+      <c r="BI221">
+        <v>1.27</v>
+      </c>
+      <c r="BJ221">
+        <v>3.4</v>
+      </c>
+      <c r="BK221">
+        <v>1.5</v>
+      </c>
+      <c r="BL221">
+        <v>2.43</v>
+      </c>
+      <c r="BM221">
+        <v>1.9</v>
+      </c>
+      <c r="BN221">
+        <v>1.9</v>
+      </c>
+      <c r="BO221">
+        <v>2.4</v>
+      </c>
+      <c r="BP221">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7476781</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F222">
+        <v>20</v>
+      </c>
+      <c r="G222" t="s">
+        <v>79</v>
+      </c>
+      <c r="H222" t="s">
+        <v>93</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>239</v>
+      </c>
+      <c r="P222" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q222">
+        <v>3.1</v>
+      </c>
+      <c r="R222">
+        <v>2.1</v>
+      </c>
+      <c r="S222">
+        <v>3.6</v>
+      </c>
+      <c r="T222">
+        <v>1.44</v>
+      </c>
+      <c r="U222">
+        <v>2.63</v>
+      </c>
+      <c r="V222">
+        <v>3</v>
+      </c>
+      <c r="W222">
+        <v>1.36</v>
+      </c>
+      <c r="X222">
+        <v>9</v>
+      </c>
+      <c r="Y222">
+        <v>1.07</v>
+      </c>
+      <c r="Z222">
+        <v>2.5</v>
+      </c>
+      <c r="AA222">
+        <v>3.3</v>
+      </c>
+      <c r="AB222">
+        <v>2.7</v>
+      </c>
+      <c r="AC222">
+        <v>1.06</v>
+      </c>
+      <c r="AD222">
+        <v>8.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.3</v>
+      </c>
+      <c r="AF222">
+        <v>3.45</v>
+      </c>
+      <c r="AG222">
+        <v>2.01</v>
+      </c>
+      <c r="AH222">
+        <v>1.79</v>
+      </c>
+      <c r="AI222">
+        <v>1.8</v>
+      </c>
+      <c r="AJ222">
+        <v>1.91</v>
+      </c>
+      <c r="AK222">
+        <v>1.45</v>
+      </c>
+      <c r="AL222">
+        <v>1.25</v>
+      </c>
+      <c r="AM222">
+        <v>1.5</v>
+      </c>
+      <c r="AN222">
+        <v>1.67</v>
+      </c>
+      <c r="AO222">
+        <v>1.4</v>
+      </c>
+      <c r="AP222">
+        <v>1.8</v>
+      </c>
+      <c r="AQ222">
+        <v>1.27</v>
+      </c>
+      <c r="AR222">
+        <v>1.41</v>
+      </c>
+      <c r="AS222">
+        <v>1.23</v>
+      </c>
+      <c r="AT222">
+        <v>2.64</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>3</v>
+      </c>
+      <c r="AW222">
+        <v>6</v>
+      </c>
+      <c r="AX222">
+        <v>7</v>
+      </c>
+      <c r="AY222">
+        <v>14</v>
+      </c>
+      <c r="AZ222">
+        <v>15</v>
+      </c>
+      <c r="BA222">
+        <v>3</v>
+      </c>
+      <c r="BB222">
+        <v>4</v>
+      </c>
+      <c r="BC222">
+        <v>7</v>
+      </c>
+      <c r="BD222">
+        <v>1.85</v>
+      </c>
+      <c r="BE222">
+        <v>8</v>
+      </c>
+      <c r="BF222">
+        <v>2.28</v>
+      </c>
+      <c r="BG222">
+        <v>1.2</v>
+      </c>
+      <c r="BH222">
+        <v>4.2</v>
+      </c>
+      <c r="BI222">
+        <v>1.33</v>
+      </c>
+      <c r="BJ222">
+        <v>3.05</v>
+      </c>
+      <c r="BK222">
+        <v>1.58</v>
+      </c>
+      <c r="BL222">
+        <v>2.2</v>
+      </c>
+      <c r="BM222">
+        <v>2</v>
+      </c>
+      <c r="BN222">
+        <v>1.72</v>
+      </c>
+      <c r="BO222">
+        <v>2.65</v>
+      </c>
+      <c r="BP222">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7476780</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F223">
+        <v>20</v>
+      </c>
+      <c r="G223" t="s">
+        <v>78</v>
+      </c>
+      <c r="H223" t="s">
+        <v>76</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223" t="s">
+        <v>101</v>
+      </c>
+      <c r="P223" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q223">
+        <v>2.5</v>
+      </c>
+      <c r="R223">
+        <v>2.2</v>
+      </c>
+      <c r="S223">
+        <v>4.5</v>
+      </c>
+      <c r="T223">
+        <v>1.4</v>
+      </c>
+      <c r="U223">
+        <v>2.75</v>
+      </c>
+      <c r="V223">
+        <v>2.75</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>8</v>
+      </c>
+      <c r="Y223">
+        <v>1.08</v>
+      </c>
+      <c r="Z223">
+        <v>1.91</v>
+      </c>
+      <c r="AA223">
+        <v>3.5</v>
+      </c>
+      <c r="AB223">
+        <v>4</v>
+      </c>
+      <c r="AC223">
+        <v>1.05</v>
+      </c>
+      <c r="AD223">
+        <v>10</v>
+      </c>
+      <c r="AE223">
+        <v>1.33</v>
+      </c>
+      <c r="AF223">
+        <v>3.25</v>
+      </c>
+      <c r="AG223">
+        <v>1.91</v>
+      </c>
+      <c r="AH223">
+        <v>1.8</v>
+      </c>
+      <c r="AI223">
+        <v>1.8</v>
+      </c>
+      <c r="AJ223">
+        <v>1.91</v>
+      </c>
+      <c r="AK223">
+        <v>1.22</v>
+      </c>
+      <c r="AL223">
+        <v>1.25</v>
+      </c>
+      <c r="AM223">
+        <v>1.95</v>
+      </c>
+      <c r="AN223">
+        <v>2</v>
+      </c>
+      <c r="AO223">
+        <v>1</v>
+      </c>
+      <c r="AP223">
+        <v>1.82</v>
+      </c>
+      <c r="AQ223">
+        <v>1.22</v>
+      </c>
+      <c r="AR223">
+        <v>1.31</v>
+      </c>
+      <c r="AS223">
+        <v>1.02</v>
+      </c>
+      <c r="AT223">
+        <v>2.33</v>
+      </c>
+      <c r="AU223">
+        <v>5</v>
+      </c>
+      <c r="AV223">
+        <v>3</v>
+      </c>
+      <c r="AW223">
+        <v>8</v>
+      </c>
+      <c r="AX223">
+        <v>2</v>
+      </c>
+      <c r="AY223">
+        <v>14</v>
+      </c>
+      <c r="AZ223">
+        <v>6</v>
+      </c>
+      <c r="BA223">
+        <v>3</v>
+      </c>
+      <c r="BB223">
+        <v>1</v>
+      </c>
+      <c r="BC223">
+        <v>4</v>
+      </c>
+      <c r="BD223">
+        <v>1.55</v>
+      </c>
+      <c r="BE223">
+        <v>8.5</v>
+      </c>
+      <c r="BF223">
+        <v>2.91</v>
+      </c>
+      <c r="BG223">
+        <v>1.26</v>
+      </c>
+      <c r="BH223">
+        <v>3.5</v>
+      </c>
+      <c r="BI223">
+        <v>1.48</v>
+      </c>
+      <c r="BJ223">
+        <v>2.45</v>
+      </c>
+      <c r="BK223">
+        <v>1.92</v>
+      </c>
+      <c r="BL223">
+        <v>1.88</v>
+      </c>
+      <c r="BM223">
+        <v>2.43</v>
+      </c>
+      <c r="BN223">
+        <v>1.49</v>
+      </c>
+      <c r="BO223">
+        <v>3.35</v>
+      </c>
+      <c r="BP223">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7476779</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F224">
+        <v>20</v>
+      </c>
+      <c r="G224" t="s">
+        <v>87</v>
+      </c>
+      <c r="H224" t="s">
+        <v>86</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>101</v>
+      </c>
+      <c r="P224" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q224">
+        <v>3.4</v>
+      </c>
+      <c r="R224">
+        <v>2.05</v>
+      </c>
+      <c r="S224">
+        <v>3.4</v>
+      </c>
+      <c r="T224">
+        <v>1.44</v>
+      </c>
+      <c r="U224">
+        <v>2.63</v>
+      </c>
+      <c r="V224">
+        <v>3.25</v>
+      </c>
+      <c r="W224">
+        <v>1.33</v>
+      </c>
+      <c r="X224">
+        <v>9</v>
+      </c>
+      <c r="Y224">
+        <v>1.07</v>
+      </c>
+      <c r="Z224">
+        <v>2.62</v>
+      </c>
+      <c r="AA224">
+        <v>3.3</v>
+      </c>
+      <c r="AB224">
+        <v>2.6</v>
+      </c>
+      <c r="AC224">
+        <v>1.07</v>
+      </c>
+      <c r="AD224">
+        <v>9</v>
+      </c>
+      <c r="AE224">
+        <v>1.35</v>
+      </c>
+      <c r="AF224">
+        <v>3.2</v>
+      </c>
+      <c r="AG224">
+        <v>2.05</v>
+      </c>
+      <c r="AH224">
+        <v>1.7</v>
+      </c>
+      <c r="AI224">
+        <v>1.83</v>
+      </c>
+      <c r="AJ224">
+        <v>1.83</v>
+      </c>
+      <c r="AK224">
+        <v>1.47</v>
+      </c>
+      <c r="AL224">
+        <v>1.3</v>
+      </c>
+      <c r="AM224">
+        <v>1.47</v>
+      </c>
+      <c r="AN224">
+        <v>1.33</v>
+      </c>
+      <c r="AO224">
+        <v>1.44</v>
+      </c>
+      <c r="AP224">
+        <v>1.2</v>
+      </c>
+      <c r="AQ224">
+        <v>1.6</v>
+      </c>
+      <c r="AR224">
+        <v>1.28</v>
+      </c>
+      <c r="AS224">
+        <v>1.12</v>
+      </c>
+      <c r="AT224">
+        <v>2.4</v>
+      </c>
+      <c r="AU224">
+        <v>2</v>
+      </c>
+      <c r="AV224">
+        <v>6</v>
+      </c>
+      <c r="AW224">
+        <v>2</v>
+      </c>
+      <c r="AX224">
+        <v>2</v>
+      </c>
+      <c r="AY224">
+        <v>12</v>
+      </c>
+      <c r="AZ224">
+        <v>10</v>
+      </c>
+      <c r="BA224">
+        <v>4</v>
+      </c>
+      <c r="BB224">
+        <v>4</v>
+      </c>
+      <c r="BC224">
+        <v>8</v>
+      </c>
+      <c r="BD224">
+        <v>1.95</v>
+      </c>
+      <c r="BE224">
+        <v>8</v>
+      </c>
+      <c r="BF224">
+        <v>2.1</v>
+      </c>
+      <c r="BG224">
+        <v>1.21</v>
+      </c>
+      <c r="BH224">
+        <v>3.95</v>
+      </c>
+      <c r="BI224">
+        <v>1.4</v>
+      </c>
+      <c r="BJ224">
+        <v>2.7</v>
+      </c>
+      <c r="BK224">
+        <v>1.72</v>
+      </c>
+      <c r="BL224">
+        <v>2</v>
+      </c>
+      <c r="BM224">
+        <v>2.2</v>
+      </c>
+      <c r="BN224">
+        <v>1.58</v>
+      </c>
+      <c r="BO224">
+        <v>3</v>
+      </c>
+      <c r="BP224">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7476777</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F225">
+        <v>20</v>
+      </c>
+      <c r="G225" t="s">
+        <v>85</v>
+      </c>
+      <c r="H225" t="s">
+        <v>89</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>101</v>
+      </c>
+      <c r="P225" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q225">
+        <v>2.05</v>
+      </c>
+      <c r="R225">
+        <v>2.38</v>
+      </c>
+      <c r="S225">
+        <v>6</v>
+      </c>
+      <c r="T225">
+        <v>1.36</v>
+      </c>
+      <c r="U225">
+        <v>3</v>
+      </c>
+      <c r="V225">
+        <v>2.63</v>
+      </c>
+      <c r="W225">
+        <v>1.44</v>
+      </c>
+      <c r="X225">
+        <v>7</v>
+      </c>
+      <c r="Y225">
+        <v>1.1</v>
+      </c>
+      <c r="Z225">
+        <v>1.53</v>
+      </c>
+      <c r="AA225">
+        <v>4.2</v>
+      </c>
+      <c r="AB225">
+        <v>6</v>
+      </c>
+      <c r="AC225">
+        <v>1.05</v>
+      </c>
+      <c r="AD225">
+        <v>9.5</v>
+      </c>
+      <c r="AE225">
+        <v>1.25</v>
+      </c>
+      <c r="AF225">
+        <v>3.8</v>
+      </c>
+      <c r="AG225">
+        <v>1.75</v>
+      </c>
+      <c r="AH225">
+        <v>1.95</v>
+      </c>
+      <c r="AI225">
+        <v>1.83</v>
+      </c>
+      <c r="AJ225">
+        <v>1.83</v>
+      </c>
+      <c r="AK225">
+        <v>1.11</v>
+      </c>
+      <c r="AL225">
+        <v>1.18</v>
+      </c>
+      <c r="AM225">
+        <v>2.5</v>
+      </c>
+      <c r="AN225">
+        <v>1.33</v>
+      </c>
+      <c r="AO225">
+        <v>0.8</v>
+      </c>
+      <c r="AP225">
+        <v>1.3</v>
+      </c>
+      <c r="AQ225">
+        <v>0.82</v>
+      </c>
+      <c r="AR225">
+        <v>1.66</v>
+      </c>
+      <c r="AS225">
+        <v>0.86</v>
+      </c>
+      <c r="AT225">
+        <v>2.52</v>
+      </c>
+      <c r="AU225">
+        <v>5</v>
+      </c>
+      <c r="AV225">
+        <v>3</v>
+      </c>
+      <c r="AW225">
+        <v>9</v>
+      </c>
+      <c r="AX225">
+        <v>2</v>
+      </c>
+      <c r="AY225">
+        <v>23</v>
+      </c>
+      <c r="AZ225">
+        <v>10</v>
+      </c>
+      <c r="BA225">
+        <v>8</v>
+      </c>
+      <c r="BB225">
+        <v>3</v>
+      </c>
+      <c r="BC225">
+        <v>11</v>
+      </c>
+      <c r="BD225">
+        <v>1.21</v>
+      </c>
+      <c r="BE225">
+        <v>11</v>
+      </c>
+      <c r="BF225">
+        <v>5.6</v>
+      </c>
+      <c r="BG225">
+        <v>1.24</v>
+      </c>
+      <c r="BH225">
+        <v>3.65</v>
+      </c>
+      <c r="BI225">
+        <v>1.45</v>
+      </c>
+      <c r="BJ225">
+        <v>2.55</v>
+      </c>
+      <c r="BK225">
+        <v>1.82</v>
+      </c>
+      <c r="BL225">
+        <v>1.98</v>
+      </c>
+      <c r="BM225">
+        <v>2.35</v>
+      </c>
+      <c r="BN225">
+        <v>1.52</v>
+      </c>
+      <c r="BO225">
+        <v>3.2</v>
+      </c>
+      <c r="BP225">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7476775</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="G226" t="s">
+        <v>82</v>
+      </c>
+      <c r="H226" t="s">
+        <v>70</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>101</v>
+      </c>
+      <c r="P226" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q226">
+        <v>3.75</v>
+      </c>
+      <c r="R226">
+        <v>2.2</v>
+      </c>
+      <c r="S226">
+        <v>2.75</v>
+      </c>
+      <c r="T226">
+        <v>1.36</v>
+      </c>
+      <c r="U226">
+        <v>3</v>
+      </c>
+      <c r="V226">
+        <v>2.75</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>8</v>
+      </c>
+      <c r="Y226">
+        <v>1.08</v>
+      </c>
+      <c r="Z226">
+        <v>3.25</v>
+      </c>
+      <c r="AA226">
+        <v>3.5</v>
+      </c>
+      <c r="AB226">
+        <v>2.1</v>
+      </c>
+      <c r="AC226">
+        <v>1.05</v>
+      </c>
+      <c r="AD226">
+        <v>9.5</v>
+      </c>
+      <c r="AE226">
+        <v>1.28</v>
+      </c>
+      <c r="AF226">
+        <v>3.55</v>
+      </c>
+      <c r="AG226">
+        <v>1.83</v>
+      </c>
+      <c r="AH226">
+        <v>1.85</v>
+      </c>
+      <c r="AI226">
+        <v>1.67</v>
+      </c>
+      <c r="AJ226">
+        <v>2.1</v>
+      </c>
+      <c r="AK226">
+        <v>1.67</v>
+      </c>
+      <c r="AL226">
+        <v>1.25</v>
+      </c>
+      <c r="AM226">
+        <v>1.33</v>
+      </c>
+      <c r="AN226">
+        <v>0.67</v>
+      </c>
+      <c r="AO226">
+        <v>1.44</v>
+      </c>
+      <c r="AP226">
+        <v>0.6</v>
+      </c>
+      <c r="AQ226">
+        <v>1.6</v>
+      </c>
+      <c r="AR226">
+        <v>1.42</v>
+      </c>
+      <c r="AS226">
+        <v>1.25</v>
+      </c>
+      <c r="AT226">
+        <v>2.67</v>
+      </c>
+      <c r="AU226">
+        <v>4</v>
+      </c>
+      <c r="AV226">
+        <v>5</v>
+      </c>
+      <c r="AW226">
+        <v>5</v>
+      </c>
+      <c r="AX226">
+        <v>2</v>
+      </c>
+      <c r="AY226">
+        <v>14</v>
+      </c>
+      <c r="AZ226">
+        <v>10</v>
+      </c>
+      <c r="BA226">
+        <v>8</v>
+      </c>
+      <c r="BB226">
+        <v>1</v>
+      </c>
+      <c r="BC226">
+        <v>9</v>
+      </c>
+      <c r="BD226">
+        <v>2.2</v>
+      </c>
+      <c r="BE226">
+        <v>8</v>
+      </c>
+      <c r="BF226">
+        <v>1.91</v>
+      </c>
+      <c r="BG226">
+        <v>1.19</v>
+      </c>
+      <c r="BH226">
+        <v>4.2</v>
+      </c>
+      <c r="BI226">
+        <v>1.36</v>
+      </c>
+      <c r="BJ226">
+        <v>2.88</v>
+      </c>
+      <c r="BK226">
+        <v>1.65</v>
+      </c>
+      <c r="BL226">
+        <v>2.1</v>
+      </c>
+      <c r="BM226">
+        <v>2.1</v>
+      </c>
+      <c r="BN226">
+        <v>1.65</v>
+      </c>
+      <c r="BO226">
+        <v>2.8</v>
+      </c>
+      <c r="BP226">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7476774</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F227">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s">
+        <v>83</v>
+      </c>
+      <c r="H227" t="s">
+        <v>90</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227" t="s">
+        <v>101</v>
+      </c>
+      <c r="P227" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q227">
+        <v>3.6</v>
+      </c>
+      <c r="R227">
+        <v>2.1</v>
+      </c>
+      <c r="S227">
+        <v>3.1</v>
+      </c>
+      <c r="T227">
+        <v>1.44</v>
+      </c>
+      <c r="U227">
+        <v>2.63</v>
+      </c>
+      <c r="V227">
+        <v>3</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>9</v>
+      </c>
+      <c r="Y227">
+        <v>1.07</v>
+      </c>
+      <c r="Z227">
+        <v>2.87</v>
+      </c>
+      <c r="AA227">
+        <v>3.4</v>
+      </c>
+      <c r="AB227">
+        <v>2.37</v>
+      </c>
+      <c r="AC227">
+        <v>1.06</v>
+      </c>
+      <c r="AD227">
+        <v>8.5</v>
+      </c>
+      <c r="AE227">
+        <v>1.33</v>
+      </c>
+      <c r="AF227">
+        <v>3.25</v>
+      </c>
+      <c r="AG227">
+        <v>1.95</v>
+      </c>
+      <c r="AH227">
+        <v>1.75</v>
+      </c>
+      <c r="AI227">
+        <v>1.8</v>
+      </c>
+      <c r="AJ227">
+        <v>1.91</v>
+      </c>
+      <c r="AK227">
+        <v>1.57</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>1.38</v>
+      </c>
+      <c r="AN227">
+        <v>1.11</v>
+      </c>
+      <c r="AO227">
+        <v>2</v>
+      </c>
+      <c r="AP227">
+        <v>1.1</v>
+      </c>
+      <c r="AQ227">
+        <v>1.91</v>
+      </c>
+      <c r="AR227">
+        <v>1.39</v>
+      </c>
+      <c r="AS227">
+        <v>1.27</v>
+      </c>
+      <c r="AT227">
+        <v>2.66</v>
+      </c>
+      <c r="AU227">
+        <v>8</v>
+      </c>
+      <c r="AV227">
+        <v>5</v>
+      </c>
+      <c r="AW227">
+        <v>10</v>
+      </c>
+      <c r="AX227">
+        <v>3</v>
+      </c>
+      <c r="AY227">
+        <v>26</v>
+      </c>
+      <c r="AZ227">
+        <v>14</v>
+      </c>
+      <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
+        <v>2</v>
+      </c>
+      <c r="BC227">
+        <v>6</v>
+      </c>
+      <c r="BD227">
+        <v>2.1</v>
+      </c>
+      <c r="BE227">
+        <v>8</v>
+      </c>
+      <c r="BF227">
+        <v>1.95</v>
+      </c>
+      <c r="BG227">
+        <v>1.2</v>
+      </c>
+      <c r="BH227">
+        <v>4.2</v>
+      </c>
+      <c r="BI227">
+        <v>1.33</v>
+      </c>
+      <c r="BJ227">
+        <v>3.05</v>
+      </c>
+      <c r="BK227">
+        <v>1.58</v>
+      </c>
+      <c r="BL227">
+        <v>2.2</v>
+      </c>
+      <c r="BM227">
+        <v>2</v>
+      </c>
+      <c r="BN227">
+        <v>1.72</v>
+      </c>
+      <c r="BO227">
+        <v>2.65</v>
+      </c>
+      <c r="BP227">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7476773</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F228">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s">
+        <v>92</v>
+      </c>
+      <c r="H228" t="s">
+        <v>91</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>128</v>
+      </c>
+      <c r="P228" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q228">
+        <v>2.3</v>
+      </c>
+      <c r="R228">
+        <v>2.25</v>
+      </c>
+      <c r="S228">
+        <v>5</v>
+      </c>
+      <c r="T228">
+        <v>1.36</v>
+      </c>
+      <c r="U228">
+        <v>3</v>
+      </c>
+      <c r="V228">
+        <v>2.75</v>
+      </c>
+      <c r="W228">
+        <v>1.4</v>
+      </c>
+      <c r="X228">
+        <v>7</v>
+      </c>
+      <c r="Y228">
+        <v>1.1</v>
+      </c>
+      <c r="Z228">
+        <v>1.67</v>
+      </c>
+      <c r="AA228">
+        <v>3.9</v>
+      </c>
+      <c r="AB228">
+        <v>5</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9</v>
+      </c>
+      <c r="AE228">
+        <v>1.28</v>
+      </c>
+      <c r="AF228">
+        <v>3.55</v>
+      </c>
+      <c r="AG228">
+        <v>1.85</v>
+      </c>
+      <c r="AH228">
+        <v>1.85</v>
+      </c>
+      <c r="AI228">
+        <v>1.83</v>
+      </c>
+      <c r="AJ228">
+        <v>1.83</v>
+      </c>
+      <c r="AK228">
+        <v>1.15</v>
+      </c>
+      <c r="AL228">
+        <v>1.22</v>
+      </c>
+      <c r="AM228">
+        <v>2.2</v>
+      </c>
+      <c r="AN228">
+        <v>1.88</v>
+      </c>
+      <c r="AO228">
+        <v>0.8</v>
+      </c>
+      <c r="AP228">
+        <v>2</v>
+      </c>
+      <c r="AQ228">
+        <v>0.73</v>
+      </c>
+      <c r="AR228">
+        <v>1.48</v>
+      </c>
+      <c r="AS228">
+        <v>1.06</v>
+      </c>
+      <c r="AT228">
+        <v>2.54</v>
+      </c>
+      <c r="AU228">
+        <v>3</v>
+      </c>
+      <c r="AV228">
+        <v>0</v>
+      </c>
+      <c r="AW228">
+        <v>2</v>
+      </c>
+      <c r="AX228">
+        <v>0</v>
+      </c>
+      <c r="AY228">
+        <v>8</v>
+      </c>
+      <c r="AZ228">
+        <v>3</v>
+      </c>
+      <c r="BA228">
+        <v>3</v>
+      </c>
+      <c r="BB228">
+        <v>3</v>
+      </c>
+      <c r="BC228">
+        <v>6</v>
+      </c>
+      <c r="BD228">
+        <v>1.51</v>
+      </c>
+      <c r="BE228">
+        <v>8.5</v>
+      </c>
+      <c r="BF228">
+        <v>3.07</v>
+      </c>
+      <c r="BG228">
+        <v>1.19</v>
+      </c>
+      <c r="BH228">
+        <v>4.2</v>
+      </c>
+      <c r="BI228">
+        <v>1.36</v>
+      </c>
+      <c r="BJ228">
+        <v>2.88</v>
+      </c>
+      <c r="BK228">
+        <v>1.65</v>
+      </c>
+      <c r="BL228">
+        <v>2.1</v>
+      </c>
+      <c r="BM228">
+        <v>2.1</v>
+      </c>
+      <c r="BN228">
+        <v>1.65</v>
+      </c>
+      <c r="BO228">
+        <v>2.8</v>
+      </c>
+      <c r="BP228">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7476772</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>71</v>
+      </c>
+      <c r="H229" t="s">
+        <v>74</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
+        <v>147</v>
+      </c>
+      <c r="P229" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q229">
+        <v>3</v>
+      </c>
+      <c r="R229">
+        <v>2.1</v>
+      </c>
+      <c r="S229">
+        <v>3.75</v>
+      </c>
+      <c r="T229">
+        <v>1.44</v>
+      </c>
+      <c r="U229">
+        <v>2.63</v>
+      </c>
+      <c r="V229">
+        <v>3.25</v>
+      </c>
+      <c r="W229">
+        <v>1.33</v>
+      </c>
+      <c r="X229">
+        <v>9</v>
+      </c>
+      <c r="Y229">
+        <v>1.07</v>
+      </c>
+      <c r="Z229">
+        <v>2.3</v>
+      </c>
+      <c r="AA229">
+        <v>3.4</v>
+      </c>
+      <c r="AB229">
+        <v>3</v>
+      </c>
+      <c r="AC229">
+        <v>1.06</v>
+      </c>
+      <c r="AD229">
+        <v>8.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.35</v>
+      </c>
+      <c r="AF229">
+        <v>3.1</v>
+      </c>
+      <c r="AG229">
+        <v>2</v>
+      </c>
+      <c r="AH229">
+        <v>1.73</v>
+      </c>
+      <c r="AI229">
+        <v>1.8</v>
+      </c>
+      <c r="AJ229">
+        <v>1.91</v>
+      </c>
+      <c r="AK229">
+        <v>1.36</v>
+      </c>
+      <c r="AL229">
+        <v>1.28</v>
+      </c>
+      <c r="AM229">
+        <v>1.6</v>
+      </c>
+      <c r="AN229">
+        <v>1.89</v>
+      </c>
+      <c r="AO229">
+        <v>1.89</v>
+      </c>
+      <c r="AP229">
+        <v>2</v>
+      </c>
+      <c r="AQ229">
+        <v>1.7</v>
+      </c>
+      <c r="AR229">
+        <v>1.53</v>
+      </c>
+      <c r="AS229">
+        <v>1.47</v>
+      </c>
+      <c r="AT229">
+        <v>3</v>
+      </c>
+      <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
+        <v>0</v>
+      </c>
+      <c r="AW229">
+        <v>2</v>
+      </c>
+      <c r="AX229">
+        <v>4</v>
+      </c>
+      <c r="AY229">
+        <v>9</v>
+      </c>
+      <c r="AZ229">
+        <v>6</v>
+      </c>
+      <c r="BA229">
+        <v>5</v>
+      </c>
+      <c r="BB229">
+        <v>2</v>
+      </c>
+      <c r="BC229">
+        <v>7</v>
+      </c>
+      <c r="BD229">
+        <v>1.82</v>
+      </c>
+      <c r="BE229">
+        <v>8</v>
+      </c>
+      <c r="BF229">
+        <v>2.39</v>
+      </c>
+      <c r="BG229">
+        <v>1.2</v>
+      </c>
+      <c r="BH229">
+        <v>4.2</v>
+      </c>
+      <c r="BI229">
+        <v>1.33</v>
+      </c>
+      <c r="BJ229">
+        <v>3.05</v>
+      </c>
+      <c r="BK229">
+        <v>1.58</v>
+      </c>
+      <c r="BL229">
+        <v>2.2</v>
+      </c>
+      <c r="BM229">
+        <v>2</v>
+      </c>
+      <c r="BN229">
+        <v>1.72</v>
+      </c>
+      <c r="BO229">
+        <v>2.65</v>
+      </c>
+      <c r="BP229">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7476783</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>81</v>
+      </c>
+      <c r="H230" t="s">
+        <v>72</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
+        <v>124</v>
+      </c>
+      <c r="P230" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q230">
+        <v>2.5</v>
+      </c>
+      <c r="R230">
+        <v>2.1</v>
+      </c>
+      <c r="S230">
+        <v>4.75</v>
+      </c>
+      <c r="T230">
+        <v>1.44</v>
+      </c>
+      <c r="U230">
+        <v>2.63</v>
+      </c>
+      <c r="V230">
+        <v>3.25</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>9</v>
+      </c>
+      <c r="Y230">
+        <v>1.07</v>
+      </c>
+      <c r="Z230">
+        <v>1.91</v>
+      </c>
+      <c r="AA230">
+        <v>3.5</v>
+      </c>
+      <c r="AB230">
+        <v>4</v>
+      </c>
+      <c r="AC230">
+        <v>1.05</v>
+      </c>
+      <c r="AD230">
+        <v>10</v>
+      </c>
+      <c r="AE230">
+        <v>1.33</v>
+      </c>
+      <c r="AF230">
+        <v>3.25</v>
+      </c>
+      <c r="AG230">
+        <v>2</v>
+      </c>
+      <c r="AH230">
+        <v>1.73</v>
+      </c>
+      <c r="AI230">
+        <v>1.83</v>
+      </c>
+      <c r="AJ230">
+        <v>1.83</v>
+      </c>
+      <c r="AK230">
+        <v>1.25</v>
+      </c>
+      <c r="AL230">
+        <v>1.25</v>
+      </c>
+      <c r="AM230">
+        <v>1.9</v>
+      </c>
+      <c r="AN230">
+        <v>2.22</v>
+      </c>
+      <c r="AO230">
+        <v>0.89</v>
+      </c>
+      <c r="AP230">
+        <v>2.3</v>
+      </c>
+      <c r="AQ230">
+        <v>0.8</v>
+      </c>
+      <c r="AR230">
+        <v>1.56</v>
+      </c>
+      <c r="AS230">
+        <v>1.09</v>
+      </c>
+      <c r="AT230">
+        <v>2.65</v>
+      </c>
+      <c r="AU230">
+        <v>4</v>
+      </c>
+      <c r="AV230">
+        <v>4</v>
+      </c>
+      <c r="AW230">
+        <v>2</v>
+      </c>
+      <c r="AX230">
+        <v>3</v>
+      </c>
+      <c r="AY230">
+        <v>11</v>
+      </c>
+      <c r="AZ230">
+        <v>8</v>
+      </c>
+      <c r="BA230">
+        <v>5</v>
+      </c>
+      <c r="BB230">
+        <v>3</v>
+      </c>
+      <c r="BC230">
+        <v>8</v>
+      </c>
+      <c r="BD230">
+        <v>1.55</v>
+      </c>
+      <c r="BE230">
+        <v>8.5</v>
+      </c>
+      <c r="BF230">
+        <v>2.91</v>
+      </c>
+      <c r="BG230">
+        <v>1.21</v>
+      </c>
+      <c r="BH230">
+        <v>3.95</v>
+      </c>
+      <c r="BI230">
+        <v>1.4</v>
+      </c>
+      <c r="BJ230">
+        <v>2.7</v>
+      </c>
+      <c r="BK230">
+        <v>1.72</v>
+      </c>
+      <c r="BL230">
+        <v>2</v>
+      </c>
+      <c r="BM230">
+        <v>2.2</v>
+      </c>
+      <c r="BN230">
+        <v>1.58</v>
+      </c>
+      <c r="BO230">
+        <v>3</v>
+      </c>
+      <c r="BP230">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7476776</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F231">
+        <v>20</v>
+      </c>
+      <c r="G231" t="s">
+        <v>73</v>
+      </c>
+      <c r="H231" t="s">
+        <v>88</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>158</v>
+      </c>
+      <c r="P231" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q231">
+        <v>2.5</v>
+      </c>
+      <c r="R231">
+        <v>2.2</v>
+      </c>
+      <c r="S231">
+        <v>4.5</v>
+      </c>
+      <c r="T231">
+        <v>1.4</v>
+      </c>
+      <c r="U231">
+        <v>2.75</v>
+      </c>
+      <c r="V231">
+        <v>2.75</v>
+      </c>
+      <c r="W231">
+        <v>1.4</v>
+      </c>
+      <c r="X231">
+        <v>8</v>
+      </c>
+      <c r="Y231">
+        <v>1.08</v>
+      </c>
+      <c r="Z231">
+        <v>1.91</v>
+      </c>
+      <c r="AA231">
+        <v>3.5</v>
+      </c>
+      <c r="AB231">
+        <v>4</v>
+      </c>
+      <c r="AC231">
+        <v>1.05</v>
+      </c>
+      <c r="AD231">
+        <v>9</v>
+      </c>
+      <c r="AE231">
+        <v>1.3</v>
+      </c>
+      <c r="AF231">
+        <v>3.4</v>
+      </c>
+      <c r="AG231">
+        <v>1.85</v>
+      </c>
+      <c r="AH231">
+        <v>1.83</v>
+      </c>
+      <c r="AI231">
+        <v>1.8</v>
+      </c>
+      <c r="AJ231">
+        <v>1.91</v>
+      </c>
+      <c r="AK231">
+        <v>1.22</v>
+      </c>
+      <c r="AL231">
+        <v>1.22</v>
+      </c>
+      <c r="AM231">
+        <v>1.9</v>
+      </c>
+      <c r="AN231">
+        <v>1.5</v>
+      </c>
+      <c r="AO231">
+        <v>1.1</v>
+      </c>
+      <c r="AP231">
+        <v>1.64</v>
+      </c>
+      <c r="AQ231">
+        <v>1</v>
+      </c>
+      <c r="AR231">
+        <v>1.3</v>
+      </c>
+      <c r="AS231">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT231">
+        <v>2.24</v>
+      </c>
+      <c r="AU231">
+        <v>4</v>
+      </c>
+      <c r="AV231">
+        <v>0</v>
+      </c>
+      <c r="AW231">
+        <v>5</v>
+      </c>
+      <c r="AX231">
+        <v>6</v>
+      </c>
+      <c r="AY231">
+        <v>13</v>
+      </c>
+      <c r="AZ231">
+        <v>8</v>
+      </c>
+      <c r="BA231">
+        <v>5</v>
+      </c>
+      <c r="BB231">
+        <v>6</v>
+      </c>
+      <c r="BC231">
+        <v>11</v>
+      </c>
+      <c r="BD231">
+        <v>1.69</v>
+      </c>
+      <c r="BE231">
+        <v>8</v>
+      </c>
+      <c r="BF231">
+        <v>2.54</v>
+      </c>
+      <c r="BG231">
+        <v>1.24</v>
+      </c>
+      <c r="BH231">
+        <v>3.65</v>
+      </c>
+      <c r="BI231">
+        <v>1.45</v>
+      </c>
+      <c r="BJ231">
+        <v>2.55</v>
+      </c>
+      <c r="BK231">
+        <v>1.82</v>
+      </c>
+      <c r="BL231">
+        <v>1.98</v>
+      </c>
+      <c r="BM231">
+        <v>2.35</v>
+      </c>
+      <c r="BN231">
+        <v>1.52</v>
+      </c>
+      <c r="BO231">
+        <v>3.2</v>
+      </c>
+      <c r="BP231">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -697,19 +697,19 @@
     <t>['2', '11', '19', '33', '68']</t>
   </si>
   <si>
-    <t>['9', '12', '26', '38']</t>
+    <t>['12', '20']</t>
   </si>
   <si>
     <t>['53']</t>
   </si>
   <si>
-    <t>['12', '20']</t>
+    <t>['9', '12', '26', '38']</t>
+  </si>
+  <si>
+    <t>['34', '42']</t>
   </si>
   <si>
     <t>['54', '71']</t>
-  </si>
-  <si>
-    <t>['34', '42']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -994,13 +994,13 @@
     <t>['63', '80']</t>
   </si>
   <si>
-    <t>['57']</t>
+    <t>['26', '90+7']</t>
   </si>
   <si>
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['26', '90+7']</t>
+    <t>['57']</t>
   </si>
   <si>
     <t>['13', '39', '45+3', '68']</t>
@@ -40125,7 +40125,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7476744</v>
+        <v>7476743</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40140,10 +40140,10 @@
         <v>17</v>
       </c>
       <c r="G189" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H189" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -40158,172 +40158,172 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O189" t="s">
         <v>101</v>
       </c>
       <c r="P189" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="Q189">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="R189">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S189">
+        <v>3.25</v>
+      </c>
+      <c r="T189">
+        <v>1.4</v>
+      </c>
+      <c r="U189">
+        <v>2.75</v>
+      </c>
+      <c r="V189">
+        <v>3</v>
+      </c>
+      <c r="W189">
+        <v>1.36</v>
+      </c>
+      <c r="X189">
+        <v>8</v>
+      </c>
+      <c r="Y189">
+        <v>1.08</v>
+      </c>
+      <c r="Z189">
+        <v>2.31</v>
+      </c>
+      <c r="AA189">
+        <v>2.94</v>
+      </c>
+      <c r="AB189">
+        <v>2.52</v>
+      </c>
+      <c r="AC189">
+        <v>1.06</v>
+      </c>
+      <c r="AD189">
+        <v>8.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.3</v>
+      </c>
+      <c r="AF189">
+        <v>3.4</v>
+      </c>
+      <c r="AG189">
+        <v>1.96</v>
+      </c>
+      <c r="AH189">
+        <v>1.8</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.42</v>
+      </c>
+      <c r="AL189">
+        <v>1.28</v>
+      </c>
+      <c r="AM189">
+        <v>1.53</v>
+      </c>
+      <c r="AN189">
+        <v>1.29</v>
+      </c>
+      <c r="AO189">
+        <v>0.71</v>
+      </c>
+      <c r="AP189">
+        <v>1.2</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>1.22</v>
+      </c>
+      <c r="AS189">
+        <v>1.08</v>
+      </c>
+      <c r="AT189">
+        <v>2.3</v>
+      </c>
+      <c r="AU189">
+        <v>4</v>
+      </c>
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>7</v>
+      </c>
+      <c r="AX189">
+        <v>7</v>
+      </c>
+      <c r="AY189">
+        <v>11</v>
+      </c>
+      <c r="AZ189">
+        <v>11</v>
+      </c>
+      <c r="BA189">
         <v>6</v>
       </c>
-      <c r="T189">
+      <c r="BB189">
+        <v>6</v>
+      </c>
+      <c r="BC189">
+        <v>12</v>
+      </c>
+      <c r="BD189">
+        <v>1.75</v>
+      </c>
+      <c r="BE189">
+        <v>7.5</v>
+      </c>
+      <c r="BF189">
+        <v>2.45</v>
+      </c>
+      <c r="BG189">
         <v>1.25</v>
       </c>
-      <c r="U189">
-        <v>3.75</v>
-      </c>
-      <c r="V189">
-        <v>2.25</v>
-      </c>
-      <c r="W189">
-        <v>1.57</v>
-      </c>
-      <c r="X189">
-        <v>5.5</v>
-      </c>
-      <c r="Y189">
-        <v>1.14</v>
-      </c>
-      <c r="Z189">
-        <v>1.39</v>
-      </c>
-      <c r="AA189">
-        <v>4.11</v>
-      </c>
-      <c r="AB189">
-        <v>5.5</v>
-      </c>
-      <c r="AC189">
-        <v>1.03</v>
-      </c>
-      <c r="AD189">
-        <v>11</v>
-      </c>
-      <c r="AE189">
-        <v>1.18</v>
-      </c>
-      <c r="AF189">
-        <v>4.75</v>
-      </c>
-      <c r="AG189">
-        <v>1.7</v>
-      </c>
-      <c r="AH189">
-        <v>2</v>
-      </c>
-      <c r="AI189">
-        <v>1.67</v>
-      </c>
-      <c r="AJ189">
-        <v>2.1</v>
-      </c>
-      <c r="AK189">
-        <v>1.1</v>
-      </c>
-      <c r="AL189">
-        <v>1.15</v>
-      </c>
-      <c r="AM189">
-        <v>2.75</v>
-      </c>
-      <c r="AN189">
-        <v>1.86</v>
-      </c>
-      <c r="AO189">
-        <v>0.75</v>
-      </c>
-      <c r="AP189">
+      <c r="BH189">
+        <v>3.58</v>
+      </c>
+      <c r="BI189">
+        <v>1.45</v>
+      </c>
+      <c r="BJ189">
+        <v>2.55</v>
+      </c>
+      <c r="BK189">
         <v>1.75</v>
       </c>
-      <c r="AQ189">
-        <v>0.82</v>
-      </c>
-      <c r="AR189">
-        <v>1.71</v>
-      </c>
-      <c r="AS189">
-        <v>0.82</v>
-      </c>
-      <c r="AT189">
-        <v>2.53</v>
-      </c>
-      <c r="AU189">
-        <v>8</v>
-      </c>
-      <c r="AV189">
-        <v>3</v>
-      </c>
-      <c r="AW189">
-        <v>20</v>
-      </c>
-      <c r="AX189">
-        <v>5</v>
-      </c>
-      <c r="AY189">
-        <v>28</v>
-      </c>
-      <c r="AZ189">
-        <v>8</v>
-      </c>
-      <c r="BA189">
-        <v>10</v>
-      </c>
-      <c r="BB189">
-        <v>1</v>
-      </c>
-      <c r="BC189">
-        <v>11</v>
-      </c>
-      <c r="BD189">
-        <v>1.23</v>
-      </c>
-      <c r="BE189">
-        <v>9.5</v>
-      </c>
-      <c r="BF189">
-        <v>5.18</v>
-      </c>
-      <c r="BG189">
-        <v>0</v>
-      </c>
-      <c r="BH189">
-        <v>0</v>
-      </c>
-      <c r="BI189">
-        <v>0</v>
-      </c>
-      <c r="BJ189">
-        <v>0</v>
-      </c>
-      <c r="BK189">
-        <v>1.77</v>
-      </c>
       <c r="BL189">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BM189">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="BN189">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="BO189">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BP189">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40331,7 +40331,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7476743</v>
+        <v>7476744</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40346,10 +40346,10 @@
         <v>17</v>
       </c>
       <c r="G190" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H190" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -40364,172 +40364,172 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O190" t="s">
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="Q190">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="R190">
+        <v>2.6</v>
+      </c>
+      <c r="S190">
+        <v>6</v>
+      </c>
+      <c r="T190">
+        <v>1.25</v>
+      </c>
+      <c r="U190">
+        <v>3.75</v>
+      </c>
+      <c r="V190">
+        <v>2.25</v>
+      </c>
+      <c r="W190">
+        <v>1.57</v>
+      </c>
+      <c r="X190">
+        <v>5.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.14</v>
+      </c>
+      <c r="Z190">
+        <v>1.39</v>
+      </c>
+      <c r="AA190">
+        <v>4.11</v>
+      </c>
+      <c r="AB190">
+        <v>5.5</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
+        <v>1.18</v>
+      </c>
+      <c r="AF190">
+        <v>4.75</v>
+      </c>
+      <c r="AG190">
+        <v>1.7</v>
+      </c>
+      <c r="AH190">
+        <v>2</v>
+      </c>
+      <c r="AI190">
+        <v>1.67</v>
+      </c>
+      <c r="AJ190">
         <v>2.1</v>
       </c>
-      <c r="S190">
-        <v>3.25</v>
-      </c>
-      <c r="T190">
-        <v>1.4</v>
-      </c>
-      <c r="U190">
+      <c r="AK190">
+        <v>1.1</v>
+      </c>
+      <c r="AL190">
+        <v>1.15</v>
+      </c>
+      <c r="AM190">
         <v>2.75</v>
       </c>
-      <c r="V190">
-        <v>3</v>
-      </c>
-      <c r="W190">
-        <v>1.36</v>
-      </c>
-      <c r="X190">
+      <c r="AN190">
+        <v>1.86</v>
+      </c>
+      <c r="AO190">
+        <v>0.75</v>
+      </c>
+      <c r="AP190">
+        <v>1.75</v>
+      </c>
+      <c r="AQ190">
+        <v>0.82</v>
+      </c>
+      <c r="AR190">
+        <v>1.71</v>
+      </c>
+      <c r="AS190">
+        <v>0.82</v>
+      </c>
+      <c r="AT190">
+        <v>2.53</v>
+      </c>
+      <c r="AU190">
         <v>8</v>
       </c>
-      <c r="Y190">
-        <v>1.08</v>
-      </c>
-      <c r="Z190">
-        <v>2.31</v>
-      </c>
-      <c r="AA190">
-        <v>2.94</v>
-      </c>
-      <c r="AB190">
-        <v>2.52</v>
-      </c>
-      <c r="AC190">
-        <v>1.06</v>
-      </c>
-      <c r="AD190">
-        <v>8.5</v>
-      </c>
-      <c r="AE190">
-        <v>1.3</v>
-      </c>
-      <c r="AF190">
-        <v>3.4</v>
-      </c>
-      <c r="AG190">
-        <v>1.96</v>
-      </c>
-      <c r="AH190">
-        <v>1.8</v>
-      </c>
-      <c r="AI190">
-        <v>1.73</v>
-      </c>
-      <c r="AJ190">
-        <v>2</v>
-      </c>
-      <c r="AK190">
-        <v>1.42</v>
-      </c>
-      <c r="AL190">
-        <v>1.28</v>
-      </c>
-      <c r="AM190">
-        <v>1.53</v>
-      </c>
-      <c r="AN190">
-        <v>1.29</v>
-      </c>
-      <c r="AO190">
-        <v>0.71</v>
-      </c>
-      <c r="AP190">
-        <v>1.2</v>
-      </c>
-      <c r="AQ190">
-        <v>1</v>
-      </c>
-      <c r="AR190">
-        <v>1.22</v>
-      </c>
-      <c r="AS190">
-        <v>1.08</v>
-      </c>
-      <c r="AT190">
-        <v>2.3</v>
-      </c>
-      <c r="AU190">
-        <v>4</v>
-      </c>
       <c r="AV190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW190">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AX190">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY190">
+        <v>28</v>
+      </c>
+      <c r="AZ190">
+        <v>8</v>
+      </c>
+      <c r="BA190">
+        <v>10</v>
+      </c>
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
         <v>11</v>
       </c>
-      <c r="AZ190">
-        <v>11</v>
-      </c>
-      <c r="BA190">
-        <v>6</v>
-      </c>
-      <c r="BB190">
-        <v>6</v>
-      </c>
-      <c r="BC190">
-        <v>12</v>
-      </c>
       <c r="BD190">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="BE190">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF190">
-        <v>2.45</v>
+        <v>5.18</v>
       </c>
       <c r="BG190">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BH190">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="BI190">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BJ190">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BK190">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BL190">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BM190">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="BN190">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="BO190">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BP190">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -43627,7 +43627,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>7476749</v>
+        <v>7476748</v>
       </c>
       <c r="C206" t="s">
         <v>68</v>
@@ -43642,190 +43642,190 @@
         <v>18</v>
       </c>
       <c r="G206" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="H206" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O206" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="P206" t="s">
         <v>326</v>
       </c>
       <c r="Q206">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="S206">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="T206">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="U206">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="V206">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="W206">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="X206">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y206">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="Z206">
+        <v>1.37</v>
+      </c>
+      <c r="AA206">
+        <v>4.85</v>
+      </c>
+      <c r="AB206">
+        <v>7.75</v>
+      </c>
+      <c r="AC206">
+        <v>1.03</v>
+      </c>
+      <c r="AD206">
+        <v>11</v>
+      </c>
+      <c r="AE206">
+        <v>1.2</v>
+      </c>
+      <c r="AF206">
+        <v>4.33</v>
+      </c>
+      <c r="AG206">
+        <v>1.65</v>
+      </c>
+      <c r="AH206">
+        <v>2.12</v>
+      </c>
+      <c r="AI206">
         <v>1.93</v>
       </c>
-      <c r="AA206">
-        <v>3.4</v>
-      </c>
-      <c r="AB206">
-        <v>3.95</v>
-      </c>
-      <c r="AC206">
+      <c r="AJ206">
+        <v>1.75</v>
+      </c>
+      <c r="AK206">
         <v>1.07</v>
       </c>
-      <c r="AD206">
-        <v>8</v>
-      </c>
-      <c r="AE206">
-        <v>1.4</v>
-      </c>
-      <c r="AF206">
-        <v>2.9</v>
-      </c>
-      <c r="AG206">
-        <v>2.16</v>
-      </c>
-      <c r="AH206">
-        <v>1.63</v>
-      </c>
-      <c r="AI206">
-        <v>1.85</v>
-      </c>
-      <c r="AJ206">
-        <v>1.8</v>
-      </c>
-      <c r="AK206">
-        <v>1.28</v>
-      </c>
       <c r="AL206">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AM206">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="AN206">
         <v>2</v>
       </c>
       <c r="AO206">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AP206">
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR206">
         <v>1.53</v>
       </c>
       <c r="AS206">
-        <v>1.11</v>
+        <v>0.82</v>
       </c>
       <c r="AT206">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="AU206">
+        <v>7</v>
+      </c>
+      <c r="AV206">
         <v>5</v>
       </c>
-      <c r="AV206">
-        <v>3</v>
-      </c>
       <c r="AW206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX206">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY206">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ206">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA206">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC206">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD206">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="BE206">
-        <v>6.95</v>
+        <v>12</v>
       </c>
       <c r="BF206">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="BG206">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH206">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI206">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="BJ206">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="BK206">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="BL206">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="BM206">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="BN206">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="BO206">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="BP206">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="207" spans="1:68">
@@ -43833,7 +43833,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>7476753</v>
+        <v>7476752</v>
       </c>
       <c r="C207" t="s">
         <v>68</v>
@@ -43848,190 +43848,190 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H207" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I207">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O207" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="Q207">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="R207">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="T207">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U207">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="V207">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="W207">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X207">
+        <v>7.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.07</v>
+      </c>
+      <c r="Z207">
+        <v>3.3</v>
+      </c>
+      <c r="AA207">
+        <v>3.3</v>
+      </c>
+      <c r="AB207">
+        <v>2.19</v>
+      </c>
+      <c r="AC207">
+        <v>1.07</v>
+      </c>
+      <c r="AD207">
         <v>8</v>
       </c>
-      <c r="Y207">
-        <v>1.08</v>
-      </c>
-      <c r="Z207">
-        <v>2.26</v>
-      </c>
-      <c r="AA207">
-        <v>3.44</v>
-      </c>
-      <c r="AB207">
-        <v>3.01</v>
-      </c>
-      <c r="AC207">
-        <v>1.05</v>
-      </c>
-      <c r="AD207">
-        <v>11</v>
-      </c>
       <c r="AE207">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AF207">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AG207">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="AH207">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AI207">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ207">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AK207">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AL207">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM207">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AN207">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AO207">
-        <v>0.89</v>
+        <v>2.11</v>
       </c>
       <c r="AP207">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="AQ207">
-        <v>0.73</v>
+        <v>1.91</v>
       </c>
       <c r="AR207">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="AS207">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="AT207">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU207">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV207">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW207">
         <v>4</v>
       </c>
       <c r="AX207">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY207">
+        <v>11</v>
+      </c>
+      <c r="AZ207">
         <v>16</v>
       </c>
-      <c r="AZ207">
-        <v>11</v>
-      </c>
       <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
         <v>8</v>
-      </c>
-      <c r="BB207">
-        <v>5</v>
       </c>
       <c r="BC207">
         <v>13</v>
       </c>
       <c r="BD207">
-        <v>1.82</v>
+        <v>2.21</v>
       </c>
       <c r="BE207">
-        <v>8</v>
+        <v>6.45</v>
       </c>
       <c r="BF207">
-        <v>2.33</v>
+        <v>2.01</v>
       </c>
       <c r="BG207">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="BH207">
         <v>3.58</v>
       </c>
       <c r="BI207">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BJ207">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="BK207">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BL207">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="BM207">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="BN207">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="BO207">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BP207">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="208" spans="1:68">
@@ -44039,7 +44039,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7476752</v>
+        <v>7476749</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -44054,10 +44054,10 @@
         <v>18</v>
       </c>
       <c r="G208" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H208" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -44078,25 +44078,25 @@
         <v>2</v>
       </c>
       <c r="O208" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="P208" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q208">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="R208">
         <v>2</v>
       </c>
       <c r="S208">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="T208">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U208">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V208">
         <v>3.2</v>
@@ -44105,19 +44105,19 @@
         <v>1.3</v>
       </c>
       <c r="X208">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y208">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z208">
-        <v>3.3</v>
+        <v>1.93</v>
       </c>
       <c r="AA208">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB208">
-        <v>2.19</v>
+        <v>3.95</v>
       </c>
       <c r="AC208">
         <v>1.07</v>
@@ -44126,118 +44126,118 @@
         <v>8</v>
       </c>
       <c r="AE208">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF208">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AG208">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="AH208">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AI208">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AJ208">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AK208">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AL208">
         <v>1.28</v>
       </c>
       <c r="AM208">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="AN208">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO208">
-        <v>2.11</v>
+        <v>0.88</v>
       </c>
       <c r="AP208">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ208">
-        <v>1.91</v>
+        <v>0.8</v>
       </c>
       <c r="AR208">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="AS208">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="AT208">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="AU208">
         <v>5</v>
       </c>
       <c r="AV208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX208">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY208">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ208">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA208">
         <v>5</v>
       </c>
       <c r="BB208">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC208">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD208">
-        <v>2.21</v>
+        <v>1.54</v>
       </c>
       <c r="BE208">
-        <v>6.45</v>
+        <v>6.95</v>
       </c>
       <c r="BF208">
-        <v>2.01</v>
+        <v>3.2</v>
       </c>
       <c r="BG208">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="BH208">
-        <v>3.58</v>
+        <v>4.5</v>
       </c>
       <c r="BI208">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BJ208">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="BK208">
+        <v>1.64</v>
+      </c>
+      <c r="BL208">
+        <v>2.24</v>
+      </c>
+      <c r="BM208">
+        <v>2.02</v>
+      </c>
+      <c r="BN208">
         <v>1.78</v>
       </c>
-      <c r="BL208">
-        <v>2.01</v>
-      </c>
-      <c r="BM208">
-        <v>2.24</v>
-      </c>
-      <c r="BN208">
-        <v>1.64</v>
-      </c>
       <c r="BO208">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="BP208">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44245,7 +44245,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7476748</v>
+        <v>7476753</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44260,25 +44260,25 @@
         <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H209" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N209">
         <v>4</v>
@@ -44287,163 +44287,163 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="Q209">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="R209">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="S209">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="T209">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U209">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="V209">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="W209">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X209">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="Y209">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z209">
-        <v>1.37</v>
+        <v>2.26</v>
       </c>
       <c r="AA209">
-        <v>4.85</v>
+        <v>3.44</v>
       </c>
       <c r="AB209">
-        <v>7.75</v>
+        <v>3.01</v>
       </c>
       <c r="AC209">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD209">
         <v>11</v>
       </c>
       <c r="AE209">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF209">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AG209">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AH209">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="AI209">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AJ209">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AK209">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AL209">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AM209">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="AN209">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AO209">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AP209">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ209">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="AR209">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS209">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
       <c r="AT209">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AU209">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW209">
         <v>4</v>
       </c>
       <c r="AX209">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY209">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ209">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA209">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC209">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD209">
-        <v>1.16</v>
+        <v>1.82</v>
       </c>
       <c r="BE209">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BF209">
-        <v>6.2</v>
+        <v>2.33</v>
       </c>
       <c r="BG209">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="BH209">
-        <v>3.75</v>
+        <v>3.58</v>
       </c>
       <c r="BI209">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="BJ209">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="BK209">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="BL209">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="BM209">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="BN209">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BO209">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="BP209">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -44451,7 +44451,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7476750</v>
+        <v>7476754</v>
       </c>
       <c r="C210" t="s">
         <v>68</v>
@@ -44466,190 +44466,190 @@
         <v>18</v>
       </c>
       <c r="G210" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H210" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K210">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L210">
         <v>2</v>
       </c>
       <c r="M210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O210" t="s">
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="Q210">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S210">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="T210">
+        <v>1.36</v>
+      </c>
+      <c r="U210">
+        <v>3</v>
+      </c>
+      <c r="V210">
+        <v>2.75</v>
+      </c>
+      <c r="W210">
+        <v>1.4</v>
+      </c>
+      <c r="X210">
+        <v>7</v>
+      </c>
+      <c r="Y210">
+        <v>1.1</v>
+      </c>
+      <c r="Z210">
+        <v>3.07</v>
+      </c>
+      <c r="AA210">
+        <v>3.33</v>
+      </c>
+      <c r="AB210">
+        <v>2.28</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>12</v>
+      </c>
+      <c r="AE210">
+        <v>1.25</v>
+      </c>
+      <c r="AF210">
+        <v>3.75</v>
+      </c>
+      <c r="AG210">
+        <v>1.78</v>
+      </c>
+      <c r="AH210">
+        <v>1.9</v>
+      </c>
+      <c r="AI210">
+        <v>1.62</v>
+      </c>
+      <c r="AJ210">
+        <v>2.2</v>
+      </c>
+      <c r="AK210">
+        <v>1.6</v>
+      </c>
+      <c r="AL210">
+        <v>1.25</v>
+      </c>
+      <c r="AM210">
+        <v>1.4</v>
+      </c>
+      <c r="AN210">
+        <v>1.38</v>
+      </c>
+      <c r="AO210">
+        <v>1.75</v>
+      </c>
+      <c r="AP210">
+        <v>1.22</v>
+      </c>
+      <c r="AQ210">
+        <v>1.7</v>
+      </c>
+      <c r="AR210">
         <v>1.39</v>
       </c>
-      <c r="U210">
-        <v>2.75</v>
-      </c>
-      <c r="V210">
-        <v>2.95</v>
-      </c>
-      <c r="W210">
-        <v>1.35</v>
-      </c>
-      <c r="X210">
-        <v>7.4</v>
-      </c>
-      <c r="Y210">
-        <v>1.06</v>
-      </c>
-      <c r="Z210">
-        <v>2.24</v>
-      </c>
-      <c r="AA210">
-        <v>3.25</v>
-      </c>
-      <c r="AB210">
-        <v>3.16</v>
-      </c>
-      <c r="AC210">
-        <v>1.05</v>
-      </c>
-      <c r="AD210">
-        <v>10</v>
-      </c>
-      <c r="AE210">
-        <v>1.33</v>
-      </c>
-      <c r="AF210">
-        <v>3.25</v>
-      </c>
-      <c r="AG210">
-        <v>1.93</v>
-      </c>
-      <c r="AH210">
-        <v>1.75</v>
-      </c>
-      <c r="AI210">
-        <v>1.8</v>
-      </c>
-      <c r="AJ210">
-        <v>1.95</v>
-      </c>
-      <c r="AK210">
-        <v>1.4</v>
-      </c>
-      <c r="AL210">
-        <v>1.28</v>
-      </c>
-      <c r="AM210">
-        <v>1.6</v>
-      </c>
-      <c r="AN210">
-        <v>0.88</v>
-      </c>
-      <c r="AO210">
-        <v>1.14</v>
-      </c>
-      <c r="AP210">
-        <v>1.1</v>
-      </c>
-      <c r="AQ210">
-        <v>1.22</v>
-      </c>
-      <c r="AR210">
-        <v>1.4</v>
-      </c>
       <c r="AS210">
-        <v>0.99</v>
+        <v>1.51</v>
       </c>
       <c r="AT210">
-        <v>2.39</v>
+        <v>2.9</v>
       </c>
       <c r="AU210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV210">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX210">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY210">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ210">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA210">
         <v>5</v>
       </c>
       <c r="BB210">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC210">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD210">
         <v>2</v>
       </c>
       <c r="BE210">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF210">
         <v>2</v>
       </c>
       <c r="BG210">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BH210">
-        <v>3.58</v>
+        <v>4.33</v>
       </c>
       <c r="BI210">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="BJ210">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK210">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="BL210">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="BM210">
-        <v>2.21</v>
+        <v>1.85</v>
       </c>
       <c r="BN210">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="BO210">
-        <v>2.9</v>
+        <v>2.36</v>
       </c>
       <c r="BP210">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="211" spans="1:68">
@@ -44657,7 +44657,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>7476754</v>
+        <v>7476750</v>
       </c>
       <c r="C211" t="s">
         <v>68</v>
@@ -44672,190 +44672,190 @@
         <v>18</v>
       </c>
       <c r="G211" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H211" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K211">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L211">
         <v>2</v>
       </c>
       <c r="M211">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O211" t="s">
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="Q211">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R211">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S211">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T211">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V211">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="W211">
+        <v>1.35</v>
+      </c>
+      <c r="X211">
+        <v>7.4</v>
+      </c>
+      <c r="Y211">
+        <v>1.06</v>
+      </c>
+      <c r="Z211">
+        <v>2.24</v>
+      </c>
+      <c r="AA211">
+        <v>3.25</v>
+      </c>
+      <c r="AB211">
+        <v>3.16</v>
+      </c>
+      <c r="AC211">
+        <v>1.05</v>
+      </c>
+      <c r="AD211">
+        <v>10</v>
+      </c>
+      <c r="AE211">
+        <v>1.33</v>
+      </c>
+      <c r="AF211">
+        <v>3.25</v>
+      </c>
+      <c r="AG211">
+        <v>1.93</v>
+      </c>
+      <c r="AH211">
+        <v>1.75</v>
+      </c>
+      <c r="AI211">
+        <v>1.8</v>
+      </c>
+      <c r="AJ211">
+        <v>1.95</v>
+      </c>
+      <c r="AK211">
         <v>1.4</v>
       </c>
-      <c r="X211">
-        <v>7</v>
-      </c>
-      <c r="Y211">
+      <c r="AL211">
+        <v>1.28</v>
+      </c>
+      <c r="AM211">
+        <v>1.6</v>
+      </c>
+      <c r="AN211">
+        <v>0.88</v>
+      </c>
+      <c r="AO211">
+        <v>1.14</v>
+      </c>
+      <c r="AP211">
         <v>1.1</v>
       </c>
-      <c r="Z211">
-        <v>3.07</v>
-      </c>
-      <c r="AA211">
-        <v>3.33</v>
-      </c>
-      <c r="AB211">
-        <v>2.28</v>
-      </c>
-      <c r="AC211">
-        <v>1.04</v>
-      </c>
-      <c r="AD211">
-        <v>12</v>
-      </c>
-      <c r="AE211">
-        <v>1.25</v>
-      </c>
-      <c r="AF211">
-        <v>3.75</v>
-      </c>
-      <c r="AG211">
-        <v>1.78</v>
-      </c>
-      <c r="AH211">
-        <v>1.9</v>
-      </c>
-      <c r="AI211">
-        <v>1.62</v>
-      </c>
-      <c r="AJ211">
-        <v>2.2</v>
-      </c>
-      <c r="AK211">
-        <v>1.6</v>
-      </c>
-      <c r="AL211">
-        <v>1.25</v>
-      </c>
-      <c r="AM211">
+      <c r="AQ211">
+        <v>1.22</v>
+      </c>
+      <c r="AR211">
         <v>1.4</v>
       </c>
-      <c r="AN211">
-        <v>1.38</v>
-      </c>
-      <c r="AO211">
-        <v>1.75</v>
-      </c>
-      <c r="AP211">
-        <v>1.22</v>
-      </c>
-      <c r="AQ211">
-        <v>1.7</v>
-      </c>
-      <c r="AR211">
-        <v>1.39</v>
-      </c>
       <c r="AS211">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="AT211">
-        <v>2.9</v>
+        <v>2.39</v>
       </c>
       <c r="AU211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV211">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX211">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY211">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ211">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA211">
         <v>5</v>
       </c>
       <c r="BB211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC211">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD211">
         <v>2</v>
       </c>
       <c r="BE211">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF211">
         <v>2</v>
       </c>
       <c r="BG211">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH211">
-        <v>4.33</v>
+        <v>3.58</v>
       </c>
       <c r="BI211">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="BJ211">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="BK211">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="BL211">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="BM211">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="BN211">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="BO211">
-        <v>2.36</v>
+        <v>2.9</v>
       </c>
       <c r="BP211">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="212" spans="1:68">
@@ -47553,7 +47553,7 @@
         <v>45640.5</v>
       </c>
       <c r="F225">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G225" t="s">
         <v>85</v>
@@ -47688,7 +47688,7 @@
         <v>2</v>
       </c>
       <c r="AY225">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ225">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,9 @@
     <t>['14', '31', '54']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -970,9 +973,6 @@
     <t>['58', '75']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['6', '14', '78']</t>
   </si>
   <si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>['25', '75']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,7 +1854,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2263,7 +2266,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2550,7 +2553,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2753,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1.9</v>
@@ -2881,7 +2884,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3087,7 +3090,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3293,7 +3296,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3499,7 +3502,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4529,7 +4532,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4941,7 +4944,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5147,7 +5150,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5353,7 +5356,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5971,7 +5974,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6383,7 +6386,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6589,7 +6592,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7413,7 +7416,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7494,7 +7497,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7697,7 +7700,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31">
         <v>1.22</v>
@@ -8237,7 +8240,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -9061,7 +9064,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9473,7 +9476,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9885,7 +9888,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10297,7 +10300,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10503,7 +10506,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11121,7 +11124,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11614,7 +11617,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>1.79</v>
@@ -11739,7 +11742,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -12769,7 +12772,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13181,7 +13184,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -14211,7 +14214,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14417,7 +14420,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15035,7 +15038,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15447,7 +15450,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15859,7 +15862,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>3.25</v>
@@ -16065,7 +16068,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16477,7 +16480,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16683,7 +16686,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16889,7 +16892,7 @@
         <v>148</v>
       </c>
       <c r="P76" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17301,7 +17304,7 @@
         <v>101</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>2.6</v>
@@ -18331,7 +18334,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18409,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -19361,7 +19364,7 @@
         <v>101</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19979,7 +19982,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20391,7 +20394,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20597,7 +20600,7 @@
         <v>101</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21009,7 +21012,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21421,7 +21424,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21627,7 +21630,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21833,7 +21836,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22039,7 +22042,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22451,7 +22454,7 @@
         <v>169</v>
       </c>
       <c r="P103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22532,7 +22535,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR103">
         <v>1.14</v>
@@ -22657,7 +22660,7 @@
         <v>101</v>
       </c>
       <c r="P104" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -23069,7 +23072,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23353,7 +23356,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -24717,7 +24720,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24923,7 +24926,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>2.4</v>
@@ -25335,7 +25338,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25541,7 +25544,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25747,7 +25750,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25953,7 +25956,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26159,7 +26162,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>2.38</v>
@@ -26240,7 +26243,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ121">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26571,7 +26574,7 @@
         <v>101</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.1</v>
@@ -26777,7 +26780,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26983,7 +26986,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>2.38</v>
@@ -27601,7 +27604,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -28013,7 +28016,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28219,7 +28222,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28631,7 +28634,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28837,7 +28840,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29043,7 +29046,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29249,7 +29252,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29455,7 +29458,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29867,7 +29870,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -30151,7 +30154,7 @@
         <v>1.4</v>
       </c>
       <c r="AP140">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ140">
         <v>1.6</v>
@@ -30279,7 +30282,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -30485,7 +30488,7 @@
         <v>101</v>
       </c>
       <c r="P142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30691,7 +30694,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30978,7 +30981,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ144">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR144">
         <v>1.27</v>
@@ -31515,7 +31518,7 @@
         <v>101</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>2.25</v>
@@ -32339,7 +32342,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32545,7 +32548,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32751,7 +32754,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33369,7 +33372,7 @@
         <v>197</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33781,7 +33784,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>3.4</v>
@@ -34193,7 +34196,7 @@
         <v>201</v>
       </c>
       <c r="P160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -35017,7 +35020,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35095,7 +35098,7 @@
         <v>1.17</v>
       </c>
       <c r="AP164">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35223,7 +35226,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35429,7 +35432,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36047,7 +36050,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36253,7 +36256,7 @@
         <v>208</v>
       </c>
       <c r="P170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36537,7 +36540,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36871,7 +36874,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -36952,7 +36955,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ173">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37077,7 +37080,7 @@
         <v>149</v>
       </c>
       <c r="P174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37901,7 +37904,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q178">
         <v>3.2</v>
@@ -38107,7 +38110,7 @@
         <v>184</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q179">
         <v>3.4</v>
@@ -38931,7 +38934,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39343,7 +39346,7 @@
         <v>216</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39755,7 +39758,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -39836,7 +39839,7 @@
         <v>2</v>
       </c>
       <c r="AQ187">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR187">
         <v>1.62</v>
@@ -40167,7 +40170,7 @@
         <v>101</v>
       </c>
       <c r="P189" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40579,7 +40582,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="Q191">
         <v>2.88</v>
@@ -42305,7 +42308,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42433,7 +42436,7 @@
         <v>122</v>
       </c>
       <c r="P200" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q200">
         <v>3.4</v>
@@ -43544,7 +43547,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ205">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR205">
         <v>1.24</v>
@@ -44571,7 +44574,7 @@
         <v>1.75</v>
       </c>
       <c r="AP210">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ210">
         <v>1.7</v>
@@ -44699,7 +44702,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -47064,13 +47067,13 @@
         <v>3</v>
       </c>
       <c r="AW222">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX222">
         <v>7</v>
       </c>
       <c r="AY222">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ222">
         <v>15</v>
@@ -47171,7 +47174,7 @@
         <v>101</v>
       </c>
       <c r="P223" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -48097,13 +48100,13 @@
         <v>10</v>
       </c>
       <c r="AX227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY227">
         <v>26</v>
       </c>
       <c r="AZ227">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA227">
         <v>4</v>
@@ -48921,13 +48924,13 @@
         <v>5</v>
       </c>
       <c r="AX231">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY231">
         <v>13</v>
       </c>
       <c r="AZ231">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA231">
         <v>5</v>
@@ -48976,6 +48979,212 @@
       </c>
       <c r="BP231">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7476778</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45642.70833333334</v>
+      </c>
+      <c r="F232">
+        <v>20</v>
+      </c>
+      <c r="G232" t="s">
+        <v>75</v>
+      </c>
+      <c r="H232" t="s">
+        <v>84</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>240</v>
+      </c>
+      <c r="P232" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q232">
+        <v>2.4</v>
+      </c>
+      <c r="R232">
+        <v>2.25</v>
+      </c>
+      <c r="S232">
+        <v>4.5</v>
+      </c>
+      <c r="T232">
+        <v>1.36</v>
+      </c>
+      <c r="U232">
+        <v>3</v>
+      </c>
+      <c r="V232">
+        <v>2.63</v>
+      </c>
+      <c r="W232">
+        <v>1.44</v>
+      </c>
+      <c r="X232">
+        <v>7</v>
+      </c>
+      <c r="Y232">
+        <v>1.1</v>
+      </c>
+      <c r="Z232">
+        <v>1.54</v>
+      </c>
+      <c r="AA232">
+        <v>4.62</v>
+      </c>
+      <c r="AB232">
+        <v>4.14</v>
+      </c>
+      <c r="AC232">
+        <v>1.03</v>
+      </c>
+      <c r="AD232">
+        <v>13</v>
+      </c>
+      <c r="AE232">
+        <v>1.25</v>
+      </c>
+      <c r="AF232">
+        <v>3.75</v>
+      </c>
+      <c r="AG232">
+        <v>1.75</v>
+      </c>
+      <c r="AH232">
+        <v>1.95</v>
+      </c>
+      <c r="AI232">
+        <v>1.73</v>
+      </c>
+      <c r="AJ232">
+        <v>2</v>
+      </c>
+      <c r="AK232">
+        <v>1.22</v>
+      </c>
+      <c r="AL232">
+        <v>1.22</v>
+      </c>
+      <c r="AM232">
+        <v>2</v>
+      </c>
+      <c r="AN232">
+        <v>1.22</v>
+      </c>
+      <c r="AO232">
+        <v>0.78</v>
+      </c>
+      <c r="AP232">
+        <v>1.2</v>
+      </c>
+      <c r="AQ232">
+        <v>0.8</v>
+      </c>
+      <c r="AR232">
+        <v>1.34</v>
+      </c>
+      <c r="AS232">
+        <v>1.29</v>
+      </c>
+      <c r="AT232">
+        <v>2.63</v>
+      </c>
+      <c r="AU232">
+        <v>5</v>
+      </c>
+      <c r="AV232">
+        <v>7</v>
+      </c>
+      <c r="AW232">
+        <v>3</v>
+      </c>
+      <c r="AX232">
+        <v>6</v>
+      </c>
+      <c r="AY232">
+        <v>10</v>
+      </c>
+      <c r="AZ232">
+        <v>17</v>
+      </c>
+      <c r="BA232">
+        <v>5</v>
+      </c>
+      <c r="BB232">
+        <v>4</v>
+      </c>
+      <c r="BC232">
+        <v>9</v>
+      </c>
+      <c r="BD232">
+        <v>1.59</v>
+      </c>
+      <c r="BE232">
+        <v>8.5</v>
+      </c>
+      <c r="BF232">
+        <v>2.78</v>
+      </c>
+      <c r="BG232">
+        <v>1.21</v>
+      </c>
+      <c r="BH232">
+        <v>3.95</v>
+      </c>
+      <c r="BI232">
+        <v>1.4</v>
+      </c>
+      <c r="BJ232">
+        <v>2.7</v>
+      </c>
+      <c r="BK232">
+        <v>1.72</v>
+      </c>
+      <c r="BL232">
+        <v>2</v>
+      </c>
+      <c r="BM232">
+        <v>2.2</v>
+      </c>
+      <c r="BN232">
+        <v>1.58</v>
+      </c>
+      <c r="BO232">
+        <v>3</v>
+      </c>
+      <c r="BP232">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,21 @@
     <t>['24', '68']</t>
   </si>
   <si>
+    <t>['4', '10']</t>
+  </si>
+  <si>
+    <t>['38', '66', '77']</t>
+  </si>
+  <si>
+    <t>['3', '41', '61']</t>
+  </si>
+  <si>
+    <t>['28', '31', '32']</t>
+  </si>
+  <si>
+    <t>['12', '16', '23', '36', '47', '81']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -1034,6 +1049,21 @@
   </si>
   <si>
     <t>['36', '60']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['45+4', '71', '75']</t>
+  </si>
+  <si>
+    <t>['19', '84']</t>
+  </si>
+  <si>
+    <t>['34', '69']</t>
+  </si>
+  <si>
+    <t>['48', '85']</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ2">
         <v>0.73</v>
@@ -1860,7 +1890,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2144,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4">
         <v>1.6</v>
@@ -2272,7 +2302,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2556,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2765,7 +2795,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2890,7 +2920,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2971,7 +3001,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ8">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3096,7 +3126,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3174,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3302,7 +3332,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3383,7 +3413,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3508,7 +3538,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4413,7 +4443,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4538,7 +4568,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4616,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ16">
         <v>0.9</v>
@@ -4825,7 +4855,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4950,7 +4980,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5156,7 +5186,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5362,7 +5392,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5440,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ20">
         <v>1.22</v>
@@ -5646,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21">
         <v>1.7</v>
@@ -5852,10 +5882,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5980,7 +6010,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6058,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ23">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6267,7 +6297,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6392,7 +6422,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6470,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6598,7 +6628,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6676,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ26">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6885,7 +6915,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -7294,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7422,7 +7452,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7500,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30">
         <v>0.8</v>
@@ -7709,7 +7739,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -8118,10 +8148,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8327,7 +8357,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ34">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8533,7 +8563,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8736,7 +8766,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>1.91</v>
@@ -8864,7 +8894,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9070,7 +9100,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9148,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>1.7</v>
@@ -9482,7 +9512,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9560,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ40">
         <v>1.27</v>
@@ -9766,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ41">
         <v>0.82</v>
@@ -9894,7 +9924,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9972,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -10306,7 +10336,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10387,7 +10417,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ44">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -10512,7 +10542,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10796,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11005,7 +11035,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -11130,7 +11160,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11211,7 +11241,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11417,7 +11447,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11542,7 +11572,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11620,7 +11650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ50">
         <v>1.91</v>
@@ -11748,7 +11778,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11826,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ51">
         <v>0.73</v>
@@ -12160,7 +12190,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12238,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12447,7 +12477,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12856,7 +12886,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ56">
         <v>1.22</v>
@@ -13065,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13271,7 +13301,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ58">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13474,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ59">
         <v>0.8</v>
@@ -13680,7 +13710,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ60">
         <v>1.7</v>
@@ -13889,7 +13919,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.47</v>
@@ -14092,7 +14122,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ62">
         <v>0.82</v>
@@ -14426,7 +14456,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14507,7 +14537,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14710,7 +14740,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65">
         <v>1.6</v>
@@ -14838,7 +14868,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14916,7 +14946,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15125,7 +15155,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ67">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15328,7 +15358,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15456,7 +15486,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15662,7 +15692,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15868,7 +15898,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15949,7 +15979,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -16074,7 +16104,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16152,7 +16182,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ72">
         <v>1.91</v>
@@ -16358,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ73">
         <v>0.9</v>
@@ -16486,7 +16516,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16564,10 +16594,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ74">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR74">
         <v>1.69</v>
@@ -16692,7 +16722,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16773,7 +16803,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ75">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR75">
         <v>1.26</v>
@@ -16898,7 +16928,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -16976,7 +17006,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -17185,7 +17215,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR77">
         <v>1.15</v>
@@ -17310,7 +17340,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17597,7 +17627,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ79">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17803,7 +17833,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18006,7 +18036,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
         <v>0.82</v>
@@ -18340,7 +18370,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18627,7 +18657,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -19036,10 +19066,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR86">
         <v>1.1</v>
@@ -19242,7 +19272,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ87">
         <v>1.27</v>
@@ -19448,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
         <v>0.73</v>
@@ -19576,7 +19606,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19654,7 +19684,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ89">
         <v>1.6</v>
@@ -19863,7 +19893,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -19988,7 +20018,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20066,7 +20096,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -20194,7 +20224,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20275,7 +20305,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ92">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR92">
         <v>1.26</v>
@@ -20400,7 +20430,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20481,7 +20511,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ93">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR93">
         <v>1.37</v>
@@ -20812,7 +20842,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20890,7 +20920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21018,7 +21048,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21096,10 +21126,10 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
         <v>1.14</v>
@@ -21508,10 +21538,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR98">
         <v>0.92</v>
@@ -21636,7 +21666,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21714,10 +21744,10 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR99">
         <v>1.37</v>
@@ -21842,7 +21872,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21923,7 +21953,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
@@ -22129,7 +22159,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ101">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR101">
         <v>1.31</v>
@@ -22254,7 +22284,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22460,7 +22490,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22666,7 +22696,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22950,7 +22980,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ105">
         <v>0.8</v>
@@ -23078,7 +23108,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23365,7 +23395,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23568,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ108">
         <v>0.9</v>
@@ -23774,7 +23804,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
         <v>1.91</v>
@@ -23983,7 +24013,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ110">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR110">
         <v>1.38</v>
@@ -24395,7 +24425,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ112">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR112">
         <v>1.25</v>
@@ -24520,7 +24550,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24598,10 +24628,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ113">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24726,7 +24756,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24804,7 +24834,7 @@
         <v>0.25</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ114">
         <v>0.9</v>
@@ -25010,7 +25040,7 @@
         <v>0.25</v>
       </c>
       <c r="AP115">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -25219,7 +25249,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ116">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25344,7 +25374,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25550,7 +25580,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25628,7 +25658,7 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ118">
         <v>1.27</v>
@@ -25756,7 +25786,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25837,7 +25867,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR119">
         <v>1.15</v>
@@ -25962,7 +25992,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26043,7 +26073,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ120">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR120">
         <v>1.19</v>
@@ -26452,7 +26482,7 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ122">
         <v>0.82</v>
@@ -26580,7 +26610,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26786,7 +26816,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26864,7 +26894,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ124">
         <v>1.6</v>
@@ -26992,7 +27022,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27070,7 +27100,7 @@
         <v>0.2</v>
       </c>
       <c r="AP125">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27279,7 +27309,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27404,7 +27434,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27610,7 +27640,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27688,7 +27718,7 @@
         <v>1.4</v>
       </c>
       <c r="AP128">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ128">
         <v>1.6</v>
@@ -27894,7 +27924,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ129">
         <v>0.8</v>
@@ -28100,10 +28130,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR130">
         <v>1.71</v>
@@ -28228,7 +28258,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28306,10 +28336,10 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ131">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR131">
         <v>1.51</v>
@@ -28434,7 +28464,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28512,7 +28542,7 @@
         <v>1.4</v>
       </c>
       <c r="AP132">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ132">
         <v>1.7</v>
@@ -28640,7 +28670,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28721,7 +28751,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR133">
         <v>1.2</v>
@@ -28846,7 +28876,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28927,7 +28957,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ134">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -29052,7 +29082,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29258,7 +29288,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29336,10 +29366,10 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ136">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
         <v>1.35</v>
@@ -29464,7 +29494,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29545,7 +29575,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ137">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29876,7 +29906,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -30082,7 +30112,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30163,7 +30193,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR140">
         <v>1.55</v>
@@ -30288,7 +30318,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30369,7 +30399,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ141">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30494,7 +30524,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30984,7 +31014,7 @@
         <v>2.17</v>
       </c>
       <c r="AP144">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ144">
         <v>1.91</v>
@@ -31112,7 +31142,7 @@
         <v>101</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31602,10 +31632,10 @@
         <v>1</v>
       </c>
       <c r="AP147">
+        <v>1.73</v>
+      </c>
+      <c r="AQ147">
         <v>1.6</v>
-      </c>
-      <c r="AQ147">
-        <v>1.44</v>
       </c>
       <c r="AR147">
         <v>1.18</v>
@@ -31730,7 +31760,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -31808,7 +31838,7 @@
         <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -32017,7 +32047,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR149">
         <v>1.26</v>
@@ -32220,7 +32250,7 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ150">
         <v>1.27</v>
@@ -32554,7 +32584,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32632,7 +32662,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ152">
         <v>1.6</v>
@@ -32760,7 +32790,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32841,7 +32871,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -33044,10 +33074,10 @@
         <v>1.67</v>
       </c>
       <c r="AP154">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR154">
         <v>1.14</v>
@@ -33172,7 +33202,7 @@
         <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33250,10 +33280,10 @@
         <v>0.8</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ155">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR155">
         <v>1.41</v>
@@ -33456,7 +33486,7 @@
         <v>1.17</v>
       </c>
       <c r="AP156">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ156">
         <v>1.22</v>
@@ -33584,7 +33614,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -33665,7 +33695,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ157">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR157">
         <v>1.15</v>
@@ -33871,7 +33901,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ158">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR158">
         <v>1.15</v>
@@ -34074,7 +34104,7 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ159">
         <v>0.9</v>
@@ -34408,7 +34438,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q161">
         <v>3.2</v>
@@ -34692,10 +34722,10 @@
         <v>1.67</v>
       </c>
       <c r="AP162">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ162">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR162">
         <v>1.36</v>
@@ -35026,7 +35056,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35107,7 +35137,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35232,7 +35262,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35313,7 +35343,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ165">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35438,7 +35468,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35516,7 +35546,7 @@
         <v>0.57</v>
       </c>
       <c r="AP166">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -35644,7 +35674,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -36056,7 +36086,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36549,7 +36579,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ171">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR171">
         <v>1.56</v>
@@ -36752,7 +36782,7 @@
         <v>1.86</v>
       </c>
       <c r="AP172">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ172">
         <v>1.27</v>
@@ -36880,7 +36910,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -36958,7 +36988,7 @@
         <v>0.5</v>
       </c>
       <c r="AP173">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ173">
         <v>0.8</v>
@@ -37086,7 +37116,7 @@
         <v>148</v>
       </c>
       <c r="P174" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37167,7 +37197,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ174">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR174">
         <v>1.27</v>
@@ -37370,7 +37400,7 @@
         <v>0.67</v>
       </c>
       <c r="AP175">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37579,7 +37609,7 @@
         <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37782,7 +37812,7 @@
         <v>2</v>
       </c>
       <c r="AP177">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ177">
         <v>1.91</v>
@@ -37988,10 +38018,10 @@
         <v>1.88</v>
       </c>
       <c r="AP178">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ178">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38116,7 +38146,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38400,7 +38430,7 @@
         <v>1.86</v>
       </c>
       <c r="AP180">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ180">
         <v>1.6</v>
@@ -38528,7 +38558,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -38606,10 +38636,10 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR181">
         <v>1.38</v>
@@ -38940,7 +38970,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q183">
         <v>3.2</v>
@@ -39018,7 +39048,7 @@
         <v>0.88</v>
       </c>
       <c r="AP183">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ183">
         <v>0.73</v>
@@ -39227,7 +39257,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ184">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR184">
         <v>1.45</v>
@@ -39352,7 +39382,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39430,10 +39460,10 @@
         <v>0.67</v>
       </c>
       <c r="AP185">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR185">
         <v>1.39</v>
@@ -39639,7 +39669,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR186">
         <v>1.66</v>
@@ -39764,7 +39794,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -40051,7 +40081,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ188">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR188">
         <v>1.31</v>
@@ -40254,7 +40284,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ189">
         <v>0.82</v>
@@ -40382,7 +40412,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40588,7 +40618,7 @@
         <v>148</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40794,7 +40824,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40872,7 +40902,7 @@
         <v>0.88</v>
       </c>
       <c r="AP192">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -41081,7 +41111,7 @@
         <v>2</v>
       </c>
       <c r="AQ193">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR193">
         <v>1.56</v>
@@ -41490,7 +41520,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ195">
         <v>0.8</v>
@@ -41696,7 +41726,7 @@
         <v>1.57</v>
       </c>
       <c r="AP196">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ196">
         <v>1.6</v>
@@ -41824,7 +41854,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -41905,7 +41935,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ197">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR197">
         <v>1.48</v>
@@ -42030,7 +42060,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42111,7 +42141,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ198">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR198">
         <v>1.32</v>
@@ -42236,7 +42266,7 @@
         <v>122</v>
       </c>
       <c r="P199" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
@@ -42648,7 +42678,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42854,7 +42884,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>1.8</v>
@@ -43060,7 +43090,7 @@
         <v>208</v>
       </c>
       <c r="P203" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43266,7 +43296,7 @@
         <v>224</v>
       </c>
       <c r="P204" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q204">
         <v>2.4</v>
@@ -43472,7 +43502,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43884,7 +43914,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>2.85</v>
@@ -44502,7 +44532,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44708,7 +44738,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44992,10 +45022,10 @@
         <v>1.75</v>
       </c>
       <c r="AP212">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ212">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR212">
         <v>1.25</v>
@@ -45201,7 +45231,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45326,7 +45356,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -45404,10 +45434,10 @@
         <v>1.25</v>
       </c>
       <c r="AP214">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ214">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR214">
         <v>1.37</v>
@@ -45610,10 +45640,10 @@
         <v>1</v>
       </c>
       <c r="AP215">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ215">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45738,7 +45768,7 @@
         <v>235</v>
       </c>
       <c r="P216" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -45816,7 +45846,7 @@
         <v>0.88</v>
       </c>
       <c r="AP216">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ216">
         <v>0.9</v>
@@ -46025,7 +46055,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ217">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR217">
         <v>1.25</v>
@@ -46150,7 +46180,7 @@
         <v>101</v>
       </c>
       <c r="P218" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46228,10 +46258,10 @@
         <v>1.25</v>
       </c>
       <c r="AP218">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ218">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR218">
         <v>1.24</v>
@@ -46356,7 +46386,7 @@
         <v>101</v>
       </c>
       <c r="P219" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q219">
         <v>3.2</v>
@@ -46434,10 +46464,10 @@
         <v>1.78</v>
       </c>
       <c r="AP219">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ219">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR219">
         <v>1.32</v>
@@ -46640,10 +46670,10 @@
         <v>1.57</v>
       </c>
       <c r="AP220">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ220">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR220">
         <v>1.22</v>
@@ -46974,7 +47004,7 @@
         <v>239</v>
       </c>
       <c r="P222" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47386,7 +47416,7 @@
         <v>101</v>
       </c>
       <c r="P224" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q224">
         <v>3.4</v>
@@ -47798,7 +47828,7 @@
         <v>101</v>
       </c>
       <c r="P226" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -48004,7 +48034,7 @@
         <v>101</v>
       </c>
       <c r="P227" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -49034,7 +49064,7 @@
         <v>240</v>
       </c>
       <c r="P232" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49207,7 +49237,7 @@
         <v>69</v>
       </c>
       <c r="E233" s="2">
-        <v>45646.69791666666</v>
+        <v>45645.875</v>
       </c>
       <c r="F233">
         <v>21</v>
@@ -49446,7 +49476,7 @@
         <v>241</v>
       </c>
       <c r="P234" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49603,6 +49633,2066 @@
       </c>
       <c r="BP234">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7476785</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45647.39583333334</v>
+      </c>
+      <c r="F235">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>72</v>
+      </c>
+      <c r="H235" t="s">
+        <v>75</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>242</v>
+      </c>
+      <c r="P235" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q235">
+        <v>3</v>
+      </c>
+      <c r="R235">
+        <v>2.1</v>
+      </c>
+      <c r="S235">
+        <v>3.6</v>
+      </c>
+      <c r="T235">
+        <v>1.4</v>
+      </c>
+      <c r="U235">
+        <v>2.75</v>
+      </c>
+      <c r="V235">
+        <v>3</v>
+      </c>
+      <c r="W235">
+        <v>1.36</v>
+      </c>
+      <c r="X235">
+        <v>8</v>
+      </c>
+      <c r="Y235">
+        <v>1.08</v>
+      </c>
+      <c r="Z235">
+        <v>2.2</v>
+      </c>
+      <c r="AA235">
+        <v>3.32</v>
+      </c>
+      <c r="AB235">
+        <v>3.18</v>
+      </c>
+      <c r="AC235">
+        <v>1.05</v>
+      </c>
+      <c r="AD235">
+        <v>9.5</v>
+      </c>
+      <c r="AE235">
+        <v>1.28</v>
+      </c>
+      <c r="AF235">
+        <v>3.55</v>
+      </c>
+      <c r="AG235">
+        <v>1.97</v>
+      </c>
+      <c r="AH235">
+        <v>1.83</v>
+      </c>
+      <c r="AI235">
+        <v>1.8</v>
+      </c>
+      <c r="AJ235">
+        <v>1.91</v>
+      </c>
+      <c r="AK235">
+        <v>1.42</v>
+      </c>
+      <c r="AL235">
+        <v>1.25</v>
+      </c>
+      <c r="AM235">
+        <v>1.55</v>
+      </c>
+      <c r="AN235">
+        <v>1.67</v>
+      </c>
+      <c r="AO235">
+        <v>1.38</v>
+      </c>
+      <c r="AP235">
+        <v>1.8</v>
+      </c>
+      <c r="AQ235">
+        <v>1.22</v>
+      </c>
+      <c r="AR235">
+        <v>1.41</v>
+      </c>
+      <c r="AS235">
+        <v>1.18</v>
+      </c>
+      <c r="AT235">
+        <v>2.59</v>
+      </c>
+      <c r="AU235">
+        <v>9</v>
+      </c>
+      <c r="AV235">
+        <v>2</v>
+      </c>
+      <c r="AW235">
+        <v>1</v>
+      </c>
+      <c r="AX235">
+        <v>1</v>
+      </c>
+      <c r="AY235">
+        <v>15</v>
+      </c>
+      <c r="AZ235">
+        <v>8</v>
+      </c>
+      <c r="BA235">
+        <v>9</v>
+      </c>
+      <c r="BB235">
+        <v>5</v>
+      </c>
+      <c r="BC235">
+        <v>14</v>
+      </c>
+      <c r="BD235">
+        <v>1.82</v>
+      </c>
+      <c r="BE235">
+        <v>8</v>
+      </c>
+      <c r="BF235">
+        <v>2.33</v>
+      </c>
+      <c r="BG235">
+        <v>1.23</v>
+      </c>
+      <c r="BH235">
+        <v>3.92</v>
+      </c>
+      <c r="BI235">
+        <v>1.42</v>
+      </c>
+      <c r="BJ235">
+        <v>2.73</v>
+      </c>
+      <c r="BK235">
+        <v>1.69</v>
+      </c>
+      <c r="BL235">
+        <v>2.09</v>
+      </c>
+      <c r="BM235">
+        <v>2.11</v>
+      </c>
+      <c r="BN235">
+        <v>1.68</v>
+      </c>
+      <c r="BO235">
+        <v>2.72</v>
+      </c>
+      <c r="BP235">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7476788</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45647.39583333334</v>
+      </c>
+      <c r="F236">
+        <v>21</v>
+      </c>
+      <c r="G236" t="s">
+        <v>74</v>
+      </c>
+      <c r="H236" t="s">
+        <v>80</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236" t="s">
+        <v>243</v>
+      </c>
+      <c r="P236" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q236">
+        <v>2.2</v>
+      </c>
+      <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>5.5</v>
+      </c>
+      <c r="T236">
+        <v>1.4</v>
+      </c>
+      <c r="U236">
+        <v>2.75</v>
+      </c>
+      <c r="V236">
+        <v>2.75</v>
+      </c>
+      <c r="W236">
+        <v>1.4</v>
+      </c>
+      <c r="X236">
+        <v>8</v>
+      </c>
+      <c r="Y236">
+        <v>1.08</v>
+      </c>
+      <c r="Z236">
+        <v>1.6</v>
+      </c>
+      <c r="AA236">
+        <v>3.98</v>
+      </c>
+      <c r="AB236">
+        <v>5.15</v>
+      </c>
+      <c r="AC236">
+        <v>1.05</v>
+      </c>
+      <c r="AD236">
+        <v>9.5</v>
+      </c>
+      <c r="AE236">
+        <v>1.28</v>
+      </c>
+      <c r="AF236">
+        <v>3.55</v>
+      </c>
+      <c r="AG236">
+        <v>1.9</v>
+      </c>
+      <c r="AH236">
+        <v>1.9</v>
+      </c>
+      <c r="AI236">
+        <v>1.91</v>
+      </c>
+      <c r="AJ236">
+        <v>1.8</v>
+      </c>
+      <c r="AK236">
+        <v>1.15</v>
+      </c>
+      <c r="AL236">
+        <v>1.2</v>
+      </c>
+      <c r="AM236">
+        <v>2.25</v>
+      </c>
+      <c r="AN236">
+        <v>1.6</v>
+      </c>
+      <c r="AO236">
+        <v>0.89</v>
+      </c>
+      <c r="AP236">
+        <v>1.73</v>
+      </c>
+      <c r="AQ236">
+        <v>0.8</v>
+      </c>
+      <c r="AR236">
+        <v>1.36</v>
+      </c>
+      <c r="AS236">
+        <v>1.2</v>
+      </c>
+      <c r="AT236">
+        <v>2.56</v>
+      </c>
+      <c r="AU236">
+        <v>11</v>
+      </c>
+      <c r="AV236">
+        <v>5</v>
+      </c>
+      <c r="AW236">
+        <v>8</v>
+      </c>
+      <c r="AX236">
+        <v>3</v>
+      </c>
+      <c r="AY236">
+        <v>23</v>
+      </c>
+      <c r="AZ236">
+        <v>11</v>
+      </c>
+      <c r="BA236">
+        <v>4</v>
+      </c>
+      <c r="BB236">
+        <v>4</v>
+      </c>
+      <c r="BC236">
+        <v>8</v>
+      </c>
+      <c r="BD236">
+        <v>1.51</v>
+      </c>
+      <c r="BE236">
+        <v>8.5</v>
+      </c>
+      <c r="BF236">
+        <v>3.07</v>
+      </c>
+      <c r="BG236">
+        <v>1.18</v>
+      </c>
+      <c r="BH236">
+        <v>4.5</v>
+      </c>
+      <c r="BI236">
+        <v>1.34</v>
+      </c>
+      <c r="BJ236">
+        <v>3.1</v>
+      </c>
+      <c r="BK236">
+        <v>1.58</v>
+      </c>
+      <c r="BL236">
+        <v>2.29</v>
+      </c>
+      <c r="BM236">
+        <v>2</v>
+      </c>
+      <c r="BN236">
+        <v>1.8</v>
+      </c>
+      <c r="BO236">
+        <v>2.44</v>
+      </c>
+      <c r="BP236">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7476795</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F237">
+        <v>21</v>
+      </c>
+      <c r="G237" t="s">
+        <v>91</v>
+      </c>
+      <c r="H237" t="s">
+        <v>87</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>4</v>
+      </c>
+      <c r="O237" t="s">
+        <v>244</v>
+      </c>
+      <c r="P237" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q237">
+        <v>2.88</v>
+      </c>
+      <c r="R237">
+        <v>2.2</v>
+      </c>
+      <c r="S237">
+        <v>3.75</v>
+      </c>
+      <c r="T237">
+        <v>1.4</v>
+      </c>
+      <c r="U237">
+        <v>2.75</v>
+      </c>
+      <c r="V237">
+        <v>2.75</v>
+      </c>
+      <c r="W237">
+        <v>1.4</v>
+      </c>
+      <c r="X237">
+        <v>8</v>
+      </c>
+      <c r="Y237">
+        <v>1.08</v>
+      </c>
+      <c r="Z237">
+        <v>2.25</v>
+      </c>
+      <c r="AA237">
+        <v>3.3</v>
+      </c>
+      <c r="AB237">
+        <v>2.9</v>
+      </c>
+      <c r="AC237">
+        <v>1.05</v>
+      </c>
+      <c r="AD237">
+        <v>9.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.28</v>
+      </c>
+      <c r="AF237">
+        <v>3.55</v>
+      </c>
+      <c r="AG237">
+        <v>1.85</v>
+      </c>
+      <c r="AH237">
+        <v>1.85</v>
+      </c>
+      <c r="AI237">
+        <v>1.73</v>
+      </c>
+      <c r="AJ237">
+        <v>2</v>
+      </c>
+      <c r="AK237">
+        <v>1.35</v>
+      </c>
+      <c r="AL237">
+        <v>1.25</v>
+      </c>
+      <c r="AM237">
+        <v>1.65</v>
+      </c>
+      <c r="AN237">
+        <v>0.89</v>
+      </c>
+      <c r="AO237">
+        <v>1.9</v>
+      </c>
+      <c r="AP237">
+        <v>1.1</v>
+      </c>
+      <c r="AQ237">
+        <v>1.73</v>
+      </c>
+      <c r="AR237">
+        <v>1.23</v>
+      </c>
+      <c r="AS237">
+        <v>1.14</v>
+      </c>
+      <c r="AT237">
+        <v>2.37</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>5</v>
+      </c>
+      <c r="AW237">
+        <v>9</v>
+      </c>
+      <c r="AX237">
+        <v>4</v>
+      </c>
+      <c r="AY237">
+        <v>18</v>
+      </c>
+      <c r="AZ237">
+        <v>12</v>
+      </c>
+      <c r="BA237">
+        <v>5</v>
+      </c>
+      <c r="BB237">
+        <v>4</v>
+      </c>
+      <c r="BC237">
+        <v>9</v>
+      </c>
+      <c r="BD237">
+        <v>1.69</v>
+      </c>
+      <c r="BE237">
+        <v>8.5</v>
+      </c>
+      <c r="BF237">
+        <v>2.53</v>
+      </c>
+      <c r="BG237">
+        <v>1.23</v>
+      </c>
+      <c r="BH237">
+        <v>3.92</v>
+      </c>
+      <c r="BI237">
+        <v>1.42</v>
+      </c>
+      <c r="BJ237">
+        <v>2.73</v>
+      </c>
+      <c r="BK237">
+        <v>1.69</v>
+      </c>
+      <c r="BL237">
+        <v>2.09</v>
+      </c>
+      <c r="BM237">
+        <v>2.11</v>
+      </c>
+      <c r="BN237">
+        <v>1.68</v>
+      </c>
+      <c r="BO237">
+        <v>2.72</v>
+      </c>
+      <c r="BP237">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7476794</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F238">
+        <v>21</v>
+      </c>
+      <c r="G238" t="s">
+        <v>90</v>
+      </c>
+      <c r="H238" t="s">
+        <v>82</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238" t="s">
+        <v>101</v>
+      </c>
+      <c r="P238" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q238">
+        <v>2.38</v>
+      </c>
+      <c r="R238">
+        <v>2.2</v>
+      </c>
+      <c r="S238">
+        <v>5</v>
+      </c>
+      <c r="T238">
+        <v>1.4</v>
+      </c>
+      <c r="U238">
+        <v>2.75</v>
+      </c>
+      <c r="V238">
+        <v>3</v>
+      </c>
+      <c r="W238">
+        <v>1.36</v>
+      </c>
+      <c r="X238">
+        <v>8</v>
+      </c>
+      <c r="Y238">
+        <v>1.08</v>
+      </c>
+      <c r="Z238">
+        <v>1.73</v>
+      </c>
+      <c r="AA238">
+        <v>3.6</v>
+      </c>
+      <c r="AB238">
+        <v>4.33</v>
+      </c>
+      <c r="AC238">
+        <v>1.05</v>
+      </c>
+      <c r="AD238">
+        <v>9</v>
+      </c>
+      <c r="AE238">
+        <v>1.3</v>
+      </c>
+      <c r="AF238">
+        <v>3.4</v>
+      </c>
+      <c r="AG238">
+        <v>1.95</v>
+      </c>
+      <c r="AH238">
+        <v>1.75</v>
+      </c>
+      <c r="AI238">
+        <v>1.83</v>
+      </c>
+      <c r="AJ238">
+        <v>1.83</v>
+      </c>
+      <c r="AK238">
+        <v>1.18</v>
+      </c>
+      <c r="AL238">
+        <v>1.22</v>
+      </c>
+      <c r="AM238">
+        <v>2.05</v>
+      </c>
+      <c r="AN238">
+        <v>1.67</v>
+      </c>
+      <c r="AO238">
+        <v>0.89</v>
+      </c>
+      <c r="AP238">
+        <v>1.6</v>
+      </c>
+      <c r="AQ238">
+        <v>0.9</v>
+      </c>
+      <c r="AR238">
+        <v>1.18</v>
+      </c>
+      <c r="AS238">
+        <v>1.09</v>
+      </c>
+      <c r="AT238">
+        <v>2.27</v>
+      </c>
+      <c r="AU238">
+        <v>3</v>
+      </c>
+      <c r="AV238">
+        <v>3</v>
+      </c>
+      <c r="AW238">
+        <v>6</v>
+      </c>
+      <c r="AX238">
+        <v>4</v>
+      </c>
+      <c r="AY238">
+        <v>11</v>
+      </c>
+      <c r="AZ238">
+        <v>10</v>
+      </c>
+      <c r="BA238">
+        <v>5</v>
+      </c>
+      <c r="BB238">
+        <v>1</v>
+      </c>
+      <c r="BC238">
+        <v>6</v>
+      </c>
+      <c r="BD238">
+        <v>1.59</v>
+      </c>
+      <c r="BE238">
+        <v>8.5</v>
+      </c>
+      <c r="BF238">
+        <v>2.78</v>
+      </c>
+      <c r="BG238">
+        <v>1.25</v>
+      </c>
+      <c r="BH238">
+        <v>3.75</v>
+      </c>
+      <c r="BI238">
+        <v>1.45</v>
+      </c>
+      <c r="BJ238">
+        <v>2.63</v>
+      </c>
+      <c r="BK238">
+        <v>1.74</v>
+      </c>
+      <c r="BL238">
+        <v>2.02</v>
+      </c>
+      <c r="BM238">
+        <v>2.19</v>
+      </c>
+      <c r="BN238">
+        <v>1.63</v>
+      </c>
+      <c r="BO238">
+        <v>2.82</v>
+      </c>
+      <c r="BP238">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7476793</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F239">
+        <v>21</v>
+      </c>
+      <c r="G239" t="s">
+        <v>93</v>
+      </c>
+      <c r="H239" t="s">
+        <v>92</v>
+      </c>
+      <c r="I239">
+        <v>3</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>245</v>
+      </c>
+      <c r="P239" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q239">
+        <v>2.88</v>
+      </c>
+      <c r="R239">
+        <v>2.25</v>
+      </c>
+      <c r="S239">
+        <v>3.4</v>
+      </c>
+      <c r="T239">
+        <v>1.36</v>
+      </c>
+      <c r="U239">
+        <v>3</v>
+      </c>
+      <c r="V239">
+        <v>2.63</v>
+      </c>
+      <c r="W239">
+        <v>1.44</v>
+      </c>
+      <c r="X239">
+        <v>7</v>
+      </c>
+      <c r="Y239">
+        <v>1.1</v>
+      </c>
+      <c r="Z239">
+        <v>2.2</v>
+      </c>
+      <c r="AA239">
+        <v>3.5</v>
+      </c>
+      <c r="AB239">
+        <v>2.88</v>
+      </c>
+      <c r="AC239">
+        <v>1.05</v>
+      </c>
+      <c r="AD239">
+        <v>9.5</v>
+      </c>
+      <c r="AE239">
+        <v>1.25</v>
+      </c>
+      <c r="AF239">
+        <v>3.8</v>
+      </c>
+      <c r="AG239">
+        <v>1.73</v>
+      </c>
+      <c r="AH239">
+        <v>2</v>
+      </c>
+      <c r="AI239">
+        <v>1.57</v>
+      </c>
+      <c r="AJ239">
+        <v>2.25</v>
+      </c>
+      <c r="AK239">
+        <v>1.38</v>
+      </c>
+      <c r="AL239">
+        <v>1.28</v>
+      </c>
+      <c r="AM239">
+        <v>1.57</v>
+      </c>
+      <c r="AN239">
+        <v>1.75</v>
+      </c>
+      <c r="AO239">
+        <v>1</v>
+      </c>
+      <c r="AP239">
+        <v>1.89</v>
+      </c>
+      <c r="AQ239">
+        <v>0.91</v>
+      </c>
+      <c r="AR239">
+        <v>1.85</v>
+      </c>
+      <c r="AS239">
+        <v>1.24</v>
+      </c>
+      <c r="AT239">
+        <v>3.09</v>
+      </c>
+      <c r="AU239">
+        <v>8</v>
+      </c>
+      <c r="AV239">
+        <v>4</v>
+      </c>
+      <c r="AW239">
+        <v>2</v>
+      </c>
+      <c r="AX239">
+        <v>7</v>
+      </c>
+      <c r="AY239">
+        <v>14</v>
+      </c>
+      <c r="AZ239">
+        <v>14</v>
+      </c>
+      <c r="BA239">
+        <v>3</v>
+      </c>
+      <c r="BB239">
+        <v>11</v>
+      </c>
+      <c r="BC239">
+        <v>14</v>
+      </c>
+      <c r="BD239">
+        <v>1.82</v>
+      </c>
+      <c r="BE239">
+        <v>8</v>
+      </c>
+      <c r="BF239">
+        <v>2.39</v>
+      </c>
+      <c r="BG239">
+        <v>1.2</v>
+      </c>
+      <c r="BH239">
+        <v>4.2</v>
+      </c>
+      <c r="BI239">
+        <v>1.38</v>
+      </c>
+      <c r="BJ239">
+        <v>2.88</v>
+      </c>
+      <c r="BK239">
+        <v>1.63</v>
+      </c>
+      <c r="BL239">
+        <v>2.18</v>
+      </c>
+      <c r="BM239">
+        <v>2.02</v>
+      </c>
+      <c r="BN239">
+        <v>1.74</v>
+      </c>
+      <c r="BO239">
+        <v>2.57</v>
+      </c>
+      <c r="BP239">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7476792</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F240">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>89</v>
+      </c>
+      <c r="H240" t="s">
+        <v>78</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>5</v>
+      </c>
+      <c r="L240">
+        <v>6</v>
+      </c>
+      <c r="M240">
+        <v>3</v>
+      </c>
+      <c r="N240">
+        <v>9</v>
+      </c>
+      <c r="O240" t="s">
+        <v>246</v>
+      </c>
+      <c r="P240" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q240">
+        <v>4.5</v>
+      </c>
+      <c r="R240">
+        <v>2.3</v>
+      </c>
+      <c r="S240">
+        <v>2.3</v>
+      </c>
+      <c r="T240">
+        <v>1.33</v>
+      </c>
+      <c r="U240">
+        <v>3.25</v>
+      </c>
+      <c r="V240">
+        <v>2.5</v>
+      </c>
+      <c r="W240">
+        <v>1.5</v>
+      </c>
+      <c r="X240">
+        <v>6.5</v>
+      </c>
+      <c r="Y240">
+        <v>1.11</v>
+      </c>
+      <c r="Z240">
+        <v>4.5</v>
+      </c>
+      <c r="AA240">
+        <v>3.8</v>
+      </c>
+      <c r="AB240">
+        <v>1.67</v>
+      </c>
+      <c r="AC240">
+        <v>1.05</v>
+      </c>
+      <c r="AD240">
+        <v>9.5</v>
+      </c>
+      <c r="AE240">
+        <v>1.22</v>
+      </c>
+      <c r="AF240">
+        <v>4</v>
+      </c>
+      <c r="AG240">
+        <v>1.67</v>
+      </c>
+      <c r="AH240">
+        <v>2.1</v>
+      </c>
+      <c r="AI240">
+        <v>1.62</v>
+      </c>
+      <c r="AJ240">
+        <v>2.2</v>
+      </c>
+      <c r="AK240">
+        <v>2.05</v>
+      </c>
+      <c r="AL240">
+        <v>1.22</v>
+      </c>
+      <c r="AM240">
+        <v>1.18</v>
+      </c>
+      <c r="AN240">
+        <v>1.75</v>
+      </c>
+      <c r="AO240">
+        <v>1.43</v>
+      </c>
+      <c r="AP240">
+        <v>1.89</v>
+      </c>
+      <c r="AQ240">
+        <v>1.25</v>
+      </c>
+      <c r="AR240">
+        <v>1.15</v>
+      </c>
+      <c r="AS240">
+        <v>1.51</v>
+      </c>
+      <c r="AT240">
+        <v>2.66</v>
+      </c>
+      <c r="AU240">
+        <v>10</v>
+      </c>
+      <c r="AV240">
+        <v>5</v>
+      </c>
+      <c r="AW240">
+        <v>6</v>
+      </c>
+      <c r="AX240">
+        <v>8</v>
+      </c>
+      <c r="AY240">
+        <v>18</v>
+      </c>
+      <c r="AZ240">
+        <v>18</v>
+      </c>
+      <c r="BA240">
+        <v>2</v>
+      </c>
+      <c r="BB240">
+        <v>9</v>
+      </c>
+      <c r="BC240">
+        <v>11</v>
+      </c>
+      <c r="BD240">
+        <v>3.29</v>
+      </c>
+      <c r="BE240">
+        <v>8.5</v>
+      </c>
+      <c r="BF240">
+        <v>1.45</v>
+      </c>
+      <c r="BG240">
+        <v>1.29</v>
+      </c>
+      <c r="BH240">
+        <v>3.35</v>
+      </c>
+      <c r="BI240">
+        <v>1.53</v>
+      </c>
+      <c r="BJ240">
+        <v>2.41</v>
+      </c>
+      <c r="BK240">
+        <v>1.92</v>
+      </c>
+      <c r="BL240">
+        <v>1.88</v>
+      </c>
+      <c r="BM240">
+        <v>2.38</v>
+      </c>
+      <c r="BN240">
+        <v>1.54</v>
+      </c>
+      <c r="BO240">
+        <v>3.2</v>
+      </c>
+      <c r="BP240">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7476791</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F241">
+        <v>21</v>
+      </c>
+      <c r="G241" t="s">
+        <v>88</v>
+      </c>
+      <c r="H241" t="s">
+        <v>83</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241" t="s">
+        <v>101</v>
+      </c>
+      <c r="P241" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q241">
+        <v>3.75</v>
+      </c>
+      <c r="R241">
+        <v>2.25</v>
+      </c>
+      <c r="S241">
+        <v>2.75</v>
+      </c>
+      <c r="T241">
+        <v>1.36</v>
+      </c>
+      <c r="U241">
+        <v>3</v>
+      </c>
+      <c r="V241">
+        <v>2.63</v>
+      </c>
+      <c r="W241">
+        <v>1.44</v>
+      </c>
+      <c r="X241">
+        <v>7</v>
+      </c>
+      <c r="Y241">
+        <v>1.1</v>
+      </c>
+      <c r="Z241">
+        <v>3.2</v>
+      </c>
+      <c r="AA241">
+        <v>3.4</v>
+      </c>
+      <c r="AB241">
+        <v>2.05</v>
+      </c>
+      <c r="AC241">
+        <v>1.05</v>
+      </c>
+      <c r="AD241">
+        <v>9.5</v>
+      </c>
+      <c r="AE241">
+        <v>1.25</v>
+      </c>
+      <c r="AF241">
+        <v>3.75</v>
+      </c>
+      <c r="AG241">
+        <v>1.73</v>
+      </c>
+      <c r="AH241">
+        <v>2</v>
+      </c>
+      <c r="AI241">
+        <v>1.67</v>
+      </c>
+      <c r="AJ241">
+        <v>2.1</v>
+      </c>
+      <c r="AK241">
+        <v>1.67</v>
+      </c>
+      <c r="AL241">
+        <v>1.25</v>
+      </c>
+      <c r="AM241">
+        <v>1.35</v>
+      </c>
+      <c r="AN241">
+        <v>0.33</v>
+      </c>
+      <c r="AO241">
+        <v>1.44</v>
+      </c>
+      <c r="AP241">
+        <v>0.3</v>
+      </c>
+      <c r="AQ241">
+        <v>1.6</v>
+      </c>
+      <c r="AR241">
+        <v>1.34</v>
+      </c>
+      <c r="AS241">
+        <v>1.32</v>
+      </c>
+      <c r="AT241">
+        <v>2.66</v>
+      </c>
+      <c r="AU241">
+        <v>0</v>
+      </c>
+      <c r="AV241">
+        <v>5</v>
+      </c>
+      <c r="AW241">
+        <v>5</v>
+      </c>
+      <c r="AX241">
+        <v>5</v>
+      </c>
+      <c r="AY241">
+        <v>8</v>
+      </c>
+      <c r="AZ241">
+        <v>12</v>
+      </c>
+      <c r="BA241">
+        <v>4</v>
+      </c>
+      <c r="BB241">
+        <v>4</v>
+      </c>
+      <c r="BC241">
+        <v>8</v>
+      </c>
+      <c r="BD241">
+        <v>2</v>
+      </c>
+      <c r="BE241">
+        <v>8.5</v>
+      </c>
+      <c r="BF241">
+        <v>2</v>
+      </c>
+      <c r="BG241">
+        <v>1.17</v>
+      </c>
+      <c r="BH241">
+        <v>4.7</v>
+      </c>
+      <c r="BI241">
+        <v>1.31</v>
+      </c>
+      <c r="BJ241">
+        <v>3.25</v>
+      </c>
+      <c r="BK241">
+        <v>1.54</v>
+      </c>
+      <c r="BL241">
+        <v>2.38</v>
+      </c>
+      <c r="BM241">
+        <v>1.95</v>
+      </c>
+      <c r="BN241">
+        <v>1.85</v>
+      </c>
+      <c r="BO241">
+        <v>2.35</v>
+      </c>
+      <c r="BP241">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7476790</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F242">
+        <v>21</v>
+      </c>
+      <c r="G242" t="s">
+        <v>77</v>
+      </c>
+      <c r="H242" t="s">
+        <v>81</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242" t="s">
+        <v>101</v>
+      </c>
+      <c r="P242" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q242">
+        <v>5.5</v>
+      </c>
+      <c r="R242">
+        <v>2.2</v>
+      </c>
+      <c r="S242">
+        <v>2.3</v>
+      </c>
+      <c r="T242">
+        <v>1.4</v>
+      </c>
+      <c r="U242">
+        <v>2.75</v>
+      </c>
+      <c r="V242">
+        <v>2.75</v>
+      </c>
+      <c r="W242">
+        <v>1.4</v>
+      </c>
+      <c r="X242">
+        <v>8</v>
+      </c>
+      <c r="Y242">
+        <v>1.08</v>
+      </c>
+      <c r="Z242">
+        <v>4.75</v>
+      </c>
+      <c r="AA242">
+        <v>3.6</v>
+      </c>
+      <c r="AB242">
+        <v>1.67</v>
+      </c>
+      <c r="AC242">
+        <v>1.05</v>
+      </c>
+      <c r="AD242">
+        <v>9.5</v>
+      </c>
+      <c r="AE242">
+        <v>1.3</v>
+      </c>
+      <c r="AF242">
+        <v>3.45</v>
+      </c>
+      <c r="AG242">
+        <v>1.91</v>
+      </c>
+      <c r="AH242">
+        <v>1.8</v>
+      </c>
+      <c r="AI242">
+        <v>1.91</v>
+      </c>
+      <c r="AJ242">
+        <v>1.8</v>
+      </c>
+      <c r="AK242">
+        <v>2.1</v>
+      </c>
+      <c r="AL242">
+        <v>1.2</v>
+      </c>
+      <c r="AM242">
+        <v>1.18</v>
+      </c>
+      <c r="AN242">
+        <v>1.2</v>
+      </c>
+      <c r="AO242">
+        <v>1.89</v>
+      </c>
+      <c r="AP242">
+        <v>1.09</v>
+      </c>
+      <c r="AQ242">
+        <v>2</v>
+      </c>
+      <c r="AR242">
+        <v>1.17</v>
+      </c>
+      <c r="AS242">
+        <v>1.28</v>
+      </c>
+      <c r="AT242">
+        <v>2.45</v>
+      </c>
+      <c r="AU242">
+        <v>2</v>
+      </c>
+      <c r="AV242">
+        <v>9</v>
+      </c>
+      <c r="AW242">
+        <v>2</v>
+      </c>
+      <c r="AX242">
+        <v>5</v>
+      </c>
+      <c r="AY242">
+        <v>4</v>
+      </c>
+      <c r="AZ242">
+        <v>21</v>
+      </c>
+      <c r="BA242">
+        <v>0</v>
+      </c>
+      <c r="BB242">
+        <v>12</v>
+      </c>
+      <c r="BC242">
+        <v>12</v>
+      </c>
+      <c r="BD242">
+        <v>3.14</v>
+      </c>
+      <c r="BE242">
+        <v>9</v>
+      </c>
+      <c r="BF242">
+        <v>1.51</v>
+      </c>
+      <c r="BG242">
+        <v>1.23</v>
+      </c>
+      <c r="BH242">
+        <v>3.92</v>
+      </c>
+      <c r="BI242">
+        <v>1.42</v>
+      </c>
+      <c r="BJ242">
+        <v>2.73</v>
+      </c>
+      <c r="BK242">
+        <v>1.69</v>
+      </c>
+      <c r="BL242">
+        <v>2.09</v>
+      </c>
+      <c r="BM242">
+        <v>2.11</v>
+      </c>
+      <c r="BN242">
+        <v>1.68</v>
+      </c>
+      <c r="BO242">
+        <v>2.72</v>
+      </c>
+      <c r="BP242">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7476786</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F243">
+        <v>21</v>
+      </c>
+      <c r="G243" t="s">
+        <v>70</v>
+      </c>
+      <c r="H243" t="s">
+        <v>71</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
+        <v>220</v>
+      </c>
+      <c r="P243" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q243">
+        <v>3</v>
+      </c>
+      <c r="R243">
+        <v>2.2</v>
+      </c>
+      <c r="S243">
+        <v>3.6</v>
+      </c>
+      <c r="T243">
+        <v>1.4</v>
+      </c>
+      <c r="U243">
+        <v>2.75</v>
+      </c>
+      <c r="V243">
+        <v>2.75</v>
+      </c>
+      <c r="W243">
+        <v>1.4</v>
+      </c>
+      <c r="X243">
+        <v>8</v>
+      </c>
+      <c r="Y243">
+        <v>1.08</v>
+      </c>
+      <c r="Z243">
+        <v>2.3</v>
+      </c>
+      <c r="AA243">
+        <v>3.25</v>
+      </c>
+      <c r="AB243">
+        <v>2.88</v>
+      </c>
+      <c r="AC243">
+        <v>1.05</v>
+      </c>
+      <c r="AD243">
+        <v>9</v>
+      </c>
+      <c r="AE243">
+        <v>1.3</v>
+      </c>
+      <c r="AF243">
+        <v>3.4</v>
+      </c>
+      <c r="AG243">
+        <v>1.91</v>
+      </c>
+      <c r="AH243">
+        <v>1.8</v>
+      </c>
+      <c r="AI243">
+        <v>1.73</v>
+      </c>
+      <c r="AJ243">
+        <v>2</v>
+      </c>
+      <c r="AK243">
+        <v>1.38</v>
+      </c>
+      <c r="AL243">
+        <v>1.25</v>
+      </c>
+      <c r="AM243">
+        <v>1.57</v>
+      </c>
+      <c r="AN243">
+        <v>1.5</v>
+      </c>
+      <c r="AO243">
+        <v>1.44</v>
+      </c>
+      <c r="AP243">
+        <v>1.64</v>
+      </c>
+      <c r="AQ243">
+        <v>1.3</v>
+      </c>
+      <c r="AR243">
+        <v>1.52</v>
+      </c>
+      <c r="AS243">
+        <v>1.31</v>
+      </c>
+      <c r="AT243">
+        <v>2.83</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>2</v>
+      </c>
+      <c r="AW243">
+        <v>2</v>
+      </c>
+      <c r="AX243">
+        <v>6</v>
+      </c>
+      <c r="AY243">
+        <v>7</v>
+      </c>
+      <c r="AZ243">
+        <v>12</v>
+      </c>
+      <c r="BA243">
+        <v>3</v>
+      </c>
+      <c r="BB243">
+        <v>6</v>
+      </c>
+      <c r="BC243">
+        <v>9</v>
+      </c>
+      <c r="BD243">
+        <v>1.82</v>
+      </c>
+      <c r="BE243">
+        <v>8</v>
+      </c>
+      <c r="BF243">
+        <v>2.39</v>
+      </c>
+      <c r="BG243">
+        <v>1.29</v>
+      </c>
+      <c r="BH243">
+        <v>3.35</v>
+      </c>
+      <c r="BI243">
+        <v>1.53</v>
+      </c>
+      <c r="BJ243">
+        <v>2.41</v>
+      </c>
+      <c r="BK243">
+        <v>1.85</v>
+      </c>
+      <c r="BL243">
+        <v>1.95</v>
+      </c>
+      <c r="BM243">
+        <v>2.38</v>
+      </c>
+      <c r="BN243">
+        <v>1.54</v>
+      </c>
+      <c r="BO243">
+        <v>3.2</v>
+      </c>
+      <c r="BP243">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7476784</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F244">
+        <v>21</v>
+      </c>
+      <c r="G244" t="s">
+        <v>84</v>
+      </c>
+      <c r="H244" t="s">
+        <v>79</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>101</v>
+      </c>
+      <c r="P244" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q244">
+        <v>3.5</v>
+      </c>
+      <c r="R244">
+        <v>2.1</v>
+      </c>
+      <c r="S244">
+        <v>3.1</v>
+      </c>
+      <c r="T244">
+        <v>1.4</v>
+      </c>
+      <c r="U244">
+        <v>2.75</v>
+      </c>
+      <c r="V244">
+        <v>3</v>
+      </c>
+      <c r="W244">
+        <v>1.36</v>
+      </c>
+      <c r="X244">
+        <v>9</v>
+      </c>
+      <c r="Y244">
+        <v>1.07</v>
+      </c>
+      <c r="Z244">
+        <v>2.75</v>
+      </c>
+      <c r="AA244">
+        <v>3.2</v>
+      </c>
+      <c r="AB244">
+        <v>2.4</v>
+      </c>
+      <c r="AC244">
+        <v>1.07</v>
+      </c>
+      <c r="AD244">
+        <v>8</v>
+      </c>
+      <c r="AE244">
+        <v>1.33</v>
+      </c>
+      <c r="AF244">
+        <v>3.25</v>
+      </c>
+      <c r="AG244">
+        <v>2</v>
+      </c>
+      <c r="AH244">
+        <v>1.73</v>
+      </c>
+      <c r="AI244">
+        <v>1.73</v>
+      </c>
+      <c r="AJ244">
+        <v>2</v>
+      </c>
+      <c r="AK244">
+        <v>1.5</v>
+      </c>
+      <c r="AL244">
+        <v>1.3</v>
+      </c>
+      <c r="AM244">
+        <v>1.4</v>
+      </c>
+      <c r="AN244">
+        <v>1.22</v>
+      </c>
+      <c r="AO244">
+        <v>1</v>
+      </c>
+      <c r="AP244">
+        <v>1.1</v>
+      </c>
+      <c r="AQ244">
+        <v>1.2</v>
+      </c>
+      <c r="AR244">
+        <v>1.3</v>
+      </c>
+      <c r="AS244">
+        <v>1.16</v>
+      </c>
+      <c r="AT244">
+        <v>2.46</v>
+      </c>
+      <c r="AU244">
+        <v>3</v>
+      </c>
+      <c r="AV244">
+        <v>4</v>
+      </c>
+      <c r="AW244">
+        <v>5</v>
+      </c>
+      <c r="AX244">
+        <v>1</v>
+      </c>
+      <c r="AY244">
+        <v>8</v>
+      </c>
+      <c r="AZ244">
+        <v>6</v>
+      </c>
+      <c r="BA244">
+        <v>3</v>
+      </c>
+      <c r="BB244">
+        <v>3</v>
+      </c>
+      <c r="BC244">
+        <v>6</v>
+      </c>
+      <c r="BD244">
+        <v>1.95</v>
+      </c>
+      <c r="BE244">
+        <v>8</v>
+      </c>
+      <c r="BF244">
+        <v>2.1</v>
+      </c>
+      <c r="BG244">
+        <v>1.22</v>
+      </c>
+      <c r="BH244">
+        <v>4</v>
+      </c>
+      <c r="BI244">
+        <v>1.41</v>
+      </c>
+      <c r="BJ244">
+        <v>2.77</v>
+      </c>
+      <c r="BK244">
+        <v>1.68</v>
+      </c>
+      <c r="BL244">
+        <v>2.11</v>
+      </c>
+      <c r="BM244">
+        <v>2.09</v>
+      </c>
+      <c r="BN244">
+        <v>1.69</v>
+      </c>
+      <c r="BO244">
+        <v>2.68</v>
+      </c>
+      <c r="BP244">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -49237,7 +49237,7 @@
         <v>69</v>
       </c>
       <c r="E233" s="2">
-        <v>45645.875</v>
+        <v>45646.69791666666</v>
       </c>
       <c r="F233">
         <v>21</v>
@@ -51441,13 +51441,13 @@
         <v>12</v>
       </c>
       <c r="BA243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB243">
         <v>6</v>
       </c>
       <c r="BC243">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD243">
         <v>1.82</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -50196,13 +50196,13 @@
         <v>9</v>
       </c>
       <c r="AX237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY237">
         <v>18</v>
       </c>
       <c r="AZ237">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA237">
         <v>5</v>
@@ -50402,13 +50402,13 @@
         <v>6</v>
       </c>
       <c r="AX238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY238">
         <v>11</v>
       </c>
       <c r="AZ238">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA238">
         <v>5</v>
@@ -50814,13 +50814,13 @@
         <v>6</v>
       </c>
       <c r="AX240">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY240">
         <v>18</v>
       </c>
       <c r="AZ240">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA240">
         <v>2</v>
@@ -51435,7 +51435,7 @@
         <v>6</v>
       </c>
       <c r="AY243">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ243">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,33 @@
     <t>['12', '16', '23', '36', '47', '81']</t>
   </si>
   <si>
+    <t>['28', '87']</t>
+  </si>
+  <si>
+    <t>['55', '74']</t>
+  </si>
+  <si>
+    <t>['21', '33', '80']</t>
+  </si>
+  <si>
+    <t>['6', '85']</t>
+  </si>
+  <si>
+    <t>['70', '83']</t>
+  </si>
+  <si>
+    <t>['47', '79']</t>
+  </si>
+  <si>
+    <t>['27', '35', '53', '70', '90+3']</t>
+  </si>
+  <si>
+    <t>['3', '59']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -910,9 +937,6 @@
     <t>['60', '90+4']</t>
   </si>
   <si>
-    <t>['56']</t>
-  </si>
-  <si>
     <t>['30', '34', '47']</t>
   </si>
   <si>
@@ -1064,6 +1088,18 @@
   </si>
   <si>
     <t>['48', '85']</t>
+  </si>
+  <si>
+    <t>['57', '71']</t>
+  </si>
+  <si>
+    <t>['72', '79']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,7 +1801,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ2">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1890,7 +1926,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1968,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2177,7 +2213,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2302,7 +2338,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2380,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2792,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ7">
         <v>1.73</v>
@@ -2920,7 +2956,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3126,7 +3162,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3332,7 +3368,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3410,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>0.91</v>
@@ -3538,7 +3574,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3616,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ11">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3825,7 +3861,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4028,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4234,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4440,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
         <v>1.3</v>
@@ -4568,7 +4604,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4649,7 +4685,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ16">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4852,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4980,7 +5016,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5061,7 +5097,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5186,7 +5222,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5264,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ19">
         <v>0.9</v>
@@ -5392,7 +5428,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5473,7 +5509,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ20">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5679,7 +5715,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ21">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6010,7 +6046,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6294,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6422,7 +6458,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6628,7 +6664,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7121,7 +7157,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ28">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -7327,7 +7363,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7452,7 +7488,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7736,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>0.9</v>
@@ -7942,10 +7978,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR32">
         <v>1.04</v>
@@ -8354,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>1.3</v>
@@ -8560,7 +8596,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ35">
         <v>1.6</v>
@@ -8769,7 +8805,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.13</v>
@@ -8894,7 +8930,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8972,10 +9008,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR37">
         <v>1.61</v>
@@ -9100,7 +9136,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9181,7 +9217,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9387,7 +9423,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -9512,7 +9548,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9593,7 +9629,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9799,7 +9835,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ41">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9924,7 +9960,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10005,7 +10041,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -10208,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ43">
         <v>0.9</v>
@@ -10336,7 +10372,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10414,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -10542,7 +10578,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10620,10 +10656,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -11032,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ47">
         <v>1.22</v>
@@ -11160,7 +11196,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11238,7 +11274,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
         <v>0.91</v>
@@ -11444,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11572,7 +11608,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11653,7 +11689,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ50">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
         <v>0.78</v>
@@ -11778,7 +11814,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11859,7 +11895,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -12062,10 +12098,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -12190,7 +12226,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12474,7 +12510,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12683,7 +12719,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>1</v>
@@ -12889,7 +12925,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ56">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -13092,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ57">
         <v>0.9</v>
@@ -13298,7 +13334,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13713,7 +13749,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13916,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -14125,7 +14161,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ62">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14328,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ63">
         <v>0.9</v>
@@ -14456,7 +14492,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14534,7 +14570,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ64">
         <v>0.91</v>
@@ -14743,7 +14779,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR65">
         <v>1.4</v>
@@ -14868,7 +14904,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15361,7 +15397,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15486,7 +15522,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15564,10 +15600,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ69">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15692,7 +15728,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15770,10 +15806,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ70">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15898,7 +15934,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15976,7 +16012,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ71">
         <v>1.22</v>
@@ -16104,7 +16140,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16185,7 +16221,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ72">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16516,7 +16552,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16722,7 +16758,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16800,7 +16836,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16928,7 +16964,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17009,7 +17045,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -17212,7 +17248,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ77">
         <v>1.6</v>
@@ -17340,7 +17376,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17418,10 +17454,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR78">
         <v>1.48</v>
@@ -17624,7 +17660,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17830,7 +17866,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ80">
         <v>1.3</v>
@@ -18039,7 +18075,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.2</v>
@@ -18245,7 +18281,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ82">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR82">
         <v>0.97</v>
@@ -18370,7 +18406,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18448,10 +18484,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18860,7 +18896,7 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19275,7 +19311,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ87">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19481,7 +19517,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19606,7 +19642,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19687,7 +19723,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ89">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR89">
         <v>0.82</v>
@@ -19890,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
@@ -20018,7 +20054,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20099,7 +20135,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ91">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20224,7 +20260,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20302,7 +20338,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>1.22</v>
@@ -20430,7 +20466,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20508,7 +20544,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ93">
         <v>1.73</v>
@@ -20717,7 +20753,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ94">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR94">
         <v>1.4</v>
@@ -20842,7 +20878,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21048,7 +21084,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21335,7 +21371,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR97">
         <v>1.07</v>
@@ -21666,7 +21702,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21872,7 +21908,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21950,7 +21986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ100">
         <v>1.22</v>
@@ -22284,7 +22320,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22362,7 +22398,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ102">
         <v>0.8</v>
@@ -22490,7 +22526,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22568,10 +22604,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ103">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR103">
         <v>1.32</v>
@@ -22696,7 +22732,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22774,10 +22810,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ104">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR104">
         <v>1.27</v>
@@ -22983,7 +23019,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR105">
         <v>1</v>
@@ -23108,7 +23144,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23186,10 +23222,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ106">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23392,7 +23428,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ107">
         <v>1.6</v>
@@ -23601,7 +23637,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23807,7 +23843,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ109">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR109">
         <v>1.69</v>
@@ -24010,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
         <v>0.8</v>
@@ -24219,7 +24255,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ111">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR111">
         <v>1.19</v>
@@ -24422,7 +24458,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ112">
         <v>1.3</v>
@@ -24550,7 +24586,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24756,7 +24792,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25043,7 +25079,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25246,7 +25282,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ116">
         <v>0.9</v>
@@ -25374,7 +25410,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25452,10 +25488,10 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ117">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25580,7 +25616,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25661,7 +25697,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ118">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25786,7 +25822,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25992,7 +26028,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26070,7 +26106,7 @@
         <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ120">
         <v>1.73</v>
@@ -26276,10 +26312,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR121">
         <v>1.34</v>
@@ -26485,7 +26521,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ122">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR122">
         <v>1.16</v>
@@ -26610,7 +26646,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26816,7 +26852,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26897,7 +26933,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR124">
         <v>1.08</v>
@@ -27022,7 +27058,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27103,7 +27139,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -27306,7 +27342,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ126">
         <v>0.9</v>
@@ -27434,7 +27470,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27512,10 +27548,10 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27640,7 +27676,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27721,7 +27757,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ128">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR128">
         <v>1.07</v>
@@ -27927,7 +27963,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ129">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28258,7 +28294,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28464,7 +28500,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28545,7 +28581,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ132">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR132">
         <v>1.44</v>
@@ -28670,7 +28706,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28876,7 +28912,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28954,7 +28990,7 @@
         <v>1.4</v>
       </c>
       <c r="AP134">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -29082,7 +29118,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29160,7 +29196,7 @@
         <v>0.2</v>
       </c>
       <c r="AP135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ135">
         <v>0.9</v>
@@ -29288,7 +29324,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29494,7 +29530,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29572,7 +29608,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ137">
         <v>0.8</v>
@@ -29778,10 +29814,10 @@
         <v>1.4</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ138">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -29906,7 +29942,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29984,10 +30020,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ139">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR139">
         <v>1.5</v>
@@ -30112,7 +30148,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30190,7 +30226,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30318,7 +30354,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30524,7 +30560,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30602,10 +30638,10 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ142">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR142">
         <v>1.41</v>
@@ -30808,7 +30844,7 @@
         <v>0.6</v>
       </c>
       <c r="AP143">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ143">
         <v>0.8</v>
@@ -31017,7 +31053,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ144">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR144">
         <v>1.14</v>
@@ -31142,7 +31178,7 @@
         <v>101</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31223,7 +31259,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR145">
         <v>1.19</v>
@@ -31426,10 +31462,10 @@
         <v>1.4</v>
       </c>
       <c r="AP146">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ146">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR146">
         <v>1.61</v>
@@ -31760,7 +31796,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32044,7 +32080,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ149">
         <v>0.91</v>
@@ -32253,7 +32289,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ150">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR150">
         <v>1.45</v>
@@ -32456,10 +32492,10 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.49</v>
@@ -32584,7 +32620,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32665,7 +32701,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ152">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32790,7 +32826,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32868,7 +32904,7 @@
         <v>0.8</v>
       </c>
       <c r="AP153">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ153">
         <v>1.2</v>
@@ -33202,7 +33238,7 @@
         <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33489,7 +33525,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ156">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33614,7 +33650,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -33692,7 +33728,7 @@
         <v>1.17</v>
       </c>
       <c r="AP157">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ157">
         <v>1.25</v>
@@ -34107,7 +34143,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ159">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR159">
         <v>1.61</v>
@@ -34310,10 +34346,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ160">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR160">
         <v>1.49</v>
@@ -34438,7 +34474,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q161">
         <v>3.2</v>
@@ -34516,10 +34552,10 @@
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ161">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -34928,7 +34964,7 @@
         <v>0.67</v>
       </c>
       <c r="AP163">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ163">
         <v>0.9</v>
@@ -35056,7 +35092,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35134,7 +35170,7 @@
         <v>1.17</v>
       </c>
       <c r="AP164">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ164">
         <v>1.2</v>
@@ -35262,7 +35298,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35340,7 +35376,7 @@
         <v>0.57</v>
       </c>
       <c r="AP165">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ165">
         <v>0.9</v>
@@ -35468,7 +35504,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35549,7 +35585,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR166">
         <v>1.16</v>
@@ -35674,7 +35710,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -35752,10 +35788,10 @@
         <v>1.67</v>
       </c>
       <c r="AP167">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ167">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR167">
         <v>1.52</v>
@@ -35961,7 +35997,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ168">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR168">
         <v>1.25</v>
@@ -36086,7 +36122,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36164,10 +36200,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ169">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR169">
         <v>1.18</v>
@@ -36373,7 +36409,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ170">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR170">
         <v>1.33</v>
@@ -36576,7 +36612,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ171">
         <v>0.91</v>
@@ -36785,7 +36821,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ172">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR172">
         <v>1.32</v>
@@ -36910,7 +36946,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -37116,7 +37152,7 @@
         <v>148</v>
       </c>
       <c r="P174" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37194,7 +37230,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ174">
         <v>1.6</v>
@@ -37606,7 +37642,7 @@
         <v>1.71</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ176">
         <v>1.73</v>
@@ -37815,7 +37851,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ177">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -38146,7 +38182,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38224,7 +38260,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ179">
         <v>0.9</v>
@@ -38433,7 +38469,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ180">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR180">
         <v>1.26</v>
@@ -38558,7 +38594,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -38845,7 +38881,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ182">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR182">
         <v>1.19</v>
@@ -38970,7 +39006,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q183">
         <v>3.2</v>
@@ -39051,7 +39087,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ183">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR183">
         <v>1.27</v>
@@ -39254,7 +39290,7 @@
         <v>0.88</v>
       </c>
       <c r="AP184">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ184">
         <v>0.9</v>
@@ -39382,7 +39418,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39666,7 +39702,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ186">
         <v>0.91</v>
@@ -39794,7 +39830,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -39872,7 +39908,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ187">
         <v>0.8</v>
@@ -40078,7 +40114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP188">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ188">
         <v>0.8</v>
@@ -40287,7 +40323,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ189">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR189">
         <v>1.71</v>
@@ -40412,7 +40448,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40490,7 +40526,7 @@
         <v>0.71</v>
       </c>
       <c r="AP190">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40618,7 +40654,7 @@
         <v>148</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40699,7 +40735,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ191">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR191">
         <v>1.27</v>
@@ -40824,7 +40860,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40905,7 +40941,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR192">
         <v>1.24</v>
@@ -41108,7 +41144,7 @@
         <v>1.57</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ193">
         <v>2</v>
@@ -41314,10 +41350,10 @@
         <v>1.86</v>
       </c>
       <c r="AP194">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ194">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR194">
         <v>1.51</v>
@@ -41523,7 +41559,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ195">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR195">
         <v>1.49</v>
@@ -41729,7 +41765,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ196">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR196">
         <v>1.37</v>
@@ -41854,7 +41890,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -41932,7 +41968,7 @@
         <v>1.29</v>
       </c>
       <c r="AP197">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ197">
         <v>1.6</v>
@@ -42060,7 +42096,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42266,7 +42302,7 @@
         <v>122</v>
       </c>
       <c r="P199" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
@@ -42344,10 +42380,10 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ199">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR199">
         <v>1.51</v>
@@ -42550,7 +42586,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ200">
         <v>1</v>
@@ -42678,7 +42714,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42756,10 +42792,10 @@
         <v>1.56</v>
       </c>
       <c r="AP201">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ201">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR201">
         <v>1.49</v>
@@ -42884,7 +42920,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q202">
         <v>1.8</v>
@@ -42962,10 +42998,10 @@
         <v>0.78</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ202">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR202">
         <v>1.53</v>
@@ -43090,7 +43126,7 @@
         <v>208</v>
       </c>
       <c r="P203" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43168,10 +43204,10 @@
         <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ203">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR203">
         <v>1.53</v>
@@ -43296,7 +43332,7 @@
         <v>224</v>
       </c>
       <c r="P204" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q204">
         <v>2.4</v>
@@ -43377,7 +43413,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ204">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR204">
         <v>1.38</v>
@@ -43502,7 +43538,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43580,10 +43616,10 @@
         <v>2.11</v>
       </c>
       <c r="AP205">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ205">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR205">
         <v>1.31</v>
@@ -43786,10 +43822,10 @@
         <v>0.89</v>
       </c>
       <c r="AP206">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ206">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR206">
         <v>1.62</v>
@@ -43914,7 +43950,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>2.85</v>
@@ -43992,7 +44028,7 @@
         <v>0.88</v>
       </c>
       <c r="AP207">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ207">
         <v>0.8</v>
@@ -44198,10 +44234,10 @@
         <v>1.63</v>
       </c>
       <c r="AP208">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ208">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR208">
         <v>1.27</v>
@@ -44404,10 +44440,10 @@
         <v>1.13</v>
       </c>
       <c r="AP209">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ209">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
@@ -44532,7 +44568,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44610,10 +44646,10 @@
         <v>1.14</v>
       </c>
       <c r="AP210">
+        <v>1.27</v>
+      </c>
+      <c r="AQ210">
         <v>1.1</v>
-      </c>
-      <c r="AQ210">
-        <v>1.22</v>
       </c>
       <c r="AR210">
         <v>1.4</v>
@@ -44738,7 +44774,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44816,10 +44852,10 @@
         <v>1.75</v>
       </c>
       <c r="AP211">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ211">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR211">
         <v>1.39</v>
@@ -45356,7 +45392,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -45768,7 +45804,7 @@
         <v>235</v>
       </c>
       <c r="P216" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -46180,7 +46216,7 @@
         <v>101</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46386,7 +46422,7 @@
         <v>101</v>
       </c>
       <c r="P219" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q219">
         <v>3.2</v>
@@ -46876,10 +46912,10 @@
         <v>1.4</v>
       </c>
       <c r="AP221">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ221">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR221">
         <v>1.41</v>
@@ -47004,7 +47040,7 @@
         <v>239</v>
       </c>
       <c r="P222" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47085,7 +47121,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ222">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47288,10 +47324,10 @@
         <v>1.1</v>
       </c>
       <c r="AP223">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ223">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR223">
         <v>1.3</v>
@@ -47416,7 +47452,7 @@
         <v>101</v>
       </c>
       <c r="P224" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q224">
         <v>3.4</v>
@@ -47494,10 +47530,10 @@
         <v>1.44</v>
       </c>
       <c r="AP224">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ224">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR224">
         <v>1.28</v>
@@ -47700,10 +47736,10 @@
         <v>0.8</v>
       </c>
       <c r="AP225">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ225">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR225">
         <v>1.66</v>
@@ -47828,7 +47864,7 @@
         <v>101</v>
       </c>
       <c r="P226" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -47906,10 +47942,10 @@
         <v>1</v>
       </c>
       <c r="AP226">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ226">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR226">
         <v>1.31</v>
@@ -48034,7 +48070,7 @@
         <v>101</v>
       </c>
       <c r="P227" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48112,10 +48148,10 @@
         <v>1.44</v>
       </c>
       <c r="AP227">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ227">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR227">
         <v>1.42</v>
@@ -48318,10 +48354,10 @@
         <v>0.89</v>
       </c>
       <c r="AP228">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ228">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR228">
         <v>1.56</v>
@@ -48524,10 +48560,10 @@
         <v>0.8</v>
       </c>
       <c r="AP229">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ229">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR229">
         <v>1.48</v>
@@ -48730,10 +48766,10 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ230">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR230">
         <v>1.39</v>
@@ -48936,10 +48972,10 @@
         <v>1.89</v>
       </c>
       <c r="AP231">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ231">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR231">
         <v>1.53</v>
@@ -49064,7 +49100,7 @@
         <v>240</v>
       </c>
       <c r="P232" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49142,7 +49178,7 @@
         <v>0.78</v>
       </c>
       <c r="AP232">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ232">
         <v>0.8</v>
@@ -49476,7 +49512,7 @@
         <v>241</v>
       </c>
       <c r="P234" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50094,7 +50130,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q237">
         <v>2.88</v>
@@ -50712,7 +50748,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50918,7 +50954,7 @@
         <v>101</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q241">
         <v>3.75</v>
@@ -51124,7 +51160,7 @@
         <v>101</v>
       </c>
       <c r="P242" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q242">
         <v>5.5</v>
@@ -51536,7 +51572,7 @@
         <v>101</v>
       </c>
       <c r="P244" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51693,6 +51729,2272 @@
       </c>
       <c r="BP244">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7476802</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F245">
+        <v>22</v>
+      </c>
+      <c r="G245" t="s">
+        <v>75</v>
+      </c>
+      <c r="H245" t="s">
+        <v>70</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" t="s">
+        <v>247</v>
+      </c>
+      <c r="P245" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q245">
+        <v>3.1</v>
+      </c>
+      <c r="R245">
+        <v>2.25</v>
+      </c>
+      <c r="S245">
+        <v>3.25</v>
+      </c>
+      <c r="T245">
+        <v>1.36</v>
+      </c>
+      <c r="U245">
+        <v>3</v>
+      </c>
+      <c r="V245">
+        <v>2.63</v>
+      </c>
+      <c r="W245">
+        <v>1.44</v>
+      </c>
+      <c r="X245">
+        <v>7</v>
+      </c>
+      <c r="Y245">
+        <v>1.1</v>
+      </c>
+      <c r="Z245">
+        <v>2.45</v>
+      </c>
+      <c r="AA245">
+        <v>3.3</v>
+      </c>
+      <c r="AB245">
+        <v>2.6</v>
+      </c>
+      <c r="AC245">
+        <v>1.03</v>
+      </c>
+      <c r="AD245">
+        <v>13</v>
+      </c>
+      <c r="AE245">
+        <v>1.25</v>
+      </c>
+      <c r="AF245">
+        <v>3.75</v>
+      </c>
+      <c r="AG245">
+        <v>1.75</v>
+      </c>
+      <c r="AH245">
+        <v>1.95</v>
+      </c>
+      <c r="AI245">
+        <v>1.62</v>
+      </c>
+      <c r="AJ245">
+        <v>2.2</v>
+      </c>
+      <c r="AK245">
+        <v>1.5</v>
+      </c>
+      <c r="AL245">
+        <v>1.25</v>
+      </c>
+      <c r="AM245">
+        <v>1.52</v>
+      </c>
+      <c r="AN245">
+        <v>1.2</v>
+      </c>
+      <c r="AO245">
+        <v>1.6</v>
+      </c>
+      <c r="AP245">
+        <v>1.36</v>
+      </c>
+      <c r="AQ245">
+        <v>1.45</v>
+      </c>
+      <c r="AR245">
+        <v>1.32</v>
+      </c>
+      <c r="AS245">
+        <v>1.24</v>
+      </c>
+      <c r="AT245">
+        <v>2.56</v>
+      </c>
+      <c r="AU245">
+        <v>4</v>
+      </c>
+      <c r="AV245">
+        <v>8</v>
+      </c>
+      <c r="AW245">
+        <v>3</v>
+      </c>
+      <c r="AX245">
+        <v>2</v>
+      </c>
+      <c r="AY245">
+        <v>9</v>
+      </c>
+      <c r="AZ245">
+        <v>13</v>
+      </c>
+      <c r="BA245">
+        <v>5</v>
+      </c>
+      <c r="BB245">
+        <v>5</v>
+      </c>
+      <c r="BC245">
+        <v>10</v>
+      </c>
+      <c r="BD245">
+        <v>1.95</v>
+      </c>
+      <c r="BE245">
+        <v>6.75</v>
+      </c>
+      <c r="BF245">
+        <v>2.05</v>
+      </c>
+      <c r="BG245">
+        <v>1.24</v>
+      </c>
+      <c r="BH245">
+        <v>3.55</v>
+      </c>
+      <c r="BI245">
+        <v>1.43</v>
+      </c>
+      <c r="BJ245">
+        <v>2.6</v>
+      </c>
+      <c r="BK245">
+        <v>1.7</v>
+      </c>
+      <c r="BL245">
+        <v>2.02</v>
+      </c>
+      <c r="BM245">
+        <v>2.07</v>
+      </c>
+      <c r="BN245">
+        <v>1.67</v>
+      </c>
+      <c r="BO245">
+        <v>2.63</v>
+      </c>
+      <c r="BP245">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7476803</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F246">
+        <v>22</v>
+      </c>
+      <c r="G246" t="s">
+        <v>87</v>
+      </c>
+      <c r="H246" t="s">
+        <v>77</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>248</v>
+      </c>
+      <c r="P246" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q246">
+        <v>2.38</v>
+      </c>
+      <c r="R246">
+        <v>2.2</v>
+      </c>
+      <c r="S246">
+        <v>5</v>
+      </c>
+      <c r="T246">
+        <v>1.4</v>
+      </c>
+      <c r="U246">
+        <v>2.75</v>
+      </c>
+      <c r="V246">
+        <v>2.75</v>
+      </c>
+      <c r="W246">
+        <v>1.4</v>
+      </c>
+      <c r="X246">
+        <v>8</v>
+      </c>
+      <c r="Y246">
+        <v>1.08</v>
+      </c>
+      <c r="Z246">
+        <v>1.73</v>
+      </c>
+      <c r="AA246">
+        <v>3.6</v>
+      </c>
+      <c r="AB246">
+        <v>4.33</v>
+      </c>
+      <c r="AC246">
+        <v>1.04</v>
+      </c>
+      <c r="AD246">
+        <v>12</v>
+      </c>
+      <c r="AE246">
+        <v>1.28</v>
+      </c>
+      <c r="AF246">
+        <v>3.6</v>
+      </c>
+      <c r="AG246">
+        <v>1.85</v>
+      </c>
+      <c r="AH246">
+        <v>1.85</v>
+      </c>
+      <c r="AI246">
+        <v>1.83</v>
+      </c>
+      <c r="AJ246">
+        <v>1.83</v>
+      </c>
+      <c r="AK246">
+        <v>1.18</v>
+      </c>
+      <c r="AL246">
+        <v>1.22</v>
+      </c>
+      <c r="AM246">
+        <v>2.1</v>
+      </c>
+      <c r="AN246">
+        <v>1.2</v>
+      </c>
+      <c r="AO246">
+        <v>0.9</v>
+      </c>
+      <c r="AP246">
+        <v>1.36</v>
+      </c>
+      <c r="AQ246">
+        <v>0.82</v>
+      </c>
+      <c r="AR246">
+        <v>1.22</v>
+      </c>
+      <c r="AS246">
+        <v>1.04</v>
+      </c>
+      <c r="AT246">
+        <v>2.26</v>
+      </c>
+      <c r="AU246">
+        <v>4</v>
+      </c>
+      <c r="AV246">
+        <v>3</v>
+      </c>
+      <c r="AW246">
+        <v>9</v>
+      </c>
+      <c r="AX246">
+        <v>3</v>
+      </c>
+      <c r="AY246">
+        <v>15</v>
+      </c>
+      <c r="AZ246">
+        <v>14</v>
+      </c>
+      <c r="BA246">
+        <v>4</v>
+      </c>
+      <c r="BB246">
+        <v>3</v>
+      </c>
+      <c r="BC246">
+        <v>7</v>
+      </c>
+      <c r="BD246">
+        <v>1.58</v>
+      </c>
+      <c r="BE246">
+        <v>7</v>
+      </c>
+      <c r="BF246">
+        <v>2.55</v>
+      </c>
+      <c r="BG246">
+        <v>1.25</v>
+      </c>
+      <c r="BH246">
+        <v>3.45</v>
+      </c>
+      <c r="BI246">
+        <v>1.44</v>
+      </c>
+      <c r="BJ246">
+        <v>2.55</v>
+      </c>
+      <c r="BK246">
+        <v>1.71</v>
+      </c>
+      <c r="BL246">
+        <v>2</v>
+      </c>
+      <c r="BM246">
+        <v>2.07</v>
+      </c>
+      <c r="BN246">
+        <v>1.66</v>
+      </c>
+      <c r="BO246">
+        <v>2.65</v>
+      </c>
+      <c r="BP246">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7476804</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F247">
+        <v>22</v>
+      </c>
+      <c r="G247" t="s">
+        <v>78</v>
+      </c>
+      <c r="H247" t="s">
+        <v>93</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>101</v>
+      </c>
+      <c r="P247" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q247">
+        <v>2.6</v>
+      </c>
+      <c r="R247">
+        <v>2.3</v>
+      </c>
+      <c r="S247">
+        <v>4</v>
+      </c>
+      <c r="T247">
+        <v>1.33</v>
+      </c>
+      <c r="U247">
+        <v>3.25</v>
+      </c>
+      <c r="V247">
+        <v>2.63</v>
+      </c>
+      <c r="W247">
+        <v>1.44</v>
+      </c>
+      <c r="X247">
+        <v>6.5</v>
+      </c>
+      <c r="Y247">
+        <v>1.11</v>
+      </c>
+      <c r="Z247">
+        <v>2.1</v>
+      </c>
+      <c r="AA247">
+        <v>3.5</v>
+      </c>
+      <c r="AB247">
+        <v>3.05</v>
+      </c>
+      <c r="AC247">
+        <v>1.03</v>
+      </c>
+      <c r="AD247">
+        <v>13</v>
+      </c>
+      <c r="AE247">
+        <v>1.22</v>
+      </c>
+      <c r="AF247">
+        <v>4.2</v>
+      </c>
+      <c r="AG247">
+        <v>1.6</v>
+      </c>
+      <c r="AH247">
+        <v>2.2</v>
+      </c>
+      <c r="AI247">
+        <v>1.62</v>
+      </c>
+      <c r="AJ247">
+        <v>2.2</v>
+      </c>
+      <c r="AK247">
+        <v>1.3</v>
+      </c>
+      <c r="AL247">
+        <v>1.25</v>
+      </c>
+      <c r="AM247">
+        <v>1.78</v>
+      </c>
+      <c r="AN247">
+        <v>1.82</v>
+      </c>
+      <c r="AO247">
+        <v>1.27</v>
+      </c>
+      <c r="AP247">
+        <v>1.67</v>
+      </c>
+      <c r="AQ247">
+        <v>1.42</v>
+      </c>
+      <c r="AR247">
+        <v>1.35</v>
+      </c>
+      <c r="AS247">
+        <v>1.23</v>
+      </c>
+      <c r="AT247">
+        <v>2.58</v>
+      </c>
+      <c r="AU247">
+        <v>6</v>
+      </c>
+      <c r="AV247">
+        <v>6</v>
+      </c>
+      <c r="AW247">
+        <v>5</v>
+      </c>
+      <c r="AX247">
+        <v>4</v>
+      </c>
+      <c r="AY247">
+        <v>15</v>
+      </c>
+      <c r="AZ247">
+        <v>12</v>
+      </c>
+      <c r="BA247">
+        <v>5</v>
+      </c>
+      <c r="BB247">
+        <v>4</v>
+      </c>
+      <c r="BC247">
+        <v>9</v>
+      </c>
+      <c r="BD247">
+        <v>1.74</v>
+      </c>
+      <c r="BE247">
+        <v>6.4</v>
+      </c>
+      <c r="BF247">
+        <v>2.33</v>
+      </c>
+      <c r="BG247">
+        <v>1.3</v>
+      </c>
+      <c r="BH247">
+        <v>3.15</v>
+      </c>
+      <c r="BI247">
+        <v>1.5</v>
+      </c>
+      <c r="BJ247">
+        <v>2.35</v>
+      </c>
+      <c r="BK247">
+        <v>1.82</v>
+      </c>
+      <c r="BL247">
+        <v>1.86</v>
+      </c>
+      <c r="BM247">
+        <v>2.28</v>
+      </c>
+      <c r="BN247">
+        <v>1.54</v>
+      </c>
+      <c r="BO247">
+        <v>2.9</v>
+      </c>
+      <c r="BP247">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7476805</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F248">
+        <v>22</v>
+      </c>
+      <c r="G248" t="s">
+        <v>79</v>
+      </c>
+      <c r="H248" t="s">
+        <v>72</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248" t="s">
+        <v>249</v>
+      </c>
+      <c r="P248" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q248">
+        <v>3.1</v>
+      </c>
+      <c r="R248">
+        <v>2</v>
+      </c>
+      <c r="S248">
+        <v>3.75</v>
+      </c>
+      <c r="T248">
+        <v>1.5</v>
+      </c>
+      <c r="U248">
+        <v>2.5</v>
+      </c>
+      <c r="V248">
+        <v>3.5</v>
+      </c>
+      <c r="W248">
+        <v>1.29</v>
+      </c>
+      <c r="X248">
+        <v>11</v>
+      </c>
+      <c r="Y248">
+        <v>1.05</v>
+      </c>
+      <c r="Z248">
+        <v>2.3</v>
+      </c>
+      <c r="AA248">
+        <v>3</v>
+      </c>
+      <c r="AB248">
+        <v>3.1</v>
+      </c>
+      <c r="AC248">
+        <v>1.07</v>
+      </c>
+      <c r="AD248">
+        <v>8.5</v>
+      </c>
+      <c r="AE248">
+        <v>1.44</v>
+      </c>
+      <c r="AF248">
+        <v>2.8</v>
+      </c>
+      <c r="AG248">
+        <v>2.2</v>
+      </c>
+      <c r="AH248">
+        <v>1.6</v>
+      </c>
+      <c r="AI248">
+        <v>2</v>
+      </c>
+      <c r="AJ248">
+        <v>1.73</v>
+      </c>
+      <c r="AK248">
+        <v>1.38</v>
+      </c>
+      <c r="AL248">
+        <v>1.28</v>
+      </c>
+      <c r="AM248">
+        <v>1.62</v>
+      </c>
+      <c r="AN248">
+        <v>1.8</v>
+      </c>
+      <c r="AO248">
+        <v>0.8</v>
+      </c>
+      <c r="AP248">
+        <v>1.91</v>
+      </c>
+      <c r="AQ248">
+        <v>0.73</v>
+      </c>
+      <c r="AR248">
+        <v>1.42</v>
+      </c>
+      <c r="AS248">
+        <v>1.08</v>
+      </c>
+      <c r="AT248">
+        <v>2.5</v>
+      </c>
+      <c r="AU248">
+        <v>6</v>
+      </c>
+      <c r="AV248">
+        <v>3</v>
+      </c>
+      <c r="AW248">
+        <v>4</v>
+      </c>
+      <c r="AX248">
+        <v>7</v>
+      </c>
+      <c r="AY248">
+        <v>12</v>
+      </c>
+      <c r="AZ248">
+        <v>18</v>
+      </c>
+      <c r="BA248">
+        <v>3</v>
+      </c>
+      <c r="BB248">
+        <v>8</v>
+      </c>
+      <c r="BC248">
+        <v>11</v>
+      </c>
+      <c r="BD248">
+        <v>1.84</v>
+      </c>
+      <c r="BE248">
+        <v>6.5</v>
+      </c>
+      <c r="BF248">
+        <v>2.17</v>
+      </c>
+      <c r="BG248">
+        <v>1.29</v>
+      </c>
+      <c r="BH248">
+        <v>3.15</v>
+      </c>
+      <c r="BI248">
+        <v>1.5</v>
+      </c>
+      <c r="BJ248">
+        <v>2.33</v>
+      </c>
+      <c r="BK248">
+        <v>1.83</v>
+      </c>
+      <c r="BL248">
+        <v>1.85</v>
+      </c>
+      <c r="BM248">
+        <v>2.28</v>
+      </c>
+      <c r="BN248">
+        <v>1.54</v>
+      </c>
+      <c r="BO248">
+        <v>2.9</v>
+      </c>
+      <c r="BP248">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7476801</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F249">
+        <v>22</v>
+      </c>
+      <c r="G249" t="s">
+        <v>85</v>
+      </c>
+      <c r="H249" t="s">
+        <v>76</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>250</v>
+      </c>
+      <c r="P249" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q249">
+        <v>2.75</v>
+      </c>
+      <c r="R249">
+        <v>2.05</v>
+      </c>
+      <c r="S249">
+        <v>4.5</v>
+      </c>
+      <c r="T249">
+        <v>1.44</v>
+      </c>
+      <c r="U249">
+        <v>2.63</v>
+      </c>
+      <c r="V249">
+        <v>3.25</v>
+      </c>
+      <c r="W249">
+        <v>1.33</v>
+      </c>
+      <c r="X249">
+        <v>10</v>
+      </c>
+      <c r="Y249">
+        <v>1.06</v>
+      </c>
+      <c r="Z249">
+        <v>1.91</v>
+      </c>
+      <c r="AA249">
+        <v>3.25</v>
+      </c>
+      <c r="AB249">
+        <v>3.85</v>
+      </c>
+      <c r="AC249">
+        <v>1.06</v>
+      </c>
+      <c r="AD249">
+        <v>10</v>
+      </c>
+      <c r="AE249">
+        <v>1.38</v>
+      </c>
+      <c r="AF249">
+        <v>3</v>
+      </c>
+      <c r="AG249">
+        <v>2.1</v>
+      </c>
+      <c r="AH249">
+        <v>1.65</v>
+      </c>
+      <c r="AI249">
+        <v>2</v>
+      </c>
+      <c r="AJ249">
+        <v>1.73</v>
+      </c>
+      <c r="AK249">
+        <v>1.25</v>
+      </c>
+      <c r="AL249">
+        <v>1.25</v>
+      </c>
+      <c r="AM249">
+        <v>1.95</v>
+      </c>
+      <c r="AN249">
+        <v>1.3</v>
+      </c>
+      <c r="AO249">
+        <v>1.22</v>
+      </c>
+      <c r="AP249">
+        <v>1.45</v>
+      </c>
+      <c r="AQ249">
+        <v>1.1</v>
+      </c>
+      <c r="AR249">
+        <v>1.66</v>
+      </c>
+      <c r="AS249">
+        <v>0.98</v>
+      </c>
+      <c r="AT249">
+        <v>2.64</v>
+      </c>
+      <c r="AU249">
+        <v>5</v>
+      </c>
+      <c r="AV249">
+        <v>5</v>
+      </c>
+      <c r="AW249">
+        <v>6</v>
+      </c>
+      <c r="AX249">
+        <v>4</v>
+      </c>
+      <c r="AY249">
+        <v>13</v>
+      </c>
+      <c r="AZ249">
+        <v>11</v>
+      </c>
+      <c r="BA249">
+        <v>3</v>
+      </c>
+      <c r="BB249">
+        <v>2</v>
+      </c>
+      <c r="BC249">
+        <v>5</v>
+      </c>
+      <c r="BD249">
+        <v>1.58</v>
+      </c>
+      <c r="BE249">
+        <v>6.75</v>
+      </c>
+      <c r="BF249">
+        <v>2.55</v>
+      </c>
+      <c r="BG249">
+        <v>1.3</v>
+      </c>
+      <c r="BH249">
+        <v>3.15</v>
+      </c>
+      <c r="BI249">
+        <v>1.5</v>
+      </c>
+      <c r="BJ249">
+        <v>2.33</v>
+      </c>
+      <c r="BK249">
+        <v>1.83</v>
+      </c>
+      <c r="BL249">
+        <v>1.85</v>
+      </c>
+      <c r="BM249">
+        <v>2.3</v>
+      </c>
+      <c r="BN249">
+        <v>1.53</v>
+      </c>
+      <c r="BO249">
+        <v>2.95</v>
+      </c>
+      <c r="BP249">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7476800</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F250">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>73</v>
+      </c>
+      <c r="H250" t="s">
+        <v>86</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>251</v>
+      </c>
+      <c r="P250" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q250">
+        <v>3.4</v>
+      </c>
+      <c r="R250">
+        <v>2.05</v>
+      </c>
+      <c r="S250">
+        <v>3.4</v>
+      </c>
+      <c r="T250">
+        <v>1.44</v>
+      </c>
+      <c r="U250">
+        <v>2.63</v>
+      </c>
+      <c r="V250">
+        <v>3.25</v>
+      </c>
+      <c r="W250">
+        <v>1.33</v>
+      </c>
+      <c r="X250">
+        <v>10</v>
+      </c>
+      <c r="Y250">
+        <v>1.06</v>
+      </c>
+      <c r="Z250">
+        <v>2.65</v>
+      </c>
+      <c r="AA250">
+        <v>3.15</v>
+      </c>
+      <c r="AB250">
+        <v>2.5</v>
+      </c>
+      <c r="AC250">
+        <v>1.06</v>
+      </c>
+      <c r="AD250">
+        <v>9.5</v>
+      </c>
+      <c r="AE250">
+        <v>1.36</v>
+      </c>
+      <c r="AF250">
+        <v>3.1</v>
+      </c>
+      <c r="AG250">
+        <v>2.1</v>
+      </c>
+      <c r="AH250">
+        <v>1.65</v>
+      </c>
+      <c r="AI250">
+        <v>1.83</v>
+      </c>
+      <c r="AJ250">
+        <v>1.83</v>
+      </c>
+      <c r="AK250">
+        <v>1.47</v>
+      </c>
+      <c r="AL250">
+        <v>1.28</v>
+      </c>
+      <c r="AM250">
+        <v>1.5</v>
+      </c>
+      <c r="AN250">
+        <v>1.64</v>
+      </c>
+      <c r="AO250">
+        <v>1.6</v>
+      </c>
+      <c r="AP250">
+        <v>1.75</v>
+      </c>
+      <c r="AQ250">
+        <v>1.45</v>
+      </c>
+      <c r="AR250">
+        <v>1.29</v>
+      </c>
+      <c r="AS250">
+        <v>1.13</v>
+      </c>
+      <c r="AT250">
+        <v>2.42</v>
+      </c>
+      <c r="AU250">
+        <v>6</v>
+      </c>
+      <c r="AV250">
+        <v>5</v>
+      </c>
+      <c r="AW250">
+        <v>4</v>
+      </c>
+      <c r="AX250">
+        <v>4</v>
+      </c>
+      <c r="AY250">
+        <v>16</v>
+      </c>
+      <c r="AZ250">
+        <v>10</v>
+      </c>
+      <c r="BA250">
+        <v>4</v>
+      </c>
+      <c r="BB250">
+        <v>6</v>
+      </c>
+      <c r="BC250">
+        <v>10</v>
+      </c>
+      <c r="BD250">
+        <v>1.97</v>
+      </c>
+      <c r="BE250">
+        <v>6.4</v>
+      </c>
+      <c r="BF250">
+        <v>2</v>
+      </c>
+      <c r="BG250">
+        <v>1.32</v>
+      </c>
+      <c r="BH250">
+        <v>3.05</v>
+      </c>
+      <c r="BI250">
+        <v>1.57</v>
+      </c>
+      <c r="BJ250">
+        <v>2.23</v>
+      </c>
+      <c r="BK250">
+        <v>1.95</v>
+      </c>
+      <c r="BL250">
+        <v>1.76</v>
+      </c>
+      <c r="BM250">
+        <v>2.45</v>
+      </c>
+      <c r="BN250">
+        <v>1.48</v>
+      </c>
+      <c r="BO250">
+        <v>3.15</v>
+      </c>
+      <c r="BP250">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7476807</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F251">
+        <v>22</v>
+      </c>
+      <c r="G251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H251" t="s">
+        <v>74</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251" t="s">
+        <v>252</v>
+      </c>
+      <c r="P251" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q251">
+        <v>2.88</v>
+      </c>
+      <c r="R251">
+        <v>2.1</v>
+      </c>
+      <c r="S251">
+        <v>3.75</v>
+      </c>
+      <c r="T251">
+        <v>1.4</v>
+      </c>
+      <c r="U251">
+        <v>2.75</v>
+      </c>
+      <c r="V251">
+        <v>3</v>
+      </c>
+      <c r="W251">
+        <v>1.36</v>
+      </c>
+      <c r="X251">
+        <v>8</v>
+      </c>
+      <c r="Y251">
+        <v>1.08</v>
+      </c>
+      <c r="Z251">
+        <v>2.2</v>
+      </c>
+      <c r="AA251">
+        <v>3.2</v>
+      </c>
+      <c r="AB251">
+        <v>3.05</v>
+      </c>
+      <c r="AC251">
+        <v>1.05</v>
+      </c>
+      <c r="AD251">
+        <v>11</v>
+      </c>
+      <c r="AE251">
+        <v>1.3</v>
+      </c>
+      <c r="AF251">
+        <v>3.4</v>
+      </c>
+      <c r="AG251">
+        <v>1.9</v>
+      </c>
+      <c r="AH251">
+        <v>1.8</v>
+      </c>
+      <c r="AI251">
+        <v>1.73</v>
+      </c>
+      <c r="AJ251">
+        <v>2</v>
+      </c>
+      <c r="AK251">
+        <v>1.38</v>
+      </c>
+      <c r="AL251">
+        <v>1.25</v>
+      </c>
+      <c r="AM251">
+        <v>1.65</v>
+      </c>
+      <c r="AN251">
+        <v>2.3</v>
+      </c>
+      <c r="AO251">
+        <v>1.7</v>
+      </c>
+      <c r="AP251">
+        <v>2.36</v>
+      </c>
+      <c r="AQ251">
+        <v>1.55</v>
+      </c>
+      <c r="AR251">
+        <v>1.53</v>
+      </c>
+      <c r="AS251">
+        <v>1.35</v>
+      </c>
+      <c r="AT251">
+        <v>2.88</v>
+      </c>
+      <c r="AU251">
+        <v>4</v>
+      </c>
+      <c r="AV251">
+        <v>2</v>
+      </c>
+      <c r="AW251">
+        <v>5</v>
+      </c>
+      <c r="AX251">
+        <v>7</v>
+      </c>
+      <c r="AY251">
+        <v>14</v>
+      </c>
+      <c r="AZ251">
+        <v>13</v>
+      </c>
+      <c r="BA251">
+        <v>8</v>
+      </c>
+      <c r="BB251">
+        <v>4</v>
+      </c>
+      <c r="BC251">
+        <v>12</v>
+      </c>
+      <c r="BD251">
+        <v>1.82</v>
+      </c>
+      <c r="BE251">
+        <v>6.75</v>
+      </c>
+      <c r="BF251">
+        <v>2.18</v>
+      </c>
+      <c r="BG251">
+        <v>1.23</v>
+      </c>
+      <c r="BH251">
+        <v>3.7</v>
+      </c>
+      <c r="BI251">
+        <v>1.38</v>
+      </c>
+      <c r="BJ251">
+        <v>2.7</v>
+      </c>
+      <c r="BK251">
+        <v>1.65</v>
+      </c>
+      <c r="BL251">
+        <v>2.08</v>
+      </c>
+      <c r="BM251">
+        <v>2</v>
+      </c>
+      <c r="BN251">
+        <v>1.71</v>
+      </c>
+      <c r="BO251">
+        <v>2.5</v>
+      </c>
+      <c r="BP251">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7476798</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F252">
+        <v>22</v>
+      </c>
+      <c r="G252" t="s">
+        <v>83</v>
+      </c>
+      <c r="H252" t="s">
+        <v>89</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>5</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+      <c r="N252">
+        <v>7</v>
+      </c>
+      <c r="O252" t="s">
+        <v>253</v>
+      </c>
+      <c r="P252" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q252">
+        <v>2.1</v>
+      </c>
+      <c r="R252">
+        <v>2.38</v>
+      </c>
+      <c r="S252">
+        <v>5.5</v>
+      </c>
+      <c r="T252">
+        <v>1.33</v>
+      </c>
+      <c r="U252">
+        <v>3.25</v>
+      </c>
+      <c r="V252">
+        <v>2.63</v>
+      </c>
+      <c r="W252">
+        <v>1.44</v>
+      </c>
+      <c r="X252">
+        <v>6.5</v>
+      </c>
+      <c r="Y252">
+        <v>1.11</v>
+      </c>
+      <c r="Z252">
+        <v>1.53</v>
+      </c>
+      <c r="AA252">
+        <v>4</v>
+      </c>
+      <c r="AB252">
+        <v>5.25</v>
+      </c>
+      <c r="AC252">
+        <v>1.03</v>
+      </c>
+      <c r="AD252">
+        <v>13</v>
+      </c>
+      <c r="AE252">
+        <v>1.22</v>
+      </c>
+      <c r="AF252">
+        <v>4.2</v>
+      </c>
+      <c r="AG252">
+        <v>1.7</v>
+      </c>
+      <c r="AH252">
+        <v>2</v>
+      </c>
+      <c r="AI252">
+        <v>1.8</v>
+      </c>
+      <c r="AJ252">
+        <v>1.91</v>
+      </c>
+      <c r="AK252">
+        <v>1.12</v>
+      </c>
+      <c r="AL252">
+        <v>1.18</v>
+      </c>
+      <c r="AM252">
+        <v>2.45</v>
+      </c>
+      <c r="AN252">
+        <v>1.1</v>
+      </c>
+      <c r="AO252">
+        <v>0.82</v>
+      </c>
+      <c r="AP252">
+        <v>1.27</v>
+      </c>
+      <c r="AQ252">
+        <v>0.75</v>
+      </c>
+      <c r="AR252">
+        <v>1.47</v>
+      </c>
+      <c r="AS252">
+        <v>0.85</v>
+      </c>
+      <c r="AT252">
+        <v>2.32</v>
+      </c>
+      <c r="AU252">
+        <v>7</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>6</v>
+      </c>
+      <c r="AX252">
+        <v>2</v>
+      </c>
+      <c r="AY252">
+        <v>16</v>
+      </c>
+      <c r="AZ252">
+        <v>10</v>
+      </c>
+      <c r="BA252">
+        <v>10</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>12</v>
+      </c>
+      <c r="BD252">
+        <v>1.41</v>
+      </c>
+      <c r="BE252">
+        <v>7</v>
+      </c>
+      <c r="BF252">
+        <v>3.15</v>
+      </c>
+      <c r="BG252">
+        <v>1.24</v>
+      </c>
+      <c r="BH252">
+        <v>3.55</v>
+      </c>
+      <c r="BI252">
+        <v>1.42</v>
+      </c>
+      <c r="BJ252">
+        <v>2.65</v>
+      </c>
+      <c r="BK252">
+        <v>1.68</v>
+      </c>
+      <c r="BL252">
+        <v>2.05</v>
+      </c>
+      <c r="BM252">
+        <v>2.05</v>
+      </c>
+      <c r="BN252">
+        <v>1.68</v>
+      </c>
+      <c r="BO252">
+        <v>2.55</v>
+      </c>
+      <c r="BP252">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7476797</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F253">
+        <v>22</v>
+      </c>
+      <c r="G253" t="s">
+        <v>92</v>
+      </c>
+      <c r="H253" t="s">
+        <v>90</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>3</v>
+      </c>
+      <c r="O253" t="s">
+        <v>254</v>
+      </c>
+      <c r="P253" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q253">
+        <v>2.88</v>
+      </c>
+      <c r="R253">
+        <v>2.1</v>
+      </c>
+      <c r="S253">
+        <v>4</v>
+      </c>
+      <c r="T253">
+        <v>1.44</v>
+      </c>
+      <c r="U253">
+        <v>2.63</v>
+      </c>
+      <c r="V253">
+        <v>3.25</v>
+      </c>
+      <c r="W253">
+        <v>1.33</v>
+      </c>
+      <c r="X253">
+        <v>9</v>
+      </c>
+      <c r="Y253">
+        <v>1.07</v>
+      </c>
+      <c r="Z253">
+        <v>2.1</v>
+      </c>
+      <c r="AA253">
+        <v>3.2</v>
+      </c>
+      <c r="AB253">
+        <v>3.3</v>
+      </c>
+      <c r="AC253">
+        <v>1.06</v>
+      </c>
+      <c r="AD253">
+        <v>10</v>
+      </c>
+      <c r="AE253">
+        <v>1.36</v>
+      </c>
+      <c r="AF253">
+        <v>3.2</v>
+      </c>
+      <c r="AG253">
+        <v>2</v>
+      </c>
+      <c r="AH253">
+        <v>1.7</v>
+      </c>
+      <c r="AI253">
+        <v>1.83</v>
+      </c>
+      <c r="AJ253">
+        <v>1.83</v>
+      </c>
+      <c r="AK253">
+        <v>1.33</v>
+      </c>
+      <c r="AL253">
+        <v>1.25</v>
+      </c>
+      <c r="AM253">
+        <v>1.72</v>
+      </c>
+      <c r="AN253">
+        <v>2</v>
+      </c>
+      <c r="AO253">
+        <v>1.91</v>
+      </c>
+      <c r="AP253">
+        <v>2.1</v>
+      </c>
+      <c r="AQ253">
+        <v>1.75</v>
+      </c>
+      <c r="AR253">
+        <v>1.42</v>
+      </c>
+      <c r="AS253">
+        <v>1.27</v>
+      </c>
+      <c r="AT253">
+        <v>2.69</v>
+      </c>
+      <c r="AU253">
+        <v>6</v>
+      </c>
+      <c r="AV253">
+        <v>4</v>
+      </c>
+      <c r="AW253">
+        <v>2</v>
+      </c>
+      <c r="AX253">
+        <v>4</v>
+      </c>
+      <c r="AY253">
+        <v>11</v>
+      </c>
+      <c r="AZ253">
+        <v>15</v>
+      </c>
+      <c r="BA253">
+        <v>4</v>
+      </c>
+      <c r="BB253">
+        <v>5</v>
+      </c>
+      <c r="BC253">
+        <v>9</v>
+      </c>
+      <c r="BD253">
+        <v>1.74</v>
+      </c>
+      <c r="BE253">
+        <v>6.75</v>
+      </c>
+      <c r="BF253">
+        <v>2.3</v>
+      </c>
+      <c r="BG253">
+        <v>1.25</v>
+      </c>
+      <c r="BH253">
+        <v>3.55</v>
+      </c>
+      <c r="BI253">
+        <v>1.43</v>
+      </c>
+      <c r="BJ253">
+        <v>2.55</v>
+      </c>
+      <c r="BK253">
+        <v>1.71</v>
+      </c>
+      <c r="BL253">
+        <v>2</v>
+      </c>
+      <c r="BM253">
+        <v>2.08</v>
+      </c>
+      <c r="BN253">
+        <v>1.66</v>
+      </c>
+      <c r="BO253">
+        <v>2.65</v>
+      </c>
+      <c r="BP253">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7476796</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F254">
+        <v>22</v>
+      </c>
+      <c r="G254" t="s">
+        <v>71</v>
+      </c>
+      <c r="H254" t="s">
+        <v>91</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254" t="s">
+        <v>255</v>
+      </c>
+      <c r="P254" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q254">
+        <v>2.25</v>
+      </c>
+      <c r="R254">
+        <v>2.25</v>
+      </c>
+      <c r="S254">
+        <v>5.5</v>
+      </c>
+      <c r="T254">
+        <v>1.36</v>
+      </c>
+      <c r="U254">
+        <v>3</v>
+      </c>
+      <c r="V254">
+        <v>2.75</v>
+      </c>
+      <c r="W254">
+        <v>1.4</v>
+      </c>
+      <c r="X254">
+        <v>7</v>
+      </c>
+      <c r="Y254">
+        <v>1.1</v>
+      </c>
+      <c r="Z254">
+        <v>1.6</v>
+      </c>
+      <c r="AA254">
+        <v>3.75</v>
+      </c>
+      <c r="AB254">
+        <v>5</v>
+      </c>
+      <c r="AC254">
+        <v>1.04</v>
+      </c>
+      <c r="AD254">
+        <v>12</v>
+      </c>
+      <c r="AE254">
+        <v>1.25</v>
+      </c>
+      <c r="AF254">
+        <v>3.75</v>
+      </c>
+      <c r="AG254">
+        <v>1.8</v>
+      </c>
+      <c r="AH254">
+        <v>1.9</v>
+      </c>
+      <c r="AI254">
+        <v>1.83</v>
+      </c>
+      <c r="AJ254">
+        <v>1.83</v>
+      </c>
+      <c r="AK254">
+        <v>1.17</v>
+      </c>
+      <c r="AL254">
+        <v>1.22</v>
+      </c>
+      <c r="AM254">
+        <v>2.2</v>
+      </c>
+      <c r="AN254">
+        <v>2</v>
+      </c>
+      <c r="AO254">
+        <v>0.73</v>
+      </c>
+      <c r="AP254">
+        <v>1.91</v>
+      </c>
+      <c r="AQ254">
+        <v>0.75</v>
+      </c>
+      <c r="AR254">
+        <v>1.49</v>
+      </c>
+      <c r="AS254">
+        <v>0.99</v>
+      </c>
+      <c r="AT254">
+        <v>2.48</v>
+      </c>
+      <c r="AU254">
+        <v>4</v>
+      </c>
+      <c r="AV254">
+        <v>3</v>
+      </c>
+      <c r="AW254">
+        <v>3</v>
+      </c>
+      <c r="AX254">
+        <v>9</v>
+      </c>
+      <c r="AY254">
+        <v>10</v>
+      </c>
+      <c r="AZ254">
+        <v>16</v>
+      </c>
+      <c r="BA254">
+        <v>3</v>
+      </c>
+      <c r="BB254">
+        <v>5</v>
+      </c>
+      <c r="BC254">
+        <v>8</v>
+      </c>
+      <c r="BD254">
+        <v>1.5</v>
+      </c>
+      <c r="BE254">
+        <v>7</v>
+      </c>
+      <c r="BF254">
+        <v>2.8</v>
+      </c>
+      <c r="BG254">
+        <v>1.24</v>
+      </c>
+      <c r="BH254">
+        <v>3.55</v>
+      </c>
+      <c r="BI254">
+        <v>1.42</v>
+      </c>
+      <c r="BJ254">
+        <v>2.65</v>
+      </c>
+      <c r="BK254">
+        <v>1.68</v>
+      </c>
+      <c r="BL254">
+        <v>2.05</v>
+      </c>
+      <c r="BM254">
+        <v>2.05</v>
+      </c>
+      <c r="BN254">
+        <v>1.68</v>
+      </c>
+      <c r="BO254">
+        <v>2.55</v>
+      </c>
+      <c r="BP254">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7476799</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F255">
+        <v>22</v>
+      </c>
+      <c r="G255" t="s">
+        <v>82</v>
+      </c>
+      <c r="H255" t="s">
+        <v>88</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>1</v>
+      </c>
+      <c r="O255" t="s">
+        <v>101</v>
+      </c>
+      <c r="P255" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q255">
+        <v>2.5</v>
+      </c>
+      <c r="R255">
+        <v>2.2</v>
+      </c>
+      <c r="S255">
+        <v>4.33</v>
+      </c>
+      <c r="T255">
+        <v>1.36</v>
+      </c>
+      <c r="U255">
+        <v>3</v>
+      </c>
+      <c r="V255">
+        <v>2.75</v>
+      </c>
+      <c r="W255">
+        <v>1.4</v>
+      </c>
+      <c r="X255">
+        <v>8</v>
+      </c>
+      <c r="Y255">
+        <v>1.08</v>
+      </c>
+      <c r="Z255">
+        <v>1.83</v>
+      </c>
+      <c r="AA255">
+        <v>3.4</v>
+      </c>
+      <c r="AB255">
+        <v>3.9</v>
+      </c>
+      <c r="AC255">
+        <v>1.04</v>
+      </c>
+      <c r="AD255">
+        <v>12</v>
+      </c>
+      <c r="AE255">
+        <v>1.28</v>
+      </c>
+      <c r="AF255">
+        <v>3.6</v>
+      </c>
+      <c r="AG255">
+        <v>1.9</v>
+      </c>
+      <c r="AH255">
+        <v>1.8</v>
+      </c>
+      <c r="AI255">
+        <v>1.73</v>
+      </c>
+      <c r="AJ255">
+        <v>2</v>
+      </c>
+      <c r="AK255">
+        <v>1.25</v>
+      </c>
+      <c r="AL255">
+        <v>1.22</v>
+      </c>
+      <c r="AM255">
+        <v>1.9</v>
+      </c>
+      <c r="AN255">
+        <v>0.6</v>
+      </c>
+      <c r="AO255">
+        <v>1</v>
+      </c>
+      <c r="AP255">
+        <v>0.55</v>
+      </c>
+      <c r="AQ255">
+        <v>1.17</v>
+      </c>
+      <c r="AR255">
+        <v>1.38</v>
+      </c>
+      <c r="AS255">
+        <v>0.93</v>
+      </c>
+      <c r="AT255">
+        <v>2.31</v>
+      </c>
+      <c r="AU255">
+        <v>3</v>
+      </c>
+      <c r="AV255">
+        <v>7</v>
+      </c>
+      <c r="AW255">
+        <v>4</v>
+      </c>
+      <c r="AX255">
+        <v>3</v>
+      </c>
+      <c r="AY255">
+        <v>9</v>
+      </c>
+      <c r="AZ255">
+        <v>16</v>
+      </c>
+      <c r="BA255">
+        <v>9</v>
+      </c>
+      <c r="BB255">
+        <v>7</v>
+      </c>
+      <c r="BC255">
+        <v>16</v>
+      </c>
+      <c r="BD255">
+        <v>1.58</v>
+      </c>
+      <c r="BE255">
+        <v>6.75</v>
+      </c>
+      <c r="BF255">
+        <v>2.55</v>
+      </c>
+      <c r="BG255">
+        <v>1.25</v>
+      </c>
+      <c r="BH255">
+        <v>3.55</v>
+      </c>
+      <c r="BI255">
+        <v>1.44</v>
+      </c>
+      <c r="BJ255">
+        <v>2.55</v>
+      </c>
+      <c r="BK255">
+        <v>1.71</v>
+      </c>
+      <c r="BL255">
+        <v>2</v>
+      </c>
+      <c r="BM255">
+        <v>2.08</v>
+      </c>
+      <c r="BN255">
+        <v>1.65</v>
+      </c>
+      <c r="BO255">
+        <v>2.65</v>
+      </c>
+      <c r="BP255">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -52086,13 +52086,13 @@
         <v>9</v>
       </c>
       <c r="AX246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY246">
         <v>15</v>
       </c>
       <c r="AZ246">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA246">
         <v>4</v>
@@ -52495,13 +52495,13 @@
         <v>3</v>
       </c>
       <c r="AW248">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX248">
         <v>7</v>
       </c>
       <c r="AY248">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ248">
         <v>18</v>
@@ -52701,13 +52701,13 @@
         <v>5</v>
       </c>
       <c r="AW249">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX249">
         <v>4</v>
       </c>
       <c r="AY249">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ249">
         <v>11</v>
@@ -52907,13 +52907,13 @@
         <v>5</v>
       </c>
       <c r="AW250">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX250">
         <v>4</v>
       </c>
       <c r="AY250">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ250">
         <v>10</v>
@@ -53113,16 +53113,16 @@
         <v>2</v>
       </c>
       <c r="AW251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX251">
         <v>7</v>
       </c>
       <c r="AY251">
+        <v>15</v>
+      </c>
+      <c r="AZ251">
         <v>14</v>
-      </c>
-      <c r="AZ251">
-        <v>13</v>
       </c>
       <c r="BA251">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="367">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,18 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['11', '54']</t>
+  </si>
+  <si>
+    <t>['73', '90+5']</t>
+  </si>
+  <si>
+    <t>['4', '47', '60']</t>
+  </si>
+  <si>
+    <t>['29', '81', '90+2']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -1100,6 +1112,9 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['26', '39', '58', '62', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,7 +1816,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1926,7 +1941,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2213,7 +2228,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2338,7 +2353,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2416,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2625,7 +2640,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2828,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1.73</v>
@@ -2956,7 +2971,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3162,7 +3177,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3368,7 +3383,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3446,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ10">
         <v>0.91</v>
@@ -3574,7 +3589,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3652,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3858,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ12">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4064,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4270,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4476,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>1.3</v>
@@ -4604,7 +4619,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4685,7 +4700,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ16">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4888,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -5016,7 +5031,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5097,7 +5112,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5222,7 +5237,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5300,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>0.9</v>
@@ -5428,7 +5443,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5715,7 +5730,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ21">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6046,7 +6061,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6330,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6458,7 +6473,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6664,7 +6679,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6948,7 +6963,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -7157,7 +7172,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -7363,7 +7378,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7488,7 +7503,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7569,7 +7584,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7772,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ31">
         <v>0.9</v>
@@ -7978,7 +7993,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1.1</v>
@@ -8390,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ34">
         <v>1.3</v>
@@ -8596,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ35">
         <v>1.6</v>
@@ -8805,7 +8820,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR36">
         <v>1.13</v>
@@ -8930,7 +8945,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9008,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR37">
         <v>1.61</v>
@@ -9136,7 +9151,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9217,7 +9232,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9423,7 +9438,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ39">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -9548,7 +9563,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9629,7 +9644,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9835,7 +9850,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9960,7 +9975,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10041,7 +10056,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ42">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -10244,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ43">
         <v>0.9</v>
@@ -10372,7 +10387,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10450,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -10578,7 +10593,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10656,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -11196,7 +11211,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11274,7 +11289,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>0.91</v>
@@ -11480,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11608,7 +11623,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11689,7 +11704,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR50">
         <v>0.78</v>
@@ -11814,7 +11829,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11895,7 +11910,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -12098,10 +12113,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -12226,7 +12241,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12510,7 +12525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12719,7 +12734,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR55">
         <v>1</v>
@@ -13128,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ57">
         <v>0.9</v>
@@ -13334,7 +13349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13543,7 +13558,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ59">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR59">
         <v>1.79</v>
@@ -13749,7 +13764,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ60">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -14161,7 +14176,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14364,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.9</v>
@@ -14492,7 +14507,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14570,7 +14585,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ64">
         <v>0.91</v>
@@ -14779,7 +14794,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.4</v>
@@ -14904,7 +14919,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15397,7 +15412,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ68">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15522,7 +15537,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15600,10 +15615,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15728,7 +15743,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15806,10 +15821,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15934,7 +15949,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -16012,7 +16027,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ71">
         <v>1.22</v>
@@ -16140,7 +16155,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16221,7 +16236,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ72">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16552,7 +16567,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16758,7 +16773,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16836,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16964,7 +16979,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17248,7 +17263,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.6</v>
@@ -17376,7 +17391,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17454,10 +17469,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ78">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.48</v>
@@ -17660,7 +17675,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17866,7 +17881,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ80">
         <v>1.3</v>
@@ -18075,7 +18090,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR81">
         <v>1.2</v>
@@ -18281,7 +18296,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ82">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
         <v>0.97</v>
@@ -18406,7 +18421,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18484,10 +18499,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18690,7 +18705,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84">
         <v>1.2</v>
@@ -18896,7 +18911,7 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19311,7 +19326,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ87">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19517,7 +19532,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19642,7 +19657,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19723,7 +19738,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ89">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR89">
         <v>0.82</v>
@@ -19926,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
@@ -20054,7 +20069,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20135,7 +20150,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ91">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20260,7 +20275,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20338,7 +20353,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ92">
         <v>1.22</v>
@@ -20466,7 +20481,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20544,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ93">
         <v>1.73</v>
@@ -20753,7 +20768,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ94">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR94">
         <v>1.4</v>
@@ -20878,7 +20893,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21084,7 +21099,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21368,10 +21383,10 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ97">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR97">
         <v>1.07</v>
@@ -21702,7 +21717,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21908,7 +21923,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21986,7 +22001,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ100">
         <v>1.22</v>
@@ -22320,7 +22335,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22398,10 +22413,10 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ102">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR102">
         <v>1.14</v>
@@ -22526,7 +22541,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22604,10 +22619,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ103">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR103">
         <v>1.32</v>
@@ -22732,7 +22747,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22810,10 +22825,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR104">
         <v>1.27</v>
@@ -23019,7 +23034,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ105">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR105">
         <v>1</v>
@@ -23144,7 +23159,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23222,10 +23237,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23428,7 +23443,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>1.6</v>
@@ -23637,7 +23652,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ108">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23843,7 +23858,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ109">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR109">
         <v>1.69</v>
@@ -24046,7 +24061,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ110">
         <v>0.8</v>
@@ -24458,7 +24473,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>1.3</v>
@@ -24586,7 +24601,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24792,7 +24807,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25079,7 +25094,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ115">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25282,7 +25297,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116">
         <v>0.9</v>
@@ -25410,7 +25425,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25488,10 +25503,10 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25616,7 +25631,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25697,7 +25712,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ118">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25822,7 +25837,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25900,7 +25915,7 @@
         <v>0.8</v>
       </c>
       <c r="AP119">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ119">
         <v>0.91</v>
@@ -26028,7 +26043,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26106,7 +26121,7 @@
         <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>1.73</v>
@@ -26312,10 +26327,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ121">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR121">
         <v>1.34</v>
@@ -26521,7 +26536,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ122">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122">
         <v>1.16</v>
@@ -26646,7 +26661,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26727,7 +26742,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ123">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR123">
         <v>1.25</v>
@@ -26933,7 +26948,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR124">
         <v>1.08</v>
@@ -27058,7 +27073,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27139,7 +27154,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -27470,7 +27485,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27548,10 +27563,10 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ127">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27676,7 +27691,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27757,7 +27772,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ128">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.07</v>
@@ -27963,7 +27978,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ129">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28294,7 +28309,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28500,7 +28515,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28581,7 +28596,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ132">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR132">
         <v>1.44</v>
@@ -28706,7 +28721,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28912,7 +28927,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28990,7 +29005,7 @@
         <v>1.4</v>
       </c>
       <c r="AP134">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -29118,7 +29133,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29196,7 +29211,7 @@
         <v>0.2</v>
       </c>
       <c r="AP135">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ135">
         <v>0.9</v>
@@ -29324,7 +29339,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29530,7 +29545,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29608,7 +29623,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
         <v>0.8</v>
@@ -29814,7 +29829,7 @@
         <v>1.4</v>
       </c>
       <c r="AP138">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ138">
         <v>1.1</v>
@@ -29942,7 +29957,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -30020,10 +30035,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ139">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR139">
         <v>1.5</v>
@@ -30148,7 +30163,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30226,7 +30241,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30354,7 +30369,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30432,7 +30447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP141">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ141">
         <v>1.73</v>
@@ -30560,7 +30575,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30638,10 +30653,10 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR142">
         <v>1.41</v>
@@ -30844,10 +30859,10 @@
         <v>0.6</v>
       </c>
       <c r="AP143">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ143">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR143">
         <v>1.27</v>
@@ -31053,7 +31068,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ144">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR144">
         <v>1.14</v>
@@ -31178,7 +31193,7 @@
         <v>101</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31259,7 +31274,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ145">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR145">
         <v>1.19</v>
@@ -31462,10 +31477,10 @@
         <v>1.4</v>
       </c>
       <c r="AP146">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ146">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR146">
         <v>1.61</v>
@@ -31796,7 +31811,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32080,7 +32095,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ149">
         <v>0.91</v>
@@ -32289,7 +32304,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ150">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR150">
         <v>1.45</v>
@@ -32495,7 +32510,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR151">
         <v>1.49</v>
@@ -32620,7 +32635,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32701,7 +32716,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ152">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32826,7 +32841,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32904,7 +32919,7 @@
         <v>0.8</v>
       </c>
       <c r="AP153">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ153">
         <v>1.2</v>
@@ -33238,7 +33253,7 @@
         <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33650,7 +33665,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -33728,7 +33743,7 @@
         <v>1.17</v>
       </c>
       <c r="AP157">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>1.25</v>
@@ -34143,7 +34158,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ159">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR159">
         <v>1.61</v>
@@ -34346,10 +34361,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ160">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR160">
         <v>1.49</v>
@@ -34474,7 +34489,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q161">
         <v>3.2</v>
@@ -34552,10 +34567,10 @@
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ161">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -34964,7 +34979,7 @@
         <v>0.67</v>
       </c>
       <c r="AP163">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ163">
         <v>0.9</v>
@@ -35092,7 +35107,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35170,7 +35185,7 @@
         <v>1.17</v>
       </c>
       <c r="AP164">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ164">
         <v>1.2</v>
@@ -35298,7 +35313,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35376,7 +35391,7 @@
         <v>0.57</v>
       </c>
       <c r="AP165">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ165">
         <v>0.9</v>
@@ -35504,7 +35519,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35585,7 +35600,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ166">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR166">
         <v>1.16</v>
@@ -35710,7 +35725,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -35788,10 +35803,10 @@
         <v>1.67</v>
       </c>
       <c r="AP167">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ167">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR167">
         <v>1.52</v>
@@ -35994,10 +36009,10 @@
         <v>0.86</v>
       </c>
       <c r="AP168">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ168">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR168">
         <v>1.25</v>
@@ -36122,7 +36137,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36200,10 +36215,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ169">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR169">
         <v>1.18</v>
@@ -36409,7 +36424,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ170">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR170">
         <v>1.33</v>
@@ -36612,7 +36627,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171">
         <v>0.91</v>
@@ -36821,7 +36836,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ172">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR172">
         <v>1.32</v>
@@ -36946,7 +36961,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -37027,7 +37042,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ173">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37152,7 +37167,7 @@
         <v>148</v>
       </c>
       <c r="P174" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37230,7 +37245,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ174">
         <v>1.6</v>
@@ -37851,7 +37866,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ177">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -38182,7 +38197,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38260,7 +38275,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ179">
         <v>0.9</v>
@@ -38469,7 +38484,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ180">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR180">
         <v>1.26</v>
@@ -38594,7 +38609,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -38881,7 +38896,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ182">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR182">
         <v>1.19</v>
@@ -39006,7 +39021,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q183">
         <v>3.2</v>
@@ -39087,7 +39102,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ183">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR183">
         <v>1.27</v>
@@ -39290,7 +39305,7 @@
         <v>0.88</v>
       </c>
       <c r="AP184">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184">
         <v>0.9</v>
@@ -39418,7 +39433,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39702,7 +39717,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ186">
         <v>0.91</v>
@@ -39830,7 +39845,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -39911,7 +39926,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ187">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR187">
         <v>1.62</v>
@@ -40114,7 +40129,7 @@
         <v>1.14</v>
       </c>
       <c r="AP188">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ188">
         <v>0.8</v>
@@ -40323,7 +40338,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ189">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR189">
         <v>1.71</v>
@@ -40448,7 +40463,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40526,7 +40541,7 @@
         <v>0.71</v>
       </c>
       <c r="AP190">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40654,7 +40669,7 @@
         <v>148</v>
       </c>
       <c r="P191" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40735,7 +40750,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ191">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR191">
         <v>1.27</v>
@@ -40860,7 +40875,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40941,7 +40956,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ192">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR192">
         <v>1.24</v>
@@ -41350,10 +41365,10 @@
         <v>1.86</v>
       </c>
       <c r="AP194">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ194">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR194">
         <v>1.51</v>
@@ -41559,7 +41574,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ195">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR195">
         <v>1.49</v>
@@ -41765,7 +41780,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ196">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR196">
         <v>1.37</v>
@@ -41890,7 +41905,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -41968,7 +41983,7 @@
         <v>1.29</v>
       </c>
       <c r="AP197">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ197">
         <v>1.6</v>
@@ -42096,7 +42111,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42174,7 +42189,7 @@
         <v>1</v>
       </c>
       <c r="AP198">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ198">
         <v>1.3</v>
@@ -42302,7 +42317,7 @@
         <v>122</v>
       </c>
       <c r="P199" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
@@ -42380,10 +42395,10 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ199">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR199">
         <v>1.51</v>
@@ -42586,7 +42601,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ200">
         <v>1</v>
@@ -42714,7 +42729,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42792,10 +42807,10 @@
         <v>1.56</v>
       </c>
       <c r="AP201">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ201">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR201">
         <v>1.49</v>
@@ -42920,7 +42935,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q202">
         <v>1.8</v>
@@ -43001,7 +43016,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ202">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR202">
         <v>1.53</v>
@@ -43126,7 +43141,7 @@
         <v>208</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43204,10 +43219,10 @@
         <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ203">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR203">
         <v>1.53</v>
@@ -43332,7 +43347,7 @@
         <v>224</v>
       </c>
       <c r="P204" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>2.4</v>
@@ -43410,10 +43425,10 @@
         <v>1.11</v>
       </c>
       <c r="AP204">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ204">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR204">
         <v>1.38</v>
@@ -43538,7 +43553,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43616,10 +43631,10 @@
         <v>2.11</v>
       </c>
       <c r="AP205">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ205">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR205">
         <v>1.31</v>
@@ -43822,10 +43837,10 @@
         <v>0.89</v>
       </c>
       <c r="AP206">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ206">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR206">
         <v>1.62</v>
@@ -43950,7 +43965,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q207">
         <v>2.85</v>
@@ -44028,10 +44043,10 @@
         <v>0.88</v>
       </c>
       <c r="AP207">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR207">
         <v>1.24</v>
@@ -44234,10 +44249,10 @@
         <v>1.63</v>
       </c>
       <c r="AP208">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ208">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR208">
         <v>1.27</v>
@@ -44440,10 +44455,10 @@
         <v>1.13</v>
       </c>
       <c r="AP209">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ209">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
@@ -44646,7 +44661,7 @@
         <v>1.14</v>
       </c>
       <c r="AP210">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ210">
         <v>1.1</v>
@@ -44774,7 +44789,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44852,10 +44867,10 @@
         <v>1.75</v>
       </c>
       <c r="AP211">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ211">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR211">
         <v>1.39</v>
@@ -45392,7 +45407,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -45804,7 +45819,7 @@
         <v>235</v>
       </c>
       <c r="P216" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -46216,7 +46231,7 @@
         <v>101</v>
       </c>
       <c r="P218" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46422,7 +46437,7 @@
         <v>101</v>
       </c>
       <c r="P219" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>3.2</v>
@@ -46912,10 +46927,10 @@
         <v>1.4</v>
       </c>
       <c r="AP221">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ221">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR221">
         <v>1.41</v>
@@ -47040,7 +47055,7 @@
         <v>239</v>
       </c>
       <c r="P222" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47118,10 +47133,10 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ222">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47324,10 +47339,10 @@
         <v>1.1</v>
       </c>
       <c r="AP223">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ223">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR223">
         <v>1.3</v>
@@ -47452,7 +47467,7 @@
         <v>101</v>
       </c>
       <c r="P224" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q224">
         <v>3.4</v>
@@ -47530,10 +47545,10 @@
         <v>1.44</v>
       </c>
       <c r="AP224">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ224">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR224">
         <v>1.28</v>
@@ -47736,10 +47751,10 @@
         <v>0.8</v>
       </c>
       <c r="AP225">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ225">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR225">
         <v>1.66</v>
@@ -47864,7 +47879,7 @@
         <v>101</v>
       </c>
       <c r="P226" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -47942,7 +47957,7 @@
         <v>1</v>
       </c>
       <c r="AP226">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ226">
         <v>1.1</v>
@@ -48070,7 +48085,7 @@
         <v>101</v>
       </c>
       <c r="P227" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48148,10 +48163,10 @@
         <v>1.44</v>
       </c>
       <c r="AP227">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ227">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR227">
         <v>1.42</v>
@@ -48354,10 +48369,10 @@
         <v>0.89</v>
       </c>
       <c r="AP228">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ228">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR228">
         <v>1.56</v>
@@ -48560,10 +48575,10 @@
         <v>0.8</v>
       </c>
       <c r="AP229">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ229">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR229">
         <v>1.48</v>
@@ -48766,10 +48781,10 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ230">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR230">
         <v>1.39</v>
@@ -48975,7 +48990,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ231">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR231">
         <v>1.53</v>
@@ -49100,7 +49115,7 @@
         <v>240</v>
       </c>
       <c r="P232" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49178,10 +49193,10 @@
         <v>0.78</v>
       </c>
       <c r="AP232">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ232">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR232">
         <v>1.34</v>
@@ -49512,7 +49527,7 @@
         <v>241</v>
       </c>
       <c r="P234" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50130,7 +50145,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q237">
         <v>2.88</v>
@@ -50748,7 +50763,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50954,7 +50969,7 @@
         <v>101</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q241">
         <v>3.75</v>
@@ -51160,7 +51175,7 @@
         <v>101</v>
       </c>
       <c r="P242" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q242">
         <v>5.5</v>
@@ -51572,7 +51587,7 @@
         <v>101</v>
       </c>
       <c r="P244" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51856,10 +51871,10 @@
         <v>1.6</v>
       </c>
       <c r="AP245">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ245">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR245">
         <v>1.32</v>
@@ -51984,7 +51999,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q246">
         <v>2.38</v>
@@ -52062,10 +52077,10 @@
         <v>0.9</v>
       </c>
       <c r="AP246">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ246">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR246">
         <v>1.22</v>
@@ -52190,7 +52205,7 @@
         <v>101</v>
       </c>
       <c r="P247" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q247">
         <v>2.6</v>
@@ -52268,10 +52283,10 @@
         <v>1.27</v>
       </c>
       <c r="AP247">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ247">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR247">
         <v>1.35</v>
@@ -52474,10 +52489,10 @@
         <v>0.8</v>
       </c>
       <c r="AP248">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ248">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR248">
         <v>1.42</v>
@@ -52680,7 +52695,7 @@
         <v>1.22</v>
       </c>
       <c r="AP249">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ249">
         <v>1.1</v>
@@ -52886,10 +52901,10 @@
         <v>1.6</v>
       </c>
       <c r="AP250">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ250">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR250">
         <v>1.29</v>
@@ -53092,10 +53107,10 @@
         <v>1.7</v>
       </c>
       <c r="AP251">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ251">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR251">
         <v>1.53</v>
@@ -53220,7 +53235,7 @@
         <v>253</v>
       </c>
       <c r="P252" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q252">
         <v>2.1</v>
@@ -53298,10 +53313,10 @@
         <v>0.82</v>
       </c>
       <c r="AP252">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ252">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR252">
         <v>1.47</v>
@@ -53426,7 +53441,7 @@
         <v>254</v>
       </c>
       <c r="P253" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53504,10 +53519,10 @@
         <v>1.91</v>
       </c>
       <c r="AP253">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ253">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR253">
         <v>1.42</v>
@@ -53632,7 +53647,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q254">
         <v>2.25</v>
@@ -53713,7 +53728,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ254">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR254">
         <v>1.49</v>
@@ -53838,7 +53853,7 @@
         <v>101</v>
       </c>
       <c r="P255" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -53916,10 +53931,10 @@
         <v>1</v>
       </c>
       <c r="AP255">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ255">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR255">
         <v>1.38</v>
@@ -53995,6 +54010,2272 @@
       </c>
       <c r="BP255">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7476811</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45655.39583333334</v>
+      </c>
+      <c r="F256">
+        <v>23</v>
+      </c>
+      <c r="G256" t="s">
+        <v>82</v>
+      </c>
+      <c r="H256" t="s">
+        <v>84</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>3</v>
+      </c>
+      <c r="O256" t="s">
+        <v>256</v>
+      </c>
+      <c r="P256" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q256">
+        <v>2.88</v>
+      </c>
+      <c r="R256">
+        <v>2.2</v>
+      </c>
+      <c r="S256">
+        <v>3.6</v>
+      </c>
+      <c r="T256">
+        <v>1.36</v>
+      </c>
+      <c r="U256">
+        <v>3</v>
+      </c>
+      <c r="V256">
+        <v>2.75</v>
+      </c>
+      <c r="W256">
+        <v>1.4</v>
+      </c>
+      <c r="X256">
+        <v>7</v>
+      </c>
+      <c r="Y256">
+        <v>1.1</v>
+      </c>
+      <c r="Z256">
+        <v>2.08</v>
+      </c>
+      <c r="AA256">
+        <v>3.34</v>
+      </c>
+      <c r="AB256">
+        <v>2.87</v>
+      </c>
+      <c r="AC256">
+        <v>1.05</v>
+      </c>
+      <c r="AD256">
+        <v>9.5</v>
+      </c>
+      <c r="AE256">
+        <v>1.25</v>
+      </c>
+      <c r="AF256">
+        <v>3.75</v>
+      </c>
+      <c r="AG256">
+        <v>1.72</v>
+      </c>
+      <c r="AH256">
+        <v>1.9</v>
+      </c>
+      <c r="AI256">
+        <v>1.67</v>
+      </c>
+      <c r="AJ256">
+        <v>2.1</v>
+      </c>
+      <c r="AK256">
+        <v>1.35</v>
+      </c>
+      <c r="AL256">
+        <v>1.25</v>
+      </c>
+      <c r="AM256">
+        <v>1.65</v>
+      </c>
+      <c r="AN256">
+        <v>0.55</v>
+      </c>
+      <c r="AO256">
+        <v>0.8</v>
+      </c>
+      <c r="AP256">
+        <v>0.75</v>
+      </c>
+      <c r="AQ256">
+        <v>0.73</v>
+      </c>
+      <c r="AR256">
+        <v>1.34</v>
+      </c>
+      <c r="AS256">
+        <v>1.32</v>
+      </c>
+      <c r="AT256">
+        <v>2.66</v>
+      </c>
+      <c r="AU256">
+        <v>3</v>
+      </c>
+      <c r="AV256">
+        <v>6</v>
+      </c>
+      <c r="AW256">
+        <v>8</v>
+      </c>
+      <c r="AX256">
+        <v>5</v>
+      </c>
+      <c r="AY256">
+        <v>12</v>
+      </c>
+      <c r="AZ256">
+        <v>13</v>
+      </c>
+      <c r="BA256">
+        <v>4</v>
+      </c>
+      <c r="BB256">
+        <v>4</v>
+      </c>
+      <c r="BC256">
+        <v>8</v>
+      </c>
+      <c r="BD256">
+        <v>1.79</v>
+      </c>
+      <c r="BE256">
+        <v>6.4</v>
+      </c>
+      <c r="BF256">
+        <v>2.23</v>
+      </c>
+      <c r="BG256">
+        <v>1.35</v>
+      </c>
+      <c r="BH256">
+        <v>2.9</v>
+      </c>
+      <c r="BI256">
+        <v>1.6</v>
+      </c>
+      <c r="BJ256">
+        <v>2.17</v>
+      </c>
+      <c r="BK256">
+        <v>1.98</v>
+      </c>
+      <c r="BL256">
+        <v>1.73</v>
+      </c>
+      <c r="BM256">
+        <v>2.5</v>
+      </c>
+      <c r="BN256">
+        <v>1.46</v>
+      </c>
+      <c r="BO256">
+        <v>3.3</v>
+      </c>
+      <c r="BP256">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7476810</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45655.39583333334</v>
+      </c>
+      <c r="F257">
+        <v>23</v>
+      </c>
+      <c r="G257" t="s">
+        <v>83</v>
+      </c>
+      <c r="H257" t="s">
+        <v>91</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257" t="s">
+        <v>114</v>
+      </c>
+      <c r="P257" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q257">
+        <v>2.88</v>
+      </c>
+      <c r="R257">
+        <v>2.2</v>
+      </c>
+      <c r="S257">
+        <v>3.6</v>
+      </c>
+      <c r="T257">
+        <v>1.36</v>
+      </c>
+      <c r="U257">
+        <v>3</v>
+      </c>
+      <c r="V257">
+        <v>2.75</v>
+      </c>
+      <c r="W257">
+        <v>1.4</v>
+      </c>
+      <c r="X257">
+        <v>8</v>
+      </c>
+      <c r="Y257">
+        <v>1.08</v>
+      </c>
+      <c r="Z257">
+        <v>2.23</v>
+      </c>
+      <c r="AA257">
+        <v>3.27</v>
+      </c>
+      <c r="AB257">
+        <v>2.66</v>
+      </c>
+      <c r="AC257">
+        <v>1.05</v>
+      </c>
+      <c r="AD257">
+        <v>9.5</v>
+      </c>
+      <c r="AE257">
+        <v>1.28</v>
+      </c>
+      <c r="AF257">
+        <v>3.55</v>
+      </c>
+      <c r="AG257">
+        <v>1.76</v>
+      </c>
+      <c r="AH257">
+        <v>1.85</v>
+      </c>
+      <c r="AI257">
+        <v>1.67</v>
+      </c>
+      <c r="AJ257">
+        <v>2.1</v>
+      </c>
+      <c r="AK257">
+        <v>1.36</v>
+      </c>
+      <c r="AL257">
+        <v>1.25</v>
+      </c>
+      <c r="AM257">
+        <v>1.62</v>
+      </c>
+      <c r="AN257">
+        <v>1.27</v>
+      </c>
+      <c r="AO257">
+        <v>0.75</v>
+      </c>
+      <c r="AP257">
+        <v>1.25</v>
+      </c>
+      <c r="AQ257">
+        <v>0.77</v>
+      </c>
+      <c r="AR257">
+        <v>1.49</v>
+      </c>
+      <c r="AS257">
+        <v>1.01</v>
+      </c>
+      <c r="AT257">
+        <v>2.5</v>
+      </c>
+      <c r="AU257">
+        <v>2</v>
+      </c>
+      <c r="AV257">
+        <v>5</v>
+      </c>
+      <c r="AW257">
+        <v>6</v>
+      </c>
+      <c r="AX257">
+        <v>10</v>
+      </c>
+      <c r="AY257">
+        <v>13</v>
+      </c>
+      <c r="AZ257">
+        <v>19</v>
+      </c>
+      <c r="BA257">
+        <v>4</v>
+      </c>
+      <c r="BB257">
+        <v>3</v>
+      </c>
+      <c r="BC257">
+        <v>7</v>
+      </c>
+      <c r="BD257">
+        <v>1.88</v>
+      </c>
+      <c r="BE257">
+        <v>6.75</v>
+      </c>
+      <c r="BF257">
+        <v>2.1</v>
+      </c>
+      <c r="BG257">
+        <v>1.25</v>
+      </c>
+      <c r="BH257">
+        <v>3.45</v>
+      </c>
+      <c r="BI257">
+        <v>1.44</v>
+      </c>
+      <c r="BJ257">
+        <v>2.55</v>
+      </c>
+      <c r="BK257">
+        <v>1.71</v>
+      </c>
+      <c r="BL257">
+        <v>2</v>
+      </c>
+      <c r="BM257">
+        <v>2.08</v>
+      </c>
+      <c r="BN257">
+        <v>1.66</v>
+      </c>
+      <c r="BO257">
+        <v>2.65</v>
+      </c>
+      <c r="BP257">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7476813</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F258">
+        <v>23</v>
+      </c>
+      <c r="G258" t="s">
+        <v>85</v>
+      </c>
+      <c r="H258" t="s">
+        <v>74</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>148</v>
+      </c>
+      <c r="P258" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q258">
+        <v>3.6</v>
+      </c>
+      <c r="R258">
+        <v>2.05</v>
+      </c>
+      <c r="S258">
+        <v>3.2</v>
+      </c>
+      <c r="T258">
+        <v>1.44</v>
+      </c>
+      <c r="U258">
+        <v>2.63</v>
+      </c>
+      <c r="V258">
+        <v>3.4</v>
+      </c>
+      <c r="W258">
+        <v>1.3</v>
+      </c>
+      <c r="X258">
+        <v>10</v>
+      </c>
+      <c r="Y258">
+        <v>1.06</v>
+      </c>
+      <c r="Z258">
+        <v>2.9</v>
+      </c>
+      <c r="AA258">
+        <v>3.3</v>
+      </c>
+      <c r="AB258">
+        <v>2.45</v>
+      </c>
+      <c r="AC258">
+        <v>1.06</v>
+      </c>
+      <c r="AD258">
+        <v>8.5</v>
+      </c>
+      <c r="AE258">
+        <v>1.38</v>
+      </c>
+      <c r="AF258">
+        <v>3</v>
+      </c>
+      <c r="AG258">
+        <v>2.05</v>
+      </c>
+      <c r="AH258">
+        <v>1.75</v>
+      </c>
+      <c r="AI258">
+        <v>1.83</v>
+      </c>
+      <c r="AJ258">
+        <v>1.83</v>
+      </c>
+      <c r="AK258">
+        <v>1.57</v>
+      </c>
+      <c r="AL258">
+        <v>1.25</v>
+      </c>
+      <c r="AM258">
+        <v>1.4</v>
+      </c>
+      <c r="AN258">
+        <v>1.45</v>
+      </c>
+      <c r="AO258">
+        <v>1.55</v>
+      </c>
+      <c r="AP258">
+        <v>1.42</v>
+      </c>
+      <c r="AQ258">
+        <v>1.5</v>
+      </c>
+      <c r="AR258">
+        <v>1.65</v>
+      </c>
+      <c r="AS258">
+        <v>1.33</v>
+      </c>
+      <c r="AT258">
+        <v>2.98</v>
+      </c>
+      <c r="AU258">
+        <v>3</v>
+      </c>
+      <c r="AV258">
+        <v>8</v>
+      </c>
+      <c r="AW258">
+        <v>5</v>
+      </c>
+      <c r="AX258">
+        <v>2</v>
+      </c>
+      <c r="AY258">
+        <v>11</v>
+      </c>
+      <c r="AZ258">
+        <v>13</v>
+      </c>
+      <c r="BA258">
+        <v>5</v>
+      </c>
+      <c r="BB258">
+        <v>1</v>
+      </c>
+      <c r="BC258">
+        <v>6</v>
+      </c>
+      <c r="BD258">
+        <v>2.08</v>
+      </c>
+      <c r="BE258">
+        <v>6.5</v>
+      </c>
+      <c r="BF258">
+        <v>1.9</v>
+      </c>
+      <c r="BG258">
+        <v>1.28</v>
+      </c>
+      <c r="BH258">
+        <v>3.3</v>
+      </c>
+      <c r="BI258">
+        <v>1.48</v>
+      </c>
+      <c r="BJ258">
+        <v>2.43</v>
+      </c>
+      <c r="BK258">
+        <v>1.77</v>
+      </c>
+      <c r="BL258">
+        <v>1.93</v>
+      </c>
+      <c r="BM258">
+        <v>2.18</v>
+      </c>
+      <c r="BN258">
+        <v>1.58</v>
+      </c>
+      <c r="BO258">
+        <v>2.8</v>
+      </c>
+      <c r="BP258">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7476819</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F259">
+        <v>23</v>
+      </c>
+      <c r="G259" t="s">
+        <v>81</v>
+      </c>
+      <c r="H259" t="s">
+        <v>89</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>257</v>
+      </c>
+      <c r="P259" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q259">
+        <v>1.91</v>
+      </c>
+      <c r="R259">
+        <v>2.4</v>
+      </c>
+      <c r="S259">
+        <v>7.5</v>
+      </c>
+      <c r="T259">
+        <v>1.33</v>
+      </c>
+      <c r="U259">
+        <v>3.25</v>
+      </c>
+      <c r="V259">
+        <v>2.5</v>
+      </c>
+      <c r="W259">
+        <v>1.5</v>
+      </c>
+      <c r="X259">
+        <v>6.5</v>
+      </c>
+      <c r="Y259">
+        <v>1.11</v>
+      </c>
+      <c r="Z259">
+        <v>1.28</v>
+      </c>
+      <c r="AA259">
+        <v>5.5</v>
+      </c>
+      <c r="AB259">
+        <v>10</v>
+      </c>
+      <c r="AC259">
+        <v>1.02</v>
+      </c>
+      <c r="AD259">
+        <v>15</v>
+      </c>
+      <c r="AE259">
+        <v>1.2</v>
+      </c>
+      <c r="AF259">
+        <v>4.5</v>
+      </c>
+      <c r="AG259">
+        <v>1.6</v>
+      </c>
+      <c r="AH259">
+        <v>2.35</v>
+      </c>
+      <c r="AI259">
+        <v>1.91</v>
+      </c>
+      <c r="AJ259">
+        <v>1.8</v>
+      </c>
+      <c r="AK259">
+        <v>1.08</v>
+      </c>
+      <c r="AL259">
+        <v>1.14</v>
+      </c>
+      <c r="AM259">
+        <v>3.3</v>
+      </c>
+      <c r="AN259">
+        <v>2.36</v>
+      </c>
+      <c r="AO259">
+        <v>0.75</v>
+      </c>
+      <c r="AP259">
+        <v>2.42</v>
+      </c>
+      <c r="AQ259">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR259">
+        <v>1.51</v>
+      </c>
+      <c r="AS259">
+        <v>0.86</v>
+      </c>
+      <c r="AT259">
+        <v>2.37</v>
+      </c>
+      <c r="AU259">
+        <v>7</v>
+      </c>
+      <c r="AV259">
+        <v>2</v>
+      </c>
+      <c r="AW259">
+        <v>7</v>
+      </c>
+      <c r="AX259">
+        <v>0</v>
+      </c>
+      <c r="AY259">
+        <v>16</v>
+      </c>
+      <c r="AZ259">
+        <v>6</v>
+      </c>
+      <c r="BA259">
+        <v>6</v>
+      </c>
+      <c r="BB259">
+        <v>2</v>
+      </c>
+      <c r="BC259">
+        <v>8</v>
+      </c>
+      <c r="BD259">
+        <v>1.1</v>
+      </c>
+      <c r="BE259">
+        <v>13.25</v>
+      </c>
+      <c r="BF259">
+        <v>8.1</v>
+      </c>
+      <c r="BG259">
+        <v>1.22</v>
+      </c>
+      <c r="BH259">
+        <v>3.5</v>
+      </c>
+      <c r="BI259">
+        <v>1.44</v>
+      </c>
+      <c r="BJ259">
+        <v>2.51</v>
+      </c>
+      <c r="BK259">
+        <v>1.8</v>
+      </c>
+      <c r="BL259">
+        <v>1.91</v>
+      </c>
+      <c r="BM259">
+        <v>2.25</v>
+      </c>
+      <c r="BN259">
+        <v>1.54</v>
+      </c>
+      <c r="BO259">
+        <v>2.97</v>
+      </c>
+      <c r="BP259">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7476818</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F260">
+        <v>23</v>
+      </c>
+      <c r="G260" t="s">
+        <v>80</v>
+      </c>
+      <c r="H260" t="s">
+        <v>72</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260">
+        <v>2</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260" t="s">
+        <v>103</v>
+      </c>
+      <c r="P260" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q260">
+        <v>3.4</v>
+      </c>
+      <c r="R260">
+        <v>2</v>
+      </c>
+      <c r="S260">
+        <v>3.4</v>
+      </c>
+      <c r="T260">
+        <v>1.5</v>
+      </c>
+      <c r="U260">
+        <v>2.5</v>
+      </c>
+      <c r="V260">
+        <v>3.4</v>
+      </c>
+      <c r="W260">
+        <v>1.3</v>
+      </c>
+      <c r="X260">
+        <v>10</v>
+      </c>
+      <c r="Y260">
+        <v>1.06</v>
+      </c>
+      <c r="Z260">
+        <v>2.65</v>
+      </c>
+      <c r="AA260">
+        <v>3.2</v>
+      </c>
+      <c r="AB260">
+        <v>2.7</v>
+      </c>
+      <c r="AC260">
+        <v>1.08</v>
+      </c>
+      <c r="AD260">
+        <v>8.5</v>
+      </c>
+      <c r="AE260">
+        <v>1.44</v>
+      </c>
+      <c r="AF260">
+        <v>2.75</v>
+      </c>
+      <c r="AG260">
+        <v>2.25</v>
+      </c>
+      <c r="AH260">
+        <v>1.63</v>
+      </c>
+      <c r="AI260">
+        <v>1.91</v>
+      </c>
+      <c r="AJ260">
+        <v>1.8</v>
+      </c>
+      <c r="AK260">
+        <v>1.44</v>
+      </c>
+      <c r="AL260">
+        <v>1.33</v>
+      </c>
+      <c r="AM260">
+        <v>1.46</v>
+      </c>
+      <c r="AN260">
+        <v>1.3</v>
+      </c>
+      <c r="AO260">
+        <v>0.73</v>
+      </c>
+      <c r="AP260">
+        <v>1.27</v>
+      </c>
+      <c r="AQ260">
+        <v>0.75</v>
+      </c>
+      <c r="AR260">
+        <v>1.44</v>
+      </c>
+      <c r="AS260">
+        <v>1.09</v>
+      </c>
+      <c r="AT260">
+        <v>2.53</v>
+      </c>
+      <c r="AU260">
+        <v>6</v>
+      </c>
+      <c r="AV260">
+        <v>7</v>
+      </c>
+      <c r="AW260">
+        <v>6</v>
+      </c>
+      <c r="AX260">
+        <v>4</v>
+      </c>
+      <c r="AY260">
+        <v>16</v>
+      </c>
+      <c r="AZ260">
+        <v>18</v>
+      </c>
+      <c r="BA260">
+        <v>6</v>
+      </c>
+      <c r="BB260">
+        <v>2</v>
+      </c>
+      <c r="BC260">
+        <v>8</v>
+      </c>
+      <c r="BD260">
+        <v>2</v>
+      </c>
+      <c r="BE260">
+        <v>6.55</v>
+      </c>
+      <c r="BF260">
+        <v>2.21</v>
+      </c>
+      <c r="BG260">
+        <v>1.24</v>
+      </c>
+      <c r="BH260">
+        <v>3.55</v>
+      </c>
+      <c r="BI260">
+        <v>1.32</v>
+      </c>
+      <c r="BJ260">
+        <v>2.88</v>
+      </c>
+      <c r="BK260">
+        <v>1.59</v>
+      </c>
+      <c r="BL260">
+        <v>2.16</v>
+      </c>
+      <c r="BM260">
+        <v>1.95</v>
+      </c>
+      <c r="BN260">
+        <v>1.77</v>
+      </c>
+      <c r="BO260">
+        <v>2.57</v>
+      </c>
+      <c r="BP260">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7476809</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F261">
+        <v>23</v>
+      </c>
+      <c r="G261" t="s">
+        <v>92</v>
+      </c>
+      <c r="H261" t="s">
+        <v>70</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>145</v>
+      </c>
+      <c r="P261" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q261">
+        <v>3.1</v>
+      </c>
+      <c r="R261">
+        <v>2.2</v>
+      </c>
+      <c r="S261">
+        <v>3.5</v>
+      </c>
+      <c r="T261">
+        <v>1.4</v>
+      </c>
+      <c r="U261">
+        <v>2.75</v>
+      </c>
+      <c r="V261">
+        <v>2.75</v>
+      </c>
+      <c r="W261">
+        <v>1.4</v>
+      </c>
+      <c r="X261">
+        <v>8</v>
+      </c>
+      <c r="Y261">
+        <v>1.08</v>
+      </c>
+      <c r="Z261">
+        <v>2.25</v>
+      </c>
+      <c r="AA261">
+        <v>3.5</v>
+      </c>
+      <c r="AB261">
+        <v>3</v>
+      </c>
+      <c r="AC261">
+        <v>1.05</v>
+      </c>
+      <c r="AD261">
+        <v>9.5</v>
+      </c>
+      <c r="AE261">
+        <v>1.28</v>
+      </c>
+      <c r="AF261">
+        <v>3.55</v>
+      </c>
+      <c r="AG261">
+        <v>1.87</v>
+      </c>
+      <c r="AH261">
+        <v>1.9</v>
+      </c>
+      <c r="AI261">
+        <v>1.73</v>
+      </c>
+      <c r="AJ261">
+        <v>2</v>
+      </c>
+      <c r="AK261">
+        <v>1.4</v>
+      </c>
+      <c r="AL261">
+        <v>1.25</v>
+      </c>
+      <c r="AM261">
+        <v>1.55</v>
+      </c>
+      <c r="AN261">
+        <v>2.1</v>
+      </c>
+      <c r="AO261">
+        <v>1.45</v>
+      </c>
+      <c r="AP261">
+        <v>2.18</v>
+      </c>
+      <c r="AQ261">
+        <v>1.33</v>
+      </c>
+      <c r="AR261">
+        <v>1.41</v>
+      </c>
+      <c r="AS261">
+        <v>1.27</v>
+      </c>
+      <c r="AT261">
+        <v>2.68</v>
+      </c>
+      <c r="AU261">
+        <v>3</v>
+      </c>
+      <c r="AV261">
+        <v>5</v>
+      </c>
+      <c r="AW261">
+        <v>2</v>
+      </c>
+      <c r="AX261">
+        <v>3</v>
+      </c>
+      <c r="AY261">
+        <v>8</v>
+      </c>
+      <c r="AZ261">
+        <v>13</v>
+      </c>
+      <c r="BA261">
+        <v>2</v>
+      </c>
+      <c r="BB261">
+        <v>5</v>
+      </c>
+      <c r="BC261">
+        <v>7</v>
+      </c>
+      <c r="BD261">
+        <v>1.9</v>
+      </c>
+      <c r="BE261">
+        <v>6.5</v>
+      </c>
+      <c r="BF261">
+        <v>2.1</v>
+      </c>
+      <c r="BG261">
+        <v>1.26</v>
+      </c>
+      <c r="BH261">
+        <v>3.4</v>
+      </c>
+      <c r="BI261">
+        <v>1.46</v>
+      </c>
+      <c r="BJ261">
+        <v>2.48</v>
+      </c>
+      <c r="BK261">
+        <v>1.74</v>
+      </c>
+      <c r="BL261">
+        <v>1.96</v>
+      </c>
+      <c r="BM261">
+        <v>2.17</v>
+      </c>
+      <c r="BN261">
+        <v>1.58</v>
+      </c>
+      <c r="BO261">
+        <v>2.75</v>
+      </c>
+      <c r="BP261">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7476817</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F262">
+        <v>23</v>
+      </c>
+      <c r="G262" t="s">
+        <v>79</v>
+      </c>
+      <c r="H262" t="s">
+        <v>88</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>232</v>
+      </c>
+      <c r="P262" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q262">
+        <v>2.5</v>
+      </c>
+      <c r="R262">
+        <v>2.2</v>
+      </c>
+      <c r="S262">
+        <v>4.75</v>
+      </c>
+      <c r="T262">
+        <v>1.4</v>
+      </c>
+      <c r="U262">
+        <v>2.75</v>
+      </c>
+      <c r="V262">
+        <v>3</v>
+      </c>
+      <c r="W262">
+        <v>1.36</v>
+      </c>
+      <c r="X262">
+        <v>8</v>
+      </c>
+      <c r="Y262">
+        <v>1.08</v>
+      </c>
+      <c r="Z262">
+        <v>1.72</v>
+      </c>
+      <c r="AA262">
+        <v>3.75</v>
+      </c>
+      <c r="AB262">
+        <v>4.75</v>
+      </c>
+      <c r="AC262">
+        <v>1.04</v>
+      </c>
+      <c r="AD262">
+        <v>12</v>
+      </c>
+      <c r="AE262">
+        <v>1.3</v>
+      </c>
+      <c r="AF262">
+        <v>3.5</v>
+      </c>
+      <c r="AG262">
+        <v>1.87</v>
+      </c>
+      <c r="AH262">
+        <v>1.9</v>
+      </c>
+      <c r="AI262">
+        <v>1.83</v>
+      </c>
+      <c r="AJ262">
+        <v>1.83</v>
+      </c>
+      <c r="AK262">
+        <v>1.2</v>
+      </c>
+      <c r="AL262">
+        <v>1.22</v>
+      </c>
+      <c r="AM262">
+        <v>2.1</v>
+      </c>
+      <c r="AN262">
+        <v>1.91</v>
+      </c>
+      <c r="AO262">
+        <v>1.17</v>
+      </c>
+      <c r="AP262">
+        <v>2</v>
+      </c>
+      <c r="AQ262">
+        <v>1.08</v>
+      </c>
+      <c r="AR262">
+        <v>1.42</v>
+      </c>
+      <c r="AS262">
+        <v>0.99</v>
+      </c>
+      <c r="AT262">
+        <v>2.41</v>
+      </c>
+      <c r="AU262">
+        <v>9</v>
+      </c>
+      <c r="AV262">
+        <v>3</v>
+      </c>
+      <c r="AW262">
+        <v>5</v>
+      </c>
+      <c r="AX262">
+        <v>2</v>
+      </c>
+      <c r="AY262">
+        <v>17</v>
+      </c>
+      <c r="AZ262">
+        <v>8</v>
+      </c>
+      <c r="BA262">
+        <v>3</v>
+      </c>
+      <c r="BB262">
+        <v>5</v>
+      </c>
+      <c r="BC262">
+        <v>8</v>
+      </c>
+      <c r="BD262">
+        <v>1.5</v>
+      </c>
+      <c r="BE262">
+        <v>7.1</v>
+      </c>
+      <c r="BF262">
+        <v>3.36</v>
+      </c>
+      <c r="BG262">
+        <v>1.29</v>
+      </c>
+      <c r="BH262">
+        <v>3.15</v>
+      </c>
+      <c r="BI262">
+        <v>1.34</v>
+      </c>
+      <c r="BJ262">
+        <v>2.78</v>
+      </c>
+      <c r="BK262">
+        <v>1.7</v>
+      </c>
+      <c r="BL262">
+        <v>2.05</v>
+      </c>
+      <c r="BM262">
+        <v>2.06</v>
+      </c>
+      <c r="BN262">
+        <v>1.68</v>
+      </c>
+      <c r="BO262">
+        <v>2.67</v>
+      </c>
+      <c r="BP262">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7476816</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F263">
+        <v>23</v>
+      </c>
+      <c r="G263" t="s">
+        <v>78</v>
+      </c>
+      <c r="H263" t="s">
+        <v>86</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>233</v>
+      </c>
+      <c r="P263" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q263">
+        <v>2.75</v>
+      </c>
+      <c r="R263">
+        <v>2.2</v>
+      </c>
+      <c r="S263">
+        <v>4</v>
+      </c>
+      <c r="T263">
+        <v>1.4</v>
+      </c>
+      <c r="U263">
+        <v>2.75</v>
+      </c>
+      <c r="V263">
+        <v>2.75</v>
+      </c>
+      <c r="W263">
+        <v>1.4</v>
+      </c>
+      <c r="X263">
+        <v>8</v>
+      </c>
+      <c r="Y263">
+        <v>1.08</v>
+      </c>
+      <c r="Z263">
+        <v>2.1</v>
+      </c>
+      <c r="AA263">
+        <v>3.5</v>
+      </c>
+      <c r="AB263">
+        <v>3.4</v>
+      </c>
+      <c r="AC263">
+        <v>1.05</v>
+      </c>
+      <c r="AD263">
+        <v>9.5</v>
+      </c>
+      <c r="AE263">
+        <v>1.3</v>
+      </c>
+      <c r="AF263">
+        <v>3.45</v>
+      </c>
+      <c r="AG263">
+        <v>1.95</v>
+      </c>
+      <c r="AH263">
+        <v>1.85</v>
+      </c>
+      <c r="AI263">
+        <v>1.73</v>
+      </c>
+      <c r="AJ263">
+        <v>2</v>
+      </c>
+      <c r="AK263">
+        <v>1.3</v>
+      </c>
+      <c r="AL263">
+        <v>1.22</v>
+      </c>
+      <c r="AM263">
+        <v>1.77</v>
+      </c>
+      <c r="AN263">
+        <v>1.67</v>
+      </c>
+      <c r="AO263">
+        <v>1.45</v>
+      </c>
+      <c r="AP263">
+        <v>1.62</v>
+      </c>
+      <c r="AQ263">
+        <v>1.42</v>
+      </c>
+      <c r="AR263">
+        <v>1.35</v>
+      </c>
+      <c r="AS263">
+        <v>1.14</v>
+      </c>
+      <c r="AT263">
+        <v>2.49</v>
+      </c>
+      <c r="AU263">
+        <v>3</v>
+      </c>
+      <c r="AV263">
+        <v>4</v>
+      </c>
+      <c r="AW263">
+        <v>4</v>
+      </c>
+      <c r="AX263">
+        <v>2</v>
+      </c>
+      <c r="AY263">
+        <v>13</v>
+      </c>
+      <c r="AZ263">
+        <v>6</v>
+      </c>
+      <c r="BA263">
+        <v>4</v>
+      </c>
+      <c r="BB263">
+        <v>9</v>
+      </c>
+      <c r="BC263">
+        <v>13</v>
+      </c>
+      <c r="BD263">
+        <v>1.72</v>
+      </c>
+      <c r="BE263">
+        <v>6.4</v>
+      </c>
+      <c r="BF263">
+        <v>2.35</v>
+      </c>
+      <c r="BG263">
+        <v>1.41</v>
+      </c>
+      <c r="BH263">
+        <v>2.65</v>
+      </c>
+      <c r="BI263">
+        <v>1.68</v>
+      </c>
+      <c r="BJ263">
+        <v>2.02</v>
+      </c>
+      <c r="BK263">
+        <v>2.1</v>
+      </c>
+      <c r="BL263">
+        <v>1.64</v>
+      </c>
+      <c r="BM263">
+        <v>2.7</v>
+      </c>
+      <c r="BN263">
+        <v>1.4</v>
+      </c>
+      <c r="BO263">
+        <v>3.55</v>
+      </c>
+      <c r="BP263">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7476812</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F264">
+        <v>23</v>
+      </c>
+      <c r="G264" t="s">
+        <v>73</v>
+      </c>
+      <c r="H264" t="s">
+        <v>93</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>2</v>
+      </c>
+      <c r="K264">
+        <v>3</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>8</v>
+      </c>
+      <c r="O264" t="s">
+        <v>258</v>
+      </c>
+      <c r="P264" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q264">
+        <v>3.6</v>
+      </c>
+      <c r="R264">
+        <v>2.2</v>
+      </c>
+      <c r="S264">
+        <v>2.88</v>
+      </c>
+      <c r="T264">
+        <v>1.36</v>
+      </c>
+      <c r="U264">
+        <v>3</v>
+      </c>
+      <c r="V264">
+        <v>2.75</v>
+      </c>
+      <c r="W264">
+        <v>1.4</v>
+      </c>
+      <c r="X264">
+        <v>8</v>
+      </c>
+      <c r="Y264">
+        <v>1.08</v>
+      </c>
+      <c r="Z264">
+        <v>2.95</v>
+      </c>
+      <c r="AA264">
+        <v>3.5</v>
+      </c>
+      <c r="AB264">
+        <v>2.3</v>
+      </c>
+      <c r="AC264">
+        <v>1.05</v>
+      </c>
+      <c r="AD264">
+        <v>9</v>
+      </c>
+      <c r="AE264">
+        <v>1.28</v>
+      </c>
+      <c r="AF264">
+        <v>3.55</v>
+      </c>
+      <c r="AG264">
+        <v>1.83</v>
+      </c>
+      <c r="AH264">
+        <v>1.95</v>
+      </c>
+      <c r="AI264">
+        <v>1.67</v>
+      </c>
+      <c r="AJ264">
+        <v>2.1</v>
+      </c>
+      <c r="AK264">
+        <v>1.62</v>
+      </c>
+      <c r="AL264">
+        <v>1.25</v>
+      </c>
+      <c r="AM264">
+        <v>1.35</v>
+      </c>
+      <c r="AN264">
+        <v>1.75</v>
+      </c>
+      <c r="AO264">
+        <v>1.42</v>
+      </c>
+      <c r="AP264">
+        <v>1.62</v>
+      </c>
+      <c r="AQ264">
+        <v>1.54</v>
+      </c>
+      <c r="AR264">
+        <v>1.31</v>
+      </c>
+      <c r="AS264">
+        <v>1.26</v>
+      </c>
+      <c r="AT264">
+        <v>2.57</v>
+      </c>
+      <c r="AU264">
+        <v>7</v>
+      </c>
+      <c r="AV264">
+        <v>7</v>
+      </c>
+      <c r="AW264">
+        <v>3</v>
+      </c>
+      <c r="AX264">
+        <v>8</v>
+      </c>
+      <c r="AY264">
+        <v>13</v>
+      </c>
+      <c r="AZ264">
+        <v>17</v>
+      </c>
+      <c r="BA264">
+        <v>2</v>
+      </c>
+      <c r="BB264">
+        <v>5</v>
+      </c>
+      <c r="BC264">
+        <v>7</v>
+      </c>
+      <c r="BD264">
+        <v>2.25</v>
+      </c>
+      <c r="BE264">
+        <v>6.4</v>
+      </c>
+      <c r="BF264">
+        <v>1.77</v>
+      </c>
+      <c r="BG264">
+        <v>1.36</v>
+      </c>
+      <c r="BH264">
+        <v>2.8</v>
+      </c>
+      <c r="BI264">
+        <v>1.63</v>
+      </c>
+      <c r="BJ264">
+        <v>2.15</v>
+      </c>
+      <c r="BK264">
+        <v>2</v>
+      </c>
+      <c r="BL264">
+        <v>1.71</v>
+      </c>
+      <c r="BM264">
+        <v>2.55</v>
+      </c>
+      <c r="BN264">
+        <v>1.45</v>
+      </c>
+      <c r="BO264">
+        <v>3.3</v>
+      </c>
+      <c r="BP264">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7476815</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F265">
+        <v>23</v>
+      </c>
+      <c r="G265" t="s">
+        <v>87</v>
+      </c>
+      <c r="H265" t="s">
+        <v>90</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>3</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>259</v>
+      </c>
+      <c r="P265" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q265">
+        <v>4</v>
+      </c>
+      <c r="R265">
+        <v>2.1</v>
+      </c>
+      <c r="S265">
+        <v>2.75</v>
+      </c>
+      <c r="T265">
+        <v>1.4</v>
+      </c>
+      <c r="U265">
+        <v>2.75</v>
+      </c>
+      <c r="V265">
+        <v>3</v>
+      </c>
+      <c r="W265">
+        <v>1.36</v>
+      </c>
+      <c r="X265">
+        <v>8</v>
+      </c>
+      <c r="Y265">
+        <v>1.08</v>
+      </c>
+      <c r="Z265">
+        <v>2.85</v>
+      </c>
+      <c r="AA265">
+        <v>3.4</v>
+      </c>
+      <c r="AB265">
+        <v>2.4</v>
+      </c>
+      <c r="AC265">
+        <v>1.05</v>
+      </c>
+      <c r="AD265">
+        <v>9.5</v>
+      </c>
+      <c r="AE265">
+        <v>1.3</v>
+      </c>
+      <c r="AF265">
+        <v>3.45</v>
+      </c>
+      <c r="AG265">
+        <v>2.05</v>
+      </c>
+      <c r="AH265">
+        <v>1.75</v>
+      </c>
+      <c r="AI265">
+        <v>1.8</v>
+      </c>
+      <c r="AJ265">
+        <v>1.91</v>
+      </c>
+      <c r="AK265">
+        <v>1.77</v>
+      </c>
+      <c r="AL265">
+        <v>1.22</v>
+      </c>
+      <c r="AM265">
+        <v>1.3</v>
+      </c>
+      <c r="AN265">
+        <v>1.36</v>
+      </c>
+      <c r="AO265">
+        <v>1.75</v>
+      </c>
+      <c r="AP265">
+        <v>1.5</v>
+      </c>
+      <c r="AQ265">
+        <v>1.62</v>
+      </c>
+      <c r="AR265">
+        <v>1.24</v>
+      </c>
+      <c r="AS265">
+        <v>1.26</v>
+      </c>
+      <c r="AT265">
+        <v>2.5</v>
+      </c>
+      <c r="AU265">
+        <v>10</v>
+      </c>
+      <c r="AV265">
+        <v>3</v>
+      </c>
+      <c r="AW265">
+        <v>3</v>
+      </c>
+      <c r="AX265">
+        <v>7</v>
+      </c>
+      <c r="AY265">
+        <v>17</v>
+      </c>
+      <c r="AZ265">
+        <v>13</v>
+      </c>
+      <c r="BA265">
+        <v>7</v>
+      </c>
+      <c r="BB265">
+        <v>4</v>
+      </c>
+      <c r="BC265">
+        <v>11</v>
+      </c>
+      <c r="BD265">
+        <v>2.38</v>
+      </c>
+      <c r="BE265">
+        <v>6.5</v>
+      </c>
+      <c r="BF265">
+        <v>1.73</v>
+      </c>
+      <c r="BG265">
+        <v>1.26</v>
+      </c>
+      <c r="BH265">
+        <v>3.4</v>
+      </c>
+      <c r="BI265">
+        <v>1.46</v>
+      </c>
+      <c r="BJ265">
+        <v>2.5</v>
+      </c>
+      <c r="BK265">
+        <v>1.74</v>
+      </c>
+      <c r="BL265">
+        <v>1.98</v>
+      </c>
+      <c r="BM265">
+        <v>2.15</v>
+      </c>
+      <c r="BN265">
+        <v>1.61</v>
+      </c>
+      <c r="BO265">
+        <v>2.7</v>
+      </c>
+      <c r="BP265">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7476814</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F266">
+        <v>23</v>
+      </c>
+      <c r="G266" t="s">
+        <v>75</v>
+      </c>
+      <c r="H266" t="s">
+        <v>77</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>122</v>
+      </c>
+      <c r="P266" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q266">
+        <v>2.2</v>
+      </c>
+      <c r="R266">
+        <v>2.2</v>
+      </c>
+      <c r="S266">
+        <v>6</v>
+      </c>
+      <c r="T266">
+        <v>1.44</v>
+      </c>
+      <c r="U266">
+        <v>2.63</v>
+      </c>
+      <c r="V266">
+        <v>3</v>
+      </c>
+      <c r="W266">
+        <v>1.36</v>
+      </c>
+      <c r="X266">
+        <v>9</v>
+      </c>
+      <c r="Y266">
+        <v>1.07</v>
+      </c>
+      <c r="Z266">
+        <v>1.53</v>
+      </c>
+      <c r="AA266">
+        <v>4.2</v>
+      </c>
+      <c r="AB266">
+        <v>6</v>
+      </c>
+      <c r="AC266">
+        <v>1.06</v>
+      </c>
+      <c r="AD266">
+        <v>8.5</v>
+      </c>
+      <c r="AE266">
+        <v>1.35</v>
+      </c>
+      <c r="AF266">
+        <v>3.1</v>
+      </c>
+      <c r="AG266">
+        <v>1.85</v>
+      </c>
+      <c r="AH266">
+        <v>1.95</v>
+      </c>
+      <c r="AI266">
+        <v>2</v>
+      </c>
+      <c r="AJ266">
+        <v>1.73</v>
+      </c>
+      <c r="AK266">
+        <v>1.13</v>
+      </c>
+      <c r="AL266">
+        <v>1.22</v>
+      </c>
+      <c r="AM266">
+        <v>2.25</v>
+      </c>
+      <c r="AN266">
+        <v>1.36</v>
+      </c>
+      <c r="AO266">
+        <v>0.82</v>
+      </c>
+      <c r="AP266">
+        <v>1.33</v>
+      </c>
+      <c r="AQ266">
+        <v>0.83</v>
+      </c>
+      <c r="AR266">
+        <v>1.29</v>
+      </c>
+      <c r="AS266">
+        <v>1.03</v>
+      </c>
+      <c r="AT266">
+        <v>2.32</v>
+      </c>
+      <c r="AU266">
+        <v>5</v>
+      </c>
+      <c r="AV266">
+        <v>5</v>
+      </c>
+      <c r="AW266">
+        <v>8</v>
+      </c>
+      <c r="AX266">
+        <v>5</v>
+      </c>
+      <c r="AY266">
+        <v>20</v>
+      </c>
+      <c r="AZ266">
+        <v>11</v>
+      </c>
+      <c r="BA266">
+        <v>11</v>
+      </c>
+      <c r="BB266">
+        <v>5</v>
+      </c>
+      <c r="BC266">
+        <v>16</v>
+      </c>
+      <c r="BD266">
+        <v>1.42</v>
+      </c>
+      <c r="BE266">
+        <v>7</v>
+      </c>
+      <c r="BF266">
+        <v>3.2</v>
+      </c>
+      <c r="BG266">
+        <v>1.23</v>
+      </c>
+      <c r="BH266">
+        <v>3.65</v>
+      </c>
+      <c r="BI266">
+        <v>1.41</v>
+      </c>
+      <c r="BJ266">
+        <v>2.65</v>
+      </c>
+      <c r="BK266">
+        <v>1.65</v>
+      </c>
+      <c r="BL266">
+        <v>2.08</v>
+      </c>
+      <c r="BM266">
+        <v>2</v>
+      </c>
+      <c r="BN266">
+        <v>1.7</v>
+      </c>
+      <c r="BO266">
+        <v>2.55</v>
+      </c>
+      <c r="BP266">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="367">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,9 @@
     <t>['29', '81', '90+2']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -863,9 +866,6 @@
   </si>
   <si>
     <t>['90+8']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['43', '49', '64']</t>
@@ -1476,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1941,7 +1941,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2353,7 +2353,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2971,7 +2971,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3177,7 +3177,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3383,7 +3383,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3589,7 +3589,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4619,7 +4619,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5031,7 +5031,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5237,7 +5237,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5443,7 +5443,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5524,7 +5524,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6473,7 +6473,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6679,7 +6679,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7503,7 +7503,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7996,7 +7996,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.04</v>
@@ -8945,7 +8945,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9151,7 +9151,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9563,7 +9563,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9975,7 +9975,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10387,7 +10387,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10593,7 +10593,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11083,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.22</v>
@@ -11211,7 +11211,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11623,7 +11623,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11829,7 +11829,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -12241,7 +12241,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12940,7 +12940,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ56">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -13967,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -14507,7 +14507,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -16979,7 +16979,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17060,7 +17060,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ76">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -24270,7 +24270,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ111">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.19</v>
@@ -25425,7 +25425,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -27357,7 +27357,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>0.9</v>
@@ -29832,7 +29832,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ138">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -30575,7 +30575,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -32507,7 +32507,7 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ151">
         <v>1.08</v>
@@ -33540,7 +33540,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ156">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -37657,7 +37657,7 @@
         <v>1.71</v>
       </c>
       <c r="AP176">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
         <v>1.73</v>
@@ -38609,7 +38609,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -39923,7 +39923,7 @@
         <v>0.86</v>
       </c>
       <c r="AP187">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ187">
         <v>0.73</v>
@@ -40463,7 +40463,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -41159,7 +41159,7 @@
         <v>1.57</v>
       </c>
       <c r="AP193">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
         <v>2</v>
@@ -43013,7 +43013,7 @@
         <v>0.78</v>
       </c>
       <c r="AP202">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ202">
         <v>0.6899999999999999</v>
@@ -44664,7 +44664,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ210">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.4</v>
@@ -47960,7 +47960,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ226">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR226">
         <v>1.31</v>
@@ -48987,7 +48987,7 @@
         <v>1.89</v>
       </c>
       <c r="AP231">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ231">
         <v>1.5</v>
@@ -52698,7 +52698,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ249">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR249">
         <v>1.66</v>
@@ -53441,7 +53441,7 @@
         <v>254</v>
       </c>
       <c r="P253" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53725,7 +53725,7 @@
         <v>0.73</v>
       </c>
       <c r="AP254">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ254">
         <v>0.77</v>
@@ -54367,13 +54367,13 @@
         <v>6</v>
       </c>
       <c r="AX257">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY257">
         <v>13</v>
       </c>
       <c r="AZ257">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA257">
         <v>4</v>
@@ -56276,6 +56276,212 @@
       </c>
       <c r="BP266">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7476808</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45656.70833333334</v>
+      </c>
+      <c r="F267">
+        <v>23</v>
+      </c>
+      <c r="G267" t="s">
+        <v>71</v>
+      </c>
+      <c r="H267" t="s">
+        <v>76</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
+        <v>260</v>
+      </c>
+      <c r="P267" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q267">
+        <v>2.4</v>
+      </c>
+      <c r="R267">
+        <v>2.1</v>
+      </c>
+      <c r="S267">
+        <v>5</v>
+      </c>
+      <c r="T267">
+        <v>1.44</v>
+      </c>
+      <c r="U267">
+        <v>2.63</v>
+      </c>
+      <c r="V267">
+        <v>3.25</v>
+      </c>
+      <c r="W267">
+        <v>1.33</v>
+      </c>
+      <c r="X267">
+        <v>10</v>
+      </c>
+      <c r="Y267">
+        <v>1.06</v>
+      </c>
+      <c r="Z267">
+        <v>1.68</v>
+      </c>
+      <c r="AA267">
+        <v>3.8</v>
+      </c>
+      <c r="AB267">
+        <v>4.7</v>
+      </c>
+      <c r="AC267">
+        <v>1.06</v>
+      </c>
+      <c r="AD267">
+        <v>9.5</v>
+      </c>
+      <c r="AE267">
+        <v>1.38</v>
+      </c>
+      <c r="AF267">
+        <v>3</v>
+      </c>
+      <c r="AG267">
+        <v>1.93</v>
+      </c>
+      <c r="AH267">
+        <v>1.79</v>
+      </c>
+      <c r="AI267">
+        <v>2</v>
+      </c>
+      <c r="AJ267">
+        <v>1.73</v>
+      </c>
+      <c r="AK267">
+        <v>1.18</v>
+      </c>
+      <c r="AL267">
+        <v>1.25</v>
+      </c>
+      <c r="AM267">
+        <v>2.05</v>
+      </c>
+      <c r="AN267">
+        <v>1.91</v>
+      </c>
+      <c r="AO267">
+        <v>1.1</v>
+      </c>
+      <c r="AP267">
+        <v>2</v>
+      </c>
+      <c r="AQ267">
+        <v>1</v>
+      </c>
+      <c r="AR267">
+        <v>1.44</v>
+      </c>
+      <c r="AS267">
+        <v>1</v>
+      </c>
+      <c r="AT267">
+        <v>2.44</v>
+      </c>
+      <c r="AU267">
+        <v>3</v>
+      </c>
+      <c r="AV267">
+        <v>4</v>
+      </c>
+      <c r="AW267">
+        <v>4</v>
+      </c>
+      <c r="AX267">
+        <v>3</v>
+      </c>
+      <c r="AY267">
+        <v>7</v>
+      </c>
+      <c r="AZ267">
+        <v>9</v>
+      </c>
+      <c r="BA267">
+        <v>1</v>
+      </c>
+      <c r="BB267">
+        <v>7</v>
+      </c>
+      <c r="BC267">
+        <v>8</v>
+      </c>
+      <c r="BD267">
+        <v>1.48</v>
+      </c>
+      <c r="BE267">
+        <v>8.5</v>
+      </c>
+      <c r="BF267">
+        <v>3.2</v>
+      </c>
+      <c r="BG267">
+        <v>1.33</v>
+      </c>
+      <c r="BH267">
+        <v>2.83</v>
+      </c>
+      <c r="BI267">
+        <v>1.7</v>
+      </c>
+      <c r="BJ267">
+        <v>2.05</v>
+      </c>
+      <c r="BK267">
+        <v>2.09</v>
+      </c>
+      <c r="BL267">
+        <v>1.66</v>
+      </c>
+      <c r="BM267">
+        <v>2.75</v>
+      </c>
+      <c r="BN267">
+        <v>1.37</v>
+      </c>
+      <c r="BO267">
+        <v>3.82</v>
+      </c>
+      <c r="BP267">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,27 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['32', '90+3', '90+8']</t>
+  </si>
+  <si>
+    <t>['72', '84']</t>
+  </si>
+  <si>
+    <t>['44', '90+2']</t>
+  </si>
+  <si>
+    <t>['15', '82', '90+8']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['9', '60', '82']</t>
+  </si>
+  <si>
+    <t>['45+2', '78']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -824,9 +845,6 @@
   </si>
   <si>
     <t>['61', '82']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['33', '40', '49', '64']</t>
@@ -1115,6 +1133,30 @@
   </si>
   <si>
     <t>['26', '39', '58', '62', '90+3']</t>
+  </si>
+  <si>
+    <t>['21', '78']</t>
+  </si>
+  <si>
+    <t>['65', '82']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['39', '56']</t>
+  </si>
+  <si>
+    <t>['44', '61']</t>
+  </si>
+  <si>
+    <t>['18', '44']</t>
+  </si>
+  <si>
+    <t>['5', '39']</t>
+  </si>
+  <si>
+    <t>['23', '86']</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP267"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0.77</v>
@@ -1941,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2022,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2225,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4">
         <v>1.42</v>
@@ -2353,7 +2395,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2637,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>0.73</v>
@@ -2846,7 +2888,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2971,7 +3013,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3052,7 +3094,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ8">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3177,7 +3219,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3255,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1.6</v>
@@ -3383,7 +3425,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3464,7 +3506,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ10">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3589,7 +3631,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4619,7 +4661,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4697,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ16">
         <v>0.83</v>
@@ -4906,7 +4948,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5031,7 +5073,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5109,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5237,7 +5279,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5318,7 +5360,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5443,7 +5485,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5521,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5933,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6061,7 +6103,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6139,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6348,7 +6390,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6473,7 +6515,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6551,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ25">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6679,7 +6721,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6757,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ26">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6966,7 +7008,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -7169,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.77</v>
@@ -7375,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>1.08</v>
@@ -7503,7 +7545,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7790,7 +7832,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -8199,10 +8241,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8817,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ36">
         <v>1.62</v>
@@ -8945,7 +8987,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9151,7 +9193,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9229,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -9563,7 +9605,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9641,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ40">
         <v>1.54</v>
@@ -9847,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ41">
         <v>0.6899999999999999</v>
@@ -9975,7 +10017,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10053,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10262,7 +10304,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ43">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR43">
         <v>0.97</v>
@@ -10387,7 +10429,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10468,7 +10510,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -10593,7 +10635,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10877,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -11086,7 +11128,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -11211,7 +11253,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11292,7 +11334,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11498,7 +11540,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11623,7 +11665,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11829,7 +11871,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11907,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ51">
         <v>0.77</v>
@@ -12319,10 +12361,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12731,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.08</v>
@@ -12937,7 +12979,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13146,7 +13188,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ57">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13352,7 +13394,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13555,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ59">
         <v>0.73</v>
@@ -13761,7 +13803,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13970,7 +14012,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR61">
         <v>1.47</v>
@@ -14173,7 +14215,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ62">
         <v>0.6899999999999999</v>
@@ -14382,7 +14424,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14507,7 +14549,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14588,7 +14630,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ64">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14791,7 +14833,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -14919,7 +14961,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14997,10 +15039,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR66">
         <v>1.41</v>
@@ -15206,7 +15248,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15409,7 +15451,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
         <v>1.42</v>
@@ -15537,7 +15579,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15743,7 +15785,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15949,7 +15991,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -16030,7 +16072,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -16155,7 +16197,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16233,7 +16275,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ72">
         <v>1.62</v>
@@ -16439,10 +16481,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16567,7 +16609,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16645,10 +16687,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR74">
         <v>1.69</v>
@@ -16773,7 +16815,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16854,7 +16896,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR75">
         <v>1.26</v>
@@ -16979,7 +17021,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17057,7 +17099,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17391,7 +17433,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17678,7 +17720,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -18087,7 +18129,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ81">
         <v>0.6899999999999999</v>
@@ -18293,7 +18335,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>0.83</v>
@@ -18421,7 +18463,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18708,7 +18750,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ84">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18914,7 +18956,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR85">
         <v>1.6</v>
@@ -19117,10 +19159,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR86">
         <v>1.1</v>
@@ -19323,7 +19365,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ87">
         <v>1.54</v>
@@ -19529,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ88">
         <v>0.77</v>
@@ -19657,7 +19699,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19944,7 +19986,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -20069,7 +20111,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20147,7 +20189,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20275,7 +20317,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20356,7 +20398,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ92">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR92">
         <v>1.26</v>
@@ -20481,7 +20523,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20562,7 +20604,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ93">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR93">
         <v>1.37</v>
@@ -20893,7 +20935,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20971,10 +21013,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -21099,7 +21141,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21177,10 +21219,10 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.14</v>
@@ -21592,7 +21634,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ98">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR98">
         <v>0.92</v>
@@ -21717,7 +21759,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21795,10 +21837,10 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ99">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR99">
         <v>1.37</v>
@@ -21923,7 +21965,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22004,7 +22046,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
@@ -22210,7 +22252,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ101">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR101">
         <v>1.31</v>
@@ -22335,7 +22377,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22541,7 +22583,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22747,7 +22789,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23031,7 +23073,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ105">
         <v>0.75</v>
@@ -23159,7 +23201,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23649,7 +23691,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108">
         <v>0.83</v>
@@ -23855,7 +23897,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ109">
         <v>1.62</v>
@@ -24064,7 +24106,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ110">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR110">
         <v>1.38</v>
@@ -24267,7 +24309,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24601,7 +24643,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24679,10 +24721,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24807,7 +24849,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24885,10 +24927,10 @@
         <v>0.25</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ114">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -25091,7 +25133,7 @@
         <v>0.25</v>
       </c>
       <c r="AP115">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115">
         <v>1.08</v>
@@ -25300,7 +25342,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ116">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25425,7 +25467,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25631,7 +25673,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25709,7 +25751,7 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.54</v>
@@ -25837,7 +25879,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25918,7 +25960,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ119">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR119">
         <v>1.15</v>
@@ -26043,7 +26085,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26124,7 +26166,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR120">
         <v>1.19</v>
@@ -26533,7 +26575,7 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>0.6899999999999999</v>
@@ -26661,7 +26703,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26945,7 +26987,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>1.42</v>
@@ -27073,7 +27115,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27151,7 +27193,7 @@
         <v>0.2</v>
       </c>
       <c r="AP125">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ125">
         <v>1.08</v>
@@ -27360,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27485,7 +27527,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27691,7 +27733,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27975,7 +28017,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129">
         <v>0.75</v>
@@ -28181,7 +28223,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ130">
         <v>1.3</v>
@@ -28309,7 +28351,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28387,10 +28429,10 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR131">
         <v>1.51</v>
@@ -28515,7 +28557,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28593,7 +28635,7 @@
         <v>1.4</v>
       </c>
       <c r="AP132">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -28721,7 +28763,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28799,10 +28841,10 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR133">
         <v>1.2</v>
@@ -28927,7 +28969,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29008,7 +29050,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -29133,7 +29175,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29214,7 +29256,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ135">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR135">
         <v>1.78</v>
@@ -29339,7 +29381,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29417,10 +29459,10 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.35</v>
@@ -29545,7 +29587,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29626,7 +29668,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29957,7 +29999,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -30163,7 +30205,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30244,7 +30286,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ140">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR140">
         <v>1.55</v>
@@ -30369,7 +30411,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30450,7 +30492,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ141">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -31065,7 +31107,7 @@
         <v>2.17</v>
       </c>
       <c r="AP144">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ144">
         <v>1.62</v>
@@ -31193,7 +31235,7 @@
         <v>101</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31683,7 +31725,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ147">
         <v>1.6</v>
@@ -31811,7 +31853,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -31889,10 +31931,10 @@
         <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
@@ -32098,7 +32140,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ149">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR149">
         <v>1.26</v>
@@ -32301,7 +32343,7 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ150">
         <v>1.54</v>
@@ -32635,7 +32677,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32713,7 +32755,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ152">
         <v>1.33</v>
@@ -32841,7 +32883,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32922,7 +32964,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ153">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -33128,7 +33170,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ154">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR154">
         <v>1.14</v>
@@ -33253,7 +33295,7 @@
         <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33331,7 +33373,7 @@
         <v>0.8</v>
       </c>
       <c r="AP155">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155">
         <v>1.3</v>
@@ -33537,7 +33579,7 @@
         <v>1.17</v>
       </c>
       <c r="AP156">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33665,7 +33707,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -33746,7 +33788,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR157">
         <v>1.15</v>
@@ -33949,10 +33991,10 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR158">
         <v>1.15</v>
@@ -34155,7 +34197,7 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ159">
         <v>0.83</v>
@@ -34489,7 +34531,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>3.2</v>
@@ -34773,10 +34815,10 @@
         <v>1.67</v>
       </c>
       <c r="AP162">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR162">
         <v>1.36</v>
@@ -34982,7 +35024,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ163">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR163">
         <v>1.63</v>
@@ -35107,7 +35149,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35188,7 +35230,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ164">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35313,7 +35355,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35394,7 +35436,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35519,7 +35561,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35597,7 +35639,7 @@
         <v>0.57</v>
       </c>
       <c r="AP166">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ166">
         <v>1.08</v>
@@ -35725,7 +35767,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -36137,7 +36179,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36630,7 +36672,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR171">
         <v>1.56</v>
@@ -36833,7 +36875,7 @@
         <v>1.86</v>
       </c>
       <c r="AP172">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ172">
         <v>1.54</v>
@@ -36961,7 +37003,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -37039,7 +37081,7 @@
         <v>0.5</v>
       </c>
       <c r="AP173">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
         <v>0.73</v>
@@ -37167,7 +37209,7 @@
         <v>148</v>
       </c>
       <c r="P174" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37451,10 +37493,10 @@
         <v>0.67</v>
       </c>
       <c r="AP175">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR175">
         <v>1.45</v>
@@ -37660,7 +37702,7 @@
         <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37863,7 +37905,7 @@
         <v>2</v>
       </c>
       <c r="AP177">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ177">
         <v>1.62</v>
@@ -38072,7 +38114,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ178">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38197,7 +38239,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38278,7 +38320,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ179">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR179">
         <v>1.29</v>
@@ -38481,7 +38523,7 @@
         <v>1.86</v>
       </c>
       <c r="AP180">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ180">
         <v>1.33</v>
@@ -38687,10 +38729,10 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ181">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR181">
         <v>1.38</v>
@@ -38893,7 +38935,7 @@
         <v>1.75</v>
       </c>
       <c r="AP182">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ182">
         <v>1.54</v>
@@ -39021,7 +39063,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q183">
         <v>3.2</v>
@@ -39099,7 +39141,7 @@
         <v>0.88</v>
       </c>
       <c r="AP183">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ183">
         <v>0.77</v>
@@ -39308,7 +39350,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ184">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR184">
         <v>1.45</v>
@@ -39433,7 +39475,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39511,7 +39553,7 @@
         <v>0.67</v>
       </c>
       <c r="AP185">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ185">
         <v>1.3</v>
@@ -39720,7 +39762,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ186">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR186">
         <v>1.66</v>
@@ -39845,7 +39887,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -40132,7 +40174,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ188">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR188">
         <v>1.31</v>
@@ -40335,7 +40377,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ189">
         <v>0.6899999999999999</v>
@@ -40463,7 +40505,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40544,7 +40586,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR190">
         <v>1.22</v>
@@ -40669,7 +40711,7 @@
         <v>148</v>
       </c>
       <c r="P191" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40875,7 +40917,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -40953,7 +40995,7 @@
         <v>0.88</v>
       </c>
       <c r="AP192">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ192">
         <v>1.08</v>
@@ -41162,7 +41204,7 @@
         <v>2</v>
       </c>
       <c r="AQ193">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR193">
         <v>1.56</v>
@@ -41571,7 +41613,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ195">
         <v>0.75</v>
@@ -41777,7 +41819,7 @@
         <v>1.57</v>
       </c>
       <c r="AP196">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ196">
         <v>1.42</v>
@@ -41905,7 +41947,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42111,7 +42153,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42317,7 +42359,7 @@
         <v>122</v>
       </c>
       <c r="P199" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
@@ -42604,7 +42646,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ200">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR200">
         <v>1.45</v>
@@ -42729,7 +42771,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42935,7 +42977,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q202">
         <v>1.8</v>
@@ -43141,7 +43183,7 @@
         <v>208</v>
       </c>
       <c r="P203" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43347,7 +43389,7 @@
         <v>224</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q204">
         <v>2.4</v>
@@ -43553,7 +43595,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43965,7 +44007,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q207">
         <v>2.85</v>
@@ -44789,7 +44831,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -45073,10 +45115,10 @@
         <v>1.75</v>
       </c>
       <c r="AP212">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ212">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR212">
         <v>1.25</v>
@@ -45279,10 +45321,10 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ213">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45407,7 +45449,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -45485,7 +45527,7 @@
         <v>1.25</v>
       </c>
       <c r="AP214">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ214">
         <v>1.6</v>
@@ -45691,10 +45733,10 @@
         <v>1</v>
       </c>
       <c r="AP215">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ215">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45819,7 +45861,7 @@
         <v>235</v>
       </c>
       <c r="P216" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -45897,10 +45939,10 @@
         <v>0.88</v>
       </c>
       <c r="AP216">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ216">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR216">
         <v>1.35</v>
@@ -46106,7 +46148,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ217">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR217">
         <v>1.25</v>
@@ -46231,7 +46273,7 @@
         <v>101</v>
       </c>
       <c r="P218" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46309,7 +46351,7 @@
         <v>1.25</v>
       </c>
       <c r="AP218">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
         <v>1.3</v>
@@ -46437,7 +46479,7 @@
         <v>101</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q219">
         <v>3.2</v>
@@ -46515,10 +46557,10 @@
         <v>1.78</v>
       </c>
       <c r="AP219">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ219">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR219">
         <v>1.32</v>
@@ -46721,10 +46763,10 @@
         <v>1.57</v>
       </c>
       <c r="AP220">
+        <v>1.27</v>
+      </c>
+      <c r="AQ220">
         <v>1.1</v>
-      </c>
-      <c r="AQ220">
-        <v>1.22</v>
       </c>
       <c r="AR220">
         <v>1.22</v>
@@ -47055,7 +47097,7 @@
         <v>239</v>
       </c>
       <c r="P222" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47467,7 +47509,7 @@
         <v>101</v>
       </c>
       <c r="P224" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q224">
         <v>3.4</v>
@@ -47879,7 +47921,7 @@
         <v>101</v>
       </c>
       <c r="P226" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -48085,7 +48127,7 @@
         <v>101</v>
       </c>
       <c r="P227" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -49115,7 +49157,7 @@
         <v>240</v>
       </c>
       <c r="P232" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49399,10 +49441,10 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ233">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR233">
         <v>1.16</v>
@@ -49527,7 +49569,7 @@
         <v>241</v>
       </c>
       <c r="P234" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49608,7 +49650,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ234">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR234">
         <v>1.21</v>
@@ -49811,10 +49853,10 @@
         <v>1.38</v>
       </c>
       <c r="AP235">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ235">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR235">
         <v>1.41</v>
@@ -50017,10 +50059,10 @@
         <v>0.89</v>
       </c>
       <c r="AP236">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ236">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR236">
         <v>1.36</v>
@@ -50145,7 +50187,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q237">
         <v>2.88</v>
@@ -50223,10 +50265,10 @@
         <v>1.9</v>
       </c>
       <c r="AP237">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ237">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR237">
         <v>1.23</v>
@@ -50429,10 +50471,10 @@
         <v>0.89</v>
       </c>
       <c r="AP238">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ238">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR238">
         <v>1.18</v>
@@ -50635,10 +50677,10 @@
         <v>1</v>
       </c>
       <c r="AP239">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ239">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR239">
         <v>1.85</v>
@@ -50763,7 +50805,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50844,7 +50886,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ240">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR240">
         <v>1.15</v>
@@ -50969,7 +51011,7 @@
         <v>101</v>
       </c>
       <c r="P241" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q241">
         <v>3.75</v>
@@ -51047,7 +51089,7 @@
         <v>1.44</v>
       </c>
       <c r="AP241">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AQ241">
         <v>1.6</v>
@@ -51175,7 +51217,7 @@
         <v>101</v>
       </c>
       <c r="P242" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q242">
         <v>5.5</v>
@@ -51253,10 +51295,10 @@
         <v>1.89</v>
       </c>
       <c r="AP242">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ242">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR242">
         <v>1.17</v>
@@ -51459,7 +51501,7 @@
         <v>1.44</v>
       </c>
       <c r="AP243">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ243">
         <v>1.3</v>
@@ -51587,7 +51629,7 @@
         <v>101</v>
       </c>
       <c r="P244" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51665,10 +51707,10 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ244">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR244">
         <v>1.3</v>
@@ -51999,7 +52041,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q246">
         <v>2.38</v>
@@ -52205,7 +52247,7 @@
         <v>101</v>
       </c>
       <c r="P247" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q247">
         <v>2.6</v>
@@ -53235,7 +53277,7 @@
         <v>253</v>
       </c>
       <c r="P252" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q252">
         <v>2.1</v>
@@ -53647,7 +53689,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q254">
         <v>2.25</v>
@@ -53853,7 +53895,7 @@
         <v>101</v>
       </c>
       <c r="P255" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54158,16 +54200,16 @@
         <v>6</v>
       </c>
       <c r="AW256">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX256">
         <v>5</v>
       </c>
       <c r="AY256">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ256">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA256">
         <v>4</v>
@@ -54265,7 +54307,7 @@
         <v>114</v>
       </c>
       <c r="P257" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q257">
         <v>2.88</v>
@@ -54782,7 +54824,7 @@
         <v>0</v>
       </c>
       <c r="AY259">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ259">
         <v>6</v>
@@ -54982,16 +55024,16 @@
         <v>7</v>
       </c>
       <c r="AW260">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX260">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY260">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ260">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA260">
         <v>6</v>
@@ -55597,19 +55639,19 @@
         <v>3</v>
       </c>
       <c r="AV263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW263">
         <v>4</v>
       </c>
       <c r="AX263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY263">
         <v>13</v>
       </c>
       <c r="AZ263">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA263">
         <v>4</v>
@@ -55707,7 +55749,7 @@
         <v>258</v>
       </c>
       <c r="P264" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q264">
         <v>3.6</v>
@@ -55806,13 +55848,13 @@
         <v>7</v>
       </c>
       <c r="AW264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX264">
         <v>8</v>
       </c>
       <c r="AY264">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ264">
         <v>17</v>
@@ -56482,6 +56524,2066 @@
       </c>
       <c r="BP267">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7476823</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F268">
+        <v>24</v>
+      </c>
+      <c r="G268" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268" t="s">
+        <v>82</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <v>3</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>5</v>
+      </c>
+      <c r="O268" t="s">
+        <v>261</v>
+      </c>
+      <c r="P268" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q268">
+        <v>2.75</v>
+      </c>
+      <c r="R268">
+        <v>2</v>
+      </c>
+      <c r="S268">
+        <v>4.5</v>
+      </c>
+      <c r="T268">
+        <v>1.5</v>
+      </c>
+      <c r="U268">
+        <v>2.5</v>
+      </c>
+      <c r="V268">
+        <v>3.4</v>
+      </c>
+      <c r="W268">
+        <v>1.3</v>
+      </c>
+      <c r="X268">
+        <v>10</v>
+      </c>
+      <c r="Y268">
+        <v>1.06</v>
+      </c>
+      <c r="Z268">
+        <v>2</v>
+      </c>
+      <c r="AA268">
+        <v>3.5</v>
+      </c>
+      <c r="AB268">
+        <v>3.6</v>
+      </c>
+      <c r="AC268">
+        <v>1.07</v>
+      </c>
+      <c r="AD268">
+        <v>8</v>
+      </c>
+      <c r="AE268">
+        <v>1.42</v>
+      </c>
+      <c r="AF268">
+        <v>2.85</v>
+      </c>
+      <c r="AG268">
+        <v>2.1</v>
+      </c>
+      <c r="AH268">
+        <v>1.67</v>
+      </c>
+      <c r="AI268">
+        <v>2</v>
+      </c>
+      <c r="AJ268">
+        <v>1.73</v>
+      </c>
+      <c r="AK268">
+        <v>1.28</v>
+      </c>
+      <c r="AL268">
+        <v>1.25</v>
+      </c>
+      <c r="AM268">
+        <v>1.77</v>
+      </c>
+      <c r="AN268">
+        <v>1.9</v>
+      </c>
+      <c r="AO268">
+        <v>0.9</v>
+      </c>
+      <c r="AP268">
+        <v>2</v>
+      </c>
+      <c r="AQ268">
+        <v>0.82</v>
+      </c>
+      <c r="AR268">
+        <v>1.12</v>
+      </c>
+      <c r="AS268">
+        <v>1.09</v>
+      </c>
+      <c r="AT268">
+        <v>2.21</v>
+      </c>
+      <c r="AU268">
+        <v>9</v>
+      </c>
+      <c r="AV268">
+        <v>7</v>
+      </c>
+      <c r="AW268">
+        <v>4</v>
+      </c>
+      <c r="AX268">
+        <v>3</v>
+      </c>
+      <c r="AY268">
+        <v>19</v>
+      </c>
+      <c r="AZ268">
+        <v>14</v>
+      </c>
+      <c r="BA268">
+        <v>7</v>
+      </c>
+      <c r="BB268">
+        <v>8</v>
+      </c>
+      <c r="BC268">
+        <v>15</v>
+      </c>
+      <c r="BD268">
+        <v>1.67</v>
+      </c>
+      <c r="BE268">
+        <v>6.4</v>
+      </c>
+      <c r="BF268">
+        <v>2.48</v>
+      </c>
+      <c r="BG268">
+        <v>1.48</v>
+      </c>
+      <c r="BH268">
+        <v>2.45</v>
+      </c>
+      <c r="BI268">
+        <v>1.79</v>
+      </c>
+      <c r="BJ268">
+        <v>1.9</v>
+      </c>
+      <c r="BK268">
+        <v>2.28</v>
+      </c>
+      <c r="BL268">
+        <v>1.55</v>
+      </c>
+      <c r="BM268">
+        <v>2.95</v>
+      </c>
+      <c r="BN268">
+        <v>1.33</v>
+      </c>
+      <c r="BO268">
+        <v>3.95</v>
+      </c>
+      <c r="BP268">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7476829</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F269">
+        <v>24</v>
+      </c>
+      <c r="G269" t="s">
+        <v>93</v>
+      </c>
+      <c r="H269" t="s">
+        <v>81</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="O269" t="s">
+        <v>184</v>
+      </c>
+      <c r="P269" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q269">
+        <v>3.25</v>
+      </c>
+      <c r="R269">
+        <v>2.1</v>
+      </c>
+      <c r="S269">
+        <v>3.25</v>
+      </c>
+      <c r="T269">
+        <v>1.4</v>
+      </c>
+      <c r="U269">
+        <v>2.75</v>
+      </c>
+      <c r="V269">
+        <v>3</v>
+      </c>
+      <c r="W269">
+        <v>1.36</v>
+      </c>
+      <c r="X269">
+        <v>8</v>
+      </c>
+      <c r="Y269">
+        <v>1.08</v>
+      </c>
+      <c r="Z269">
+        <v>2.6</v>
+      </c>
+      <c r="AA269">
+        <v>3.4</v>
+      </c>
+      <c r="AB269">
+        <v>2.6</v>
+      </c>
+      <c r="AC269">
+        <v>1.06</v>
+      </c>
+      <c r="AD269">
+        <v>8.5</v>
+      </c>
+      <c r="AE269">
+        <v>1.3</v>
+      </c>
+      <c r="AF269">
+        <v>3.4</v>
+      </c>
+      <c r="AG269">
+        <v>1.92</v>
+      </c>
+      <c r="AH269">
+        <v>1.82</v>
+      </c>
+      <c r="AI269">
+        <v>1.73</v>
+      </c>
+      <c r="AJ269">
+        <v>2</v>
+      </c>
+      <c r="AK269">
+        <v>1.48</v>
+      </c>
+      <c r="AL269">
+        <v>1.25</v>
+      </c>
+      <c r="AM269">
+        <v>1.48</v>
+      </c>
+      <c r="AN269">
+        <v>1.89</v>
+      </c>
+      <c r="AO269">
+        <v>2</v>
+      </c>
+      <c r="AP269">
+        <v>1.7</v>
+      </c>
+      <c r="AQ269">
+        <v>2.09</v>
+      </c>
+      <c r="AR269">
+        <v>1.79</v>
+      </c>
+      <c r="AS269">
+        <v>1.35</v>
+      </c>
+      <c r="AT269">
+        <v>3.14</v>
+      </c>
+      <c r="AU269">
+        <v>6</v>
+      </c>
+      <c r="AV269">
+        <v>8</v>
+      </c>
+      <c r="AW269">
+        <v>4</v>
+      </c>
+      <c r="AX269">
+        <v>3</v>
+      </c>
+      <c r="AY269">
+        <v>15</v>
+      </c>
+      <c r="AZ269">
+        <v>17</v>
+      </c>
+      <c r="BA269">
+        <v>10</v>
+      </c>
+      <c r="BB269">
+        <v>8</v>
+      </c>
+      <c r="BC269">
+        <v>18</v>
+      </c>
+      <c r="BD269">
+        <v>1.98</v>
+      </c>
+      <c r="BE269">
+        <v>6.4</v>
+      </c>
+      <c r="BF269">
+        <v>1.98</v>
+      </c>
+      <c r="BG269">
+        <v>1.4</v>
+      </c>
+      <c r="BH269">
+        <v>2.7</v>
+      </c>
+      <c r="BI269">
+        <v>1.68</v>
+      </c>
+      <c r="BJ269">
+        <v>2.05</v>
+      </c>
+      <c r="BK269">
+        <v>2.08</v>
+      </c>
+      <c r="BL269">
+        <v>1.65</v>
+      </c>
+      <c r="BM269">
+        <v>2.65</v>
+      </c>
+      <c r="BN269">
+        <v>1.41</v>
+      </c>
+      <c r="BO269">
+        <v>3.55</v>
+      </c>
+      <c r="BP269">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7476827</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F270">
+        <v>24</v>
+      </c>
+      <c r="G270" t="s">
+        <v>88</v>
+      </c>
+      <c r="H270" t="s">
+        <v>80</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" t="s">
+        <v>262</v>
+      </c>
+      <c r="P270" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q270">
+        <v>3.5</v>
+      </c>
+      <c r="R270">
+        <v>2.05</v>
+      </c>
+      <c r="S270">
+        <v>3.25</v>
+      </c>
+      <c r="T270">
+        <v>1.44</v>
+      </c>
+      <c r="U270">
+        <v>2.63</v>
+      </c>
+      <c r="V270">
+        <v>3.25</v>
+      </c>
+      <c r="W270">
+        <v>1.33</v>
+      </c>
+      <c r="X270">
+        <v>10</v>
+      </c>
+      <c r="Y270">
+        <v>1.06</v>
+      </c>
+      <c r="Z270">
+        <v>2.7</v>
+      </c>
+      <c r="AA270">
+        <v>3.4</v>
+      </c>
+      <c r="AB270">
+        <v>2.5</v>
+      </c>
+      <c r="AC270">
+        <v>1.06</v>
+      </c>
+      <c r="AD270">
+        <v>8.5</v>
+      </c>
+      <c r="AE270">
+        <v>1.35</v>
+      </c>
+      <c r="AF270">
+        <v>3.1</v>
+      </c>
+      <c r="AG270">
+        <v>2.1</v>
+      </c>
+      <c r="AH270">
+        <v>1.68</v>
+      </c>
+      <c r="AI270">
+        <v>1.83</v>
+      </c>
+      <c r="AJ270">
+        <v>1.83</v>
+      </c>
+      <c r="AK270">
+        <v>1.5</v>
+      </c>
+      <c r="AL270">
+        <v>1.25</v>
+      </c>
+      <c r="AM270">
+        <v>1.44</v>
+      </c>
+      <c r="AN270">
+        <v>0.3</v>
+      </c>
+      <c r="AO270">
+        <v>0.8</v>
+      </c>
+      <c r="AP270">
+        <v>0.55</v>
+      </c>
+      <c r="AQ270">
+        <v>0.73</v>
+      </c>
+      <c r="AR270">
+        <v>1.29</v>
+      </c>
+      <c r="AS270">
+        <v>1.18</v>
+      </c>
+      <c r="AT270">
+        <v>2.47</v>
+      </c>
+      <c r="AU270">
+        <v>8</v>
+      </c>
+      <c r="AV270">
+        <v>5</v>
+      </c>
+      <c r="AW270">
+        <v>1</v>
+      </c>
+      <c r="AX270">
+        <v>7</v>
+      </c>
+      <c r="AY270">
+        <v>14</v>
+      </c>
+      <c r="AZ270">
+        <v>12</v>
+      </c>
+      <c r="BA270">
+        <v>13</v>
+      </c>
+      <c r="BB270">
+        <v>1</v>
+      </c>
+      <c r="BC270">
+        <v>14</v>
+      </c>
+      <c r="BD270">
+        <v>2.05</v>
+      </c>
+      <c r="BE270">
+        <v>6.25</v>
+      </c>
+      <c r="BF270">
+        <v>1.95</v>
+      </c>
+      <c r="BG270">
+        <v>1.47</v>
+      </c>
+      <c r="BH270">
+        <v>2.48</v>
+      </c>
+      <c r="BI270">
+        <v>1.77</v>
+      </c>
+      <c r="BJ270">
+        <v>1.92</v>
+      </c>
+      <c r="BK270">
+        <v>2.23</v>
+      </c>
+      <c r="BL270">
+        <v>1.56</v>
+      </c>
+      <c r="BM270">
+        <v>2.9</v>
+      </c>
+      <c r="BN270">
+        <v>1.34</v>
+      </c>
+      <c r="BO270">
+        <v>3.9</v>
+      </c>
+      <c r="BP270">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7476824</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F271">
+        <v>24</v>
+      </c>
+      <c r="G271" t="s">
+        <v>74</v>
+      </c>
+      <c r="H271" t="s">
+        <v>75</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>3</v>
+      </c>
+      <c r="O271" t="s">
+        <v>263</v>
+      </c>
+      <c r="P271" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q271">
+        <v>2.4</v>
+      </c>
+      <c r="R271">
+        <v>2.2</v>
+      </c>
+      <c r="S271">
+        <v>4.75</v>
+      </c>
+      <c r="T271">
+        <v>1.4</v>
+      </c>
+      <c r="U271">
+        <v>2.75</v>
+      </c>
+      <c r="V271">
+        <v>3</v>
+      </c>
+      <c r="W271">
+        <v>1.36</v>
+      </c>
+      <c r="X271">
+        <v>8</v>
+      </c>
+      <c r="Y271">
+        <v>1.08</v>
+      </c>
+      <c r="Z271">
+        <v>1.8</v>
+      </c>
+      <c r="AA271">
+        <v>3.6</v>
+      </c>
+      <c r="AB271">
+        <v>4.33</v>
+      </c>
+      <c r="AC271">
+        <v>1.06</v>
+      </c>
+      <c r="AD271">
+        <v>8.5</v>
+      </c>
+      <c r="AE271">
+        <v>1.3</v>
+      </c>
+      <c r="AF271">
+        <v>3.4</v>
+      </c>
+      <c r="AG271">
+        <v>1.92</v>
+      </c>
+      <c r="AH271">
+        <v>1.82</v>
+      </c>
+      <c r="AI271">
+        <v>1.83</v>
+      </c>
+      <c r="AJ271">
+        <v>1.83</v>
+      </c>
+      <c r="AK271">
+        <v>1.2</v>
+      </c>
+      <c r="AL271">
+        <v>1.22</v>
+      </c>
+      <c r="AM271">
+        <v>2</v>
+      </c>
+      <c r="AN271">
+        <v>1.73</v>
+      </c>
+      <c r="AO271">
+        <v>1.22</v>
+      </c>
+      <c r="AP271">
+        <v>1.83</v>
+      </c>
+      <c r="AQ271">
+        <v>1.1</v>
+      </c>
+      <c r="AR271">
+        <v>1.45</v>
+      </c>
+      <c r="AS271">
+        <v>1.12</v>
+      </c>
+      <c r="AT271">
+        <v>2.57</v>
+      </c>
+      <c r="AU271">
+        <v>7</v>
+      </c>
+      <c r="AV271">
+        <v>4</v>
+      </c>
+      <c r="AW271">
+        <v>4</v>
+      </c>
+      <c r="AX271">
+        <v>5</v>
+      </c>
+      <c r="AY271">
+        <v>16</v>
+      </c>
+      <c r="AZ271">
+        <v>10</v>
+      </c>
+      <c r="BA271">
+        <v>6</v>
+      </c>
+      <c r="BB271">
+        <v>7</v>
+      </c>
+      <c r="BC271">
+        <v>13</v>
+      </c>
+      <c r="BD271">
+        <v>1.55</v>
+      </c>
+      <c r="BE271">
+        <v>6.4</v>
+      </c>
+      <c r="BF271">
+        <v>2.7</v>
+      </c>
+      <c r="BG271">
+        <v>1.42</v>
+      </c>
+      <c r="BH271">
+        <v>2.65</v>
+      </c>
+      <c r="BI271">
+        <v>1.7</v>
+      </c>
+      <c r="BJ271">
+        <v>2</v>
+      </c>
+      <c r="BK271">
+        <v>2.1</v>
+      </c>
+      <c r="BL271">
+        <v>1.64</v>
+      </c>
+      <c r="BM271">
+        <v>2.7</v>
+      </c>
+      <c r="BN271">
+        <v>1.4</v>
+      </c>
+      <c r="BO271">
+        <v>3.55</v>
+      </c>
+      <c r="BP271">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7476826</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F272">
+        <v>24</v>
+      </c>
+      <c r="G272" t="s">
+        <v>77</v>
+      </c>
+      <c r="H272" t="s">
+        <v>79</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>2</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>101</v>
+      </c>
+      <c r="P272" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q272">
+        <v>4</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
+        <v>2.88</v>
+      </c>
+      <c r="T272">
+        <v>1.5</v>
+      </c>
+      <c r="U272">
+        <v>2.5</v>
+      </c>
+      <c r="V272">
+        <v>3.4</v>
+      </c>
+      <c r="W272">
+        <v>1.3</v>
+      </c>
+      <c r="X272">
+        <v>10</v>
+      </c>
+      <c r="Y272">
+        <v>1.06</v>
+      </c>
+      <c r="Z272">
+        <v>3.4</v>
+      </c>
+      <c r="AA272">
+        <v>3.4</v>
+      </c>
+      <c r="AB272">
+        <v>2.1</v>
+      </c>
+      <c r="AC272">
+        <v>1.07</v>
+      </c>
+      <c r="AD272">
+        <v>8</v>
+      </c>
+      <c r="AE272">
+        <v>1.38</v>
+      </c>
+      <c r="AF272">
+        <v>2.95</v>
+      </c>
+      <c r="AG272">
+        <v>2.14</v>
+      </c>
+      <c r="AH272">
+        <v>1.65</v>
+      </c>
+      <c r="AI272">
+        <v>1.91</v>
+      </c>
+      <c r="AJ272">
+        <v>1.8</v>
+      </c>
+      <c r="AK272">
+        <v>1.7</v>
+      </c>
+      <c r="AL272">
+        <v>1.25</v>
+      </c>
+      <c r="AM272">
+        <v>1.3</v>
+      </c>
+      <c r="AN272">
+        <v>1.09</v>
+      </c>
+      <c r="AO272">
+        <v>1.2</v>
+      </c>
+      <c r="AP272">
+        <v>1</v>
+      </c>
+      <c r="AQ272">
+        <v>1.36</v>
+      </c>
+      <c r="AR272">
+        <v>1.11</v>
+      </c>
+      <c r="AS272">
+        <v>1.13</v>
+      </c>
+      <c r="AT272">
+        <v>2.24</v>
+      </c>
+      <c r="AU272">
+        <v>2</v>
+      </c>
+      <c r="AV272">
+        <v>7</v>
+      </c>
+      <c r="AW272">
+        <v>3</v>
+      </c>
+      <c r="AX272">
+        <v>10</v>
+      </c>
+      <c r="AY272">
+        <v>10</v>
+      </c>
+      <c r="AZ272">
+        <v>23</v>
+      </c>
+      <c r="BA272">
+        <v>9</v>
+      </c>
+      <c r="BB272">
+        <v>8</v>
+      </c>
+      <c r="BC272">
+        <v>17</v>
+      </c>
+      <c r="BD272">
+        <v>2.4</v>
+      </c>
+      <c r="BE272">
+        <v>6.4</v>
+      </c>
+      <c r="BF272">
+        <v>1.72</v>
+      </c>
+      <c r="BG272">
+        <v>1.47</v>
+      </c>
+      <c r="BH272">
+        <v>2.48</v>
+      </c>
+      <c r="BI272">
+        <v>1.78</v>
+      </c>
+      <c r="BJ272">
+        <v>1.92</v>
+      </c>
+      <c r="BK272">
+        <v>2.25</v>
+      </c>
+      <c r="BL272">
+        <v>1.55</v>
+      </c>
+      <c r="BM272">
+        <v>2.9</v>
+      </c>
+      <c r="BN272">
+        <v>1.34</v>
+      </c>
+      <c r="BO272">
+        <v>3.9</v>
+      </c>
+      <c r="BP272">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7476831</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F273">
+        <v>24</v>
+      </c>
+      <c r="G273" t="s">
+        <v>91</v>
+      </c>
+      <c r="H273" t="s">
+        <v>85</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>3</v>
+      </c>
+      <c r="M273">
+        <v>2</v>
+      </c>
+      <c r="N273">
+        <v>5</v>
+      </c>
+      <c r="O273" t="s">
+        <v>264</v>
+      </c>
+      <c r="P273" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q273">
+        <v>3.1</v>
+      </c>
+      <c r="R273">
+        <v>2.2</v>
+      </c>
+      <c r="S273">
+        <v>3.4</v>
+      </c>
+      <c r="T273">
+        <v>1.4</v>
+      </c>
+      <c r="U273">
+        <v>2.75</v>
+      </c>
+      <c r="V273">
+        <v>2.75</v>
+      </c>
+      <c r="W273">
+        <v>1.4</v>
+      </c>
+      <c r="X273">
+        <v>8</v>
+      </c>
+      <c r="Y273">
+        <v>1.08</v>
+      </c>
+      <c r="Z273">
+        <v>2.4</v>
+      </c>
+      <c r="AA273">
+        <v>3.5</v>
+      </c>
+      <c r="AB273">
+        <v>2.75</v>
+      </c>
+      <c r="AC273">
+        <v>1.05</v>
+      </c>
+      <c r="AD273">
+        <v>11</v>
+      </c>
+      <c r="AE273">
+        <v>1.3</v>
+      </c>
+      <c r="AF273">
+        <v>3.4</v>
+      </c>
+      <c r="AG273">
+        <v>1.87</v>
+      </c>
+      <c r="AH273">
+        <v>1.87</v>
+      </c>
+      <c r="AI273">
+        <v>1.73</v>
+      </c>
+      <c r="AJ273">
+        <v>2</v>
+      </c>
+      <c r="AK273">
+        <v>1.44</v>
+      </c>
+      <c r="AL273">
+        <v>1.31</v>
+      </c>
+      <c r="AM273">
+        <v>1.5</v>
+      </c>
+      <c r="AN273">
+        <v>1.1</v>
+      </c>
+      <c r="AO273">
+        <v>1</v>
+      </c>
+      <c r="AP273">
+        <v>1.27</v>
+      </c>
+      <c r="AQ273">
+        <v>0.91</v>
+      </c>
+      <c r="AR273">
+        <v>1.26</v>
+      </c>
+      <c r="AS273">
+        <v>1.05</v>
+      </c>
+      <c r="AT273">
+        <v>2.31</v>
+      </c>
+      <c r="AU273">
+        <v>7</v>
+      </c>
+      <c r="AV273">
+        <v>5</v>
+      </c>
+      <c r="AW273">
+        <v>8</v>
+      </c>
+      <c r="AX273">
+        <v>1</v>
+      </c>
+      <c r="AY273">
+        <v>16</v>
+      </c>
+      <c r="AZ273">
+        <v>7</v>
+      </c>
+      <c r="BA273">
+        <v>3</v>
+      </c>
+      <c r="BB273">
+        <v>3</v>
+      </c>
+      <c r="BC273">
+        <v>6</v>
+      </c>
+      <c r="BD273">
+        <v>1.88</v>
+      </c>
+      <c r="BE273">
+        <v>6.5</v>
+      </c>
+      <c r="BF273">
+        <v>2.15</v>
+      </c>
+      <c r="BG273">
+        <v>1.27</v>
+      </c>
+      <c r="BH273">
+        <v>3.3</v>
+      </c>
+      <c r="BI273">
+        <v>1.47</v>
+      </c>
+      <c r="BJ273">
+        <v>2.48</v>
+      </c>
+      <c r="BK273">
+        <v>1.7</v>
+      </c>
+      <c r="BL273">
+        <v>2.05</v>
+      </c>
+      <c r="BM273">
+        <v>2.18</v>
+      </c>
+      <c r="BN273">
+        <v>1.58</v>
+      </c>
+      <c r="BO273">
+        <v>2.75</v>
+      </c>
+      <c r="BP273">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7476830</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F274">
+        <v>24</v>
+      </c>
+      <c r="G274" t="s">
+        <v>90</v>
+      </c>
+      <c r="H274" t="s">
+        <v>73</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274" t="s">
+        <v>101</v>
+      </c>
+      <c r="P274" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q274">
+        <v>2.38</v>
+      </c>
+      <c r="R274">
+        <v>2.2</v>
+      </c>
+      <c r="S274">
+        <v>5</v>
+      </c>
+      <c r="T274">
+        <v>1.4</v>
+      </c>
+      <c r="U274">
+        <v>2.75</v>
+      </c>
+      <c r="V274">
+        <v>3</v>
+      </c>
+      <c r="W274">
+        <v>1.36</v>
+      </c>
+      <c r="X274">
+        <v>8</v>
+      </c>
+      <c r="Y274">
+        <v>1.08</v>
+      </c>
+      <c r="Z274">
+        <v>1.73</v>
+      </c>
+      <c r="AA274">
+        <v>4</v>
+      </c>
+      <c r="AB274">
+        <v>4.33</v>
+      </c>
+      <c r="AC274">
+        <v>1.05</v>
+      </c>
+      <c r="AD274">
+        <v>10</v>
+      </c>
+      <c r="AE274">
+        <v>1.33</v>
+      </c>
+      <c r="AF274">
+        <v>3.3</v>
+      </c>
+      <c r="AG274">
+        <v>1.92</v>
+      </c>
+      <c r="AH274">
+        <v>1.82</v>
+      </c>
+      <c r="AI274">
+        <v>1.91</v>
+      </c>
+      <c r="AJ274">
+        <v>1.8</v>
+      </c>
+      <c r="AK274">
+        <v>1.19</v>
+      </c>
+      <c r="AL274">
+        <v>1.26</v>
+      </c>
+      <c r="AM274">
+        <v>2.05</v>
+      </c>
+      <c r="AN274">
+        <v>1.6</v>
+      </c>
+      <c r="AO274">
+        <v>0.9</v>
+      </c>
+      <c r="AP274">
+        <v>1.55</v>
+      </c>
+      <c r="AQ274">
+        <v>0.91</v>
+      </c>
+      <c r="AR274">
+        <v>1.16</v>
+      </c>
+      <c r="AS274">
+        <v>1.13</v>
+      </c>
+      <c r="AT274">
+        <v>2.29</v>
+      </c>
+      <c r="AU274">
+        <v>5</v>
+      </c>
+      <c r="AV274">
+        <v>5</v>
+      </c>
+      <c r="AW274">
+        <v>7</v>
+      </c>
+      <c r="AX274">
+        <v>5</v>
+      </c>
+      <c r="AY274">
+        <v>17</v>
+      </c>
+      <c r="AZ274">
+        <v>14</v>
+      </c>
+      <c r="BA274">
+        <v>6</v>
+      </c>
+      <c r="BB274">
+        <v>6</v>
+      </c>
+      <c r="BC274">
+        <v>12</v>
+      </c>
+      <c r="BD274">
+        <v>1.53</v>
+      </c>
+      <c r="BE274">
+        <v>6.75</v>
+      </c>
+      <c r="BF274">
+        <v>2.8</v>
+      </c>
+      <c r="BG274">
+        <v>1.33</v>
+      </c>
+      <c r="BH274">
+        <v>3</v>
+      </c>
+      <c r="BI274">
+        <v>1.55</v>
+      </c>
+      <c r="BJ274">
+        <v>2.25</v>
+      </c>
+      <c r="BK274">
+        <v>1.77</v>
+      </c>
+      <c r="BL274">
+        <v>1.95</v>
+      </c>
+      <c r="BM274">
+        <v>2.33</v>
+      </c>
+      <c r="BN274">
+        <v>1.5</v>
+      </c>
+      <c r="BO274">
+        <v>3.05</v>
+      </c>
+      <c r="BP274">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7476822</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F275">
+        <v>24</v>
+      </c>
+      <c r="G275" t="s">
+        <v>70</v>
+      </c>
+      <c r="H275" t="s">
+        <v>78</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>2</v>
+      </c>
+      <c r="K275">
+        <v>2</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+      <c r="N275">
+        <v>3</v>
+      </c>
+      <c r="O275" t="s">
+        <v>265</v>
+      </c>
+      <c r="P275" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q275">
+        <v>2.88</v>
+      </c>
+      <c r="R275">
+        <v>2.25</v>
+      </c>
+      <c r="S275">
+        <v>3.4</v>
+      </c>
+      <c r="T275">
+        <v>1.33</v>
+      </c>
+      <c r="U275">
+        <v>3.25</v>
+      </c>
+      <c r="V275">
+        <v>2.63</v>
+      </c>
+      <c r="W275">
+        <v>1.44</v>
+      </c>
+      <c r="X275">
+        <v>6.5</v>
+      </c>
+      <c r="Y275">
+        <v>1.11</v>
+      </c>
+      <c r="Z275">
+        <v>2.25</v>
+      </c>
+      <c r="AA275">
+        <v>3.5</v>
+      </c>
+      <c r="AB275">
+        <v>3</v>
+      </c>
+      <c r="AC275">
+        <v>1.05</v>
+      </c>
+      <c r="AD275">
+        <v>9.5</v>
+      </c>
+      <c r="AE275">
+        <v>1.22</v>
+      </c>
+      <c r="AF275">
+        <v>4</v>
+      </c>
+      <c r="AG275">
+        <v>1.68</v>
+      </c>
+      <c r="AH275">
+        <v>2.08</v>
+      </c>
+      <c r="AI275">
+        <v>1.57</v>
+      </c>
+      <c r="AJ275">
+        <v>2.25</v>
+      </c>
+      <c r="AK275">
+        <v>1.36</v>
+      </c>
+      <c r="AL275">
+        <v>1.25</v>
+      </c>
+      <c r="AM275">
+        <v>1.62</v>
+      </c>
+      <c r="AN275">
+        <v>1.64</v>
+      </c>
+      <c r="AO275">
+        <v>1.25</v>
+      </c>
+      <c r="AP275">
+        <v>1.5</v>
+      </c>
+      <c r="AQ275">
+        <v>1.44</v>
+      </c>
+      <c r="AR275">
+        <v>1.46</v>
+      </c>
+      <c r="AS275">
+        <v>1.53</v>
+      </c>
+      <c r="AT275">
+        <v>2.99</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>5</v>
+      </c>
+      <c r="AW275">
+        <v>7</v>
+      </c>
+      <c r="AX275">
+        <v>3</v>
+      </c>
+      <c r="AY275">
+        <v>17</v>
+      </c>
+      <c r="AZ275">
+        <v>9</v>
+      </c>
+      <c r="BA275">
+        <v>8</v>
+      </c>
+      <c r="BB275">
+        <v>3</v>
+      </c>
+      <c r="BC275">
+        <v>11</v>
+      </c>
+      <c r="BD275">
+        <v>1.83</v>
+      </c>
+      <c r="BE275">
+        <v>6.4</v>
+      </c>
+      <c r="BF275">
+        <v>2.18</v>
+      </c>
+      <c r="BG275">
+        <v>1.35</v>
+      </c>
+      <c r="BH275">
+        <v>2.88</v>
+      </c>
+      <c r="BI275">
+        <v>1.6</v>
+      </c>
+      <c r="BJ275">
+        <v>2.17</v>
+      </c>
+      <c r="BK275">
+        <v>1.98</v>
+      </c>
+      <c r="BL275">
+        <v>1.73</v>
+      </c>
+      <c r="BM275">
+        <v>2.5</v>
+      </c>
+      <c r="BN275">
+        <v>1.46</v>
+      </c>
+      <c r="BO275">
+        <v>3.25</v>
+      </c>
+      <c r="BP275">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7476820</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F276">
+        <v>24</v>
+      </c>
+      <c r="G276" t="s">
+        <v>84</v>
+      </c>
+      <c r="H276" t="s">
+        <v>87</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>2</v>
+      </c>
+      <c r="K276">
+        <v>3</v>
+      </c>
+      <c r="L276">
+        <v>3</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>5</v>
+      </c>
+      <c r="O276" t="s">
+        <v>266</v>
+      </c>
+      <c r="P276" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q276">
+        <v>3.1</v>
+      </c>
+      <c r="R276">
+        <v>2.25</v>
+      </c>
+      <c r="S276">
+        <v>3.2</v>
+      </c>
+      <c r="T276">
+        <v>1.33</v>
+      </c>
+      <c r="U276">
+        <v>3.25</v>
+      </c>
+      <c r="V276">
+        <v>2.63</v>
+      </c>
+      <c r="W276">
+        <v>1.44</v>
+      </c>
+      <c r="X276">
+        <v>6.5</v>
+      </c>
+      <c r="Y276">
+        <v>1.11</v>
+      </c>
+      <c r="Z276">
+        <v>2.5</v>
+      </c>
+      <c r="AA276">
+        <v>3.5</v>
+      </c>
+      <c r="AB276">
+        <v>2.62</v>
+      </c>
+      <c r="AC276">
+        <v>1.05</v>
+      </c>
+      <c r="AD276">
+        <v>9.5</v>
+      </c>
+      <c r="AE276">
+        <v>1.22</v>
+      </c>
+      <c r="AF276">
+        <v>4</v>
+      </c>
+      <c r="AG276">
+        <v>1.68</v>
+      </c>
+      <c r="AH276">
+        <v>2.07</v>
+      </c>
+      <c r="AI276">
+        <v>1.57</v>
+      </c>
+      <c r="AJ276">
+        <v>2.25</v>
+      </c>
+      <c r="AK276">
+        <v>1.48</v>
+      </c>
+      <c r="AL276">
+        <v>1.25</v>
+      </c>
+      <c r="AM276">
+        <v>1.5</v>
+      </c>
+      <c r="AN276">
+        <v>1.1</v>
+      </c>
+      <c r="AO276">
+        <v>1.73</v>
+      </c>
+      <c r="AP276">
+        <v>1.27</v>
+      </c>
+      <c r="AQ276">
+        <v>1.58</v>
+      </c>
+      <c r="AR276">
+        <v>1.27</v>
+      </c>
+      <c r="AS276">
+        <v>1.15</v>
+      </c>
+      <c r="AT276">
+        <v>2.42</v>
+      </c>
+      <c r="AU276">
+        <v>7</v>
+      </c>
+      <c r="AV276">
+        <v>7</v>
+      </c>
+      <c r="AW276">
+        <v>3</v>
+      </c>
+      <c r="AX276">
+        <v>7</v>
+      </c>
+      <c r="AY276">
+        <v>12</v>
+      </c>
+      <c r="AZ276">
+        <v>17</v>
+      </c>
+      <c r="BA276">
+        <v>1</v>
+      </c>
+      <c r="BB276">
+        <v>10</v>
+      </c>
+      <c r="BC276">
+        <v>11</v>
+      </c>
+      <c r="BD276">
+        <v>1.94</v>
+      </c>
+      <c r="BE276">
+        <v>6.4</v>
+      </c>
+      <c r="BF276">
+        <v>2.05</v>
+      </c>
+      <c r="BG276">
+        <v>1.36</v>
+      </c>
+      <c r="BH276">
+        <v>2.8</v>
+      </c>
+      <c r="BI276">
+        <v>1.63</v>
+      </c>
+      <c r="BJ276">
+        <v>2.15</v>
+      </c>
+      <c r="BK276">
+        <v>1.98</v>
+      </c>
+      <c r="BL276">
+        <v>1.72</v>
+      </c>
+      <c r="BM276">
+        <v>2.5</v>
+      </c>
+      <c r="BN276">
+        <v>1.46</v>
+      </c>
+      <c r="BO276">
+        <v>3.3</v>
+      </c>
+      <c r="BP276">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7476821</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45658.5</v>
+      </c>
+      <c r="F277">
+        <v>24</v>
+      </c>
+      <c r="G277" t="s">
+        <v>72</v>
+      </c>
+      <c r="H277" t="s">
+        <v>92</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277" t="s">
+        <v>267</v>
+      </c>
+      <c r="P277" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q277">
+        <v>3.4</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>3.4</v>
+      </c>
+      <c r="T277">
+        <v>1.5</v>
+      </c>
+      <c r="U277">
+        <v>2.5</v>
+      </c>
+      <c r="V277">
+        <v>3.4</v>
+      </c>
+      <c r="W277">
+        <v>1.3</v>
+      </c>
+      <c r="X277">
+        <v>10</v>
+      </c>
+      <c r="Y277">
+        <v>1.06</v>
+      </c>
+      <c r="Z277">
+        <v>2.6</v>
+      </c>
+      <c r="AA277">
+        <v>3.4</v>
+      </c>
+      <c r="AB277">
+        <v>2.6</v>
+      </c>
+      <c r="AC277">
+        <v>1.06</v>
+      </c>
+      <c r="AD277">
+        <v>8.5</v>
+      </c>
+      <c r="AE277">
+        <v>1.4</v>
+      </c>
+      <c r="AF277">
+        <v>2.9</v>
+      </c>
+      <c r="AG277">
+        <v>2.2</v>
+      </c>
+      <c r="AH277">
+        <v>1.61</v>
+      </c>
+      <c r="AI277">
+        <v>1.91</v>
+      </c>
+      <c r="AJ277">
+        <v>1.8</v>
+      </c>
+      <c r="AK277">
+        <v>1.48</v>
+      </c>
+      <c r="AL277">
+        <v>1.25</v>
+      </c>
+      <c r="AM277">
+        <v>1.48</v>
+      </c>
+      <c r="AN277">
+        <v>1.8</v>
+      </c>
+      <c r="AO277">
+        <v>0.91</v>
+      </c>
+      <c r="AP277">
+        <v>1.73</v>
+      </c>
+      <c r="AQ277">
+        <v>0.92</v>
+      </c>
+      <c r="AR277">
+        <v>1.43</v>
+      </c>
+      <c r="AS277">
+        <v>1.25</v>
+      </c>
+      <c r="AT277">
+        <v>2.68</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>4</v>
+      </c>
+      <c r="AW277">
+        <v>2</v>
+      </c>
+      <c r="AX277">
+        <v>6</v>
+      </c>
+      <c r="AY277">
+        <v>8</v>
+      </c>
+      <c r="AZ277">
+        <v>10</v>
+      </c>
+      <c r="BA277">
+        <v>3</v>
+      </c>
+      <c r="BB277">
+        <v>2</v>
+      </c>
+      <c r="BC277">
+        <v>5</v>
+      </c>
+      <c r="BD277">
+        <v>1.98</v>
+      </c>
+      <c r="BE277">
+        <v>6.25</v>
+      </c>
+      <c r="BF277">
+        <v>1.98</v>
+      </c>
+      <c r="BG277">
+        <v>1.49</v>
+      </c>
+      <c r="BH277">
+        <v>2.43</v>
+      </c>
+      <c r="BI277">
+        <v>1.8</v>
+      </c>
+      <c r="BJ277">
+        <v>1.9</v>
+      </c>
+      <c r="BK277">
+        <v>2.28</v>
+      </c>
+      <c r="BL277">
+        <v>1.54</v>
+      </c>
+      <c r="BM277">
+        <v>3</v>
+      </c>
+      <c r="BN277">
+        <v>1.32</v>
+      </c>
+      <c r="BO277">
+        <v>4</v>
+      </c>
+      <c r="BP277">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,12 @@
     <t>['45+2', '78']</t>
   </si>
   <si>
+    <t>['17', '36']</t>
+  </si>
+  <si>
+    <t>['45+1', '48', '69']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -1157,6 +1163,18 @@
   </si>
   <si>
     <t>['23', '86']</t>
+  </si>
+  <si>
+    <t>['7', '26', '76']</t>
+  </si>
+  <si>
+    <t>['49', '77']</t>
+  </si>
+  <si>
+    <t>['56', '61']</t>
+  </si>
+  <si>
+    <t>['18', '59']</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1876,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1983,7 +2001,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2267,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4">
         <v>1.42</v>
@@ -2395,7 +2413,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2679,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ6">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2888,7 +2906,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3013,7 +3031,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3091,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ8">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3219,7 +3237,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3300,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3425,7 +3443,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3503,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>0.92</v>
@@ -3631,7 +3649,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3712,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3915,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12">
         <v>1.54</v>
@@ -4536,7 +4554,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4661,7 +4679,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4742,7 +4760,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4945,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ17">
         <v>1.44</v>
@@ -5073,7 +5091,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5279,7 +5297,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5769,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -6103,7 +6121,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6387,10 +6405,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6515,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6593,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ25">
         <v>1.1</v>
@@ -6721,7 +6739,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6799,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ26">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -7005,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ27">
         <v>2.09</v>
@@ -7214,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -7417,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
         <v>1.08</v>
@@ -7545,7 +7563,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7623,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7829,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -8244,7 +8262,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8450,7 +8468,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ34">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8653,10 +8671,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8859,10 +8877,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ36">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR36">
         <v>1.13</v>
@@ -8987,7 +9005,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9065,10 +9083,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ37">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.61</v>
@@ -9193,7 +9211,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9477,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9605,7 +9623,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10017,7 +10035,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10429,7 +10447,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10635,7 +10653,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11253,7 +11271,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11665,7 +11683,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11743,10 +11761,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ50">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>0.78</v>
@@ -11871,7 +11889,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11949,10 +11967,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ51">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -12158,7 +12176,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -12364,7 +12382,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12567,10 +12585,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12979,7 +12997,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13185,10 +13203,10 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13391,7 +13409,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>2.09</v>
@@ -13597,10 +13615,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ59">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR59">
         <v>1.79</v>
@@ -14549,7 +14567,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14961,7 +14979,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15245,7 +15263,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ67">
         <v>0.73</v>
@@ -15579,7 +15597,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15785,7 +15803,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15991,7 +16009,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -16197,7 +16215,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16278,7 +16296,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ72">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16609,7 +16627,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16690,7 +16708,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ74">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.69</v>
@@ -16815,7 +16833,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -17021,7 +17039,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17099,7 +17117,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17308,7 +17326,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR77">
         <v>1.15</v>
@@ -17433,7 +17451,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17511,7 +17529,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17717,7 +17735,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ79">
         <v>0.73</v>
@@ -17923,10 +17941,10 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ80">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18129,7 +18147,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ81">
         <v>0.6899999999999999</v>
@@ -18338,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>0.97</v>
@@ -18463,7 +18481,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18747,10 +18765,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ84">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -19574,7 +19592,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ88">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19699,7 +19717,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19777,7 +19795,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ89">
         <v>1.42</v>
@@ -20111,7 +20129,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20189,7 +20207,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20317,7 +20335,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20523,7 +20541,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20604,7 +20622,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ93">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR93">
         <v>1.37</v>
@@ -20807,7 +20825,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ94">
         <v>0.75</v>
@@ -20935,7 +20953,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21141,7 +21159,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21425,10 +21443,10 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR97">
         <v>1.07</v>
@@ -21631,10 +21649,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ98">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>0.92</v>
@@ -21759,7 +21777,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21965,7 +21983,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22249,10 +22267,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR101">
         <v>1.31</v>
@@ -22377,7 +22395,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22458,7 +22476,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ102">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
         <v>1.14</v>
@@ -22583,7 +22601,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22789,7 +22807,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23073,7 +23091,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ105">
         <v>0.75</v>
@@ -23201,7 +23219,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23488,7 +23506,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23694,7 +23712,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23897,10 +23915,10 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ109">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR109">
         <v>1.69</v>
@@ -24103,7 +24121,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>0.73</v>
@@ -24518,7 +24536,7 @@
         <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR112">
         <v>1.25</v>
@@ -24643,7 +24661,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24849,7 +24867,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24927,7 +24945,7 @@
         <v>0.25</v>
       </c>
       <c r="AP114">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ114">
         <v>0.91</v>
@@ -25339,10 +25357,10 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ116">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25467,7 +25485,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25545,7 +25563,7 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ117">
         <v>0.6899999999999999</v>
@@ -25673,7 +25691,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25879,7 +25897,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25957,7 +25975,7 @@
         <v>0.8</v>
       </c>
       <c r="AP119">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ119">
         <v>0.92</v>
@@ -26085,7 +26103,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26166,7 +26184,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR120">
         <v>1.19</v>
@@ -26369,10 +26387,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR121">
         <v>1.34</v>
@@ -26703,7 +26721,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26781,10 +26799,10 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ123">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR123">
         <v>1.25</v>
@@ -26987,7 +27005,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ124">
         <v>1.42</v>
@@ -27115,7 +27133,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27193,7 +27211,7 @@
         <v>0.2</v>
       </c>
       <c r="AP125">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ125">
         <v>1.08</v>
@@ -27402,7 +27420,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27527,7 +27545,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27608,7 +27626,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ127">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27733,7 +27751,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27811,7 +27829,7 @@
         <v>1.4</v>
       </c>
       <c r="AP128">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -28223,10 +28241,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ130">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR130">
         <v>1.71</v>
@@ -28351,7 +28369,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28557,7 +28575,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28763,7 +28781,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28844,7 +28862,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.2</v>
@@ -28969,7 +28987,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29175,7 +29193,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29253,7 +29271,7 @@
         <v>0.2</v>
       </c>
       <c r="AP135">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ135">
         <v>0.91</v>
@@ -29381,7 +29399,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29587,7 +29605,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29871,7 +29889,7 @@
         <v>1.4</v>
       </c>
       <c r="AP138">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29999,7 +30017,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -30080,7 +30098,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ139">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.5</v>
@@ -30205,7 +30223,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30286,7 +30304,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ140">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR140">
         <v>1.55</v>
@@ -30411,7 +30429,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30489,10 +30507,10 @@
         <v>1.5</v>
       </c>
       <c r="AP141">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ141">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30698,7 +30716,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR142">
         <v>1.41</v>
@@ -30901,10 +30919,10 @@
         <v>0.6</v>
       </c>
       <c r="AP143">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR143">
         <v>1.27</v>
@@ -31110,7 +31128,7 @@
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR144">
         <v>1.14</v>
@@ -31235,7 +31253,7 @@
         <v>101</v>
       </c>
       <c r="P145" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31313,7 +31331,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ145">
         <v>0.6899999999999999</v>
@@ -31725,10 +31743,10 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ147">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR147">
         <v>1.18</v>
@@ -31853,7 +31871,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32343,7 +32361,7 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ150">
         <v>1.54</v>
@@ -32677,7 +32695,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32883,7 +32901,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32961,10 +32979,10 @@
         <v>0.8</v>
       </c>
       <c r="AP153">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ153">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -33167,7 +33185,7 @@
         <v>1.67</v>
       </c>
       <c r="AP154">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ154">
         <v>1.1</v>
@@ -33295,7 +33313,7 @@
         <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33376,7 +33394,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ155">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR155">
         <v>1.41</v>
@@ -33707,7 +33725,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -34197,10 +34215,10 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ159">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.61</v>
@@ -34531,7 +34549,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>3.2</v>
@@ -34609,7 +34627,7 @@
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ161">
         <v>1.5</v>
@@ -35149,7 +35167,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35230,7 +35248,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ164">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35355,7 +35373,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35436,7 +35454,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35561,7 +35579,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35767,7 +35785,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -36051,7 +36069,7 @@
         <v>0.86</v>
       </c>
       <c r="AP168">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ168">
         <v>0.6899999999999999</v>
@@ -36179,7 +36197,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36257,10 +36275,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR169">
         <v>1.18</v>
@@ -36463,10 +36481,10 @@
         <v>2.29</v>
       </c>
       <c r="AP170">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ170">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR170">
         <v>1.33</v>
@@ -36875,7 +36893,7 @@
         <v>1.86</v>
       </c>
       <c r="AP172">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ172">
         <v>1.54</v>
@@ -37003,7 +37021,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -37084,7 +37102,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ173">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37209,7 +37227,7 @@
         <v>148</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37290,7 +37308,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ174">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR174">
         <v>1.27</v>
@@ -37493,7 +37511,7 @@
         <v>0.67</v>
       </c>
       <c r="AP175">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ175">
         <v>0.91</v>
@@ -37702,7 +37720,7 @@
         <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37908,7 +37926,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ177">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -38111,10 +38129,10 @@
         <v>1.88</v>
       </c>
       <c r="AP178">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ178">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38239,7 +38257,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38317,7 +38335,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179">
         <v>0.91</v>
@@ -38729,10 +38747,10 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ181">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
         <v>1.38</v>
@@ -39063,7 +39081,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q183">
         <v>3.2</v>
@@ -39144,7 +39162,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ183">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR183">
         <v>1.27</v>
@@ -39350,7 +39368,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ184">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR184">
         <v>1.45</v>
@@ -39475,7 +39493,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39553,10 +39571,10 @@
         <v>0.67</v>
       </c>
       <c r="AP185">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ185">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR185">
         <v>1.39</v>
@@ -39759,7 +39777,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ186">
         <v>0.92</v>
@@ -39887,7 +39905,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -39968,7 +39986,7 @@
         <v>2</v>
       </c>
       <c r="AQ187">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR187">
         <v>1.62</v>
@@ -40377,7 +40395,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ189">
         <v>0.6899999999999999</v>
@@ -40505,7 +40523,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40711,7 +40729,7 @@
         <v>148</v>
       </c>
       <c r="P191" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40789,10 +40807,10 @@
         <v>0.86</v>
       </c>
       <c r="AP191">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ191">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR191">
         <v>1.27</v>
@@ -40917,7 +40935,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -41947,7 +41965,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42028,7 +42046,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ197">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR197">
         <v>1.48</v>
@@ -42153,7 +42171,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42231,10 +42249,10 @@
         <v>1</v>
       </c>
       <c r="AP198">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ198">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR198">
         <v>1.32</v>
@@ -42359,7 +42377,7 @@
         <v>122</v>
       </c>
       <c r="P199" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
@@ -42771,7 +42789,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42977,7 +42995,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q202">
         <v>1.8</v>
@@ -43183,7 +43201,7 @@
         <v>208</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43261,7 +43279,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ203">
         <v>0.75</v>
@@ -43389,7 +43407,7 @@
         <v>224</v>
       </c>
       <c r="P204" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q204">
         <v>2.4</v>
@@ -43467,7 +43485,7 @@
         <v>1.11</v>
       </c>
       <c r="AP204">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ204">
         <v>1.08</v>
@@ -43595,7 +43613,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43676,7 +43694,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ205">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR205">
         <v>1.31</v>
@@ -43879,10 +43897,10 @@
         <v>0.89</v>
       </c>
       <c r="AP206">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ206">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR206">
         <v>1.62</v>
@@ -44007,7 +44025,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q207">
         <v>2.85</v>
@@ -44088,7 +44106,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR207">
         <v>1.24</v>
@@ -44291,7 +44309,7 @@
         <v>1.63</v>
       </c>
       <c r="AP208">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ208">
         <v>1.33</v>
@@ -44500,7 +44518,7 @@
         <v>2</v>
       </c>
       <c r="AQ209">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
@@ -44831,7 +44849,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -45449,7 +45467,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -45530,7 +45548,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ214">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR214">
         <v>1.37</v>
@@ -45861,7 +45879,7 @@
         <v>235</v>
       </c>
       <c r="P216" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -45939,7 +45957,7 @@
         <v>0.88</v>
       </c>
       <c r="AP216">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ216">
         <v>0.91</v>
@@ -46145,10 +46163,10 @@
         <v>1.13</v>
       </c>
       <c r="AP217">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ217">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR217">
         <v>1.25</v>
@@ -46273,7 +46291,7 @@
         <v>101</v>
       </c>
       <c r="P218" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46354,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AQ218">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR218">
         <v>1.24</v>
@@ -46479,7 +46497,7 @@
         <v>101</v>
       </c>
       <c r="P219" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q219">
         <v>3.2</v>
@@ -46560,7 +46578,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ219">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR219">
         <v>1.32</v>
@@ -47097,7 +47115,7 @@
         <v>239</v>
       </c>
       <c r="P222" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47175,10 +47193,10 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ222">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47509,7 +47527,7 @@
         <v>101</v>
       </c>
       <c r="P224" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q224">
         <v>3.4</v>
@@ -47793,7 +47811,7 @@
         <v>0.8</v>
       </c>
       <c r="AP225">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ225">
         <v>0.6899999999999999</v>
@@ -47921,7 +47939,7 @@
         <v>101</v>
       </c>
       <c r="P226" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -47999,7 +48017,7 @@
         <v>1</v>
       </c>
       <c r="AP226">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ226">
         <v>1</v>
@@ -48127,7 +48145,7 @@
         <v>101</v>
       </c>
       <c r="P227" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48617,10 +48635,10 @@
         <v>0.8</v>
       </c>
       <c r="AP229">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ229">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR229">
         <v>1.48</v>
@@ -48826,7 +48844,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ230">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR230">
         <v>1.39</v>
@@ -49157,7 +49175,7 @@
         <v>240</v>
       </c>
       <c r="P232" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49238,7 +49256,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ232">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR232">
         <v>1.34</v>
@@ -49569,7 +49587,7 @@
         <v>241</v>
       </c>
       <c r="P234" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49647,7 +49665,7 @@
         <v>0.89</v>
       </c>
       <c r="AP234">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ234">
         <v>0.91</v>
@@ -49853,7 +49871,7 @@
         <v>1.38</v>
       </c>
       <c r="AP235">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ235">
         <v>1.1</v>
@@ -50059,7 +50077,7 @@
         <v>0.89</v>
       </c>
       <c r="AP236">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ236">
         <v>0.73</v>
@@ -50187,7 +50205,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q237">
         <v>2.88</v>
@@ -50268,7 +50286,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ237">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR237">
         <v>1.23</v>
@@ -50474,7 +50492,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ238">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR238">
         <v>1.18</v>
@@ -50677,7 +50695,7 @@
         <v>1</v>
       </c>
       <c r="AP239">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ239">
         <v>0.92</v>
@@ -50805,7 +50823,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50883,7 +50901,7 @@
         <v>1.43</v>
       </c>
       <c r="AP240">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ240">
         <v>1.44</v>
@@ -51011,7 +51029,7 @@
         <v>101</v>
       </c>
       <c r="P241" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q241">
         <v>3.75</v>
@@ -51092,7 +51110,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ241">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR241">
         <v>1.34</v>
@@ -51217,7 +51235,7 @@
         <v>101</v>
       </c>
       <c r="P242" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q242">
         <v>5.5</v>
@@ -51504,7 +51522,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ243">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR243">
         <v>1.52</v>
@@ -51629,7 +51647,7 @@
         <v>101</v>
       </c>
       <c r="P244" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -51710,7 +51728,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ244">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR244">
         <v>1.3</v>
@@ -52041,7 +52059,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q246">
         <v>2.38</v>
@@ -52122,7 +52140,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ246">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR246">
         <v>1.22</v>
@@ -52247,7 +52265,7 @@
         <v>101</v>
       </c>
       <c r="P247" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q247">
         <v>2.6</v>
@@ -52325,7 +52343,7 @@
         <v>1.27</v>
       </c>
       <c r="AP247">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ247">
         <v>1.54</v>
@@ -52737,7 +52755,7 @@
         <v>1.22</v>
       </c>
       <c r="AP249">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ249">
         <v>1</v>
@@ -53277,7 +53295,7 @@
         <v>253</v>
       </c>
       <c r="P252" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q252">
         <v>2.1</v>
@@ -53561,10 +53579,10 @@
         <v>1.91</v>
       </c>
       <c r="AP253">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ253">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR253">
         <v>1.42</v>
@@ -53689,7 +53707,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q254">
         <v>2.25</v>
@@ -53770,7 +53788,7 @@
         <v>2</v>
       </c>
       <c r="AQ254">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR254">
         <v>1.49</v>
@@ -53895,7 +53913,7 @@
         <v>101</v>
       </c>
       <c r="P255" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54182,7 +54200,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ256">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR256">
         <v>1.34</v>
@@ -54307,7 +54325,7 @@
         <v>114</v>
       </c>
       <c r="P257" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q257">
         <v>2.88</v>
@@ -54388,7 +54406,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ257">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR257">
         <v>1.49</v>
@@ -54591,7 +54609,7 @@
         <v>1.55</v>
       </c>
       <c r="AP258">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ258">
         <v>1.5</v>
@@ -55003,7 +55021,7 @@
         <v>0.73</v>
       </c>
       <c r="AP260">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ260">
         <v>0.75</v>
@@ -55209,7 +55227,7 @@
         <v>1.45</v>
       </c>
       <c r="AP261">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ261">
         <v>1.33</v>
@@ -55621,7 +55639,7 @@
         <v>1.45</v>
       </c>
       <c r="AP263">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ263">
         <v>1.42</v>
@@ -55749,7 +55767,7 @@
         <v>258</v>
       </c>
       <c r="P264" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q264">
         <v>3.6</v>
@@ -56036,7 +56054,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ265">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR265">
         <v>1.24</v>
@@ -56242,7 +56260,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ266">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR266">
         <v>1.29</v>
@@ -56573,7 +56591,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q268">
         <v>2.75</v>
@@ -56654,7 +56672,7 @@
         <v>2</v>
       </c>
       <c r="AQ268">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR268">
         <v>1.12</v>
@@ -56779,7 +56797,7 @@
         <v>184</v>
       </c>
       <c r="P269" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q269">
         <v>3.25</v>
@@ -56857,7 +56875,7 @@
         <v>2</v>
       </c>
       <c r="AP269">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ269">
         <v>2.09</v>
@@ -57081,19 +57099,19 @@
         <v>8</v>
       </c>
       <c r="AV270">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX270">
         <v>7</v>
       </c>
       <c r="AY270">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ270">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA270">
         <v>13</v>
@@ -57191,7 +57209,7 @@
         <v>263</v>
       </c>
       <c r="P271" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q271">
         <v>2.4</v>
@@ -57269,7 +57287,7 @@
         <v>1.22</v>
       </c>
       <c r="AP271">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ271">
         <v>1.1</v>
@@ -57296,10 +57314,10 @@
         <v>5</v>
       </c>
       <c r="AY271">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ271">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA271">
         <v>6</v>
@@ -57397,7 +57415,7 @@
         <v>101</v>
       </c>
       <c r="P272" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -57478,7 +57496,7 @@
         <v>1</v>
       </c>
       <c r="AQ272">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR272">
         <v>1.11</v>
@@ -57502,7 +57520,7 @@
         <v>10</v>
       </c>
       <c r="AY272">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ272">
         <v>23</v>
@@ -57603,7 +57621,7 @@
         <v>264</v>
       </c>
       <c r="P273" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q273">
         <v>3.1</v>
@@ -57702,13 +57720,13 @@
         <v>5</v>
       </c>
       <c r="AW273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX273">
         <v>1</v>
       </c>
       <c r="AY273">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ273">
         <v>7</v>
@@ -58015,7 +58033,7 @@
         <v>265</v>
       </c>
       <c r="P275" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q275">
         <v>2.88</v>
@@ -58221,7 +58239,7 @@
         <v>266</v>
       </c>
       <c r="P276" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58302,7 +58320,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ276">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR276">
         <v>1.27</v>
@@ -58427,7 +58445,7 @@
         <v>267</v>
       </c>
       <c r="P277" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58505,7 +58523,7 @@
         <v>0.91</v>
       </c>
       <c r="AP277">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ277">
         <v>0.92</v>
@@ -58526,16 +58544,16 @@
         <v>4</v>
       </c>
       <c r="AW277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX277">
         <v>6</v>
       </c>
       <c r="AY277">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ277">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA277">
         <v>3</v>
@@ -58584,6 +58602,1860 @@
       </c>
       <c r="BP277">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7476825</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45659.69791666666</v>
+      </c>
+      <c r="F278">
+        <v>24</v>
+      </c>
+      <c r="G278" t="s">
+        <v>76</v>
+      </c>
+      <c r="H278" t="s">
+        <v>83</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>2</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>3</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>101</v>
+      </c>
+      <c r="P278" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q278">
+        <v>3.1</v>
+      </c>
+      <c r="R278">
+        <v>2.05</v>
+      </c>
+      <c r="S278">
+        <v>3.75</v>
+      </c>
+      <c r="T278">
+        <v>1.44</v>
+      </c>
+      <c r="U278">
+        <v>2.63</v>
+      </c>
+      <c r="V278">
+        <v>3.4</v>
+      </c>
+      <c r="W278">
+        <v>1.3</v>
+      </c>
+      <c r="X278">
+        <v>10</v>
+      </c>
+      <c r="Y278">
+        <v>1.06</v>
+      </c>
+      <c r="Z278">
+        <v>2.38</v>
+      </c>
+      <c r="AA278">
+        <v>2.96</v>
+      </c>
+      <c r="AB278">
+        <v>2.6</v>
+      </c>
+      <c r="AC278">
+        <v>1.06</v>
+      </c>
+      <c r="AD278">
+        <v>10</v>
+      </c>
+      <c r="AE278">
+        <v>1.38</v>
+      </c>
+      <c r="AF278">
+        <v>3</v>
+      </c>
+      <c r="AG278">
+        <v>2.08</v>
+      </c>
+      <c r="AH278">
+        <v>1.68</v>
+      </c>
+      <c r="AI278">
+        <v>1.91</v>
+      </c>
+      <c r="AJ278">
+        <v>1.8</v>
+      </c>
+      <c r="AK278">
+        <v>1.38</v>
+      </c>
+      <c r="AL278">
+        <v>1.25</v>
+      </c>
+      <c r="AM278">
+        <v>1.66</v>
+      </c>
+      <c r="AN278">
+        <v>1.73</v>
+      </c>
+      <c r="AO278">
+        <v>1.6</v>
+      </c>
+      <c r="AP278">
+        <v>1.58</v>
+      </c>
+      <c r="AQ278">
+        <v>1.73</v>
+      </c>
+      <c r="AR278">
+        <v>1.25</v>
+      </c>
+      <c r="AS278">
+        <v>1.32</v>
+      </c>
+      <c r="AT278">
+        <v>2.57</v>
+      </c>
+      <c r="AU278">
+        <v>3</v>
+      </c>
+      <c r="AV278">
+        <v>7</v>
+      </c>
+      <c r="AW278">
+        <v>5</v>
+      </c>
+      <c r="AX278">
+        <v>2</v>
+      </c>
+      <c r="AY278">
+        <v>12</v>
+      </c>
+      <c r="AZ278">
+        <v>11</v>
+      </c>
+      <c r="BA278">
+        <v>10</v>
+      </c>
+      <c r="BB278">
+        <v>1</v>
+      </c>
+      <c r="BC278">
+        <v>11</v>
+      </c>
+      <c r="BD278">
+        <v>1.7</v>
+      </c>
+      <c r="BE278">
+        <v>6.75</v>
+      </c>
+      <c r="BF278">
+        <v>2.4</v>
+      </c>
+      <c r="BG278">
+        <v>1.22</v>
+      </c>
+      <c r="BH278">
+        <v>3.8</v>
+      </c>
+      <c r="BI278">
+        <v>1.38</v>
+      </c>
+      <c r="BJ278">
+        <v>2.8</v>
+      </c>
+      <c r="BK278">
+        <v>1.7</v>
+      </c>
+      <c r="BL278">
+        <v>2.05</v>
+      </c>
+      <c r="BM278">
+        <v>2.05</v>
+      </c>
+      <c r="BN278">
+        <v>1.7</v>
+      </c>
+      <c r="BO278">
+        <v>2.43</v>
+      </c>
+      <c r="BP278">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7476828</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45659.69791666666</v>
+      </c>
+      <c r="F279">
+        <v>24</v>
+      </c>
+      <c r="G279" t="s">
+        <v>89</v>
+      </c>
+      <c r="H279" t="s">
+        <v>71</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>128</v>
+      </c>
+      <c r="P279" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q279">
+        <v>5</v>
+      </c>
+      <c r="R279">
+        <v>2.3</v>
+      </c>
+      <c r="S279">
+        <v>2.25</v>
+      </c>
+      <c r="T279">
+        <v>1.33</v>
+      </c>
+      <c r="U279">
+        <v>3.25</v>
+      </c>
+      <c r="V279">
+        <v>2.63</v>
+      </c>
+      <c r="W279">
+        <v>1.44</v>
+      </c>
+      <c r="X279">
+        <v>6.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.11</v>
+      </c>
+      <c r="Z279">
+        <v>4.06</v>
+      </c>
+      <c r="AA279">
+        <v>3.32</v>
+      </c>
+      <c r="AB279">
+        <v>1.61</v>
+      </c>
+      <c r="AC279">
+        <v>1.02</v>
+      </c>
+      <c r="AD279">
+        <v>15</v>
+      </c>
+      <c r="AE279">
+        <v>1.22</v>
+      </c>
+      <c r="AF279">
+        <v>4.2</v>
+      </c>
+      <c r="AG279">
+        <v>1.86</v>
+      </c>
+      <c r="AH279">
+        <v>1.94</v>
+      </c>
+      <c r="AI279">
+        <v>1.73</v>
+      </c>
+      <c r="AJ279">
+        <v>2</v>
+      </c>
+      <c r="AK279">
+        <v>2.15</v>
+      </c>
+      <c r="AL279">
+        <v>1.23</v>
+      </c>
+      <c r="AM279">
+        <v>1.18</v>
+      </c>
+      <c r="AN279">
+        <v>1.89</v>
+      </c>
+      <c r="AO279">
+        <v>1.3</v>
+      </c>
+      <c r="AP279">
+        <v>1.7</v>
+      </c>
+      <c r="AQ279">
+        <v>1.45</v>
+      </c>
+      <c r="AR279">
+        <v>1.24</v>
+      </c>
+      <c r="AS279">
+        <v>1.28</v>
+      </c>
+      <c r="AT279">
+        <v>2.52</v>
+      </c>
+      <c r="AU279">
+        <v>8</v>
+      </c>
+      <c r="AV279">
+        <v>6</v>
+      </c>
+      <c r="AW279">
+        <v>5</v>
+      </c>
+      <c r="AX279">
+        <v>3</v>
+      </c>
+      <c r="AY279">
+        <v>16</v>
+      </c>
+      <c r="AZ279">
+        <v>14</v>
+      </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
+      <c r="BB279">
+        <v>2</v>
+      </c>
+      <c r="BC279">
+        <v>7</v>
+      </c>
+      <c r="BD279">
+        <v>2.8</v>
+      </c>
+      <c r="BE279">
+        <v>6.75</v>
+      </c>
+      <c r="BF279">
+        <v>1.52</v>
+      </c>
+      <c r="BG279">
+        <v>1.38</v>
+      </c>
+      <c r="BH279">
+        <v>2.8</v>
+      </c>
+      <c r="BI279">
+        <v>1.65</v>
+      </c>
+      <c r="BJ279">
+        <v>2.1</v>
+      </c>
+      <c r="BK279">
+        <v>1.85</v>
+      </c>
+      <c r="BL279">
+        <v>1.85</v>
+      </c>
+      <c r="BM279">
+        <v>2.55</v>
+      </c>
+      <c r="BN279">
+        <v>1.43</v>
+      </c>
+      <c r="BO279">
+        <v>3.4</v>
+      </c>
+      <c r="BP279">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7476841</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45661.39583333334</v>
+      </c>
+      <c r="F280">
+        <v>25</v>
+      </c>
+      <c r="G280" t="s">
+        <v>93</v>
+      </c>
+      <c r="H280" t="s">
+        <v>91</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>2</v>
+      </c>
+      <c r="O280" t="s">
+        <v>268</v>
+      </c>
+      <c r="P280" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q280">
+        <v>2.38</v>
+      </c>
+      <c r="R280">
+        <v>2.25</v>
+      </c>
+      <c r="S280">
+        <v>4.75</v>
+      </c>
+      <c r="T280">
+        <v>1.36</v>
+      </c>
+      <c r="U280">
+        <v>3</v>
+      </c>
+      <c r="V280">
+        <v>2.63</v>
+      </c>
+      <c r="W280">
+        <v>1.44</v>
+      </c>
+      <c r="X280">
+        <v>7</v>
+      </c>
+      <c r="Y280">
+        <v>1.1</v>
+      </c>
+      <c r="Z280">
+        <v>1.7</v>
+      </c>
+      <c r="AA280">
+        <v>3.8</v>
+      </c>
+      <c r="AB280">
+        <v>4.4</v>
+      </c>
+      <c r="AC280">
+        <v>1.05</v>
+      </c>
+      <c r="AD280">
+        <v>9.5</v>
+      </c>
+      <c r="AE280">
+        <v>1.25</v>
+      </c>
+      <c r="AF280">
+        <v>3.7</v>
+      </c>
+      <c r="AG280">
+        <v>1.92</v>
+      </c>
+      <c r="AH280">
+        <v>1.82</v>
+      </c>
+      <c r="AI280">
+        <v>1.73</v>
+      </c>
+      <c r="AJ280">
+        <v>2</v>
+      </c>
+      <c r="AK280">
+        <v>1.18</v>
+      </c>
+      <c r="AL280">
+        <v>1.22</v>
+      </c>
+      <c r="AM280">
+        <v>2.05</v>
+      </c>
+      <c r="AN280">
+        <v>1.7</v>
+      </c>
+      <c r="AO280">
+        <v>0.77</v>
+      </c>
+      <c r="AP280">
+        <v>1.82</v>
+      </c>
+      <c r="AQ280">
+        <v>0.71</v>
+      </c>
+      <c r="AR280">
+        <v>1.76</v>
+      </c>
+      <c r="AS280">
+        <v>1.05</v>
+      </c>
+      <c r="AT280">
+        <v>2.81</v>
+      </c>
+      <c r="AU280">
+        <v>6</v>
+      </c>
+      <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>4</v>
+      </c>
+      <c r="AX280">
+        <v>7</v>
+      </c>
+      <c r="AY280">
+        <v>18</v>
+      </c>
+      <c r="AZ280">
+        <v>15</v>
+      </c>
+      <c r="BA280">
+        <v>4</v>
+      </c>
+      <c r="BB280">
+        <v>4</v>
+      </c>
+      <c r="BC280">
+        <v>8</v>
+      </c>
+      <c r="BD280">
+        <v>1.53</v>
+      </c>
+      <c r="BE280">
+        <v>6.5</v>
+      </c>
+      <c r="BF280">
+        <v>2.8</v>
+      </c>
+      <c r="BG280">
+        <v>1.26</v>
+      </c>
+      <c r="BH280">
+        <v>3.4</v>
+      </c>
+      <c r="BI280">
+        <v>1.45</v>
+      </c>
+      <c r="BJ280">
+        <v>2.55</v>
+      </c>
+      <c r="BK280">
+        <v>1.72</v>
+      </c>
+      <c r="BL280">
+        <v>1.98</v>
+      </c>
+      <c r="BM280">
+        <v>2.12</v>
+      </c>
+      <c r="BN280">
+        <v>1.64</v>
+      </c>
+      <c r="BO280">
+        <v>2.65</v>
+      </c>
+      <c r="BP280">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7476833</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45661.41666666666</v>
+      </c>
+      <c r="F281">
+        <v>25</v>
+      </c>
+      <c r="G281" t="s">
+        <v>92</v>
+      </c>
+      <c r="H281" t="s">
+        <v>87</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>3</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>4</v>
+      </c>
+      <c r="O281" t="s">
+        <v>269</v>
+      </c>
+      <c r="P281" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q281">
+        <v>2.63</v>
+      </c>
+      <c r="R281">
+        <v>2.1</v>
+      </c>
+      <c r="S281">
+        <v>4.33</v>
+      </c>
+      <c r="T281">
+        <v>1.4</v>
+      </c>
+      <c r="U281">
+        <v>2.75</v>
+      </c>
+      <c r="V281">
+        <v>3</v>
+      </c>
+      <c r="W281">
+        <v>1.36</v>
+      </c>
+      <c r="X281">
+        <v>8</v>
+      </c>
+      <c r="Y281">
+        <v>1.08</v>
+      </c>
+      <c r="Z281">
+        <v>1.9</v>
+      </c>
+      <c r="AA281">
+        <v>3.25</v>
+      </c>
+      <c r="AB281">
+        <v>4.1</v>
+      </c>
+      <c r="AC281">
+        <v>1.06</v>
+      </c>
+      <c r="AD281">
+        <v>8.5</v>
+      </c>
+      <c r="AE281">
+        <v>1.3</v>
+      </c>
+      <c r="AF281">
+        <v>3.35</v>
+      </c>
+      <c r="AG281">
+        <v>1.92</v>
+      </c>
+      <c r="AH281">
+        <v>1.82</v>
+      </c>
+      <c r="AI281">
+        <v>1.8</v>
+      </c>
+      <c r="AJ281">
+        <v>1.91</v>
+      </c>
+      <c r="AK281">
+        <v>1.25</v>
+      </c>
+      <c r="AL281">
+        <v>1.25</v>
+      </c>
+      <c r="AM281">
+        <v>1.77</v>
+      </c>
+      <c r="AN281">
+        <v>2.18</v>
+      </c>
+      <c r="AO281">
+        <v>1.58</v>
+      </c>
+      <c r="AP281">
+        <v>2.25</v>
+      </c>
+      <c r="AQ281">
+        <v>1.46</v>
+      </c>
+      <c r="AR281">
+        <v>1.35</v>
+      </c>
+      <c r="AS281">
+        <v>1.2</v>
+      </c>
+      <c r="AT281">
+        <v>2.55</v>
+      </c>
+      <c r="AU281">
+        <v>8</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>8</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>20</v>
+      </c>
+      <c r="AZ281">
+        <v>9</v>
+      </c>
+      <c r="BA281">
+        <v>8</v>
+      </c>
+      <c r="BB281">
+        <v>2</v>
+      </c>
+      <c r="BC281">
+        <v>10</v>
+      </c>
+      <c r="BD281">
+        <v>1.68</v>
+      </c>
+      <c r="BE281">
+        <v>6.75</v>
+      </c>
+      <c r="BF281">
+        <v>2.43</v>
+      </c>
+      <c r="BG281">
+        <v>1.27</v>
+      </c>
+      <c r="BH281">
+        <v>3.4</v>
+      </c>
+      <c r="BI281">
+        <v>1.46</v>
+      </c>
+      <c r="BJ281">
+        <v>2.48</v>
+      </c>
+      <c r="BK281">
+        <v>1.74</v>
+      </c>
+      <c r="BL281">
+        <v>1.97</v>
+      </c>
+      <c r="BM281">
+        <v>2.15</v>
+      </c>
+      <c r="BN281">
+        <v>1.61</v>
+      </c>
+      <c r="BO281">
+        <v>2.7</v>
+      </c>
+      <c r="BP281">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7476842</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F282">
+        <v>25</v>
+      </c>
+      <c r="G282" t="s">
+        <v>80</v>
+      </c>
+      <c r="H282" t="s">
+        <v>82</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>158</v>
+      </c>
+      <c r="P282" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q282">
+        <v>2.88</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>4.33</v>
+      </c>
+      <c r="T282">
+        <v>1.5</v>
+      </c>
+      <c r="U282">
+        <v>2.5</v>
+      </c>
+      <c r="V282">
+        <v>3.4</v>
+      </c>
+      <c r="W282">
+        <v>1.3</v>
+      </c>
+      <c r="X282">
+        <v>10</v>
+      </c>
+      <c r="Y282">
+        <v>1.06</v>
+      </c>
+      <c r="Z282">
+        <v>2.05</v>
+      </c>
+      <c r="AA282">
+        <v>3.3</v>
+      </c>
+      <c r="AB282">
+        <v>3.3</v>
+      </c>
+      <c r="AC282">
+        <v>1.07</v>
+      </c>
+      <c r="AD282">
+        <v>9</v>
+      </c>
+      <c r="AE282">
+        <v>1.4</v>
+      </c>
+      <c r="AF282">
+        <v>2.95</v>
+      </c>
+      <c r="AG282">
+        <v>1.91</v>
+      </c>
+      <c r="AH282">
+        <v>1.8</v>
+      </c>
+      <c r="AI282">
+        <v>2</v>
+      </c>
+      <c r="AJ282">
+        <v>1.73</v>
+      </c>
+      <c r="AK282">
+        <v>1.3</v>
+      </c>
+      <c r="AL282">
+        <v>1.25</v>
+      </c>
+      <c r="AM282">
+        <v>1.72</v>
+      </c>
+      <c r="AN282">
+        <v>1.27</v>
+      </c>
+      <c r="AO282">
+        <v>0.82</v>
+      </c>
+      <c r="AP282">
+        <v>1.42</v>
+      </c>
+      <c r="AQ282">
+        <v>0.75</v>
+      </c>
+      <c r="AR282">
+        <v>1.46</v>
+      </c>
+      <c r="AS282">
+        <v>1.13</v>
+      </c>
+      <c r="AT282">
+        <v>2.59</v>
+      </c>
+      <c r="AU282">
+        <v>6</v>
+      </c>
+      <c r="AV282">
+        <v>6</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>5</v>
+      </c>
+      <c r="AY282">
+        <v>13</v>
+      </c>
+      <c r="AZ282">
+        <v>20</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>6</v>
+      </c>
+      <c r="BC282">
+        <v>10</v>
+      </c>
+      <c r="BD282">
+        <v>1.68</v>
+      </c>
+      <c r="BE282">
+        <v>6.75</v>
+      </c>
+      <c r="BF282">
+        <v>2.4</v>
+      </c>
+      <c r="BG282">
+        <v>1.23</v>
+      </c>
+      <c r="BH282">
+        <v>3.7</v>
+      </c>
+      <c r="BI282">
+        <v>1.4</v>
+      </c>
+      <c r="BJ282">
+        <v>2.7</v>
+      </c>
+      <c r="BK282">
+        <v>1.65</v>
+      </c>
+      <c r="BL282">
+        <v>2.1</v>
+      </c>
+      <c r="BM282">
+        <v>1.98</v>
+      </c>
+      <c r="BN282">
+        <v>1.72</v>
+      </c>
+      <c r="BO282">
+        <v>2.48</v>
+      </c>
+      <c r="BP282">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7476839</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F283">
+        <v>25</v>
+      </c>
+      <c r="G283" t="s">
+        <v>78</v>
+      </c>
+      <c r="H283" t="s">
+        <v>79</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
+        <v>101</v>
+      </c>
+      <c r="P283" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q283">
+        <v>2.63</v>
+      </c>
+      <c r="R283">
+        <v>2.2</v>
+      </c>
+      <c r="S283">
+        <v>4</v>
+      </c>
+      <c r="T283">
+        <v>1.4</v>
+      </c>
+      <c r="U283">
+        <v>2.75</v>
+      </c>
+      <c r="V283">
+        <v>3</v>
+      </c>
+      <c r="W283">
+        <v>1.36</v>
+      </c>
+      <c r="X283">
+        <v>8</v>
+      </c>
+      <c r="Y283">
+        <v>1.08</v>
+      </c>
+      <c r="Z283">
+        <v>2.2</v>
+      </c>
+      <c r="AA283">
+        <v>3.3</v>
+      </c>
+      <c r="AB283">
+        <v>3</v>
+      </c>
+      <c r="AC283">
+        <v>1.05</v>
+      </c>
+      <c r="AD283">
+        <v>9</v>
+      </c>
+      <c r="AE283">
+        <v>1.3</v>
+      </c>
+      <c r="AF283">
+        <v>3.4</v>
+      </c>
+      <c r="AG283">
+        <v>1.91</v>
+      </c>
+      <c r="AH283">
+        <v>1.8</v>
+      </c>
+      <c r="AI283">
+        <v>1.8</v>
+      </c>
+      <c r="AJ283">
+        <v>1.91</v>
+      </c>
+      <c r="AK283">
+        <v>1.28</v>
+      </c>
+      <c r="AL283">
+        <v>1.25</v>
+      </c>
+      <c r="AM283">
+        <v>1.77</v>
+      </c>
+      <c r="AN283">
+        <v>1.62</v>
+      </c>
+      <c r="AO283">
+        <v>1.36</v>
+      </c>
+      <c r="AP283">
+        <v>1.5</v>
+      </c>
+      <c r="AQ283">
+        <v>1.5</v>
+      </c>
+      <c r="AR283">
+        <v>1.32</v>
+      </c>
+      <c r="AS283">
+        <v>1.21</v>
+      </c>
+      <c r="AT283">
+        <v>2.53</v>
+      </c>
+      <c r="AU283">
+        <v>6</v>
+      </c>
+      <c r="AV283">
+        <v>4</v>
+      </c>
+      <c r="AW283">
+        <v>5</v>
+      </c>
+      <c r="AX283">
+        <v>9</v>
+      </c>
+      <c r="AY283">
+        <v>15</v>
+      </c>
+      <c r="AZ283">
+        <v>19</v>
+      </c>
+      <c r="BA283">
+        <v>3</v>
+      </c>
+      <c r="BB283">
+        <v>3</v>
+      </c>
+      <c r="BC283">
+        <v>6</v>
+      </c>
+      <c r="BD283">
+        <v>1.76</v>
+      </c>
+      <c r="BE283">
+        <v>6.5</v>
+      </c>
+      <c r="BF283">
+        <v>2.3</v>
+      </c>
+      <c r="BG283">
+        <v>1.33</v>
+      </c>
+      <c r="BH283">
+        <v>2.95</v>
+      </c>
+      <c r="BI283">
+        <v>1.56</v>
+      </c>
+      <c r="BJ283">
+        <v>2.23</v>
+      </c>
+      <c r="BK283">
+        <v>1.93</v>
+      </c>
+      <c r="BL283">
+        <v>1.76</v>
+      </c>
+      <c r="BM283">
+        <v>2.43</v>
+      </c>
+      <c r="BN283">
+        <v>1.48</v>
+      </c>
+      <c r="BO283">
+        <v>3.15</v>
+      </c>
+      <c r="BP283">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7476832</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F284">
+        <v>25</v>
+      </c>
+      <c r="G284" t="s">
+        <v>72</v>
+      </c>
+      <c r="H284" t="s">
+        <v>77</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>101</v>
+      </c>
+      <c r="P284" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q284">
+        <v>2.5</v>
+      </c>
+      <c r="R284">
+        <v>2.05</v>
+      </c>
+      <c r="S284">
+        <v>5</v>
+      </c>
+      <c r="T284">
+        <v>1.44</v>
+      </c>
+      <c r="U284">
+        <v>2.63</v>
+      </c>
+      <c r="V284">
+        <v>3.4</v>
+      </c>
+      <c r="W284">
+        <v>1.3</v>
+      </c>
+      <c r="X284">
+        <v>10</v>
+      </c>
+      <c r="Y284">
+        <v>1.06</v>
+      </c>
+      <c r="Z284">
+        <v>1.62</v>
+      </c>
+      <c r="AA284">
+        <v>3.6</v>
+      </c>
+      <c r="AB284">
+        <v>5.25</v>
+      </c>
+      <c r="AC284">
+        <v>1.06</v>
+      </c>
+      <c r="AD284">
+        <v>8.5</v>
+      </c>
+      <c r="AE284">
+        <v>1.38</v>
+      </c>
+      <c r="AF284">
+        <v>3</v>
+      </c>
+      <c r="AG284">
+        <v>2.1</v>
+      </c>
+      <c r="AH284">
+        <v>1.67</v>
+      </c>
+      <c r="AI284">
+        <v>2</v>
+      </c>
+      <c r="AJ284">
+        <v>1.73</v>
+      </c>
+      <c r="AK284">
+        <v>1.2</v>
+      </c>
+      <c r="AL284">
+        <v>1.25</v>
+      </c>
+      <c r="AM284">
+        <v>1.95</v>
+      </c>
+      <c r="AN284">
+        <v>1.73</v>
+      </c>
+      <c r="AO284">
+        <v>0.83</v>
+      </c>
+      <c r="AP284">
+        <v>1.58</v>
+      </c>
+      <c r="AQ284">
+        <v>1</v>
+      </c>
+      <c r="AR284">
+        <v>1.4</v>
+      </c>
+      <c r="AS284">
+        <v>1.04</v>
+      </c>
+      <c r="AT284">
+        <v>2.44</v>
+      </c>
+      <c r="AU284">
+        <v>4</v>
+      </c>
+      <c r="AV284">
+        <v>4</v>
+      </c>
+      <c r="AW284">
+        <v>3</v>
+      </c>
+      <c r="AX284">
+        <v>1</v>
+      </c>
+      <c r="AY284">
+        <v>14</v>
+      </c>
+      <c r="AZ284">
+        <v>7</v>
+      </c>
+      <c r="BA284">
+        <v>7</v>
+      </c>
+      <c r="BB284">
+        <v>8</v>
+      </c>
+      <c r="BC284">
+        <v>15</v>
+      </c>
+      <c r="BD284">
+        <v>1.53</v>
+      </c>
+      <c r="BE284">
+        <v>7</v>
+      </c>
+      <c r="BF284">
+        <v>2.7</v>
+      </c>
+      <c r="BG284">
+        <v>1.29</v>
+      </c>
+      <c r="BH284">
+        <v>3.15</v>
+      </c>
+      <c r="BI284">
+        <v>1.5</v>
+      </c>
+      <c r="BJ284">
+        <v>2.38</v>
+      </c>
+      <c r="BK284">
+        <v>1.82</v>
+      </c>
+      <c r="BL284">
+        <v>1.86</v>
+      </c>
+      <c r="BM284">
+        <v>2.28</v>
+      </c>
+      <c r="BN284">
+        <v>1.55</v>
+      </c>
+      <c r="BO284">
+        <v>2.9</v>
+      </c>
+      <c r="BP284">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7476835</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F285">
+        <v>25</v>
+      </c>
+      <c r="G285" t="s">
+        <v>85</v>
+      </c>
+      <c r="H285" t="s">
+        <v>84</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>101</v>
+      </c>
+      <c r="P285" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q285">
+        <v>2.6</v>
+      </c>
+      <c r="R285">
+        <v>2.2</v>
+      </c>
+      <c r="S285">
+        <v>4.33</v>
+      </c>
+      <c r="T285">
+        <v>1.36</v>
+      </c>
+      <c r="U285">
+        <v>3</v>
+      </c>
+      <c r="V285">
+        <v>2.75</v>
+      </c>
+      <c r="W285">
+        <v>1.4</v>
+      </c>
+      <c r="X285">
+        <v>8</v>
+      </c>
+      <c r="Y285">
+        <v>1.08</v>
+      </c>
+      <c r="Z285">
+        <v>1.83</v>
+      </c>
+      <c r="AA285">
+        <v>3.4</v>
+      </c>
+      <c r="AB285">
+        <v>4</v>
+      </c>
+      <c r="AC285">
+        <v>1.05</v>
+      </c>
+      <c r="AD285">
+        <v>9</v>
+      </c>
+      <c r="AE285">
+        <v>1.28</v>
+      </c>
+      <c r="AF285">
+        <v>3.55</v>
+      </c>
+      <c r="AG285">
+        <v>1.91</v>
+      </c>
+      <c r="AH285">
+        <v>1.8</v>
+      </c>
+      <c r="AI285">
+        <v>1.73</v>
+      </c>
+      <c r="AJ285">
+        <v>2</v>
+      </c>
+      <c r="AK285">
+        <v>1.25</v>
+      </c>
+      <c r="AL285">
+        <v>1.25</v>
+      </c>
+      <c r="AM285">
+        <v>1.83</v>
+      </c>
+      <c r="AN285">
+        <v>1.42</v>
+      </c>
+      <c r="AO285">
+        <v>0.73</v>
+      </c>
+      <c r="AP285">
+        <v>1.31</v>
+      </c>
+      <c r="AQ285">
+        <v>0.92</v>
+      </c>
+      <c r="AR285">
+        <v>1.6</v>
+      </c>
+      <c r="AS285">
+        <v>1.33</v>
+      </c>
+      <c r="AT285">
+        <v>2.93</v>
+      </c>
+      <c r="AU285">
+        <v>0</v>
+      </c>
+      <c r="AV285">
+        <v>5</v>
+      </c>
+      <c r="AW285">
+        <v>3</v>
+      </c>
+      <c r="AX285">
+        <v>6</v>
+      </c>
+      <c r="AY285">
+        <v>9</v>
+      </c>
+      <c r="AZ285">
+        <v>13</v>
+      </c>
+      <c r="BA285">
+        <v>4</v>
+      </c>
+      <c r="BB285">
+        <v>6</v>
+      </c>
+      <c r="BC285">
+        <v>10</v>
+      </c>
+      <c r="BD285">
+        <v>1.63</v>
+      </c>
+      <c r="BE285">
+        <v>6.75</v>
+      </c>
+      <c r="BF285">
+        <v>2.55</v>
+      </c>
+      <c r="BG285">
+        <v>1.32</v>
+      </c>
+      <c r="BH285">
+        <v>3.05</v>
+      </c>
+      <c r="BI285">
+        <v>1.55</v>
+      </c>
+      <c r="BJ285">
+        <v>2.28</v>
+      </c>
+      <c r="BK285">
+        <v>1.9</v>
+      </c>
+      <c r="BL285">
+        <v>1.79</v>
+      </c>
+      <c r="BM285">
+        <v>2.4</v>
+      </c>
+      <c r="BN285">
+        <v>1.5</v>
+      </c>
+      <c r="BO285">
+        <v>3.05</v>
+      </c>
+      <c r="BP285">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7476837</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F286">
+        <v>25</v>
+      </c>
+      <c r="G286" t="s">
+        <v>74</v>
+      </c>
+      <c r="H286" t="s">
+        <v>90</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>171</v>
+      </c>
+      <c r="P286" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q286">
+        <v>2.88</v>
+      </c>
+      <c r="R286">
+        <v>2.05</v>
+      </c>
+      <c r="S286">
+        <v>4</v>
+      </c>
+      <c r="T286">
+        <v>1.44</v>
+      </c>
+      <c r="U286">
+        <v>2.63</v>
+      </c>
+      <c r="V286">
+        <v>3.4</v>
+      </c>
+      <c r="W286">
+        <v>1.3</v>
+      </c>
+      <c r="X286">
+        <v>10</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>1.95</v>
+      </c>
+      <c r="AA286">
+        <v>3.4</v>
+      </c>
+      <c r="AB286">
+        <v>3.5</v>
+      </c>
+      <c r="AC286">
+        <v>1.06</v>
+      </c>
+      <c r="AD286">
+        <v>8.5</v>
+      </c>
+      <c r="AE286">
+        <v>1.38</v>
+      </c>
+      <c r="AF286">
+        <v>3</v>
+      </c>
+      <c r="AG286">
+        <v>1.95</v>
+      </c>
+      <c r="AH286">
+        <v>1.75</v>
+      </c>
+      <c r="AI286">
+        <v>1.91</v>
+      </c>
+      <c r="AJ286">
+        <v>1.8</v>
+      </c>
+      <c r="AK286">
+        <v>1.3</v>
+      </c>
+      <c r="AL286">
+        <v>1.25</v>
+      </c>
+      <c r="AM286">
+        <v>1.7</v>
+      </c>
+      <c r="AN286">
+        <v>1.83</v>
+      </c>
+      <c r="AO286">
+        <v>1.62</v>
+      </c>
+      <c r="AP286">
+        <v>1.69</v>
+      </c>
+      <c r="AQ286">
+        <v>1.71</v>
+      </c>
+      <c r="AR286">
+        <v>1.45</v>
+      </c>
+      <c r="AS286">
+        <v>1.26</v>
+      </c>
+      <c r="AT286">
+        <v>2.71</v>
+      </c>
+      <c r="AU286">
+        <v>7</v>
+      </c>
+      <c r="AV286">
+        <v>4</v>
+      </c>
+      <c r="AW286">
+        <v>6</v>
+      </c>
+      <c r="AX286">
+        <v>0</v>
+      </c>
+      <c r="AY286">
+        <v>17</v>
+      </c>
+      <c r="AZ286">
+        <v>6</v>
+      </c>
+      <c r="BA286">
+        <v>7</v>
+      </c>
+      <c r="BB286">
+        <v>3</v>
+      </c>
+      <c r="BC286">
+        <v>10</v>
+      </c>
+      <c r="BD286">
+        <v>1.72</v>
+      </c>
+      <c r="BE286">
+        <v>6.75</v>
+      </c>
+      <c r="BF286">
+        <v>2.33</v>
+      </c>
+      <c r="BG286">
+        <v>1.24</v>
+      </c>
+      <c r="BH286">
+        <v>3.65</v>
+      </c>
+      <c r="BI286">
+        <v>1.42</v>
+      </c>
+      <c r="BJ286">
+        <v>2.65</v>
+      </c>
+      <c r="BK286">
+        <v>1.68</v>
+      </c>
+      <c r="BL286">
+        <v>2.05</v>
+      </c>
+      <c r="BM286">
+        <v>2.05</v>
+      </c>
+      <c r="BN286">
+        <v>1.68</v>
+      </c>
+      <c r="BO286">
+        <v>2.55</v>
+      </c>
+      <c r="BP286">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="388">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,9 @@
     <t>['45+1', '48', '69']</t>
   </si>
   <si>
+    <t>['28', '32', '38', '82']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -1536,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2004,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2413,7 +2416,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -3031,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3237,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3318,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3443,7 +3446,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3649,7 +3652,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4679,7 +4682,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5091,7 +5094,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5169,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5297,7 +5300,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -6121,7 +6124,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6533,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6739,7 +6742,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7229,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ28">
         <v>0.71</v>
@@ -7563,7 +7566,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8674,7 +8677,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -9005,7 +9008,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9211,7 +9214,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9623,7 +9626,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10035,7 +10038,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10447,7 +10450,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10653,7 +10656,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11271,7 +11274,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11683,7 +11686,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11889,7 +11892,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -12588,7 +12591,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ54">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12791,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ55">
         <v>1.08</v>
@@ -14567,7 +14570,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14979,7 +14982,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15597,7 +15600,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15803,7 +15806,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -16009,7 +16012,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -16215,7 +16218,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16627,7 +16630,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16833,7 +16836,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -17039,7 +17042,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17326,7 +17329,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR77">
         <v>1.15</v>
@@ -17451,7 +17454,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18353,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18481,7 +18484,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -19717,7 +19720,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -20129,7 +20132,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20335,7 +20338,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20541,7 +20544,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20953,7 +20956,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21159,7 +21162,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21777,7 +21780,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21983,7 +21986,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22395,7 +22398,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22601,7 +22604,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22807,7 +22810,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23219,7 +23222,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23506,7 +23509,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -24327,7 +24330,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24661,7 +24664,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24867,7 +24870,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25485,7 +25488,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25691,7 +25694,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25897,7 +25900,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -26103,7 +26106,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26721,7 +26724,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -27133,7 +27136,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27545,7 +27548,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27751,7 +27754,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -28369,7 +28372,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q131">
         <v>2.63</v>
@@ -28575,7 +28578,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28781,7 +28784,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28859,7 +28862,7 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -28987,7 +28990,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29193,7 +29196,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29399,7 +29402,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29605,7 +29608,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -30017,7 +30020,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -30223,7 +30226,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30429,7 +30432,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -31253,7 +31256,7 @@
         <v>101</v>
       </c>
       <c r="P145" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31746,7 +31749,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ147">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR147">
         <v>1.18</v>
@@ -31871,7 +31874,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32695,7 +32698,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32901,7 +32904,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33313,7 +33316,7 @@
         <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33725,7 +33728,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -34009,7 +34012,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ158">
         <v>0.73</v>
@@ -34549,7 +34552,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>3.2</v>
@@ -35167,7 +35170,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -35373,7 +35376,7 @@
         <v>101</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>2.63</v>
@@ -35579,7 +35582,7 @@
         <v>204</v>
       </c>
       <c r="P166" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35785,7 +35788,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q167">
         <v>2.3</v>
@@ -36197,7 +36200,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -37021,7 +37024,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -37227,7 +37230,7 @@
         <v>148</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q174">
         <v>3.2</v>
@@ -37308,7 +37311,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ174">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR174">
         <v>1.27</v>
@@ -38257,7 +38260,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>2.3</v>
@@ -38953,7 +38956,7 @@
         <v>1.75</v>
       </c>
       <c r="AP182">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ182">
         <v>1.54</v>
@@ -39081,7 +39084,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q183">
         <v>3.2</v>
@@ -39493,7 +39496,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39905,7 +39908,7 @@
         <v>217</v>
       </c>
       <c r="P187" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q187">
         <v>2.2</v>
@@ -40523,7 +40526,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40729,7 +40732,7 @@
         <v>148</v>
       </c>
       <c r="P191" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40935,7 +40938,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -41965,7 +41968,7 @@
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42046,7 +42049,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ197">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR197">
         <v>1.48</v>
@@ -42171,7 +42174,7 @@
         <v>101</v>
       </c>
       <c r="P198" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42377,7 +42380,7 @@
         <v>122</v>
       </c>
       <c r="P199" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
@@ -42789,7 +42792,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q201">
         <v>2.5</v>
@@ -42995,7 +42998,7 @@
         <v>223</v>
       </c>
       <c r="P202" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q202">
         <v>1.8</v>
@@ -43201,7 +43204,7 @@
         <v>208</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43407,7 +43410,7 @@
         <v>224</v>
       </c>
       <c r="P204" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q204">
         <v>2.4</v>
@@ -43613,7 +43616,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -44025,7 +44028,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q207">
         <v>2.85</v>
@@ -44849,7 +44852,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -45339,7 +45342,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ213">
         <v>0.92</v>
@@ -45467,7 +45470,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -45548,7 +45551,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ214">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR214">
         <v>1.37</v>
@@ -45879,7 +45882,7 @@
         <v>235</v>
       </c>
       <c r="P216" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -46291,7 +46294,7 @@
         <v>101</v>
       </c>
       <c r="P218" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46497,7 +46500,7 @@
         <v>101</v>
       </c>
       <c r="P219" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>3.2</v>
@@ -47115,7 +47118,7 @@
         <v>239</v>
       </c>
       <c r="P222" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47527,7 +47530,7 @@
         <v>101</v>
       </c>
       <c r="P224" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q224">
         <v>3.4</v>
@@ -47939,7 +47942,7 @@
         <v>101</v>
       </c>
       <c r="P226" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -48145,7 +48148,7 @@
         <v>101</v>
       </c>
       <c r="P227" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -49175,7 +49178,7 @@
         <v>240</v>
       </c>
       <c r="P232" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49459,7 +49462,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ233">
         <v>0.91</v>
@@ -49587,7 +49590,7 @@
         <v>241</v>
       </c>
       <c r="P234" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -50205,7 +50208,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q237">
         <v>2.88</v>
@@ -50823,7 +50826,7 @@
         <v>246</v>
       </c>
       <c r="P240" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -51029,7 +51032,7 @@
         <v>101</v>
       </c>
       <c r="P241" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q241">
         <v>3.75</v>
@@ -51110,7 +51113,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ241">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR241">
         <v>1.34</v>
@@ -51235,7 +51238,7 @@
         <v>101</v>
       </c>
       <c r="P242" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q242">
         <v>5.5</v>
@@ -51647,7 +51650,7 @@
         <v>101</v>
       </c>
       <c r="P244" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q244">
         <v>3.5</v>
@@ -52059,7 +52062,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q246">
         <v>2.38</v>
@@ -52265,7 +52268,7 @@
         <v>101</v>
       </c>
       <c r="P247" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q247">
         <v>2.6</v>
@@ -53295,7 +53298,7 @@
         <v>253</v>
       </c>
       <c r="P252" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q252">
         <v>2.1</v>
@@ -53707,7 +53710,7 @@
         <v>255</v>
       </c>
       <c r="P254" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q254">
         <v>2.25</v>
@@ -53913,7 +53916,7 @@
         <v>101</v>
       </c>
       <c r="P255" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q255">
         <v>2.5</v>
@@ -54325,7 +54328,7 @@
         <v>114</v>
       </c>
       <c r="P257" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q257">
         <v>2.88</v>
@@ -55767,7 +55770,7 @@
         <v>258</v>
       </c>
       <c r="P264" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q264">
         <v>3.6</v>
@@ -56591,7 +56594,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q268">
         <v>2.75</v>
@@ -56669,7 +56672,7 @@
         <v>0.9</v>
       </c>
       <c r="AP268">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ268">
         <v>0.75</v>
@@ -56797,7 +56800,7 @@
         <v>184</v>
       </c>
       <c r="P269" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q269">
         <v>3.25</v>
@@ -57209,7 +57212,7 @@
         <v>263</v>
       </c>
       <c r="P271" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q271">
         <v>2.4</v>
@@ -57415,7 +57418,7 @@
         <v>101</v>
       </c>
       <c r="P272" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -57621,7 +57624,7 @@
         <v>264</v>
       </c>
       <c r="P273" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q273">
         <v>3.1</v>
@@ -58033,7 +58036,7 @@
         <v>265</v>
       </c>
       <c r="P275" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q275">
         <v>2.88</v>
@@ -58239,7 +58242,7 @@
         <v>266</v>
       </c>
       <c r="P276" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58445,7 +58448,7 @@
         <v>267</v>
       </c>
       <c r="P277" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58651,7 +58654,7 @@
         <v>101</v>
       </c>
       <c r="P278" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q278">
         <v>3.1</v>
@@ -58732,7 +58735,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ278">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR278">
         <v>1.25</v>
@@ -58857,7 +58860,7 @@
         <v>128</v>
       </c>
       <c r="P279" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q279">
         <v>5</v>
@@ -59887,7 +59890,7 @@
         <v>101</v>
       </c>
       <c r="P284" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q284">
         <v>2.5</v>
@@ -60093,7 +60096,7 @@
         <v>101</v>
       </c>
       <c r="P285" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q285">
         <v>2.6</v>
@@ -60456,6 +60459,212 @@
       </c>
       <c r="BP286">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7476836</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45662.5</v>
+      </c>
+      <c r="F287">
+        <v>25</v>
+      </c>
+      <c r="G287" t="s">
+        <v>86</v>
+      </c>
+      <c r="H287" t="s">
+        <v>83</v>
+      </c>
+      <c r="I287">
+        <v>3</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>4</v>
+      </c>
+      <c r="L287">
+        <v>4</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
+      <c r="O287" t="s">
+        <v>270</v>
+      </c>
+      <c r="P287" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q287">
+        <v>2.75</v>
+      </c>
+      <c r="R287">
+        <v>2.1</v>
+      </c>
+      <c r="S287">
+        <v>4.33</v>
+      </c>
+      <c r="T287">
+        <v>1.44</v>
+      </c>
+      <c r="U287">
+        <v>2.63</v>
+      </c>
+      <c r="V287">
+        <v>3.25</v>
+      </c>
+      <c r="W287">
+        <v>1.33</v>
+      </c>
+      <c r="X287">
+        <v>9</v>
+      </c>
+      <c r="Y287">
+        <v>1.07</v>
+      </c>
+      <c r="Z287">
+        <v>2.2</v>
+      </c>
+      <c r="AA287">
+        <v>3.2</v>
+      </c>
+      <c r="AB287">
+        <v>3.15</v>
+      </c>
+      <c r="AC287">
+        <v>1.06</v>
+      </c>
+      <c r="AD287">
+        <v>10</v>
+      </c>
+      <c r="AE287">
+        <v>1.36</v>
+      </c>
+      <c r="AF287">
+        <v>3.2</v>
+      </c>
+      <c r="AG287">
+        <v>2.03</v>
+      </c>
+      <c r="AH287">
+        <v>1.7</v>
+      </c>
+      <c r="AI287">
+        <v>1.83</v>
+      </c>
+      <c r="AJ287">
+        <v>1.83</v>
+      </c>
+      <c r="AK287">
+        <v>1.3</v>
+      </c>
+      <c r="AL287">
+        <v>1.3</v>
+      </c>
+      <c r="AM287">
+        <v>1.71</v>
+      </c>
+      <c r="AN287">
+        <v>2</v>
+      </c>
+      <c r="AO287">
+        <v>1.73</v>
+      </c>
+      <c r="AP287">
+        <v>2.08</v>
+      </c>
+      <c r="AQ287">
+        <v>1.58</v>
+      </c>
+      <c r="AR287">
+        <v>1.18</v>
+      </c>
+      <c r="AS287">
+        <v>1.32</v>
+      </c>
+      <c r="AT287">
+        <v>2.5</v>
+      </c>
+      <c r="AU287">
+        <v>9</v>
+      </c>
+      <c r="AV287">
+        <v>4</v>
+      </c>
+      <c r="AW287">
+        <v>2</v>
+      </c>
+      <c r="AX287">
+        <v>5</v>
+      </c>
+      <c r="AY287">
+        <v>18</v>
+      </c>
+      <c r="AZ287">
+        <v>12</v>
+      </c>
+      <c r="BA287">
+        <v>2</v>
+      </c>
+      <c r="BB287">
+        <v>7</v>
+      </c>
+      <c r="BC287">
+        <v>9</v>
+      </c>
+      <c r="BD287">
+        <v>1.58</v>
+      </c>
+      <c r="BE287">
+        <v>6.95</v>
+      </c>
+      <c r="BF287">
+        <v>3.04</v>
+      </c>
+      <c r="BG287">
+        <v>1.23</v>
+      </c>
+      <c r="BH287">
+        <v>3.65</v>
+      </c>
+      <c r="BI287">
+        <v>1.32</v>
+      </c>
+      <c r="BJ287">
+        <v>2.88</v>
+      </c>
+      <c r="BK287">
+        <v>1.6</v>
+      </c>
+      <c r="BL287">
+        <v>2.14</v>
+      </c>
+      <c r="BM287">
+        <v>2.05</v>
+      </c>
+      <c r="BN287">
+        <v>1.7</v>
+      </c>
+      <c r="BO287">
+        <v>2.6</v>
+      </c>
+      <c r="BP287">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -59571,7 +59571,7 @@
         <v>2.59</v>
       </c>
       <c r="AU282">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV282">
         <v>6</v>
@@ -59583,10 +59583,10 @@
         <v>5</v>
       </c>
       <c r="AY282">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ282">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA282">
         <v>4</v>
@@ -59777,7 +59777,7 @@
         <v>2.53</v>
       </c>
       <c r="AU283">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV283">
         <v>4</v>
@@ -59789,7 +59789,7 @@
         <v>9</v>
       </c>
       <c r="AY283">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ283">
         <v>19</v>
@@ -59995,7 +59995,7 @@
         <v>1</v>
       </c>
       <c r="AY284">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ284">
         <v>7</v>
